--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="923"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="923" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="quotas_US" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="quotas_IN" sheetId="5" r:id="rId10"/>
     <sheet name="quotas_ID" sheetId="10" r:id="rId11"/>
     <sheet name="quotas_SA" sheetId="14" r:id="rId12"/>
-    <sheet name="quotas_CH" sheetId="15" r:id="rId13"/>
+    <sheet name="quotas_CN" sheetId="15" r:id="rId13"/>
     <sheet name="quotas_BR" sheetId="16" r:id="rId14"/>
     <sheet name="quotas_MX" sheetId="17" r:id="rId15"/>
     <sheet name="quotas_SK" sheetId="18" r:id="rId16"/>
@@ -33,7 +33,7 @@
     <sheet name="quota_TR" sheetId="21" r:id="rId19"/>
     <sheet name="quota_UA" sheetId="22" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="302">
   <si>
     <t>IDF</t>
   </si>
@@ -604,21 +604,6 @@
   </si>
   <si>
     <t>KwaZulu-Natal, Eastern Cape</t>
-  </si>
-  <si>
-    <t>North China</t>
-  </si>
-  <si>
-    <t>Northeast China</t>
-  </si>
-  <si>
-    <t>East China</t>
-  </si>
-  <si>
-    <t>South Central China</t>
-  </si>
-  <si>
-    <t>West China</t>
   </si>
   <si>
     <t>West China:</t>
@@ -980,6 +965,9 @@
   <si>
     <t>census: https://www.abs.gov.au/AUSSTATS/abs@.nsf/DetailsPage/2074.02016?OpenDocument</t>
   </si>
+  <si>
+    <t>South Central</t>
+  </si>
 </sst>
 </file>
 
@@ -987,7 +975,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -1154,10 +1142,10 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1458,7 +1446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2364,7 +2352,7 @@
     </row>
     <row r="21" spans="1:12" ht="26.5" thickBot="1">
       <c r="A21" s="9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>146</v>
@@ -2913,10 +2901,10 @@
       </c>
       <c r="E24" s="7"/>
       <c r="F24" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G24" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" thickBot="1">
@@ -2940,7 +2928,7 @@
         <v>142</v>
       </c>
       <c r="G25" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="39" thickBot="1">
@@ -2971,8 +2959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -3335,10 +3323,10 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G23" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1">
@@ -3362,10 +3350,10 @@
         <v>173</v>
       </c>
       <c r="G24" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="39" thickBot="1">
@@ -3395,8 +3383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -3591,24 +3579,24 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="39" thickBot="1">
+    <row r="13" spans="1:10" ht="26.5" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>187</v>
+        <v>258</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>188</v>
+        <v>301</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>189</v>
+        <v>48</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>141</v>
@@ -3638,10 +3626,10 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="J14" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1">
@@ -3676,7 +3664,7 @@
         <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="26.5" thickBot="1">
@@ -3743,10 +3731,10 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1">
@@ -3783,13 +3771,13 @@
         <v>2200</v>
       </c>
       <c r="G22" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H22" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I22" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3797,10 +3785,10 @@
         <v>30</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -3808,10 +3796,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="G24" s="30" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -3819,10 +3807,10 @@
     </row>
     <row r="25" spans="1:9">
       <c r="G25" s="30" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -3830,10 +3818,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="G26" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H26" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3841,7 +3829,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="G27" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3849,7 +3837,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="G28" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3857,10 +3845,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="G29" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H29" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3868,10 +3856,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="G30" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H30" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3879,10 +3867,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="G31" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H31" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -4110,7 +4098,7 @@
         <v>47</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>141</v>
@@ -4198,10 +4186,10 @@
         <v>2200</v>
       </c>
       <c r="I17" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J17" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4423,10 +4411,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>108</v>
@@ -4441,10 +4429,10 @@
         <v>141</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="J14" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1">
@@ -4471,10 +4459,10 @@
         <v>1.0000000000000011</v>
       </c>
       <c r="I15" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="J15" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1">
@@ -4509,7 +4497,7 @@
         <v>108</v>
       </c>
       <c r="J16" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="26.5" thickBot="1">
@@ -4544,7 +4532,7 @@
         <v>107</v>
       </c>
       <c r="J17" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4559,15 +4547,15 @@
         <v>47</v>
       </c>
       <c r="J18" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="I19" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J19" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -4780,25 +4768,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>112</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>141</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1">
@@ -4828,7 +4816,7 @@
         <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1">
@@ -4860,10 +4848,10 @@
         <v>2000</v>
       </c>
       <c r="I16" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J16" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="26.5" thickBot="1">
@@ -4898,7 +4886,7 @@
         <v>112</v>
       </c>
       <c r="J17" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4910,18 +4898,18 @@
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
       <c r="I18" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="J18" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="I19" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J19" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -5131,28 +5119,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>141</v>
       </c>
       <c r="I14" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J14" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1">
@@ -5179,7 +5167,7 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="I15" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1">
@@ -5211,10 +5199,10 @@
         <v>2000</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="J16" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="26.5" thickBot="1">
@@ -5246,7 +5234,7 @@
         <v>2201</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5258,18 +5246,18 @@
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
       <c r="I18" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="J18" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="I19" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J19" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1"/>
@@ -5302,10 +5290,10 @@
       </c>
       <c r="E24" s="7"/>
       <c r="F24" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G24" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" thickBot="1">
@@ -5329,7 +5317,7 @@
         <v>173</v>
       </c>
       <c r="G25" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="39" thickBot="1">
@@ -5350,12 +5338,12 @@
       </c>
       <c r="E26" s="20"/>
       <c r="G26" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="G27" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -5571,13 +5559,13 @@
         <v>111</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>141</v>
@@ -5586,7 +5574,7 @@
         <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1">
@@ -5616,7 +5604,7 @@
         <v>111</v>
       </c>
       <c r="J15" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1">
@@ -5648,7 +5636,7 @@
         <v>2000</v>
       </c>
       <c r="I16" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="26.5" thickBot="1">
@@ -5680,7 +5668,7 @@
         <v>2201</v>
       </c>
       <c r="I17" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5692,18 +5680,18 @@
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
       <c r="I18" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="J18" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="I19" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5913,28 +5901,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>141</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1">
@@ -6030,10 +6018,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="I19" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J19" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -6730,13 +6718,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>47</v>
@@ -6748,10 +6736,10 @@
         <v>141</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="J14" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1">
@@ -6778,10 +6766,10 @@
         <v>0.99999999999999933</v>
       </c>
       <c r="I15" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="J15" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1">
@@ -6813,10 +6801,10 @@
         <v>1999</v>
       </c>
       <c r="I16" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="J16" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="26.5" thickBot="1">
@@ -6851,7 +6839,7 @@
         <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6866,18 +6854,18 @@
         <v>48</v>
       </c>
       <c r="J18" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="I19" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J19" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K19" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -8256,10 +8244,10 @@
     </row>
     <row r="19" spans="1:11" ht="15.5">
       <c r="J19" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K19" s="32" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1">
@@ -8270,7 +8258,7 @@
         <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -8318,7 +8306,7 @@
         <v>142</v>
       </c>
       <c r="G22" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="26.5" thickBot="1">
@@ -8342,10 +8330,10 @@
         <v>2200</v>
       </c>
       <c r="F23" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -8675,7 +8663,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="11"/>
       <c r="J17" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" thickBot="1">
@@ -8752,7 +8740,7 @@
         <v>128</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>51</v>
@@ -9065,7 +9053,7 @@
         <v>135</v>
       </c>
       <c r="M13" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="26.5" thickBot="1">
@@ -9096,7 +9084,7 @@
         <v>111</v>
       </c>
       <c r="M14" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1">
@@ -9132,7 +9120,7 @@
         <v>112</v>
       </c>
       <c r="M15" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="26.5" thickBot="1">
@@ -9168,7 +9156,7 @@
         <v>113</v>
       </c>
       <c r="M16" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -9188,10 +9176,10 @@
     </row>
     <row r="18" spans="1:13">
       <c r="L18" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M18" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" thickBot="1"/>
@@ -9683,7 +9671,7 @@
         <v>47</v>
       </c>
       <c r="K17" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -9990,7 +9978,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="J13" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="26.5" thickBot="1">
@@ -9998,25 +9986,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C14" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="J14" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="J14" t="s">
-        <v>233</v>
-      </c>
       <c r="K14" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="26.5" thickBot="1">
@@ -10043,10 +10031,10 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K15" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1">
@@ -10078,10 +10066,10 @@
         <v>1999</v>
       </c>
       <c r="J16" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K16" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="26.5" thickBot="1">
@@ -10113,10 +10101,10 @@
         <v>2200</v>
       </c>
       <c r="J17" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K17" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -10128,7 +10116,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
       <c r="J18" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1"/>
@@ -10559,7 +10547,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="11"/>
       <c r="J17" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" thickBot="1"/>

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="923" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="923" firstSheet="7" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="quotas_US" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="304">
   <si>
     <t>IDF</t>
   </si>
@@ -967,6 +967,12 @@
   </si>
   <si>
     <t>South Central</t>
+  </si>
+  <si>
+    <t>&lt;20k</t>
+  </si>
+  <si>
+    <t>&gt;20k</t>
   </si>
 </sst>
 </file>
@@ -1948,15 +1954,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1">
@@ -2355,117 +2363,75 @@
         <v>220</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>146</v>
+        <v>302</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>151</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="25"/>
     </row>
     <row r="22" spans="1:12" ht="26.5" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="21">
-        <v>0.40933170000000002</v>
-      </c>
-      <c r="C22" s="21">
-        <v>0.22944899999999999</v>
-      </c>
-      <c r="D22" s="21">
-        <v>0.1114927</v>
-      </c>
-      <c r="E22" s="21">
-        <v>0.1101543</v>
-      </c>
-      <c r="F22" s="22">
-        <v>0.1096213</v>
-      </c>
-      <c r="G22">
-        <v>2.9843149999999999E-2</v>
-      </c>
-      <c r="H22" s="17">
-        <f>SUM(B22:G22)</f>
-        <v>0.99989215000000009</v>
-      </c>
+      <c r="B22" s="11">
+        <f>B29+C29</f>
+        <v>0.63878069999999998</v>
+      </c>
+      <c r="C22" s="11">
+        <f>D29+E29+F29+G29</f>
+        <v>0.36111144999999994</v>
+      </c>
+      <c r="D22" s="17">
+        <f>SUM(B22:C22)</f>
+        <v>0.99989214999999998</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="10">
-        <f t="shared" ref="B23:G23" si="4">ROUND(2000*B22,0)</f>
-        <v>819</v>
+        <f t="shared" ref="B23:C23" si="4">ROUND(2000*B22,0)</f>
+        <v>1278</v>
       </c>
       <c r="C23" s="10">
         <f t="shared" si="4"/>
-        <v>459</v>
-      </c>
-      <c r="D23" s="10">
-        <f t="shared" si="4"/>
-        <v>223</v>
-      </c>
-      <c r="E23" s="10">
-        <f t="shared" si="4"/>
-        <v>220</v>
-      </c>
-      <c r="F23" s="10">
-        <f t="shared" si="4"/>
-        <v>219</v>
-      </c>
-      <c r="G23" s="10">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="H23" s="3">
-        <f>SUM(B23:G23)</f>
+        <v>722</v>
+      </c>
+      <c r="D23" s="3">
+        <f>SUM(B23:C23)</f>
         <v>2000</v>
       </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:12" ht="26.5" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" ref="B24:G24" si="5">ROUND(2200*B22,0)</f>
-        <v>901</v>
+        <f t="shared" ref="B24:C24" si="5">ROUND(2200*B22,0)</f>
+        <v>1405</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="5"/>
-        <v>505</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="5"/>
-        <v>245</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="5"/>
-        <v>242</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="5"/>
-        <v>241</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="5"/>
-        <v>66</v>
-      </c>
-      <c r="H24" s="3">
-        <f>SUM(B24:G24)</f>
-        <v>2200</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="D24" s="3">
+        <f>SUM(B24:C24)</f>
+        <v>2199</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="9" t="s">
@@ -2479,43 +2445,186 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="9"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="11"/>
       <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="9"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="11"/>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="9"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+    <row r="28" spans="1:12" ht="26.5" thickBot="1">
+      <c r="A28" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>151</v>
+      </c>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
+    <row r="29" spans="1:12" ht="26.5" thickBot="1">
+      <c r="A29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="21">
+        <v>0.40933170000000002</v>
+      </c>
+      <c r="C29" s="21">
+        <v>0.22944899999999999</v>
+      </c>
+      <c r="D29" s="21">
+        <v>0.1114927</v>
+      </c>
+      <c r="E29" s="21">
+        <v>0.1101543</v>
+      </c>
+      <c r="F29" s="22">
+        <v>0.1096213</v>
+      </c>
+      <c r="G29">
+        <v>2.9843149999999999E-2</v>
+      </c>
+      <c r="H29" s="17">
+        <f>SUM(B29:G29)</f>
+        <v>0.99989215000000009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" thickBot="1">
+      <c r="A30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="10">
+        <f t="shared" ref="B30:G30" si="6">ROUND(2000*B29,0)</f>
+        <v>819</v>
+      </c>
+      <c r="C30" s="10">
+        <f t="shared" si="6"/>
+        <v>459</v>
+      </c>
+      <c r="D30" s="10">
+        <f t="shared" si="6"/>
+        <v>223</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" si="6"/>
+        <v>220</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="6"/>
+        <v>219</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="H30" s="3">
+        <f>SUM(B30:G30)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="26.5" thickBot="1">
+      <c r="A31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" ref="B31:G31" si="7">ROUND(2200*B29,0)</f>
+        <v>901</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="7"/>
+        <v>505</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="7"/>
+        <v>245</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="7"/>
+        <v>242</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="7"/>
+        <v>241</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="H31" s="3">
+        <f>SUM(B31:G31)</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="11"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="9"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="9"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="9"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2959,7 +3068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -4921,8 +5030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -5353,10 +5462,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:I19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
@@ -5686,12 +5795,73 @@
         <v>261</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="I19" t="s">
         <v>236</v>
       </c>
       <c r="J19" t="s">
         <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="26.5" thickBot="1">
+      <c r="A20" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickBot="1">
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="D21" s="6">
+        <f>SUM(B21:C21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" thickBot="1">
+      <c r="A22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" ref="B22:C22" si="2">ROUND(2000*B21,0)</f>
+        <v>334</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="2"/>
+        <v>1666</v>
+      </c>
+      <c r="D22" s="8">
+        <f>SUM(B22:C22)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="26.5" thickBot="1">
+      <c r="A23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="10">
+        <f>ROUND(2200*B21,0)</f>
+        <v>367</v>
+      </c>
+      <c r="C23" s="10">
+        <f t="shared" ref="C23" si="3">ROUND(2200*C21,0)</f>
+        <v>1833</v>
+      </c>
+      <c r="D23" s="10">
+        <f>SUM(B23:C23)</f>
+        <v>2200</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afabre\Documents\www\oecd_climate\questionnaires\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CE7E90-95B0-C94A-88DE-5050B6D8827B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="923" firstSheet="7" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="923" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quotas_US" sheetId="2" r:id="rId1"/>
@@ -33,7 +34,7 @@
     <sheet name="quota_TR" sheetId="21" r:id="rId19"/>
     <sheet name="quota_UA" sheetId="22" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="305">
   <si>
     <t>IDF</t>
   </si>
@@ -974,11 +975,14 @@
   <si>
     <t>&gt;20k</t>
   </si>
+  <si>
+    <t>https://www.canadapost-postescanada.ca/cpc/en/support/articles/addressing-guidelines/postal-codes.page?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -1172,7 +1176,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1449,14 +1453,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1945,29 +1949,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="D22" r:id="rId2" display="https://www.ers.usda.gov/data-products/rural-urban-commuting-area-codes/"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D22" r:id="rId2" display="https://www.ers.usda.gov/data-products/rural-urban-commuting-area-codes/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -1982,7 +1986,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="26.5" thickBot="1">
+    <row r="2" spans="1:11" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2004,7 +2008,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
+    <row r="3" spans="1:11" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2026,7 +2030,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="26.5" thickBot="1">
+    <row r="4" spans="1:11" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -2067,7 +2071,7 @@
       <c r="G6" s="24"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1">
+    <row r="7" spans="1:11" ht="16" thickBot="1">
       <c r="A7" s="9"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -2077,7 +2081,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1">
+    <row r="8" spans="1:11" ht="16" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -2099,7 +2103,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:11" ht="26.5" thickBot="1">
+    <row r="9" spans="1:11" ht="30" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -2124,7 +2128,7 @@
       </c>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1">
+    <row r="10" spans="1:11" ht="16" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -2154,7 +2158,7 @@
       </c>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:11" ht="26.5" thickBot="1">
+    <row r="11" spans="1:11" ht="30" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -2199,7 +2203,7 @@
     <row r="13" spans="1:11">
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:11" ht="39" thickBot="1">
+    <row r="14" spans="1:11" ht="44" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -2223,7 +2227,7 @@
       </c>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:11" ht="26.5" thickBot="1">
+    <row r="15" spans="1:11" ht="30" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -2250,7 +2254,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1">
+    <row r="16" spans="1:11" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -2286,7 +2290,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="26.5" thickBot="1">
+    <row r="17" spans="1:12" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -2358,7 +2362,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="26.5" thickBot="1">
+    <row r="21" spans="1:12" ht="30" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>220</v>
       </c>
@@ -2374,7 +2378,7 @@
       <c r="G21" s="29"/>
       <c r="H21" s="25"/>
     </row>
-    <row r="22" spans="1:12" ht="26.5" thickBot="1">
+    <row r="22" spans="1:12" ht="30" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -2393,7 +2397,7 @@
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1">
+    <row r="23" spans="1:12" ht="16" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -2413,7 +2417,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:12" ht="26.5" thickBot="1">
+    <row r="24" spans="1:12" ht="30" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -2459,7 +2463,7 @@
       <c r="E27" s="11"/>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="1:12" ht="26.5" thickBot="1">
+    <row r="28" spans="1:12" ht="30" thickBot="1">
       <c r="A28" s="9" t="s">
         <v>220</v>
       </c>
@@ -2483,7 +2487,7 @@
       </c>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="1:12" ht="26.5" thickBot="1">
+    <row r="29" spans="1:12" ht="30" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
@@ -2510,7 +2514,7 @@
         <v>0.99989215000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" thickBot="1">
+    <row r="30" spans="1:12" ht="16" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
@@ -2543,7 +2547,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="26.5" thickBot="1">
+    <row r="31" spans="1:12" ht="30" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
@@ -2632,16 +2636,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -2655,7 +2659,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="26.5" thickBot="1">
+    <row r="2" spans="1:11" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2676,7 +2680,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
+    <row r="3" spans="1:11" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2697,7 +2701,7 @@
         <v>0.99992877771181621</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.5" thickBot="1">
+    <row r="4" spans="1:11" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -2716,8 +2720,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15" thickBot="1">
+    <row r="6" spans="1:11" ht="16" thickBot="1"/>
+    <row r="7" spans="1:11" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -2738,7 +2742,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="26.5" thickBot="1">
+    <row r="8" spans="1:11" ht="30" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -2762,7 +2766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
+    <row r="9" spans="1:11" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -2791,7 +2795,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.5" thickBot="1">
+    <row r="10" spans="1:11" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -2831,7 +2835,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="26.5" thickBot="1">
+    <row r="14" spans="1:11" ht="30" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -2860,7 +2864,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="26.5" thickBot="1">
+    <row r="15" spans="1:11" ht="30" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -2890,7 +2894,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1">
+    <row r="16" spans="1:11" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -2925,7 +2929,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="26.5" thickBot="1">
+    <row r="17" spans="1:11" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -2980,8 +2984,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" thickBot="1"/>
-    <row r="23" spans="1:11" ht="26.5" thickBot="1">
+    <row r="22" spans="1:11" ht="16" thickBot="1"/>
+    <row r="23" spans="1:11" ht="30" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -2994,7 +2998,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="26.5" thickBot="1">
+    <row r="24" spans="1:11" ht="30" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -3016,7 +3020,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1">
+    <row r="25" spans="1:11" ht="16" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -3040,7 +3044,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="39" thickBot="1">
+    <row r="26" spans="1:11" ht="44" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>89</v>
       </c>
@@ -3065,16 +3069,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -3088,7 +3092,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1">
+    <row r="2" spans="1:11" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3109,7 +3113,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
+    <row r="3" spans="1:11" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -3130,7 +3134,7 @@
         <v>0.97760081385085629</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.5" thickBot="1">
+    <row r="4" spans="1:11" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -3149,8 +3153,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15" thickBot="1">
+    <row r="6" spans="1:11" ht="16" thickBot="1"/>
+    <row r="7" spans="1:11" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -3171,7 +3175,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1">
+    <row r="8" spans="1:11" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3195,7 +3199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
+    <row r="9" spans="1:11" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3224,7 +3228,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.5" thickBot="1">
+    <row r="10" spans="1:11" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3264,7 +3268,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1">
+    <row r="14" spans="1:11" ht="16" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -3287,7 +3291,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1">
+    <row r="15" spans="1:11" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3317,7 +3321,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1">
+    <row r="16" spans="1:11" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -3352,7 +3356,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="26.5" thickBot="1">
+    <row r="17" spans="1:11" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3402,8 +3406,8 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1"/>
-    <row r="22" spans="1:11" ht="26.5" thickBot="1">
+    <row r="21" spans="1:11" ht="16" thickBot="1"/>
+    <row r="22" spans="1:11" ht="30" thickBot="1">
       <c r="A22" s="9" t="s">
         <v>85</v>
       </c>
@@ -3416,7 +3420,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1">
+    <row r="23" spans="1:11" ht="16" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -3438,7 +3442,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1">
+    <row r="24" spans="1:11" ht="16" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
@@ -3465,7 +3469,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="39" thickBot="1">
+    <row r="25" spans="1:11" ht="44" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>89</v>
       </c>
@@ -3489,16 +3493,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -3512,7 +3516,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
+    <row r="2" spans="1:10" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3533,7 +3537,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -3554,7 +3558,7 @@
         <v>1.0341140064832992</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="26.5" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -3573,8 +3577,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -3595,7 +3599,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3619,7 +3623,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3648,7 +3652,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="26.5" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3688,7 +3692,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="26.5" thickBot="1">
+    <row r="13" spans="1:10" ht="30" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -3711,7 +3715,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1">
+    <row r="14" spans="1:10" ht="16" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -3741,7 +3745,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -3776,7 +3780,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="26.5" thickBot="1">
+    <row r="16" spans="1:10" ht="30" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -3814,7 +3818,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1">
+    <row r="19" spans="1:9" ht="16" thickBot="1">
       <c r="A19" s="13" t="s">
         <v>76</v>
       </c>
@@ -3825,7 +3829,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1">
+    <row r="20" spans="1:9" ht="16" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -3846,7 +3850,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1">
+    <row r="21" spans="1:9" ht="16" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -3863,7 +3867,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="26.5" thickBot="1">
+    <row r="22" spans="1:9" ht="30" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -3991,16 +3995,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row r="1" spans="1:7" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -4014,7 +4018,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1">
+    <row r="2" spans="1:7" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4035,7 +4039,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1">
+    <row r="3" spans="1:7" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -4056,7 +4060,7 @@
         <v>0.95217958067188335</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="26.5" thickBot="1">
+    <row r="4" spans="1:7" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -4075,8 +4079,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1"/>
-    <row r="7" spans="1:7" ht="15" thickBot="1">
+    <row r="6" spans="1:7" ht="16" thickBot="1"/>
+    <row r="7" spans="1:7" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -4097,7 +4101,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1">
+    <row r="8" spans="1:7" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -4121,7 +4125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1">
+    <row r="9" spans="1:7" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -4150,7 +4154,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="26.5" thickBot="1">
+    <row r="10" spans="1:7" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4190,7 +4194,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1">
+    <row r="14" spans="1:7" ht="16" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -4213,7 +4217,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1">
+    <row r="15" spans="1:7" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -4237,7 +4241,7 @@
         <v>0.99999999999999933</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1">
+    <row r="16" spans="1:7" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -4266,7 +4270,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="26.5" thickBot="1">
+    <row r="17" spans="1:10" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4316,16 +4320,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -4339,7 +4343,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
+    <row r="2" spans="1:10" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4360,7 +4364,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -4381,7 +4385,7 @@
         <v>0.92970833595125124</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="26.5" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -4400,8 +4404,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -4422,7 +4426,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -4446,7 +4450,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -4475,7 +4479,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="26.5" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4515,7 +4519,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="26.5" thickBot="1">
+    <row r="14" spans="1:10" ht="30" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -4544,7 +4548,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -4574,7 +4578,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -4609,7 +4613,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="26.5" thickBot="1">
+    <row r="17" spans="1:10" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4673,16 +4677,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -4696,7 +4700,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
+    <row r="2" spans="1:10" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4717,7 +4721,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -4738,7 +4742,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="26.5" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -4757,8 +4761,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -4779,7 +4783,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -4803,7 +4807,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -4832,7 +4836,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="26.5" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4872,7 +4876,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="26.5" thickBot="1">
+    <row r="14" spans="1:10" ht="30" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -4898,7 +4902,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -4928,7 +4932,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -4963,7 +4967,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="26.5" thickBot="1">
+    <row r="17" spans="1:10" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5027,16 +5031,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -5050,7 +5054,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
+    <row r="2" spans="1:10" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -5070,7 +5074,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -5089,7 +5093,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="26.5" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -5108,8 +5112,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -5130,7 +5134,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -5154,7 +5158,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -5183,7 +5187,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="26.5" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5223,7 +5227,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="26.5" thickBot="1">
+    <row r="14" spans="1:10" ht="30" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -5252,7 +5256,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -5279,7 +5283,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -5314,7 +5318,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="26.5" thickBot="1">
+    <row r="17" spans="1:10" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5369,8 +5373,8 @@
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1"/>
-    <row r="23" spans="1:10" ht="26.5" thickBot="1">
+    <row r="22" spans="1:10" ht="16" thickBot="1"/>
+    <row r="23" spans="1:10" ht="30" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -5383,7 +5387,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1">
+    <row r="24" spans="1:10" ht="16" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -5405,7 +5409,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1">
+    <row r="25" spans="1:10" ht="16" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -5429,7 +5433,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="39" thickBot="1">
+    <row r="26" spans="1:10" ht="44" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>89</v>
       </c>
@@ -5461,16 +5465,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -5484,7 +5488,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
+    <row r="2" spans="1:10" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -5504,7 +5508,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -5523,7 +5527,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="26.5" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -5542,8 +5546,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -5564,7 +5568,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -5588,7 +5592,7 @@
         <v>0.99999999999999944</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -5617,7 +5621,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="26.5" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5657,7 +5661,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1">
+    <row r="14" spans="1:10" ht="16" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -5686,7 +5690,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -5716,7 +5720,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -5748,7 +5752,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="26.5" thickBot="1">
+    <row r="17" spans="1:10" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5795,7 +5799,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="16" thickBot="1">
       <c r="I19" t="s">
         <v>236</v>
       </c>
@@ -5803,7 +5807,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="26.5" thickBot="1">
+    <row r="20" spans="1:10" ht="30" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>85</v>
       </c>
@@ -5815,7 +5819,7 @@
       </c>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="16" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -5830,7 +5834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="16" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -5847,7 +5851,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="26.5" thickBot="1">
+    <row r="23" spans="1:10" ht="30" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -5862,6 +5866,12 @@
       <c r="D23" s="10">
         <f>SUM(B23:C23)</f>
         <v>2200</v>
+      </c>
+      <c r="I23" t="s">
+        <v>236</v>
+      </c>
+      <c r="J23" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -5870,16 +5880,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -5893,7 +5903,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
+    <row r="2" spans="1:10" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -5913,7 +5923,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -5932,7 +5942,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="26.5" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -5951,8 +5961,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -5973,7 +5983,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -5997,7 +6007,7 @@
         <v>0.99999999999999933</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -6026,7 +6036,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="26.5" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -6066,7 +6076,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="76.5" thickBot="1">
+    <row r="14" spans="1:10" ht="86" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -6095,7 +6105,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -6119,7 +6129,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -6148,7 +6158,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="26.5" thickBot="1">
+    <row r="17" spans="1:10" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -6200,22 +6210,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row r="1" spans="1:7" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -6230,7 +6240,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1">
+    <row r="2" spans="1:7" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -6248,7 +6258,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1">
+    <row r="3" spans="1:7" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -6268,7 +6278,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1">
+    <row r="4" spans="1:7" ht="16" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -6299,7 +6309,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1">
+    <row r="6" spans="1:7" ht="16" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -6308,7 +6318,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1">
+    <row r="7" spans="1:7" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -6329,7 +6339,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1">
+    <row r="8" spans="1:7" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -6353,7 +6363,7 @@
         <v>1.0001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1">
+    <row r="9" spans="1:7" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -6382,7 +6392,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1">
+    <row r="10" spans="1:7" ht="16" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -6411,8 +6421,8 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1"/>
-    <row r="12" spans="1:7" ht="15" thickBot="1">
+    <row r="11" spans="1:7" ht="16" thickBot="1"/>
+    <row r="12" spans="1:7" ht="16" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -6430,7 +6440,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1">
+    <row r="13" spans="1:7" ht="16" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -6450,7 +6460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1">
+    <row r="14" spans="1:7" ht="16" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -6475,7 +6485,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1">
+    <row r="15" spans="1:7" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -6505,7 +6515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1">
+    <row r="18" spans="1:7" ht="16" thickBot="1">
       <c r="A18" s="9" t="s">
         <v>13</v>
       </c>
@@ -6525,7 +6535,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1">
+    <row r="19" spans="1:7" ht="16" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
@@ -6549,7 +6559,7 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1">
+    <row r="20" spans="1:7" ht="16" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -6578,7 +6588,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1">
+    <row r="21" spans="1:7" ht="16" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
@@ -6616,7 +6626,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1">
+    <row r="24" spans="1:7" ht="16" thickBot="1">
       <c r="A24" s="13" t="s">
         <v>76</v>
       </c>
@@ -6627,7 +6637,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1">
+    <row r="25" spans="1:7" ht="16" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
@@ -6642,7 +6652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1">
+    <row r="26" spans="1:7" ht="16" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -6659,7 +6669,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1">
+    <row r="27" spans="1:7" ht="16" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
@@ -6687,16 +6697,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -6710,7 +6720,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
+    <row r="2" spans="1:10" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -6730,7 +6740,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -6749,7 +6759,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="26.5" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -6768,8 +6778,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -6790,7 +6800,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -6814,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -6843,7 +6853,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="26.5" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -6883,7 +6893,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="26.5" thickBot="1">
+    <row r="14" spans="1:10" ht="16" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -6912,7 +6922,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -6942,7 +6952,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -6977,7 +6987,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="26.5" thickBot="1">
+    <row r="17" spans="1:11" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -7044,22 +7054,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
+    <row r="1" spans="1:12" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
@@ -7085,7 +7095,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1">
+    <row r="2" spans="1:12" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -7118,7 +7128,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1">
+    <row r="3" spans="1:12" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -7152,7 +7162,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1">
+    <row r="4" spans="1:12" ht="16" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -7216,14 +7226,14 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1">
+    <row r="7" spans="1:12" ht="16" thickBot="1">
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1">
+    <row r="8" spans="1:12" ht="16" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -7243,7 +7253,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1">
+    <row r="9" spans="1:12" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -7266,7 +7276,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1">
+    <row r="10" spans="1:12" ht="16" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -7291,7 +7301,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1">
+    <row r="11" spans="1:12" ht="16" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -7332,7 +7342,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1">
+    <row r="13" spans="1:12" ht="16" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -7346,7 +7356,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1">
+    <row r="14" spans="1:12" ht="16" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
@@ -7372,7 +7382,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1">
+    <row r="15" spans="1:12" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -7401,7 +7411,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1">
+    <row r="16" spans="1:12" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -7435,7 +7445,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1">
+    <row r="17" spans="1:12" ht="16" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -7485,7 +7495,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1">
+    <row r="19" spans="1:12" ht="16" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -7499,7 +7509,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="26.5" thickBot="1">
+    <row r="20" spans="1:12" ht="30" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
@@ -7523,7 +7533,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1">
+    <row r="21" spans="1:12" ht="16" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -7549,7 +7559,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1">
+    <row r="22" spans="1:12" ht="16" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -7580,7 +7590,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1">
+    <row r="23" spans="1:12" ht="16" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -7611,7 +7621,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1">
+    <row r="24" spans="1:12" ht="16" thickBot="1">
       <c r="A24" s="9" t="s">
         <v>30</v>
       </c>
@@ -7621,7 +7631,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="15" thickBot="1">
+    <row r="25" spans="1:12" ht="16" thickBot="1">
       <c r="A25" s="5"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -7646,7 +7656,7 @@
       <c r="F26" s="12"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:12" ht="15" thickBot="1">
+    <row r="27" spans="1:12" ht="16" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
@@ -7665,7 +7675,7 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1">
+    <row r="28" spans="1:12" ht="16" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
@@ -7687,7 +7697,7 @@
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1">
+    <row r="29" spans="1:12" ht="16" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>88</v>
       </c>
@@ -7706,7 +7716,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:12" ht="15" thickBot="1">
+    <row r="30" spans="1:12" ht="16" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>87</v>
       </c>
@@ -7728,7 +7738,7 @@
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:12" ht="26.5" thickBot="1">
+    <row r="31" spans="1:12" ht="30" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>89</v>
       </c>
@@ -7761,12 +7771,12 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1">
+    <row r="36" spans="1:10" ht="16" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="26.5" thickBot="1">
+    <row r="37" spans="1:10" ht="30" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>1</v>
       </c>
@@ -7796,7 +7806,7 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1">
+    <row r="38" spans="1:10" ht="16" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
@@ -7829,7 +7839,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1">
+    <row r="39" spans="1:10" ht="16" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
@@ -7870,7 +7880,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" thickBot="1">
+    <row r="40" spans="1:10" ht="16" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>12</v>
       </c>
@@ -7937,12 +7947,12 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" ht="15" thickBot="1">
+    <row r="43" spans="1:10" ht="16" thickBot="1">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1">
+    <row r="44" spans="1:10" ht="16" thickBot="1">
       <c r="A44" s="9" t="s">
         <v>64</v>
       </c>
@@ -7963,7 +7973,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1">
+    <row r="45" spans="1:10" ht="16" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>10</v>
       </c>
@@ -7987,7 +7997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" thickBot="1">
+    <row r="46" spans="1:10" ht="16" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>11</v>
       </c>
@@ -8016,7 +8026,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" thickBot="1">
+    <row r="47" spans="1:10" ht="16" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>12</v>
       </c>
@@ -8072,16 +8082,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -8095,7 +8105,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="26.5" thickBot="1">
+    <row r="2" spans="1:11" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -8116,7 +8126,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
+    <row r="3" spans="1:11" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -8137,7 +8147,7 @@
         <v>0.95277529961698948</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.5" thickBot="1">
+    <row r="4" spans="1:11" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -8156,8 +8166,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15" thickBot="1">
+    <row r="6" spans="1:11" ht="16" thickBot="1"/>
+    <row r="7" spans="1:11" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -8178,7 +8188,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="26.5" thickBot="1">
+    <row r="8" spans="1:11" ht="30" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -8202,7 +8212,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
+    <row r="9" spans="1:11" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -8231,7 +8241,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.5" thickBot="1">
+    <row r="10" spans="1:11" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -8271,7 +8281,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="26.5" thickBot="1">
+    <row r="13" spans="1:11" ht="30" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -8297,7 +8307,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="26.5" thickBot="1">
+    <row r="14" spans="1:11" ht="30" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -8327,7 +8337,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1">
+    <row r="15" spans="1:11" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -8362,7 +8372,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="26.5" thickBot="1">
+    <row r="16" spans="1:11" ht="30" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -8412,7 +8422,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.5">
+    <row r="19" spans="1:11" ht="16">
       <c r="J19" t="s">
         <v>236</v>
       </c>
@@ -8420,7 +8430,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1">
+    <row r="20" spans="1:11" ht="16" thickBot="1">
       <c r="A20" s="13" t="s">
         <v>76</v>
       </c>
@@ -8434,7 +8444,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="26.5" thickBot="1">
+    <row r="21" spans="1:11" ht="30" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -8452,7 +8462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" thickBot="1">
+    <row r="22" spans="1:11" ht="16" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -8479,7 +8489,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="26.5" thickBot="1">
+    <row r="23" spans="1:11" ht="30" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -8513,23 +8523,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G23" r:id="rId1"/>
+    <hyperlink ref="G23" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -8543,7 +8553,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="26.5" thickBot="1">
+    <row r="2" spans="1:10" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -8564,7 +8574,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -8585,7 +8595,7 @@
         <v>0.90805800128462044</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="26.5" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -8604,8 +8614,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -8626,7 +8636,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="26.5" thickBot="1">
+    <row r="8" spans="1:10" ht="30" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -8650,7 +8660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -8679,7 +8689,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="26.5" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -8719,7 +8729,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="26.5" thickBot="1">
+    <row r="13" spans="1:10" ht="30" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -8739,7 +8749,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="26.5" thickBot="1">
+    <row r="14" spans="1:10" ht="30" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -8763,7 +8773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -8792,7 +8802,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="26.5" thickBot="1">
+    <row r="16" spans="1:10" ht="30" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -8836,7 +8846,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="16" thickBot="1">
       <c r="A19" s="13" t="s">
         <v>76</v>
       </c>
@@ -8847,7 +8857,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="26.5" thickBot="1">
+    <row r="20" spans="1:10" ht="30" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -8862,7 +8872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="16" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -8879,7 +8889,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="26.5" thickBot="1">
+    <row r="22" spans="1:10" ht="30" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -8901,8 +8911,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1"/>
-    <row r="25" spans="1:10" ht="39" thickBot="1">
+    <row r="24" spans="1:10" ht="16" thickBot="1"/>
+    <row r="25" spans="1:10" ht="44" thickBot="1">
       <c r="A25" s="9" t="s">
         <v>85</v>
       </c>
@@ -8917,7 +8927,7 @@
       </c>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="1:10" ht="26.5" thickBot="1">
+    <row r="26" spans="1:10" ht="30" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
@@ -8935,7 +8945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1">
+    <row r="27" spans="1:10" ht="16" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>11</v>
       </c>
@@ -8956,7 +8966,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="39" thickBot="1">
+    <row r="28" spans="1:10" ht="44" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>89</v>
       </c>
@@ -8998,16 +9008,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1">
+    <row r="1" spans="1:13" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -9021,7 +9031,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="26.5" thickBot="1">
+    <row r="2" spans="1:13" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -9042,7 +9052,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1">
+    <row r="3" spans="1:13" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -9063,7 +9073,7 @@
         <v>0.9267197256851698</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="26.5" thickBot="1">
+    <row r="4" spans="1:13" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -9082,8 +9092,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1"/>
-    <row r="7" spans="1:13" ht="15" thickBot="1">
+    <row r="6" spans="1:13" ht="16" thickBot="1"/>
+    <row r="7" spans="1:13" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -9104,7 +9114,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:13" ht="26.5" thickBot="1">
+    <row r="8" spans="1:13" ht="30" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -9128,7 +9138,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1">
+    <row r="9" spans="1:13" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -9157,7 +9167,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="26.5" thickBot="1">
+    <row r="10" spans="1:13" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -9197,7 +9207,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="26.5" thickBot="1">
+    <row r="13" spans="1:13" ht="30" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -9226,7 +9236,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="26.5" thickBot="1">
+    <row r="14" spans="1:13" ht="30" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -9257,7 +9267,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1">
+    <row r="15" spans="1:13" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -9293,7 +9303,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="26.5" thickBot="1">
+    <row r="16" spans="1:13" ht="30" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -9352,8 +9362,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1"/>
-    <row r="20" spans="1:13" ht="26.5" thickBot="1">
+    <row r="19" spans="1:13" ht="16" thickBot="1"/>
+    <row r="20" spans="1:13" ht="30" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>85</v>
       </c>
@@ -9365,7 +9375,7 @@
       </c>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="26.5" thickBot="1">
+    <row r="21" spans="1:13" ht="30" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -9380,7 +9390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1">
+    <row r="22" spans="1:13" ht="16" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -9397,7 +9407,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="39" thickBot="1">
+    <row r="23" spans="1:13" ht="44" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>89</v>
       </c>
@@ -9422,12 +9432,12 @@
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="28" spans="1:13" ht="15" thickBot="1">
+    <row r="28" spans="1:13" ht="16" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="26.5" thickBot="1">
+    <row r="29" spans="1:13" ht="30" thickBot="1">
       <c r="A29" s="9" t="s">
         <v>85</v>
       </c>
@@ -9440,7 +9450,7 @@
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="1:13" ht="26.5" thickBot="1">
+    <row r="30" spans="1:13" ht="30" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>10</v>
       </c>
@@ -9456,7 +9466,7 @@
       </c>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1">
+    <row r="31" spans="1:13" ht="16" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>11</v>
       </c>
@@ -9474,7 +9484,7 @@
       </c>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="1:13" ht="39" thickBot="1">
+    <row r="32" spans="1:13" ht="44" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>89</v>
       </c>
@@ -9507,19 +9517,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -9533,7 +9543,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="26.5" thickBot="1">
+    <row r="2" spans="1:11" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -9554,7 +9564,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
+    <row r="3" spans="1:11" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -9575,7 +9585,7 @@
         <v>0.97448244785232785</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.5" thickBot="1">
+    <row r="4" spans="1:11" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -9594,8 +9604,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15" thickBot="1">
+    <row r="6" spans="1:11" ht="16" thickBot="1"/>
+    <row r="7" spans="1:11" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -9616,7 +9626,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="26.5" thickBot="1">
+    <row r="8" spans="1:11" ht="30" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -9640,7 +9650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
+    <row r="9" spans="1:11" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -9669,7 +9679,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.5" thickBot="1">
+    <row r="10" spans="1:11" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -9718,7 +9728,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1">
+    <row r="14" spans="1:11" ht="16" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -9741,7 +9751,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="26.5" thickBot="1">
+    <row r="15" spans="1:11" ht="30" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -9772,7 +9782,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1">
+    <row r="16" spans="1:11" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -9808,7 +9818,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="26.5" thickBot="1">
+    <row r="17" spans="1:11" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -9875,7 +9885,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1">
+    <row r="21" spans="1:11" ht="16" thickBot="1">
       <c r="A21" s="13" t="s">
         <v>76</v>
       </c>
@@ -9886,7 +9896,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="26.5" thickBot="1">
+    <row r="22" spans="1:11" ht="30" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -9901,7 +9911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1">
+    <row r="23" spans="1:11" ht="16" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -9918,7 +9928,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="26.5" thickBot="1">
+    <row r="24" spans="1:11" ht="30" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -9947,16 +9957,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -9970,7 +9980,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="26.5" thickBot="1">
+    <row r="2" spans="1:11" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -9991,7 +10001,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
+    <row r="3" spans="1:11" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -10012,7 +10022,7 @@
         <v>0.98351979013457747</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.5" thickBot="1">
+    <row r="4" spans="1:11" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -10031,8 +10041,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15" thickBot="1">
+    <row r="6" spans="1:11" ht="16" thickBot="1"/>
+    <row r="7" spans="1:11" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -10053,7 +10063,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="26.5" thickBot="1">
+    <row r="8" spans="1:11" ht="30" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -10077,7 +10087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
+    <row r="9" spans="1:11" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -10106,7 +10116,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.5" thickBot="1">
+    <row r="10" spans="1:11" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -10151,7 +10161,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="26.5" thickBot="1">
+    <row r="14" spans="1:11" ht="30" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -10177,7 +10187,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="26.5" thickBot="1">
+    <row r="15" spans="1:11" ht="30" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -10207,7 +10217,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1">
+    <row r="16" spans="1:11" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -10242,7 +10252,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="26.5" thickBot="1">
+    <row r="17" spans="1:11" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -10289,8 +10299,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1"/>
-    <row r="21" spans="1:11" ht="26.5" thickBot="1">
+    <row r="20" spans="1:11" ht="16" thickBot="1"/>
+    <row r="21" spans="1:11" ht="30" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -10305,7 +10315,7 @@
       </c>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:11" ht="26.5" thickBot="1">
+    <row r="22" spans="1:11" ht="30" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -10323,7 +10333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1">
+    <row r="23" spans="1:11" ht="16" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -10347,7 +10357,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="39" thickBot="1">
+    <row r="24" spans="1:11" ht="44" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>89</v>
       </c>
@@ -10386,16 +10396,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -10409,7 +10419,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="26.5" thickBot="1">
+    <row r="2" spans="1:10" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -10430,7 +10440,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -10451,7 +10461,7 @@
         <v>0.92622883301508352</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="26.5" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -10470,8 +10480,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -10492,7 +10502,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="26.5" thickBot="1">
+    <row r="8" spans="1:10" ht="30" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -10516,7 +10526,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -10545,7 +10555,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="26.5" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -10585,7 +10595,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1">
+    <row r="13" spans="1:10" ht="16" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -10608,7 +10618,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="26.5" thickBot="1">
+    <row r="14" spans="1:10" ht="30" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -10638,7 +10648,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -10673,7 +10683,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="26.5" thickBot="1">
+    <row r="16" spans="1:10" ht="30" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -10720,8 +10730,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1"/>
-    <row r="20" spans="1:10" ht="26.5" thickBot="1">
+    <row r="19" spans="1:10" ht="16" thickBot="1"/>
+    <row r="20" spans="1:10" ht="30" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>85</v>
       </c>
@@ -10734,7 +10744,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:10" ht="26.5" thickBot="1">
+    <row r="21" spans="1:10" ht="30" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -10750,7 +10760,7 @@
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="16" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -10768,7 +10778,7 @@
       </c>
       <c r="E22" s="20"/>
     </row>
-    <row r="23" spans="1:10" ht="39" thickBot="1">
+    <row r="23" spans="1:10" ht="44" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>89</v>
       </c>

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CE7E90-95B0-C94A-88DE-5050B6D8827B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554D6FD7-E7E9-5541-9BB9-A96CD0FBA67A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="923" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="-15620" windowWidth="25600" windowHeight="14480" tabRatio="923" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quotas_US" sheetId="2" r:id="rId1"/>
@@ -412,13 +412,7 @@
     <t>Central Zonal Council</t>
   </si>
   <si>
-    <t>Eastern Zonal Council</t>
-  </si>
-  <si>
     <t>Western Zonal Council</t>
-  </si>
-  <si>
-    <t>Rest (North Eastern)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Zonal_Council</t>
@@ -977,6 +971,12 @@
   </si>
   <si>
     <t>https://www.canadapost-postescanada.ca/cpc/en/support/articles/addressing-guidelines/postal-codes.page?</t>
+  </si>
+  <si>
+    <t>Southern Zonal Council also includes: Andaman and Nicobar Islands, Lakshadweep</t>
+  </si>
+  <si>
+    <t>Eastern Zonal Council + North Eastern</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1112,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1172,6 +1172,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1960,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2203,7 +2204,7 @@
     <row r="13" spans="1:11">
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:11" ht="44" thickBot="1">
+    <row r="14" spans="1:11" ht="72" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -2217,15 +2218,16 @@
         <v>119</v>
       </c>
       <c r="E14" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>122</v>
-      </c>
+      <c r="G14" s="29"/>
       <c r="H14" s="25"/>
+      <c r="K14" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="30" thickBot="1">
       <c r="A15" s="5" t="s">
@@ -2241,16 +2243,13 @@
         <v>0.26537793566411777</v>
       </c>
       <c r="E15" s="21">
-        <v>0.22558586499486741</v>
+        <v>0.26349328733071997</v>
       </c>
       <c r="F15" s="22">
         <v>0.13797875654055569</v>
       </c>
-      <c r="G15">
-        <v>3.7907422335852557E-2</v>
-      </c>
-      <c r="H15" s="17">
-        <f>SUM(B15:G15)</f>
+      <c r="G15" s="17">
+        <f>SUM(B15:F15)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -2272,22 +2271,18 @@
       </c>
       <c r="E16" s="10">
         <f t="shared" si="2"/>
-        <v>451</v>
+        <v>527</v>
       </c>
       <c r="F16" s="10">
         <f t="shared" si="2"/>
         <v>276</v>
       </c>
-      <c r="G16" s="10">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="H16" s="3">
-        <f>SUM(B16:G16)</f>
+      <c r="G16" s="3">
+        <f>SUM(B16:F16)</f>
         <v>2000</v>
       </c>
       <c r="K16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" thickBot="1">
@@ -2308,22 +2303,18 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" si="3"/>
-        <v>496</v>
+        <v>580</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="3"/>
         <v>304</v>
       </c>
-      <c r="G17" s="2">
-        <f t="shared" si="3"/>
-        <v>83</v>
-      </c>
-      <c r="H17" s="3">
-        <f>SUM(B17:G17)</f>
-        <v>2200</v>
+      <c r="G17" s="3">
+        <f>SUM(B17:F17)</f>
+        <v>2201</v>
       </c>
       <c r="K17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2334,6 +2325,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
+      <c r="F18" s="33"/>
       <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:12">
@@ -2356,21 +2348,21 @@
       <c r="G20" s="28"/>
       <c r="H20" s="25"/>
       <c r="K20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="30" thickBot="1">
       <c r="A21" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -2465,25 +2457,25 @@
     </row>
     <row r="28" spans="1:12" ht="30" thickBot="1">
       <c r="A28" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B28" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="E28" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="F28" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="G28" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>151</v>
       </c>
       <c r="H28" s="25"/>
     </row>
@@ -2840,28 +2832,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="E14" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="F14" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="G14" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
         <v>163</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="K14" t="s">
         <v>164</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="J14" t="s">
-        <v>165</v>
-      </c>
-      <c r="K14" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" thickBot="1">
@@ -2888,10 +2880,10 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16" thickBot="1">
@@ -2923,10 +2915,10 @@
         <v>2001</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" thickBot="1">
@@ -2958,10 +2950,10 @@
         <v>2200</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2973,15 +2965,15 @@
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="K19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16" thickBot="1"/>
@@ -3014,10 +3006,10 @@
       </c>
       <c r="E24" s="7"/>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16" thickBot="1">
@@ -3038,10 +3030,10 @@
       </c>
       <c r="E25" s="20"/>
       <c r="F25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="44" thickBot="1">
@@ -3273,13 +3265,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>108</v>
@@ -3288,7 +3280,7 @@
         <v>114</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16" thickBot="1">
@@ -3315,10 +3307,10 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16" thickBot="1">
@@ -3350,10 +3342,10 @@
         <v>2000</v>
       </c>
       <c r="J16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" thickBot="1">
@@ -3385,10 +3377,10 @@
         <v>2200</v>
       </c>
       <c r="J17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -3400,10 +3392,10 @@
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
       <c r="J18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16" thickBot="1"/>
@@ -3436,10 +3428,10 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16" thickBot="1">
@@ -3460,13 +3452,13 @@
       </c>
       <c r="E24" s="20"/>
       <c r="F24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="44" thickBot="1">
@@ -3697,22 +3689,22 @@
         <v>13</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>48</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16" thickBot="1">
@@ -3739,10 +3731,10 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1">
@@ -3774,10 +3766,10 @@
         <v>2000</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" thickBot="1">
@@ -3844,10 +3836,10 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16" thickBot="1">
@@ -3884,13 +3876,13 @@
         <v>2200</v>
       </c>
       <c r="G22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3898,10 +3890,10 @@
         <v>30</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -3909,10 +3901,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="G24" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H24" s="30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -3920,10 +3912,10 @@
     </row>
     <row r="25" spans="1:9">
       <c r="G25" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -3931,10 +3923,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="G26" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H26" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3942,7 +3934,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="G27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3950,7 +3942,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="G28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3958,10 +3950,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="G29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H29" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3969,10 +3961,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="G30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3980,10 +3972,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="G31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3998,7 +3990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -4199,7 +4191,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>108</v>
@@ -4211,10 +4203,10 @@
         <v>47</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" thickBot="1">
@@ -4299,10 +4291,10 @@
         <v>2200</v>
       </c>
       <c r="I17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4524,10 +4516,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>108</v>
@@ -4539,13 +4531,13 @@
         <v>47</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1">
@@ -4572,10 +4564,10 @@
         <v>1.0000000000000011</v>
       </c>
       <c r="I15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16" thickBot="1">
@@ -4610,7 +4602,7 @@
         <v>108</v>
       </c>
       <c r="J16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" thickBot="1">
@@ -4645,7 +4637,7 @@
         <v>107</v>
       </c>
       <c r="J17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4660,15 +4652,15 @@
         <v>47</v>
       </c>
       <c r="J18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="I19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4881,25 +4873,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>112</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1">
@@ -4926,10 +4918,10 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16" thickBot="1">
@@ -4961,10 +4953,10 @@
         <v>2000</v>
       </c>
       <c r="I16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J16" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" thickBot="1">
@@ -4999,7 +4991,7 @@
         <v>112</v>
       </c>
       <c r="J17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5011,18 +5003,18 @@
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
       <c r="I18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="I19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -5232,28 +5224,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="E14" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="F14" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="G14" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" t="s">
         <v>253</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I14" t="s">
-        <v>255</v>
-      </c>
       <c r="J14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1">
@@ -5280,7 +5272,7 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="I15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16" thickBot="1">
@@ -5312,10 +5304,10 @@
         <v>2000</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J16" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" thickBot="1">
@@ -5347,7 +5339,7 @@
         <v>2201</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5359,18 +5351,18 @@
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
       <c r="I18" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="I19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16" thickBot="1"/>
@@ -5403,10 +5395,10 @@
       </c>
       <c r="E24" s="7"/>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16" thickBot="1">
@@ -5427,10 +5419,10 @@
       </c>
       <c r="E25" s="20"/>
       <c r="F25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="44" thickBot="1">
@@ -5451,12 +5443,12 @@
       </c>
       <c r="E26" s="20"/>
       <c r="G26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="G27" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -5672,22 +5664,22 @@
         <v>111</v>
       </c>
       <c r="D14" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>258</v>
-      </c>
       <c r="G14" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I14" t="s">
         <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1">
@@ -5717,7 +5709,7 @@
         <v>111</v>
       </c>
       <c r="J15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16" thickBot="1">
@@ -5749,7 +5741,7 @@
         <v>2000</v>
       </c>
       <c r="I16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" thickBot="1">
@@ -5781,7 +5773,7 @@
         <v>2201</v>
       </c>
       <c r="I17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5793,18 +5785,18 @@
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
       <c r="I18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J18" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16" thickBot="1">
       <c r="I19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" thickBot="1">
@@ -5868,10 +5860,10 @@
         <v>2200</v>
       </c>
       <c r="I23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -6081,28 +6073,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="E14" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="F14" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="G14" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="J14" s="29" t="s">
         <v>283</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1">
@@ -6198,10 +6190,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="I19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -6898,13 +6890,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>47</v>
@@ -6913,13 +6905,13 @@
         <v>48</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1">
@@ -6946,10 +6938,10 @@
         <v>0.99999999999999933</v>
       </c>
       <c r="I15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16" thickBot="1">
@@ -6981,10 +6973,10 @@
         <v>1999</v>
       </c>
       <c r="I16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" thickBot="1">
@@ -7019,7 +7011,7 @@
         <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -7034,18 +7026,18 @@
         <v>48</v>
       </c>
       <c r="J18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="I19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -8424,10 +8416,10 @@
     </row>
     <row r="19" spans="1:11" ht="16">
       <c r="J19" t="s">
+        <v>234</v>
+      </c>
+      <c r="K19" s="32" t="s">
         <v>236</v>
-      </c>
-      <c r="K19" s="32" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16" thickBot="1">
@@ -8438,10 +8430,10 @@
         <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30" thickBot="1">
@@ -8483,10 +8475,10 @@
         <v>1999</v>
       </c>
       <c r="F22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30" thickBot="1">
@@ -8510,10 +8502,10 @@
         <v>2200</v>
       </c>
       <c r="F23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -8843,7 +8835,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="11"/>
       <c r="J17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16" thickBot="1">
@@ -8917,10 +8909,10 @@
         <v>85</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>51</v>
@@ -8987,7 +8979,7 @@
         <v>2200</v>
       </c>
       <c r="H28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -8999,7 +8991,7 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="H29" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -9212,7 +9204,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>111</v>
@@ -9230,10 +9222,10 @@
         <v>114</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" thickBot="1">
@@ -9264,7 +9256,7 @@
         <v>111</v>
       </c>
       <c r="M14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16" thickBot="1">
@@ -9300,7 +9292,7 @@
         <v>112</v>
       </c>
       <c r="M15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" thickBot="1">
@@ -9336,7 +9328,7 @@
         <v>113</v>
       </c>
       <c r="M16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -9356,10 +9348,10 @@
     </row>
     <row r="18" spans="1:13">
       <c r="L18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M18" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="16" thickBot="1"/>
@@ -9733,22 +9725,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" thickBot="1">
@@ -9776,10 +9768,10 @@
       </c>
       <c r="H15" s="17"/>
       <c r="J15" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16" thickBot="1">
@@ -9812,10 +9804,10 @@
       </c>
       <c r="H16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" thickBot="1">
@@ -9851,7 +9843,7 @@
         <v>47</v>
       </c>
       <c r="K17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -9863,10 +9855,10 @@
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
       <c r="J18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -9874,15 +9866,15 @@
         <v>107</v>
       </c>
       <c r="K19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="J20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16" thickBot="1">
@@ -10158,7 +10150,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="J13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" thickBot="1">
@@ -10166,25 +10158,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="J14" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="J14" t="s">
-        <v>228</v>
-      </c>
       <c r="K14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" thickBot="1">
@@ -10211,10 +10203,10 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16" thickBot="1">
@@ -10246,10 +10238,10 @@
         <v>1999</v>
       </c>
       <c r="J16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K16" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" thickBot="1">
@@ -10281,10 +10273,10 @@
         <v>2200</v>
       </c>
       <c r="J17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -10296,7 +10288,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
       <c r="J18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16" thickBot="1"/>
@@ -10305,13 +10297,13 @@
         <v>85</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="E21" s="12"/>
     </row>
@@ -10354,7 +10346,7 @@
         <v>2002</v>
       </c>
       <c r="H23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="44" thickBot="1">
@@ -10378,7 +10370,7 @@
         <v>2200</v>
       </c>
       <c r="H24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -10600,22 +10592,22 @@
         <v>13</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" thickBot="1">
@@ -10642,10 +10634,10 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1">
@@ -10680,7 +10672,7 @@
         <v>47</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" thickBot="1">
@@ -10712,10 +10704,10 @@
         <v>2200</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10727,7 +10719,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="11"/>
       <c r="J17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16" thickBot="1"/>
@@ -10736,10 +10728,10 @@
         <v>85</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554D6FD7-E7E9-5541-9BB9-A96CD0FBA67A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6268BF8-E7F7-0246-AD37-B5CA6F2A6692}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="-15620" windowWidth="25600" windowHeight="14480" tabRatio="923" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="923" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quotas_US" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="312">
   <si>
     <t>IDF</t>
   </si>
@@ -977,6 +977,27 @@
   </si>
   <si>
     <t>Eastern Zonal Council + North Eastern</t>
+  </si>
+  <si>
+    <t>Semiurban</t>
+  </si>
+  <si>
+    <t>https://www.issea.gob.mx/Docs/Censo%20INEGI%202021/Censo2020_Principales_resultados_EUM.pdf</t>
+  </si>
+  <si>
+    <t>Source: (slide 19)</t>
+  </si>
+  <si>
+    <t>https://www.inee.edu.mx/wp-content/uploads/2019/03/CS02-2011.pdf</t>
+  </si>
+  <si>
+    <t>&gt;15k</t>
+  </si>
+  <si>
+    <t>&lt;2.5k</t>
+  </si>
+  <si>
+    <t>&lt;15k; &gt;2.5k</t>
   </si>
 </sst>
 </file>
@@ -1961,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4313,10 +4334,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -4662,6 +4683,122 @@
       <c r="J19" t="s">
         <v>276</v>
       </c>
+    </row>
+    <row r="21" spans="1:10" ht="16" thickBot="1">
+      <c r="A21" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16" thickBot="1">
+      <c r="A22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="17">
+        <v>0.214</v>
+      </c>
+      <c r="C22">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="E22" s="17">
+        <f>SUM(B22:D22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16" thickBot="1">
+      <c r="A23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <f>ROUND(2000*B22,0)</f>
+        <v>428</v>
+      </c>
+      <c r="C23">
+        <f>ROUND(2000*C22,0)</f>
+        <v>298</v>
+      </c>
+      <c r="D23">
+        <f>ROUND(2000*D22,0)</f>
+        <v>1274</v>
+      </c>
+      <c r="E23">
+        <f>SUM(B23:D23)</f>
+        <v>2000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>307</v>
+      </c>
+      <c r="G23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" thickBot="1">
+      <c r="A24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <f>ROUND(2200*B22,0)</f>
+        <v>471</v>
+      </c>
+      <c r="C24">
+        <f>ROUND(2200*C22,0)</f>
+        <v>328</v>
+      </c>
+      <c r="D24">
+        <f>ROUND(2200*D22,0)</f>
+        <v>1401</v>
+      </c>
+      <c r="E24">
+        <f>SUM(B24:D24)</f>
+        <v>2200</v>
+      </c>
+      <c r="F24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>214</v>
+      </c>
+      <c r="H25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="G26" t="s">
+        <v>305</v>
+      </c>
+      <c r="H26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="D28" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5027,7 +5164,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D26"/>
+      <selection activeCell="A23" sqref="A23:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -7049,8 +7186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -8077,8 +8214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afabre\Documents\www\oecd_climate\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6268BF8-E7F7-0246-AD37-B5CA6F2A6692}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="923" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14475" tabRatio="923" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="quotas_US" sheetId="2" r:id="rId1"/>
@@ -34,7 +33,7 @@
     <sheet name="quota_TR" sheetId="21" r:id="rId19"/>
     <sheet name="quota_UA" sheetId="22" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1003,12 +1002,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,6 +1088,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1B1B1B"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1133,7 +1138,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1194,11 +1199,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1475,14 +1481,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1971,29 +1977,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D22" r:id="rId2" display="https://www.ers.usda.gov/data-products/rural-urban-commuting-area-codes/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="D22" r:id="rId2" display="https://www.ers.usda.gov/data-products/rural-urban-commuting-area-codes/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -2008,7 +2014,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="30" thickBot="1">
+    <row r="2" spans="1:11" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2030,7 +2036,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2052,7 +2058,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="30" thickBot="1">
+    <row r="4" spans="1:11" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -2093,7 +2099,7 @@
       <c r="G6" s="24"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -2103,7 +2109,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:11" ht="16" thickBot="1">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -2125,7 +2131,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:11" ht="30" thickBot="1">
+    <row r="9" spans="1:11" ht="27" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -2150,7 +2156,7 @@
       </c>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:11" ht="16" thickBot="1">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -2180,7 +2186,7 @@
       </c>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:11" ht="30" thickBot="1">
+    <row r="11" spans="1:11" ht="27" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -2225,7 +2231,7 @@
     <row r="13" spans="1:11">
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:11" ht="72" thickBot="1">
+    <row r="14" spans="1:11" ht="65.25" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -2250,7 +2256,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" thickBot="1">
+    <row r="15" spans="1:11" ht="27" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -2274,12 +2280,12 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="10">
-        <f t="shared" ref="B16:G16" si="2">ROUND(2000*B15,0)</f>
+        <f t="shared" ref="B16:F16" si="2">ROUND(2000*B15,0)</f>
         <v>263</v>
       </c>
       <c r="C16" s="10">
@@ -2306,12 +2312,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" thickBot="1">
+    <row r="17" spans="1:12" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" ref="B17:G17" si="3">ROUND(2200*B15,0)</f>
+        <f t="shared" ref="B17:F17" si="3">ROUND(2200*B15,0)</f>
         <v>290</v>
       </c>
       <c r="C17" s="2">
@@ -2375,7 +2381,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="30" thickBot="1">
+    <row r="21" spans="1:12" ht="27" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>218</v>
       </c>
@@ -2391,7 +2397,7 @@
       <c r="G21" s="29"/>
       <c r="H21" s="25"/>
     </row>
-    <row r="22" spans="1:12" ht="30" thickBot="1">
+    <row r="22" spans="1:12" ht="27" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -2410,7 +2416,7 @@
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:12" ht="16" thickBot="1">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -2430,7 +2436,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:12" ht="30" thickBot="1">
+    <row r="24" spans="1:12" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -2476,7 +2482,7 @@
       <c r="E27" s="11"/>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="1:12" ht="30" thickBot="1">
+    <row r="28" spans="1:12" ht="27" thickBot="1">
       <c r="A28" s="9" t="s">
         <v>218</v>
       </c>
@@ -2500,7 +2506,7 @@
       </c>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="1:12" ht="30" thickBot="1">
+    <row r="29" spans="1:12" ht="27" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
@@ -2527,7 +2533,7 @@
         <v>0.99989215000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16" thickBot="1">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
@@ -2560,7 +2566,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="30" thickBot="1">
+    <row r="31" spans="1:12" ht="27" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
@@ -2649,16 +2655,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:N20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -2672,17 +2678,17 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="30" thickBot="1">
+    <row r="2" spans="1:11" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
         <f>1/(1+F3)</f>
-        <v>0.50001780620614533</v>
+        <v>0.50051843200000001</v>
       </c>
       <c r="C2" s="6">
         <f>F3/(1+F3)</f>
-        <v>0.49998219379385467</v>
+        <v>0.49948156799999999</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(B2:C2)</f>
@@ -2693,17 +2699,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="8">
         <f>ROUND(2000*B2,0)</f>
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C3" s="8">
         <f>ROUND(2000*C2,0)</f>
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D3" s="8">
         <f>ROUND(2000*D2,0)</f>
@@ -2711,30 +2717,30 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
-        <v>0.99992877771181621</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="30" thickBot="1">
+        <v>0.99792841994678028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="27.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="8">
         <f>ROUND(2200*B2,0)</f>
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="C4" s="8">
         <f>ROUND(2200*C2,0)</f>
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D4" s="8">
         <f>ROUND(2200*D2,0)</f>
         <v>2200</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1"/>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+      <c r="F4" s="34"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -2755,7 +2761,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="30" thickBot="1">
+    <row r="8" spans="1:11" ht="27" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -2779,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -2808,7 +2814,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" thickBot="1">
+    <row r="10" spans="1:11" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -2848,7 +2854,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="30" thickBot="1">
+    <row r="14" spans="1:11" ht="27" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -2877,7 +2883,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" thickBot="1">
+    <row r="15" spans="1:11" ht="27" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -2907,7 +2913,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -2942,7 +2948,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" thickBot="1">
+    <row r="17" spans="1:11" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -2997,8 +3003,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16" thickBot="1"/>
-    <row r="23" spans="1:11" ht="30" thickBot="1">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="23" spans="1:11" ht="27" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -3011,7 +3017,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="30" thickBot="1">
+    <row r="24" spans="1:11" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -3033,7 +3039,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16" thickBot="1">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -3057,7 +3063,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="44" thickBot="1">
+    <row r="26" spans="1:11" ht="39.75" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>89</v>
       </c>
@@ -3077,21 +3083,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -3105,7 +3111,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3126,7 +3132,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -3147,7 +3153,7 @@
         <v>0.97760081385085629</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" thickBot="1">
+    <row r="4" spans="1:11" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -3166,8 +3172,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1"/>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -3188,7 +3194,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="16" thickBot="1">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3212,7 +3218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3241,7 +3247,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" thickBot="1">
+    <row r="10" spans="1:11" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3281,7 +3287,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -3304,7 +3310,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3334,7 +3340,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -3369,7 +3375,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" thickBot="1">
+    <row r="17" spans="1:11" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3419,8 +3425,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16" thickBot="1"/>
-    <row r="22" spans="1:11" ht="30" thickBot="1">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="22" spans="1:11" ht="27" thickBot="1">
       <c r="A22" s="9" t="s">
         <v>85</v>
       </c>
@@ -3433,7 +3439,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="16" thickBot="1">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -3455,7 +3461,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16" thickBot="1">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
@@ -3482,7 +3488,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="44" thickBot="1">
+    <row r="25" spans="1:11" ht="39.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>89</v>
       </c>
@@ -3506,16 +3512,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -3529,7 +3535,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3550,7 +3556,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -3571,7 +3577,7 @@
         <v>1.0341140064832992</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -3590,8 +3596,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -3612,7 +3618,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3636,7 +3642,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3665,7 +3671,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3705,7 +3711,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="30" thickBot="1">
+    <row r="13" spans="1:10" ht="27" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -3728,7 +3734,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16" thickBot="1">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -3758,7 +3764,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -3793,7 +3799,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" thickBot="1">
+    <row r="16" spans="1:10" ht="27" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -3831,7 +3837,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="19" spans="1:9" ht="16" thickBot="1">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1">
       <c r="A19" s="13" t="s">
         <v>76</v>
       </c>
@@ -3842,7 +3848,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16" thickBot="1">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -3863,7 +3869,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16" thickBot="1">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -3880,7 +3886,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30" thickBot="1">
+    <row r="22" spans="1:9" ht="27" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -4008,16 +4014,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -4031,7 +4037,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="16" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4052,7 +4058,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -4073,7 +4079,7 @@
         <v>0.95217958067188335</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" thickBot="1">
+    <row r="4" spans="1:7" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -4092,8 +4098,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="16" thickBot="1"/>
-    <row r="7" spans="1:7" ht="16" thickBot="1">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -4114,7 +4120,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="16" thickBot="1">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -4138,7 +4144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" thickBot="1">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -4167,7 +4173,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" thickBot="1">
+    <row r="10" spans="1:7" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4207,7 +4213,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="16" thickBot="1">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -4230,7 +4236,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" thickBot="1">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -4254,7 +4260,7 @@
         <v>0.99999999999999933</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" thickBot="1">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -4283,7 +4289,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" thickBot="1">
+    <row r="17" spans="1:10" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4333,16 +4339,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -4356,7 +4362,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4377,7 +4383,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -4398,7 +4404,7 @@
         <v>0.92970833595125124</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -4417,8 +4423,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -4439,7 +4445,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -4463,7 +4469,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -4492,7 +4498,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4532,7 +4538,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="30" thickBot="1">
+    <row r="14" spans="1:10" ht="27" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -4561,7 +4567,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -4591,7 +4597,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -4626,7 +4632,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" thickBot="1">
+    <row r="17" spans="1:10" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4684,7 +4690,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="13" t="s">
         <v>76</v>
       </c>
@@ -4698,7 +4704,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -4716,7 +4722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -4743,7 +4749,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30" thickBot="1">
+    <row r="24" spans="1:10" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -4806,16 +4812,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -4829,7 +4835,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4850,7 +4856,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -4871,7 +4877,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -4890,8 +4896,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -4912,7 +4918,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -4936,7 +4942,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -4965,7 +4971,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5005,7 +5011,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="30" thickBot="1">
+    <row r="14" spans="1:10" ht="27" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -5031,7 +5037,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -5061,7 +5067,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -5096,7 +5102,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" thickBot="1">
+    <row r="17" spans="1:10" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5160,16 +5166,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -5183,7 +5189,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -5203,7 +5209,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -5222,7 +5228,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -5241,8 +5247,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -5263,7 +5269,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -5287,7 +5293,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -5316,7 +5322,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5356,7 +5362,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="30" thickBot="1">
+    <row r="14" spans="1:10" ht="27" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -5385,7 +5391,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -5412,7 +5418,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -5447,7 +5453,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" thickBot="1">
+    <row r="17" spans="1:10" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5502,8 +5508,8 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1"/>
-    <row r="23" spans="1:10" ht="30" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="23" spans="1:10" ht="27" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -5516,7 +5522,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="16" thickBot="1">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -5538,7 +5544,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16" thickBot="1">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -5562,7 +5568,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="44" thickBot="1">
+    <row r="26" spans="1:10" ht="39.75" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>89</v>
       </c>
@@ -5594,16 +5600,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -5617,7 +5623,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -5637,7 +5643,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -5656,7 +5662,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -5675,8 +5681,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -5697,7 +5703,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -5721,7 +5727,7 @@
         <v>0.99999999999999944</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -5750,7 +5756,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5790,7 +5796,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="16" thickBot="1">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -5819,7 +5825,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -5849,7 +5855,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -5881,7 +5887,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" thickBot="1">
+    <row r="17" spans="1:10" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5928,7 +5934,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="I19" t="s">
         <v>234</v>
       </c>
@@ -5936,7 +5942,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" thickBot="1">
+    <row r="20" spans="1:10" ht="27" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>85</v>
       </c>
@@ -5948,7 +5954,7 @@
       </c>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:10" ht="16" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -5963,7 +5969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -5980,7 +5986,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30" thickBot="1">
+    <row r="23" spans="1:10" ht="27" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -6009,16 +6015,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -6032,7 +6038,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -6052,7 +6058,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -6071,7 +6077,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -6090,8 +6096,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -6112,7 +6118,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -6136,7 +6142,7 @@
         <v>0.99999999999999933</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -6165,7 +6171,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -6205,7 +6211,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="86" thickBot="1">
+    <row r="14" spans="1:10" ht="78" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -6234,7 +6240,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -6258,7 +6264,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -6287,7 +6293,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" thickBot="1">
+    <row r="17" spans="1:10" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -6339,22 +6345,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -6369,7 +6375,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="16" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -6387,7 +6393,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -6407,7 +6413,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="16" thickBot="1">
+    <row r="4" spans="1:7" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -6438,7 +6444,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="16" thickBot="1">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -6447,7 +6453,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="16" thickBot="1">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -6468,7 +6474,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="16" thickBot="1">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -6492,7 +6498,7 @@
         <v>1.0001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" thickBot="1">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -6521,7 +6527,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" thickBot="1">
+    <row r="10" spans="1:7" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -6550,8 +6556,8 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" thickBot="1"/>
-    <row r="12" spans="1:7" ht="16" thickBot="1">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -6569,7 +6575,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="16" thickBot="1">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -6589,7 +6595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" thickBot="1">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -6614,7 +6620,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" thickBot="1">
+    <row r="15" spans="1:7" ht="27" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -6644,7 +6650,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" thickBot="1">
+    <row r="18" spans="1:7" ht="27" thickBot="1">
       <c r="A18" s="9" t="s">
         <v>13</v>
       </c>
@@ -6664,7 +6670,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16" thickBot="1">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
@@ -6688,7 +6694,7 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" thickBot="1">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -6717,7 +6723,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" thickBot="1">
+    <row r="21" spans="1:7" ht="27" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
@@ -6755,7 +6761,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="24" spans="1:7" ht="16" thickBot="1">
+    <row r="24" spans="1:7" ht="15.75" thickBot="1">
       <c r="A24" s="13" t="s">
         <v>76</v>
       </c>
@@ -6766,7 +6772,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" thickBot="1">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
@@ -6781,7 +6787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16" thickBot="1">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -6798,7 +6804,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16" thickBot="1">
+    <row r="27" spans="1:7" ht="27" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
@@ -6826,16 +6832,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -6849,7 +6855,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -6869,7 +6875,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -6888,7 +6894,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -6907,8 +6913,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -6929,7 +6935,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -6953,7 +6959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -6982,7 +6988,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -7022,7 +7028,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="16" thickBot="1">
+    <row r="14" spans="1:10" ht="27" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -7051,7 +7057,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -7081,7 +7087,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -7116,7 +7122,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" thickBot="1">
+    <row r="17" spans="1:11" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -7183,22 +7189,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1">
+    <row r="1" spans="1:12" ht="27" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
@@ -7224,7 +7230,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="16" thickBot="1">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -7257,7 +7263,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="16" thickBot="1">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -7291,7 +7297,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="16" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -7341,7 +7347,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="0.5" customHeight="1">
+    <row r="6" spans="1:12" ht="0.6" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -7355,14 +7361,14 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="16" thickBot="1">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="16" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -7382,7 +7388,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="16" thickBot="1">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -7405,7 +7411,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="16" thickBot="1">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -7430,7 +7436,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="16" thickBot="1">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -7471,7 +7477,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="16" thickBot="1">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -7485,7 +7491,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="16" thickBot="1">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
@@ -7511,7 +7517,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="16" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -7540,7 +7546,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="16" thickBot="1">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -7574,7 +7580,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="16" thickBot="1">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -7624,7 +7630,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="16" thickBot="1">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -7638,7 +7644,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="30" thickBot="1">
+    <row r="20" spans="1:12" ht="27" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
@@ -7662,7 +7668,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="16" thickBot="1">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -7688,7 +7694,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="16" thickBot="1">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -7719,7 +7725,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="16" thickBot="1">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -7750,7 +7756,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="16" thickBot="1">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1">
       <c r="A24" s="9" t="s">
         <v>30</v>
       </c>
@@ -7760,7 +7766,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="16" thickBot="1">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1">
       <c r="A25" s="5"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -7785,7 +7791,7 @@
       <c r="F26" s="12"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:12" ht="16" thickBot="1">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
@@ -7804,7 +7810,7 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="16" thickBot="1">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
@@ -7826,7 +7832,7 @@
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:12" ht="16" thickBot="1">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>88</v>
       </c>
@@ -7845,7 +7851,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:12" ht="16" thickBot="1">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>87</v>
       </c>
@@ -7867,7 +7873,7 @@
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:12" ht="30" thickBot="1">
+    <row r="31" spans="1:12" ht="27" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>89</v>
       </c>
@@ -7900,12 +7906,12 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="36" spans="1:10" ht="16" thickBot="1">
+    <row r="36" spans="1:10" ht="15.75" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="30" thickBot="1">
+    <row r="37" spans="1:10" ht="27" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>1</v>
       </c>
@@ -7935,7 +7941,7 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="16" thickBot="1">
+    <row r="38" spans="1:10" ht="15.75" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
@@ -7968,7 +7974,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16" thickBot="1">
+    <row r="39" spans="1:10" ht="15.75" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
@@ -8009,7 +8015,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16" thickBot="1">
+    <row r="40" spans="1:10" ht="15.75" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>12</v>
       </c>
@@ -8076,12 +8082,12 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" ht="16" thickBot="1">
+    <row r="43" spans="1:10" ht="15.75" thickBot="1">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="16" thickBot="1">
+    <row r="44" spans="1:10" ht="15.75" thickBot="1">
       <c r="A44" s="9" t="s">
         <v>64</v>
       </c>
@@ -8102,7 +8108,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:10" ht="16" thickBot="1">
+    <row r="45" spans="1:10" ht="15.75" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>10</v>
       </c>
@@ -8126,7 +8132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="16" thickBot="1">
+    <row r="46" spans="1:10" ht="15.75" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>11</v>
       </c>
@@ -8155,7 +8161,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="16" thickBot="1">
+    <row r="47" spans="1:10" ht="15.75" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>12</v>
       </c>
@@ -8211,16 +8217,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -8234,7 +8240,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="30" thickBot="1">
+    <row r="2" spans="1:11" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -8255,7 +8261,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -8276,7 +8282,7 @@
         <v>0.95277529961698948</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" thickBot="1">
+    <row r="4" spans="1:11" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -8295,8 +8301,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1"/>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -8317,7 +8323,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="30" thickBot="1">
+    <row r="8" spans="1:11" ht="27" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -8341,7 +8347,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -8370,7 +8376,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" thickBot="1">
+    <row r="10" spans="1:11" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -8410,7 +8416,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="30" thickBot="1">
+    <row r="13" spans="1:11" ht="27" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -8436,7 +8442,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" thickBot="1">
+    <row r="14" spans="1:11" ht="27" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -8466,7 +8472,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -8501,7 +8507,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" thickBot="1">
+    <row r="16" spans="1:11" ht="27" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -8551,7 +8557,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16">
+    <row r="19" spans="1:11" ht="15.75">
       <c r="J19" t="s">
         <v>234</v>
       </c>
@@ -8559,7 +8565,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16" thickBot="1">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
       <c r="A20" s="13" t="s">
         <v>76</v>
       </c>
@@ -8573,7 +8579,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="30" thickBot="1">
+    <row r="21" spans="1:11" ht="27" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -8591,7 +8597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16" thickBot="1">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -8618,7 +8624,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" thickBot="1">
+    <row r="23" spans="1:11" ht="27" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -8652,23 +8658,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G23" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="G23" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -8682,7 +8688,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="30" thickBot="1">
+    <row r="2" spans="1:10" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -8703,7 +8709,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -8724,7 +8730,7 @@
         <v>0.90805800128462044</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -8743,8 +8749,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -8765,7 +8771,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="30" thickBot="1">
+    <row r="8" spans="1:10" ht="27" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -8789,7 +8795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -8818,7 +8824,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -8858,7 +8864,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="30" thickBot="1">
+    <row r="13" spans="1:10" ht="27" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -8878,7 +8884,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" thickBot="1">
+    <row r="14" spans="1:10" ht="27" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -8902,7 +8908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -8931,7 +8937,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" thickBot="1">
+    <row r="16" spans="1:10" ht="27" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -8975,7 +8981,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="13" t="s">
         <v>76</v>
       </c>
@@ -8986,7 +8992,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" thickBot="1">
+    <row r="20" spans="1:10" ht="27" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -9001,7 +9007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -9018,7 +9024,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30" thickBot="1">
+    <row r="22" spans="1:10" ht="27" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -9040,8 +9046,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16" thickBot="1"/>
-    <row r="25" spans="1:10" ht="44" thickBot="1">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:10" ht="39.75" thickBot="1">
       <c r="A25" s="9" t="s">
         <v>85</v>
       </c>
@@ -9056,7 +9062,7 @@
       </c>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="1:10" ht="30" thickBot="1">
+    <row r="26" spans="1:10" ht="27" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
@@ -9074,7 +9080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16" thickBot="1">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>11</v>
       </c>
@@ -9095,7 +9101,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="44" thickBot="1">
+    <row r="28" spans="1:10" ht="39.75" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>89</v>
       </c>
@@ -9137,16 +9143,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" thickBot="1">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -9160,7 +9166,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="30" thickBot="1">
+    <row r="2" spans="1:13" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -9181,7 +9187,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16" thickBot="1">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -9202,7 +9208,7 @@
         <v>0.9267197256851698</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30" thickBot="1">
+    <row r="4" spans="1:13" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -9221,8 +9227,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="16" thickBot="1"/>
-    <row r="7" spans="1:13" ht="16" thickBot="1">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -9243,7 +9249,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:13" ht="30" thickBot="1">
+    <row r="8" spans="1:13" ht="27" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -9267,7 +9273,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" thickBot="1">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -9296,7 +9302,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30" thickBot="1">
+    <row r="10" spans="1:13" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -9336,7 +9342,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="30" thickBot="1">
+    <row r="13" spans="1:13" ht="27" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -9365,7 +9371,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30" thickBot="1">
+    <row r="14" spans="1:13" ht="27" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -9396,7 +9402,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16" thickBot="1">
+    <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -9432,7 +9438,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30" thickBot="1">
+    <row r="16" spans="1:13" ht="27" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -9491,8 +9497,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16" thickBot="1"/>
-    <row r="20" spans="1:13" ht="30" thickBot="1">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:13" ht="27" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>85</v>
       </c>
@@ -9504,7 +9510,7 @@
       </c>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="30" thickBot="1">
+    <row r="21" spans="1:13" ht="27" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -9519,7 +9525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16" thickBot="1">
+    <row r="22" spans="1:13" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -9536,7 +9542,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="44" thickBot="1">
+    <row r="23" spans="1:13" ht="39.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>89</v>
       </c>
@@ -9561,12 +9567,12 @@
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="28" spans="1:13" ht="16" thickBot="1">
+    <row r="28" spans="1:13" ht="15.75" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="30" thickBot="1">
+    <row r="29" spans="1:13" ht="27" thickBot="1">
       <c r="A29" s="9" t="s">
         <v>85</v>
       </c>
@@ -9579,7 +9585,7 @@
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="1:13" ht="30" thickBot="1">
+    <row r="30" spans="1:13" ht="27" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>10</v>
       </c>
@@ -9595,7 +9601,7 @@
       </c>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:13" ht="16" thickBot="1">
+    <row r="31" spans="1:13" ht="15.75" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>11</v>
       </c>
@@ -9613,7 +9619,7 @@
       </c>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="1:13" ht="44" thickBot="1">
+    <row r="32" spans="1:13" ht="39.75" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>89</v>
       </c>
@@ -9646,19 +9652,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -9672,7 +9678,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="30" thickBot="1">
+    <row r="2" spans="1:11" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -9693,7 +9699,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -9714,7 +9720,7 @@
         <v>0.97448244785232785</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" thickBot="1">
+    <row r="4" spans="1:11" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -9733,8 +9739,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1"/>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -9755,7 +9761,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="30" thickBot="1">
+    <row r="8" spans="1:11" ht="27" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -9779,7 +9785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -9808,7 +9814,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" thickBot="1">
+    <row r="10" spans="1:11" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -9857,7 +9863,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -9880,7 +9886,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" thickBot="1">
+    <row r="15" spans="1:11" ht="27" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -9911,7 +9917,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -9947,7 +9953,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" thickBot="1">
+    <row r="17" spans="1:11" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -10014,7 +10020,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16" thickBot="1">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1">
       <c r="A21" s="13" t="s">
         <v>76</v>
       </c>
@@ -10025,7 +10031,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="30" thickBot="1">
+    <row r="22" spans="1:11" ht="27" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -10040,7 +10046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16" thickBot="1">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -10057,7 +10063,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30" thickBot="1">
+    <row r="24" spans="1:11" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -10086,16 +10092,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -10109,7 +10115,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="30" thickBot="1">
+    <row r="2" spans="1:11" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -10130,7 +10136,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -10151,7 +10157,7 @@
         <v>0.98351979013457747</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" thickBot="1">
+    <row r="4" spans="1:11" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -10170,8 +10176,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1"/>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -10192,7 +10198,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="30" thickBot="1">
+    <row r="8" spans="1:11" ht="27" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -10216,7 +10222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -10245,7 +10251,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" thickBot="1">
+    <row r="10" spans="1:11" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -10290,7 +10296,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" thickBot="1">
+    <row r="14" spans="1:11" ht="27" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -10316,7 +10322,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" thickBot="1">
+    <row r="15" spans="1:11" ht="27" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -10346,7 +10352,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -10381,7 +10387,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" thickBot="1">
+    <row r="17" spans="1:11" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -10428,8 +10434,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16" thickBot="1"/>
-    <row r="21" spans="1:11" ht="30" thickBot="1">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="21" spans="1:11" ht="27" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -10444,7 +10450,7 @@
       </c>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:11" ht="30" thickBot="1">
+    <row r="22" spans="1:11" ht="27" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -10462,7 +10468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16" thickBot="1">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -10486,7 +10492,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="44" thickBot="1">
+    <row r="24" spans="1:11" ht="39.75" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>89</v>
       </c>
@@ -10525,16 +10531,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -10548,7 +10554,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="30" thickBot="1">
+    <row r="2" spans="1:10" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -10569,7 +10575,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -10590,7 +10596,7 @@
         <v>0.92622883301508352</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -10609,8 +10615,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -10631,7 +10637,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="30" thickBot="1">
+    <row r="8" spans="1:10" ht="27" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -10655,7 +10661,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -10684,7 +10690,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -10724,7 +10730,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="16" thickBot="1">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -10747,7 +10753,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" thickBot="1">
+    <row r="14" spans="1:10" ht="27" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -10777,7 +10783,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -10812,7 +10818,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" thickBot="1">
+    <row r="16" spans="1:10" ht="27" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -10859,8 +10865,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1"/>
-    <row r="20" spans="1:10" ht="30" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:10" ht="27" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>85</v>
       </c>
@@ -10873,7 +10879,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:10" ht="30" thickBot="1">
+    <row r="21" spans="1:10" ht="27" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -10889,7 +10895,7 @@
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -10907,7 +10913,7 @@
       </c>
       <c r="E22" s="20"/>
     </row>
-    <row r="23" spans="1:10" ht="44" thickBot="1">
+    <row r="23" spans="1:10" ht="39.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>89</v>
       </c>

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afabre\Documents\www\oecd_climate\questionnaires\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED85C35-37DB-D042-AA74-16D275298F3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14475" tabRatio="923" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="923" firstSheet="7" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quotas_US" sheetId="2" r:id="rId1"/>
@@ -33,7 +34,7 @@
     <sheet name="quota_TR" sheetId="21" r:id="rId19"/>
     <sheet name="quota_UA" sheetId="22" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="314">
   <si>
     <t>IDF</t>
   </si>
@@ -998,11 +999,17 @@
   <si>
     <t>&lt;15k; &gt;2.5k</t>
   </si>
+  <si>
+    <t>https://biruni.tuik.gov.tr/medas/?kn=95&amp;locale=tr</t>
+  </si>
+  <si>
+    <t>ADNKS-GK137474-O29001 İbbs-Düzey1, İbbs-Düzey2, İl Ve İlçe Nüfusları / 2020 / İlçe Düzeyi / HEPSI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -1204,7 +1211,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1481,14 +1488,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1977,29 +1984,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="D22" r:id="rId2" display="https://www.ers.usda.gov/data-products/rural-urban-commuting-area-codes/"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D22" r:id="rId2" display="https://www.ers.usda.gov/data-products/rural-urban-commuting-area-codes/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -2014,7 +2021,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="27" thickBot="1">
+    <row r="2" spans="1:11" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2036,7 +2043,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2058,7 +2065,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="27" thickBot="1">
+    <row r="4" spans="1:11" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -2099,7 +2106,7 @@
       <c r="G6" s="24"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="7" spans="1:11" ht="16" thickBot="1">
       <c r="A7" s="9"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -2109,7 +2116,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1">
+    <row r="8" spans="1:11" ht="16" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -2131,7 +2138,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:11" ht="27" thickBot="1">
+    <row r="9" spans="1:11" ht="30" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -2156,7 +2163,7 @@
       </c>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1">
+    <row r="10" spans="1:11" ht="16" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -2186,7 +2193,7 @@
       </c>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:11" ht="27" thickBot="1">
+    <row r="11" spans="1:11" ht="30" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -2231,7 +2238,7 @@
     <row r="13" spans="1:11">
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:11" ht="65.25" thickBot="1">
+    <row r="14" spans="1:11" ht="72" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -2256,7 +2263,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="27" thickBot="1">
+    <row r="15" spans="1:11" ht="30" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -2280,7 +2287,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -2312,7 +2319,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="27" thickBot="1">
+    <row r="17" spans="1:12" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -2381,7 +2388,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="27" thickBot="1">
+    <row r="21" spans="1:12" ht="30" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>218</v>
       </c>
@@ -2397,7 +2404,7 @@
       <c r="G21" s="29"/>
       <c r="H21" s="25"/>
     </row>
-    <row r="22" spans="1:12" ht="27" thickBot="1">
+    <row r="22" spans="1:12" ht="30" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -2416,7 +2423,7 @@
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1">
+    <row r="23" spans="1:12" ht="16" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -2436,7 +2443,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:12" ht="27" thickBot="1">
+    <row r="24" spans="1:12" ht="30" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -2482,7 +2489,7 @@
       <c r="E27" s="11"/>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="1:12" ht="27" thickBot="1">
+    <row r="28" spans="1:12" ht="30" thickBot="1">
       <c r="A28" s="9" t="s">
         <v>218</v>
       </c>
@@ -2506,7 +2513,7 @@
       </c>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="1:12" ht="27" thickBot="1">
+    <row r="29" spans="1:12" ht="30" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
@@ -2533,7 +2540,7 @@
         <v>0.99989215000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1">
+    <row r="30" spans="1:12" ht="16" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
@@ -2566,7 +2573,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="27" thickBot="1">
+    <row r="31" spans="1:12" ht="30" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
@@ -2655,16 +2662,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -2678,7 +2685,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="27" thickBot="1">
+    <row r="2" spans="1:11" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2699,7 +2706,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2720,7 +2727,7 @@
         <v>0.99792841994678028</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27.75" thickBot="1">
+    <row r="4" spans="1:11" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -2739,8 +2746,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="34"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="16" thickBot="1"/>
+    <row r="7" spans="1:11" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -2761,7 +2768,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="27" thickBot="1">
+    <row r="8" spans="1:11" ht="30" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -2785,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+    <row r="9" spans="1:11" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -2814,7 +2821,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" thickBot="1">
+    <row r="10" spans="1:11" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -2854,7 +2861,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="27" thickBot="1">
+    <row r="14" spans="1:11" ht="30" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -2883,7 +2890,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="27" thickBot="1">
+    <row r="15" spans="1:11" ht="30" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -2913,7 +2920,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -2948,7 +2955,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27" thickBot="1">
+    <row r="17" spans="1:11" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3003,8 +3010,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="23" spans="1:11" ht="27" thickBot="1">
+    <row r="22" spans="1:11" ht="16" thickBot="1"/>
+    <row r="23" spans="1:11" ht="30" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -3017,7 +3024,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="27" thickBot="1">
+    <row r="24" spans="1:11" ht="30" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -3039,7 +3046,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1">
+    <row r="25" spans="1:11" ht="16" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -3063,7 +3070,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="39.75" thickBot="1">
+    <row r="26" spans="1:11" ht="44" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>89</v>
       </c>
@@ -3088,16 +3095,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -3111,7 +3118,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+    <row r="2" spans="1:11" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3132,7 +3139,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -3153,7 +3160,7 @@
         <v>0.97760081385085629</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27" thickBot="1">
+    <row r="4" spans="1:11" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -3172,8 +3179,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="16" thickBot="1"/>
+    <row r="7" spans="1:11" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -3194,7 +3201,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1">
+    <row r="8" spans="1:11" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3218,7 +3225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+    <row r="9" spans="1:11" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3247,7 +3254,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" thickBot="1">
+    <row r="10" spans="1:11" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3287,7 +3294,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
+    <row r="14" spans="1:11" ht="16" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -3310,7 +3317,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1">
+    <row r="15" spans="1:11" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3340,7 +3347,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -3375,7 +3382,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27" thickBot="1">
+    <row r="17" spans="1:11" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3425,8 +3432,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="22" spans="1:11" ht="27" thickBot="1">
+    <row r="21" spans="1:11" ht="16" thickBot="1"/>
+    <row r="22" spans="1:11" ht="30" thickBot="1">
       <c r="A22" s="9" t="s">
         <v>85</v>
       </c>
@@ -3439,7 +3446,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+    <row r="23" spans="1:11" ht="16" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -3461,7 +3468,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1">
+    <row r="24" spans="1:11" ht="16" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
@@ -3488,7 +3495,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="39.75" thickBot="1">
+    <row r="25" spans="1:11" ht="44" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>89</v>
       </c>
@@ -3512,16 +3519,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -3535,7 +3542,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3556,7 +3563,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -3577,7 +3584,7 @@
         <v>1.0341140064832992</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -3596,8 +3603,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -3618,7 +3625,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3642,7 +3649,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3671,7 +3678,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3711,7 +3718,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="27" thickBot="1">
+    <row r="13" spans="1:10" ht="30" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -3734,7 +3741,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+    <row r="14" spans="1:10" ht="16" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -3764,7 +3771,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -3799,7 +3806,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="27" thickBot="1">
+    <row r="16" spans="1:10" ht="30" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -3837,7 +3844,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1">
+    <row r="19" spans="1:9" ht="16" thickBot="1">
       <c r="A19" s="13" t="s">
         <v>76</v>
       </c>
@@ -3848,7 +3855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1">
+    <row r="20" spans="1:9" ht="16" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -3869,7 +3876,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1">
+    <row r="21" spans="1:9" ht="16" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -3886,7 +3893,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="27" thickBot="1">
+    <row r="22" spans="1:9" ht="30" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -4014,16 +4021,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -4037,7 +4044,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4058,7 +4065,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+    <row r="3" spans="1:7" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -4079,7 +4086,7 @@
         <v>0.95217958067188335</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27" thickBot="1">
+    <row r="4" spans="1:7" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -4098,8 +4105,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1">
+    <row r="6" spans="1:7" ht="16" thickBot="1"/>
+    <row r="7" spans="1:7" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -4120,7 +4127,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1">
+    <row r="8" spans="1:7" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -4144,7 +4151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1">
+    <row r="9" spans="1:7" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -4173,7 +4180,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" thickBot="1">
+    <row r="10" spans="1:7" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4213,7 +4220,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1">
+    <row r="14" spans="1:7" ht="16" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -4236,7 +4243,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
+    <row r="15" spans="1:7" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -4260,7 +4267,7 @@
         <v>0.99999999999999933</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+    <row r="16" spans="1:7" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -4289,7 +4296,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27" thickBot="1">
+    <row r="17" spans="1:10" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4339,16 +4346,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -4362,7 +4369,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4383,7 +4390,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -4404,7 +4411,7 @@
         <v>0.92970833595125124</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -4423,8 +4430,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -4445,7 +4452,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -4469,7 +4476,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -4498,7 +4505,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4538,7 +4545,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="27" thickBot="1">
+    <row r="14" spans="1:10" ht="30" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -4567,7 +4574,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -4597,7 +4604,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -4632,7 +4639,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27" thickBot="1">
+    <row r="17" spans="1:10" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4690,7 +4697,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="16" thickBot="1">
       <c r="A21" s="13" t="s">
         <v>76</v>
       </c>
@@ -4704,7 +4711,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="16" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -4722,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="16" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -4749,7 +4756,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="27" thickBot="1">
+    <row r="24" spans="1:10" ht="30" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -4812,16 +4819,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -4835,7 +4842,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4856,7 +4863,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -4877,7 +4884,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -4896,8 +4903,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -4918,7 +4925,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -4942,7 +4949,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -4971,7 +4978,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5011,7 +5018,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="27" thickBot="1">
+    <row r="14" spans="1:10" ht="30" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -5037,7 +5044,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -5067,7 +5074,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -5102,7 +5109,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27" thickBot="1">
+    <row r="17" spans="1:10" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5166,16 +5173,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -5189,7 +5196,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -5209,7 +5216,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -5228,7 +5235,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -5247,8 +5254,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -5269,7 +5276,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -5293,7 +5300,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -5322,7 +5329,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5362,7 +5369,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="27" thickBot="1">
+    <row r="14" spans="1:10" ht="30" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -5391,7 +5398,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -5418,7 +5425,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -5453,7 +5460,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27" thickBot="1">
+    <row r="17" spans="1:10" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5508,8 +5515,8 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="23" spans="1:10" ht="27" thickBot="1">
+    <row r="22" spans="1:10" ht="16" thickBot="1"/>
+    <row r="23" spans="1:10" ht="30" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -5522,7 +5529,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+    <row r="24" spans="1:10" ht="16" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -5544,7 +5551,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+    <row r="25" spans="1:10" ht="16" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -5568,7 +5575,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="39.75" thickBot="1">
+    <row r="26" spans="1:10" ht="44" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>89</v>
       </c>
@@ -5600,16 +5607,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="D23" sqref="A20:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -5623,7 +5630,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -5643,7 +5650,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -5662,7 +5669,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -5681,8 +5688,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -5703,7 +5710,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -5727,7 +5734,7 @@
         <v>0.99999999999999944</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -5756,7 +5763,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5796,7 +5803,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+    <row r="14" spans="1:10" ht="16" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -5825,7 +5832,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -5855,7 +5862,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -5887,7 +5894,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27" thickBot="1">
+    <row r="17" spans="1:10" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5934,7 +5941,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="16" thickBot="1">
       <c r="I19" t="s">
         <v>234</v>
       </c>
@@ -5942,7 +5949,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="27" thickBot="1">
+    <row r="20" spans="1:10" ht="30" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>85</v>
       </c>
@@ -5954,7 +5961,7 @@
       </c>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="16" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -5969,7 +5976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="16" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -5986,7 +5993,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="27" thickBot="1">
+    <row r="23" spans="1:10" ht="30" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -6015,16 +6022,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:J19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -6038,7 +6045,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -6058,7 +6065,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -6077,7 +6084,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -6096,8 +6103,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -6118,7 +6125,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -6142,7 +6149,7 @@
         <v>0.99999999999999933</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -6171,7 +6178,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -6211,7 +6218,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="78" thickBot="1">
+    <row r="14" spans="1:10" ht="86" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -6240,7 +6247,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -6264,7 +6271,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -6293,7 +6300,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27" thickBot="1">
+    <row r="17" spans="1:10" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -6337,6 +6344,79 @@
       </c>
       <c r="J19" t="s">
         <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16" thickBot="1"/>
+    <row r="21" spans="1:10" ht="30" thickBot="1">
+      <c r="A21" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" ht="16" thickBot="1">
+      <c r="A22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.13036210000000001</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.86963789999999996</v>
+      </c>
+      <c r="D22" s="6">
+        <f>SUM(B22:C22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16" thickBot="1">
+      <c r="A23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="8">
+        <f t="shared" ref="B23:C23" si="2">ROUND(2000*B22,0)</f>
+        <v>261</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="2"/>
+        <v>1739</v>
+      </c>
+      <c r="D23" s="8">
+        <f>SUM(B23:C23)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" thickBot="1">
+      <c r="A24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="10">
+        <f>ROUND(2200*B22,0)</f>
+        <v>287</v>
+      </c>
+      <c r="C24" s="10">
+        <f t="shared" ref="C24" si="3">ROUND(2200*C22,0)</f>
+        <v>1913</v>
+      </c>
+      <c r="D24" s="10">
+        <f>SUM(B24:C24)</f>
+        <v>2200</v>
+      </c>
+      <c r="I24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="J25" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -6345,22 +6425,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -6375,7 +6455,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -6393,7 +6473,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+    <row r="3" spans="1:7" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -6413,7 +6493,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="27" thickBot="1">
+    <row r="4" spans="1:7" ht="16" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -6444,7 +6524,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1">
+    <row r="6" spans="1:7" ht="16" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -6453,7 +6533,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1">
+    <row r="7" spans="1:7" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -6474,7 +6554,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1">
+    <row r="8" spans="1:7" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -6498,7 +6578,7 @@
         <v>1.0001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1">
+    <row r="9" spans="1:7" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -6527,7 +6607,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" thickBot="1">
+    <row r="10" spans="1:7" ht="16" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -6556,8 +6636,8 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1">
+    <row r="11" spans="1:7" ht="16" thickBot="1"/>
+    <row r="12" spans="1:7" ht="16" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -6575,7 +6655,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1">
+    <row r="13" spans="1:7" ht="16" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -6595,7 +6675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1">
+    <row r="14" spans="1:7" ht="16" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -6620,7 +6700,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="27" thickBot="1">
+    <row r="15" spans="1:7" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -6650,7 +6730,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="27" thickBot="1">
+    <row r="18" spans="1:7" ht="16" thickBot="1">
       <c r="A18" s="9" t="s">
         <v>13</v>
       </c>
@@ -6670,7 +6750,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1">
+    <row r="19" spans="1:7" ht="16" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
@@ -6694,7 +6774,7 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1">
+    <row r="20" spans="1:7" ht="16" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -6723,7 +6803,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="27" thickBot="1">
+    <row r="21" spans="1:7" ht="16" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
@@ -6761,7 +6841,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1">
+    <row r="24" spans="1:7" ht="16" thickBot="1">
       <c r="A24" s="13" t="s">
         <v>76</v>
       </c>
@@ -6772,7 +6852,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1">
+    <row r="25" spans="1:7" ht="16" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
@@ -6787,7 +6867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1">
+    <row r="26" spans="1:7" ht="16" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -6804,7 +6884,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27" thickBot="1">
+    <row r="27" spans="1:7" ht="16" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
@@ -6832,16 +6912,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -6855,7 +6935,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -6875,7 +6955,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -6894,7 +6974,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -6913,8 +6993,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -6935,7 +7015,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -6959,7 +7039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -6988,7 +7068,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -7028,7 +7108,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="27" thickBot="1">
+    <row r="14" spans="1:10" ht="16" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -7057,7 +7137,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -7087,7 +7167,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -7122,7 +7202,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27" thickBot="1">
+    <row r="17" spans="1:11" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -7189,22 +7269,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" thickBot="1">
+    <row r="1" spans="1:12" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
@@ -7230,7 +7310,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+    <row r="2" spans="1:12" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -7263,7 +7343,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1">
+    <row r="3" spans="1:12" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -7297,7 +7377,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1">
+    <row r="4" spans="1:12" ht="16" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -7347,7 +7427,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="0.6" customHeight="1">
+    <row r="6" spans="1:12" ht="0.5" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -7361,14 +7441,14 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+    <row r="7" spans="1:12" ht="16" thickBot="1">
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+    <row r="8" spans="1:12" ht="16" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -7388,7 +7468,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1">
+    <row r="9" spans="1:12" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -7411,7 +7491,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1">
+    <row r="10" spans="1:12" ht="16" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -7436,7 +7516,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1">
+    <row r="11" spans="1:12" ht="16" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -7477,7 +7557,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+    <row r="13" spans="1:12" ht="16" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -7491,7 +7571,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1">
+    <row r="14" spans="1:12" ht="16" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
@@ -7517,7 +7597,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1">
+    <row r="15" spans="1:12" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -7546,7 +7626,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1">
+    <row r="16" spans="1:12" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -7580,7 +7660,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1">
+    <row r="17" spans="1:12" ht="16" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -7630,7 +7710,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+    <row r="19" spans="1:12" ht="16" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -7644,7 +7724,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="27" thickBot="1">
+    <row r="20" spans="1:12" ht="30" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
@@ -7668,7 +7748,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+    <row r="21" spans="1:12" ht="16" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -7694,7 +7774,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1">
+    <row r="22" spans="1:12" ht="16" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -7725,7 +7805,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1">
+    <row r="23" spans="1:12" ht="16" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -7756,7 +7836,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1">
+    <row r="24" spans="1:12" ht="16" thickBot="1">
       <c r="A24" s="9" t="s">
         <v>30</v>
       </c>
@@ -7766,7 +7846,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+    <row r="25" spans="1:12" ht="16" thickBot="1">
       <c r="A25" s="5"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -7791,7 +7871,7 @@
       <c r="F26" s="12"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1">
+    <row r="27" spans="1:12" ht="16" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
@@ -7810,7 +7890,7 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="16" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
@@ -7832,7 +7912,7 @@
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1">
+    <row r="29" spans="1:12" ht="16" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>88</v>
       </c>
@@ -7851,7 +7931,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1">
+    <row r="30" spans="1:12" ht="16" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>87</v>
       </c>
@@ -7873,7 +7953,7 @@
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:12" ht="27" thickBot="1">
+    <row r="31" spans="1:12" ht="30" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>89</v>
       </c>
@@ -7906,12 +7986,12 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1">
+    <row r="36" spans="1:10" ht="16" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="27" thickBot="1">
+    <row r="37" spans="1:10" ht="30" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>1</v>
       </c>
@@ -7941,7 +8021,7 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1">
+    <row r="38" spans="1:10" ht="16" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
@@ -7974,7 +8054,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1">
+    <row r="39" spans="1:10" ht="16" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
@@ -8015,7 +8095,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1">
+    <row r="40" spans="1:10" ht="16" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>12</v>
       </c>
@@ -8082,12 +8162,12 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1">
+    <row r="43" spans="1:10" ht="16" thickBot="1">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1">
+    <row r="44" spans="1:10" ht="16" thickBot="1">
       <c r="A44" s="9" t="s">
         <v>64</v>
       </c>
@@ -8108,7 +8188,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1">
+    <row r="45" spans="1:10" ht="16" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>10</v>
       </c>
@@ -8132,7 +8212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1">
+    <row r="46" spans="1:10" ht="16" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>11</v>
       </c>
@@ -8161,7 +8241,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1">
+    <row r="47" spans="1:10" ht="16" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>12</v>
       </c>
@@ -8217,16 +8297,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -8240,7 +8320,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="27" thickBot="1">
+    <row r="2" spans="1:11" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -8261,7 +8341,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -8282,7 +8362,7 @@
         <v>0.95277529961698948</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27" thickBot="1">
+    <row r="4" spans="1:11" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -8301,8 +8381,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="16" thickBot="1"/>
+    <row r="7" spans="1:11" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -8323,7 +8403,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="27" thickBot="1">
+    <row r="8" spans="1:11" ht="30" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -8347,7 +8427,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+    <row r="9" spans="1:11" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -8376,7 +8456,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" thickBot="1">
+    <row r="10" spans="1:11" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -8416,7 +8496,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="27" thickBot="1">
+    <row r="13" spans="1:11" ht="30" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -8442,7 +8522,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="27" thickBot="1">
+    <row r="14" spans="1:11" ht="30" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -8472,7 +8552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1">
+    <row r="15" spans="1:11" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -8507,7 +8587,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="27" thickBot="1">
+    <row r="16" spans="1:11" ht="30" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -8557,7 +8637,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75">
+    <row r="19" spans="1:11" ht="16">
       <c r="J19" t="s">
         <v>234</v>
       </c>
@@ -8565,7 +8645,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1">
+    <row r="20" spans="1:11" ht="16" thickBot="1">
       <c r="A20" s="13" t="s">
         <v>76</v>
       </c>
@@ -8579,7 +8659,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="27" thickBot="1">
+    <row r="21" spans="1:11" ht="30" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -8597,7 +8677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1">
+    <row r="22" spans="1:11" ht="16" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -8624,7 +8704,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="27" thickBot="1">
+    <row r="23" spans="1:11" ht="30" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -8658,23 +8738,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G23" r:id="rId1"/>
+    <hyperlink ref="G23" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -8688,7 +8768,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="27" thickBot="1">
+    <row r="2" spans="1:10" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -8709,7 +8789,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -8730,7 +8810,7 @@
         <v>0.90805800128462044</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -8749,8 +8829,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -8771,7 +8851,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="27" thickBot="1">
+    <row r="8" spans="1:10" ht="30" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -8795,7 +8875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -8824,7 +8904,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -8864,7 +8944,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="27" thickBot="1">
+    <row r="13" spans="1:10" ht="30" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -8884,7 +8964,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="27" thickBot="1">
+    <row r="14" spans="1:10" ht="30" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -8908,7 +8988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -8937,7 +9017,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="27" thickBot="1">
+    <row r="16" spans="1:10" ht="30" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -8981,7 +9061,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="16" thickBot="1">
       <c r="A19" s="13" t="s">
         <v>76</v>
       </c>
@@ -8992,7 +9072,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="27" thickBot="1">
+    <row r="20" spans="1:10" ht="30" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -9007,7 +9087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="16" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -9024,7 +9104,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="27" thickBot="1">
+    <row r="22" spans="1:10" ht="30" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -9046,8 +9126,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:10" ht="39.75" thickBot="1">
+    <row r="24" spans="1:10" ht="16" thickBot="1"/>
+    <row r="25" spans="1:10" ht="44" thickBot="1">
       <c r="A25" s="9" t="s">
         <v>85</v>
       </c>
@@ -9062,7 +9142,7 @@
       </c>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="1:10" ht="27" thickBot="1">
+    <row r="26" spans="1:10" ht="30" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
@@ -9080,7 +9160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1">
+    <row r="27" spans="1:10" ht="16" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>11</v>
       </c>
@@ -9101,7 +9181,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="39.75" thickBot="1">
+    <row r="28" spans="1:10" ht="44" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>89</v>
       </c>
@@ -9143,16 +9223,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+    <row r="1" spans="1:13" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -9166,7 +9246,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="27" thickBot="1">
+    <row r="2" spans="1:13" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -9187,7 +9267,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+    <row r="3" spans="1:13" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -9208,7 +9288,7 @@
         <v>0.9267197256851698</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="27" thickBot="1">
+    <row r="4" spans="1:13" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -9227,8 +9307,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1">
+    <row r="6" spans="1:13" ht="16" thickBot="1"/>
+    <row r="7" spans="1:13" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -9249,7 +9329,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:13" ht="27" thickBot="1">
+    <row r="8" spans="1:13" ht="30" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -9273,7 +9353,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1">
+    <row r="9" spans="1:13" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -9302,7 +9382,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="27" thickBot="1">
+    <row r="10" spans="1:13" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -9342,7 +9422,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="27" thickBot="1">
+    <row r="13" spans="1:13" ht="30" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -9371,7 +9451,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="27" thickBot="1">
+    <row r="14" spans="1:13" ht="30" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -9402,7 +9482,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+    <row r="15" spans="1:13" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -9438,7 +9518,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="27" thickBot="1">
+    <row r="16" spans="1:13" ht="30" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -9497,8 +9577,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:13" ht="27" thickBot="1">
+    <row r="19" spans="1:13" ht="16" thickBot="1"/>
+    <row r="20" spans="1:13" ht="30" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>85</v>
       </c>
@@ -9510,7 +9590,7 @@
       </c>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:13" ht="27" thickBot="1">
+    <row r="21" spans="1:13" ht="30" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -9525,7 +9605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1">
+    <row r="22" spans="1:13" ht="16" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -9542,7 +9622,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="39.75" thickBot="1">
+    <row r="23" spans="1:13" ht="44" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>89</v>
       </c>
@@ -9567,12 +9647,12 @@
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1">
+    <row r="28" spans="1:13" ht="16" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="27" thickBot="1">
+    <row r="29" spans="1:13" ht="30" thickBot="1">
       <c r="A29" s="9" t="s">
         <v>85</v>
       </c>
@@ -9585,7 +9665,7 @@
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="1:13" ht="27" thickBot="1">
+    <row r="30" spans="1:13" ht="30" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>10</v>
       </c>
@@ -9601,7 +9681,7 @@
       </c>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1">
+    <row r="31" spans="1:13" ht="16" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>11</v>
       </c>
@@ -9619,7 +9699,7 @@
       </c>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="1:13" ht="39.75" thickBot="1">
+    <row r="32" spans="1:13" ht="44" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>89</v>
       </c>
@@ -9652,19 +9732,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -9678,7 +9758,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="27" thickBot="1">
+    <row r="2" spans="1:11" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -9699,7 +9779,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -9720,7 +9800,7 @@
         <v>0.97448244785232785</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27" thickBot="1">
+    <row r="4" spans="1:11" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -9739,8 +9819,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="16" thickBot="1"/>
+    <row r="7" spans="1:11" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -9761,7 +9841,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="27" thickBot="1">
+    <row r="8" spans="1:11" ht="30" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -9785,7 +9865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+    <row r="9" spans="1:11" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -9814,7 +9894,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" thickBot="1">
+    <row r="10" spans="1:11" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -9863,7 +9943,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
+    <row r="14" spans="1:11" ht="16" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -9886,7 +9966,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="27" thickBot="1">
+    <row r="15" spans="1:11" ht="30" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -9917,7 +9997,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -9953,7 +10033,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27" thickBot="1">
+    <row r="17" spans="1:11" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -10020,7 +10100,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1">
+    <row r="21" spans="1:11" ht="16" thickBot="1">
       <c r="A21" s="13" t="s">
         <v>76</v>
       </c>
@@ -10031,7 +10111,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="27" thickBot="1">
+    <row r="22" spans="1:11" ht="30" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -10046,7 +10126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+    <row r="23" spans="1:11" ht="16" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -10063,7 +10143,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="27" thickBot="1">
+    <row r="24" spans="1:11" ht="30" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -10092,16 +10172,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -10115,7 +10195,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="27" thickBot="1">
+    <row r="2" spans="1:11" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -10136,7 +10216,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -10157,7 +10237,7 @@
         <v>0.98351979013457747</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27" thickBot="1">
+    <row r="4" spans="1:11" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -10176,8 +10256,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="16" thickBot="1"/>
+    <row r="7" spans="1:11" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -10198,7 +10278,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="27" thickBot="1">
+    <row r="8" spans="1:11" ht="30" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -10222,7 +10302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+    <row r="9" spans="1:11" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -10251,7 +10331,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" thickBot="1">
+    <row r="10" spans="1:11" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -10296,7 +10376,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="27" thickBot="1">
+    <row r="14" spans="1:11" ht="30" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -10322,7 +10402,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="27" thickBot="1">
+    <row r="15" spans="1:11" ht="30" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -10352,7 +10432,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -10387,7 +10467,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27" thickBot="1">
+    <row r="17" spans="1:11" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -10434,8 +10514,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="21" spans="1:11" ht="27" thickBot="1">
+    <row r="20" spans="1:11" ht="16" thickBot="1"/>
+    <row r="21" spans="1:11" ht="30" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -10450,7 +10530,7 @@
       </c>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:11" ht="27" thickBot="1">
+    <row r="22" spans="1:11" ht="30" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -10468,7 +10548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+    <row r="23" spans="1:11" ht="16" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -10492,7 +10572,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="39.75" thickBot="1">
+    <row r="24" spans="1:11" ht="44" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>89</v>
       </c>
@@ -10531,16 +10611,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -10554,7 +10634,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="27" thickBot="1">
+    <row r="2" spans="1:10" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -10575,7 +10655,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -10596,7 +10676,7 @@
         <v>0.92622883301508352</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -10615,8 +10695,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -10637,7 +10717,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="27" thickBot="1">
+    <row r="8" spans="1:10" ht="30" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -10661,7 +10741,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -10690,7 +10770,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -10730,7 +10810,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1">
+    <row r="13" spans="1:10" ht="16" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -10753,7 +10833,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="27" thickBot="1">
+    <row r="14" spans="1:10" ht="30" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -10783,7 +10863,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -10818,7 +10898,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="27" thickBot="1">
+    <row r="16" spans="1:10" ht="30" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -10865,8 +10945,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:10" ht="27" thickBot="1">
+    <row r="19" spans="1:10" ht="16" thickBot="1"/>
+    <row r="20" spans="1:10" ht="30" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>85</v>
       </c>
@@ -10879,7 +10959,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:10" ht="27" thickBot="1">
+    <row r="21" spans="1:10" ht="30" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -10895,7 +10975,7 @@
       </c>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="16" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -10913,7 +10993,7 @@
       </c>
       <c r="E22" s="20"/>
     </row>
-    <row r="23" spans="1:10" ht="39.75" thickBot="1">
+    <row r="23" spans="1:10" ht="44" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>89</v>
       </c>

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED85C35-37DB-D042-AA74-16D275298F3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC947039-CED4-AA4F-9A50-A56CBFF236D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="923" firstSheet="7" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4220" yWindow="3380" windowWidth="25600" windowHeight="14480" tabRatio="923" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quotas_US" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="321">
   <si>
     <t>IDF</t>
   </si>
@@ -1004,6 +1004,27 @@
   </si>
   <si>
     <t>ADNKS-GK137474-O29001 İbbs-Düzey1, İbbs-Düzey2, İl Ve İlçe Nüfusları / 2020 / İlçe Düzeyi / HEPSI</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>City: Gu</t>
+  </si>
+  <si>
+    <t>Town: Si</t>
+  </si>
+  <si>
+    <t>District: Gun</t>
+  </si>
+  <si>
+    <t>https://www.index.go.kr/potal/main/EachDtlPageDetail.do?idx_cd=1200</t>
+  </si>
+  <si>
+    <t>file "2020년 도시지역 인구현황(시군구별).xls"</t>
   </si>
 </sst>
 </file>
@@ -4820,10 +4841,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -5165,6 +5186,112 @@
       </c>
       <c r="J19" t="s">
         <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16" thickBot="1">
+      <c r="A21" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16" thickBot="1">
+      <c r="A22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>8.4078910000000007E-2</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0.4967454</v>
+      </c>
+      <c r="D22">
+        <v>0.41917569999999998</v>
+      </c>
+      <c r="E22" s="17">
+        <f>SUM(B22:D22)</f>
+        <v>1.0000000099999999</v>
+      </c>
+      <c r="H22" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16" thickBot="1">
+      <c r="A23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <f>ROUND(2000*B22,0)</f>
+        <v>168</v>
+      </c>
+      <c r="C23">
+        <f>ROUND(2000*D22,0)</f>
+        <v>838</v>
+      </c>
+      <c r="D23">
+        <f>ROUND(2000*C22,0)</f>
+        <v>993</v>
+      </c>
+      <c r="E23">
+        <f>SUM(B23:D23)</f>
+        <v>1999</v>
+      </c>
+      <c r="F23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" thickBot="1">
+      <c r="A24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <f>ROUND(2200*B22,0)</f>
+        <v>185</v>
+      </c>
+      <c r="C24">
+        <f>ROUND(2200*D22,0)</f>
+        <v>922</v>
+      </c>
+      <c r="D24">
+        <f>ROUND(2200*C22,0)</f>
+        <v>1093</v>
+      </c>
+      <c r="E24">
+        <f>SUM(B24:D24)</f>
+        <v>2200</v>
+      </c>
+      <c r="F24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" t="s">
+        <v>234</v>
+      </c>
+      <c r="I25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="I26" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -6025,7 +6152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -8301,7 +8428,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:F24"/>
+      <selection activeCell="H26" sqref="A20:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC947039-CED4-AA4F-9A50-A56CBFF236D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F824CBD0-8889-9F4C-8C58-DC8ACF611642}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="3380" windowWidth="25600" windowHeight="14480" tabRatio="923" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="923" firstSheet="8" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quotas_US" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="323">
   <si>
     <t>IDF</t>
   </si>
@@ -1025,6 +1025,12 @@
   </si>
   <si>
     <t>file "2020년 도시지역 인구현황(시군구별).xls"</t>
+  </si>
+  <si>
+    <t>http://www.ukrstat.gov.ua/druk/publicat/kat_u/2020/zb/05/zb_chuselnist%202019.pdf</t>
+  </si>
+  <si>
+    <t>(page 5)</t>
   </si>
 </sst>
 </file>
@@ -4843,7 +4849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -6153,7 +6159,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -7040,10 +7046,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -7388,6 +7394,79 @@
       </c>
       <c r="K19" t="s">
         <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16" thickBot="1"/>
+    <row r="21" spans="1:11" ht="30" thickBot="1">
+      <c r="A21" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" ht="16" thickBot="1">
+      <c r="A22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.30459999999999998</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.69540000000000002</v>
+      </c>
+      <c r="D22" s="6">
+        <f>SUM(B22:C22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16" thickBot="1">
+      <c r="A23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="8">
+        <f t="shared" ref="B23:C23" si="2">ROUND(2000*B22,0)</f>
+        <v>609</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="2"/>
+        <v>1391</v>
+      </c>
+      <c r="D23" s="8">
+        <f>SUM(B23:C23)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" thickBot="1">
+      <c r="A24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="10">
+        <f>ROUND(2200*B22,0)</f>
+        <v>670</v>
+      </c>
+      <c r="C24" s="10">
+        <f t="shared" ref="C24" si="3">ROUND(2200*C22,0)</f>
+        <v>1530</v>
+      </c>
+      <c r="D24" s="10">
+        <f>SUM(B24:C24)</f>
+        <v>2200</v>
+      </c>
+      <c r="I24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="J25" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F824CBD0-8889-9F4C-8C58-DC8ACF611642}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214BDF1E-40E6-9B41-8749-D38F38D1F325}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="923" firstSheet="8" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="923" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quotas_US" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <sheet name="quota_TR" sheetId="21" r:id="rId19"/>
     <sheet name="quota_UA" sheetId="22" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="326">
   <si>
     <t>IDF</t>
   </si>
@@ -1031,6 +1031,15 @@
   </si>
   <si>
     <t>(page 5)</t>
+  </si>
+  <si>
+    <t>Municipality &lt;50k</t>
+  </si>
+  <si>
+    <t>Municipality &gt;50k</t>
+  </si>
+  <si>
+    <t>https://www.caurj.gov.br/populacao-brasileira-chega-a-2118-milhoes-de-habitantes-em-2020/</t>
   </si>
 </sst>
 </file>
@@ -4049,10 +4058,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -4366,6 +4375,74 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
+    </row>
+    <row r="20" spans="1:10" ht="16" thickBot="1"/>
+    <row r="21" spans="1:10" ht="30" thickBot="1">
+      <c r="A21" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" ht="16" thickBot="1">
+      <c r="A22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.3099137235942635</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.6900862764057365</v>
+      </c>
+      <c r="D22" s="6">
+        <f>SUM(B22:C22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16" thickBot="1">
+      <c r="A23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="8">
+        <f t="shared" ref="B23:C23" si="2">ROUND(2000*B22,0)</f>
+        <v>620</v>
+      </c>
+      <c r="C23" s="8">
+        <f t="shared" si="2"/>
+        <v>1380</v>
+      </c>
+      <c r="D23" s="8">
+        <f>SUM(B23:C23)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" thickBot="1">
+      <c r="A24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="10">
+        <f>ROUND(2200*B22,0)</f>
+        <v>682</v>
+      </c>
+      <c r="C24" s="10">
+        <f t="shared" ref="C24" si="3">ROUND(2200*C22,0)</f>
+        <v>1518</v>
+      </c>
+      <c r="D24" s="10">
+        <f>SUM(B24:C24)</f>
+        <v>2200</v>
+      </c>
+      <c r="I24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" t="s">
+        <v>325</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7048,8 +7125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afabre\Documents\www\oecd_climate\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214BDF1E-40E6-9B41-8749-D38F38D1F325}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="923" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14475" tabRatio="923" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="quotas_US" sheetId="2" r:id="rId1"/>
@@ -18,23 +17,23 @@
     <sheet name="quotas_FR" sheetId="3" r:id="rId3"/>
     <sheet name="quotas_DE" sheetId="8" r:id="rId4"/>
     <sheet name="quotas_IT" sheetId="12" r:id="rId5"/>
-    <sheet name="quotas_PL" sheetId="9" r:id="rId6"/>
-    <sheet name="quotas_SP" sheetId="7" r:id="rId7"/>
-    <sheet name="quotas_UK" sheetId="6" r:id="rId8"/>
-    <sheet name="quotas_JP" sheetId="11" r:id="rId9"/>
-    <sheet name="quotas_IN" sheetId="5" r:id="rId10"/>
-    <sheet name="quotas_ID" sheetId="10" r:id="rId11"/>
-    <sheet name="quotas_SA" sheetId="14" r:id="rId12"/>
-    <sheet name="quotas_CN" sheetId="15" r:id="rId13"/>
-    <sheet name="quotas_BR" sheetId="16" r:id="rId14"/>
-    <sheet name="quotas_MX" sheetId="17" r:id="rId15"/>
-    <sheet name="quotas_SK" sheetId="18" r:id="rId16"/>
-    <sheet name="quota_AU" sheetId="19" r:id="rId17"/>
+    <sheet name="quotas_SP" sheetId="7" r:id="rId6"/>
+    <sheet name="quotas_UK" sheetId="6" r:id="rId7"/>
+    <sheet name="quotas_JP" sheetId="11" r:id="rId8"/>
+    <sheet name="quotas_PL" sheetId="9" r:id="rId9"/>
+    <sheet name="quota_AU" sheetId="19" r:id="rId10"/>
+    <sheet name="quotas_IN" sheetId="5" r:id="rId11"/>
+    <sheet name="quotas_ID" sheetId="10" r:id="rId12"/>
+    <sheet name="quotas_SA" sheetId="14" r:id="rId13"/>
+    <sheet name="quotas_CN" sheetId="15" r:id="rId14"/>
+    <sheet name="quotas_BR" sheetId="16" r:id="rId15"/>
+    <sheet name="quotas_MX" sheetId="17" r:id="rId16"/>
+    <sheet name="quotas_SK" sheetId="18" r:id="rId17"/>
     <sheet name="quota_CA" sheetId="20" r:id="rId18"/>
     <sheet name="quota_TR" sheetId="21" r:id="rId19"/>
     <sheet name="quota_UA" sheetId="22" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="333">
   <si>
     <t>IDF</t>
   </si>
@@ -1041,16 +1040,37 @@
   <si>
     <t>https://www.caurj.gov.br/populacao-brasileira-chega-a-2118-milhoes-de-habitantes-em-2020/</t>
   </si>
+  <si>
+    <t>New Quota*</t>
+  </si>
+  <si>
+    <t>New Quota (+10%)</t>
+  </si>
+  <si>
+    <t>New Quota (+10%) after bug</t>
+  </si>
+  <si>
+    <t>* 14 zipcodes were not properly treated at the beginning: we counted which region/urbanity failed to be recorded, will correct the ,csv data, we decrement the quotas by the corresponding numbers, and we now excludes (from the count) those respondents for which the zipcode is not correctly treated</t>
+  </si>
+  <si>
+    <t>* 9 zipcodes were not properly treated at the beginning: we counted which region/urbanity failed to be recorded, will correct the ,csv data, we decrement the quotas by the corresponding numbers, and we now excludes (from the count) those respondents for which the zipcode is not correctly treated</t>
+  </si>
+  <si>
+    <t>* 7 zipcodes were invalid: we dropped them; and 10 zipcode were not properly treated at the beginning: we counted which region/urbanity failed to be recorded, will correct the ,csv data, we decrement the quotas by the corresponding numbers, and we now excludes (from the count) those respondents for which the zipcode is not correctly treated</t>
+  </si>
+  <si>
+    <t>* 5 zipcodes were invalid: we dropped them; and 5 zipcodes were not properly treated at the beginning: we counted which region/urbanity failed to be recorded, will correct the ,csv data, we decrement the quotas by the corresponding numbers, and we now excludes (from the count) those respondents for which the zipcode is not correctly treated</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1137,6 +1157,22 @@
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1181,7 +1217,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1243,11 +1279,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1524,14 +1571,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -2020,29 +2067,463 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D22" r:id="rId2" display="https://www.ers.usda.gov/data-products/rural-urban-commuting-area-codes/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="D22" r:id="rId2" display="https://www.ers.usda.gov/data-products/rural-urban-commuting-area-codes/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6">
+        <f>1-C2</f>
+        <v>0.5064562063085738</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.49354379369142626</v>
+      </c>
+      <c r="D2" s="7">
+        <f>SUM(B2:C2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8">
+        <f>ROUND(2000*B2,0)</f>
+        <v>1013</v>
+      </c>
+      <c r="C3" s="8">
+        <f>ROUND(2000*C2,0)</f>
+        <v>987</v>
+      </c>
+      <c r="D3" s="8">
+        <f>ROUND(2000*D2,0)</f>
+        <v>2000</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="27" thickBot="1">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8">
+        <f>ROUND(2200*B2,0)</f>
+        <v>1114</v>
+      </c>
+      <c r="C4" s="8">
+        <f>ROUND(2200*C2,0)</f>
+        <v>1086</v>
+      </c>
+      <c r="D4" s="8">
+        <f>ROUND(2200*D2,0)</f>
+        <v>2200</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.11192255877789467</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.18591237270266067</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.26180562458671341</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.23014443705193119</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.21021500688079983</v>
+      </c>
+      <c r="G8" s="7">
+        <f>SUM(B8:F8)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" ref="B9:G9" si="0">ROUND(2000*B8,0)</f>
+        <v>224</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>372</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>524</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>460</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="27" thickBot="1">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" ref="B10:G10" si="1">ROUND(2200*B8,0)</f>
+        <v>246</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="1"/>
+        <v>409</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="1"/>
+        <v>576</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>506</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="1"/>
+        <v>462</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="27" thickBot="1">
+      <c r="A14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" t="s">
+        <v>253</v>
+      </c>
+      <c r="J14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="31">
+        <v>0.113539667648902</v>
+      </c>
+      <c r="C15" s="31">
+        <v>0.20221723103033501</v>
+      </c>
+      <c r="D15" s="31">
+        <v>0.33492022094458102</v>
+      </c>
+      <c r="E15" s="31">
+        <v>6.8930349517510897E-2</v>
+      </c>
+      <c r="F15" s="31">
+        <v>0.280392530858671</v>
+      </c>
+      <c r="G15" s="17">
+        <f>SUM(B15:F15)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="I15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="10">
+        <f>ROUND(2000*B15,0)</f>
+        <v>227</v>
+      </c>
+      <c r="C16" s="10">
+        <f>ROUND(2000*C15,0)</f>
+        <v>404</v>
+      </c>
+      <c r="D16" s="10">
+        <f>ROUND(2000*D15,0)</f>
+        <v>670</v>
+      </c>
+      <c r="E16" s="10">
+        <f>ROUND(2000*E15,0)</f>
+        <v>138</v>
+      </c>
+      <c r="F16" s="10">
+        <f>ROUND(2000*F15,0)</f>
+        <v>561</v>
+      </c>
+      <c r="G16" s="3">
+        <f>SUM(B16:F16)</f>
+        <v>2000</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="J16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="27" thickBot="1">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <f>ROUND(2200*B15,0)</f>
+        <v>250</v>
+      </c>
+      <c r="C17" s="2">
+        <f>ROUND(2200*C15,0)</f>
+        <v>445</v>
+      </c>
+      <c r="D17" s="2">
+        <f>ROUND(2200*D15,0)</f>
+        <v>737</v>
+      </c>
+      <c r="E17" s="2">
+        <f>ROUND(2200*E15,0)</f>
+        <v>152</v>
+      </c>
+      <c r="F17" s="2">
+        <f>ROUND(2200*F15,0)</f>
+        <v>617</v>
+      </c>
+      <c r="G17" s="3">
+        <f>SUM(B17:F17)</f>
+        <v>2201</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="11"/>
+      <c r="I18" t="s">
+        <v>252</v>
+      </c>
+      <c r="J18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="I19" t="s">
+        <v>234</v>
+      </c>
+      <c r="J19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="23" spans="1:10" ht="27" thickBot="1">
+      <c r="A23" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.28418060000000001</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.71581939999999999</v>
+      </c>
+      <c r="D24" s="6">
+        <f>SUM(B24:C24)</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="8">
+        <f t="shared" ref="B25:C25" si="2">ROUND(2000*B24,0)</f>
+        <v>568</v>
+      </c>
+      <c r="C25" s="8">
+        <f t="shared" si="2"/>
+        <v>1432</v>
+      </c>
+      <c r="D25" s="8">
+        <f>SUM(B25:C25)</f>
+        <v>2000</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="39.75" thickBot="1">
+      <c r="A26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="10">
+        <f>ROUND(2200*B24,0)</f>
+        <v>625</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" ref="C26" si="3">ROUND(2200*C24,0)</f>
+        <v>1575</v>
+      </c>
+      <c r="D26" s="10">
+        <f>SUM(B26:C26)</f>
+        <v>2200</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="G26" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="G27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -2057,7 +2538,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="30" thickBot="1">
+    <row r="2" spans="1:11" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2079,7 +2560,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2101,7 +2582,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="30" thickBot="1">
+    <row r="4" spans="1:11" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -2142,7 +2623,7 @@
       <c r="G6" s="24"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -2152,7 +2633,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:11" ht="16" thickBot="1">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -2174,7 +2655,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:11" ht="30" thickBot="1">
+    <row r="9" spans="1:11" ht="27" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -2199,7 +2680,7 @@
       </c>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:11" ht="16" thickBot="1">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -2229,7 +2710,7 @@
       </c>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:11" ht="30" thickBot="1">
+    <row r="11" spans="1:11" ht="27" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -2274,7 +2755,7 @@
     <row r="13" spans="1:11">
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:11" ht="72" thickBot="1">
+    <row r="14" spans="1:11" ht="65.25" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -2299,7 +2780,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" thickBot="1">
+    <row r="15" spans="1:11" ht="27" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -2323,7 +2804,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -2355,7 +2836,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" thickBot="1">
+    <row r="17" spans="1:12" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -2424,7 +2905,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="30" thickBot="1">
+    <row r="21" spans="1:12" ht="27" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>218</v>
       </c>
@@ -2440,7 +2921,7 @@
       <c r="G21" s="29"/>
       <c r="H21" s="25"/>
     </row>
-    <row r="22" spans="1:12" ht="30" thickBot="1">
+    <row r="22" spans="1:12" ht="27" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -2459,7 +2940,7 @@
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:12" ht="16" thickBot="1">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -2479,7 +2960,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:12" ht="30" thickBot="1">
+    <row r="24" spans="1:12" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -2525,7 +3006,7 @@
       <c r="E27" s="11"/>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="1:12" ht="30" thickBot="1">
+    <row r="28" spans="1:12" ht="27" thickBot="1">
       <c r="A28" s="9" t="s">
         <v>218</v>
       </c>
@@ -2549,7 +3030,7 @@
       </c>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="1:12" ht="30" thickBot="1">
+    <row r="29" spans="1:12" ht="27" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
@@ -2576,7 +3057,7 @@
         <v>0.99989215000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16" thickBot="1">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
@@ -2609,7 +3090,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="30" thickBot="1">
+    <row r="31" spans="1:12" ht="27" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
@@ -2697,17 +3178,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -2721,7 +3202,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="30" thickBot="1">
+    <row r="2" spans="1:11" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2742,7 +3223,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2763,7 +3244,7 @@
         <v>0.99792841994678028</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" thickBot="1">
+    <row r="4" spans="1:11" ht="27.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -2782,8 +3263,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="34"/>
     </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1"/>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -2804,7 +3285,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="30" thickBot="1">
+    <row r="8" spans="1:11" ht="27" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -2828,7 +3309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -2857,7 +3338,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" thickBot="1">
+    <row r="10" spans="1:11" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -2897,7 +3378,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="30" thickBot="1">
+    <row r="14" spans="1:11" ht="27" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -2926,7 +3407,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" thickBot="1">
+    <row r="15" spans="1:11" ht="27" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -2956,7 +3437,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -2991,7 +3472,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" thickBot="1">
+    <row r="17" spans="1:11" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3046,8 +3527,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16" thickBot="1"/>
-    <row r="23" spans="1:11" ht="30" thickBot="1">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="23" spans="1:11" ht="27" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -3060,7 +3541,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="30" thickBot="1">
+    <row r="24" spans="1:11" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -3082,7 +3563,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16" thickBot="1">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -3106,7 +3587,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="44" thickBot="1">
+    <row r="26" spans="1:11" ht="39.75" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>89</v>
       </c>
@@ -3130,17 +3611,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -3154,7 +3635,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3175,7 +3656,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -3196,7 +3677,7 @@
         <v>0.97760081385085629</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" thickBot="1">
+    <row r="4" spans="1:11" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -3215,8 +3696,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1"/>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -3237,7 +3718,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="16" thickBot="1">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3261,7 +3742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3290,7 +3771,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" thickBot="1">
+    <row r="10" spans="1:11" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3330,7 +3811,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -3353,7 +3834,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3383,7 +3864,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -3418,7 +3899,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" thickBot="1">
+    <row r="17" spans="1:11" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3468,8 +3949,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16" thickBot="1"/>
-    <row r="22" spans="1:11" ht="30" thickBot="1">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="22" spans="1:11" ht="27" thickBot="1">
       <c r="A22" s="9" t="s">
         <v>85</v>
       </c>
@@ -3482,7 +3963,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="16" thickBot="1">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -3504,7 +3985,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16" thickBot="1">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
@@ -3531,7 +4012,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="44" thickBot="1">
+    <row r="25" spans="1:11" ht="39.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>89</v>
       </c>
@@ -3554,17 +4035,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -3578,7 +4059,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3599,7 +4080,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -3620,7 +4101,7 @@
         <v>1.0341140064832992</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -3639,8 +4120,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -3661,7 +4142,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3685,7 +4166,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3714,7 +4195,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3754,7 +4235,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="30" thickBot="1">
+    <row r="13" spans="1:10" ht="27" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -3777,7 +4258,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16" thickBot="1">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -3807,7 +4288,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -3842,7 +4323,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" thickBot="1">
+    <row r="16" spans="1:10" ht="27" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -3880,7 +4361,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="19" spans="1:9" ht="16" thickBot="1">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1">
       <c r="A19" s="13" t="s">
         <v>76</v>
       </c>
@@ -3891,7 +4372,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16" thickBot="1">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -3912,7 +4393,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16" thickBot="1">
+    <row r="21" spans="1:9" ht="15.75" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -3929,7 +4410,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30" thickBot="1">
+    <row r="22" spans="1:9" ht="27" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -4056,17 +4537,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -4080,7 +4561,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="16" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4101,7 +4582,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -4122,7 +4603,7 @@
         <v>0.95217958067188335</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" thickBot="1">
+    <row r="4" spans="1:7" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -4141,8 +4622,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="16" thickBot="1"/>
-    <row r="7" spans="1:7" ht="16" thickBot="1">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -4163,7 +4644,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="16" thickBot="1">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -4187,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" thickBot="1">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -4216,7 +4697,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" thickBot="1">
+    <row r="10" spans="1:7" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4256,7 +4737,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="16" thickBot="1">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -4279,7 +4760,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" thickBot="1">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -4303,7 +4784,7 @@
         <v>0.99999999999999933</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" thickBot="1">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -4332,7 +4813,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" thickBot="1">
+    <row r="17" spans="1:10" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4376,8 +4857,8 @@
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="20" spans="1:10" ht="16" thickBot="1"/>
-    <row r="21" spans="1:10" ht="30" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="21" spans="1:10" ht="27" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -4389,7 +4870,7 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -4404,7 +4885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -4421,7 +4902,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30" thickBot="1">
+    <row r="24" spans="1:10" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -4449,17 +4930,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -4473,7 +4954,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4494,7 +4975,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -4515,7 +4996,7 @@
         <v>0.92970833595125124</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -4534,8 +5015,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -4556,7 +5037,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -4580,7 +5061,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -4609,7 +5090,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4649,7 +5130,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="30" thickBot="1">
+    <row r="14" spans="1:10" ht="27" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -4678,7 +5159,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -4708,7 +5189,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -4743,7 +5224,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" thickBot="1">
+    <row r="17" spans="1:10" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4801,7 +5282,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="13" t="s">
         <v>76</v>
       </c>
@@ -4815,7 +5296,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -4833,7 +5314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -4860,7 +5341,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30" thickBot="1">
+    <row r="24" spans="1:10" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -4922,17 +5403,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -4946,7 +5427,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4967,7 +5448,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -4988,7 +5469,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -5007,8 +5488,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -5029,7 +5510,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -5053,7 +5534,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -5082,7 +5563,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5122,7 +5603,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="30" thickBot="1">
+    <row r="14" spans="1:10" ht="27" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -5148,7 +5629,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -5178,7 +5659,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -5213,7 +5694,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" thickBot="1">
+    <row r="17" spans="1:10" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5271,7 +5752,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="13" t="s">
         <v>76</v>
       </c>
@@ -5285,7 +5766,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -5306,7 +5787,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -5333,7 +5814,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30" thickBot="1">
+    <row r="24" spans="1:10" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -5382,17 +5863,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:J27"/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:E26"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D23" sqref="A20:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -5406,16 +5887,16 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
         <f>1-C2</f>
-        <v>0.5064562063085738</v>
+        <v>0.5072618222776264</v>
       </c>
       <c r="C2" s="6">
-        <v>0.49354379369142626</v>
+        <v>0.4927381777223736</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(B2:C2)</f>
@@ -5426,17 +5907,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="8">
         <f>ROUND(2000*B2,0)</f>
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="C3" s="8">
         <f>ROUND(2000*C2,0)</f>
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D3" s="8">
         <f>ROUND(2000*D2,0)</f>
@@ -5445,17 +5926,17 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="8">
         <f>ROUND(2200*B2,0)</f>
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="C4" s="8">
         <f>ROUND(2200*C2,0)</f>
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D4" s="8">
         <f>ROUND(2200*D2,0)</f>
@@ -5464,8 +5945,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -5486,82 +5967,82 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="6">
-        <v>0.11192255877789467</v>
+        <v>0.10402815988780871</v>
       </c>
       <c r="C8" s="6">
-        <v>0.18591237270266067</v>
+        <v>0.17502163559091188</v>
       </c>
       <c r="D8" s="6">
-        <v>0.26180562458671341</v>
+        <v>0.24488811098766669</v>
       </c>
       <c r="E8" s="6">
-        <v>0.23014443705193119</v>
+        <v>0.25292269475436224</v>
       </c>
       <c r="F8" s="6">
-        <v>0.21021500688079983</v>
+        <v>0.22313939877924996</v>
       </c>
       <c r="G8" s="7">
         <f>SUM(B8:F8)</f>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="8">
         <f t="shared" ref="B9:G9" si="0">ROUND(2000*B8,0)</f>
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" si="0"/>
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>506</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="8">
         <f t="shared" ref="B10:G10" si="1">ROUND(2200*B8,0)</f>
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" si="1"/>
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" si="1"/>
-        <v>576</v>
+        <v>539</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>506</v>
+        <v>556</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="1"/>
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="1"/>
@@ -5579,127 +6060,127 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="30" thickBot="1">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>248</v>
+      <c r="B14" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>249</v>
+        <v>111</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>139</v>
       </c>
       <c r="I14" t="s">
-        <v>253</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="31">
-        <v>0.113539667648902</v>
-      </c>
-      <c r="C15" s="31">
-        <v>0.20221723103033501</v>
-      </c>
-      <c r="D15" s="31">
-        <v>0.33492022094458102</v>
-      </c>
-      <c r="E15" s="31">
-        <v>6.8930349517510897E-2</v>
-      </c>
-      <c r="F15" s="31">
-        <v>0.280392530858671</v>
+      <c r="B15">
+        <v>0.25286894787704101</v>
+      </c>
+      <c r="C15">
+        <v>6.7500838497375801E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.38909366153470298</v>
+      </c>
+      <c r="E15">
+        <v>0.22614691528820399</v>
+      </c>
+      <c r="F15">
+        <v>6.4389636802676301E-2</v>
       </c>
       <c r="G15" s="17">
         <f>SUM(B15:F15)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16" thickBot="1">
+        <v>111</v>
+      </c>
+      <c r="J15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="10">
         <f>ROUND(2000*B15,0)</f>
-        <v>227</v>
+        <v>506</v>
       </c>
       <c r="C16" s="10">
         <f>ROUND(2000*C15,0)</f>
-        <v>404</v>
+        <v>135</v>
       </c>
       <c r="D16" s="10">
         <f>ROUND(2000*D15,0)</f>
-        <v>670</v>
+        <v>778</v>
       </c>
       <c r="E16" s="10">
         <f>ROUND(2000*E15,0)</f>
-        <v>138</v>
+        <v>452</v>
       </c>
       <c r="F16" s="10">
         <f>ROUND(2000*F15,0)</f>
-        <v>561</v>
+        <v>129</v>
       </c>
       <c r="G16" s="3">
         <f>SUM(B16:F16)</f>
         <v>2000</v>
       </c>
-      <c r="I16" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="J16" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30" thickBot="1">
+      <c r="I16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2">
         <f>ROUND(2200*B15,0)</f>
-        <v>250</v>
+        <v>556</v>
       </c>
       <c r="C17" s="2">
         <f>ROUND(2200*C15,0)</f>
-        <v>445</v>
+        <v>149</v>
       </c>
       <c r="D17" s="2">
         <f>ROUND(2200*D15,0)</f>
-        <v>737</v>
+        <v>856</v>
       </c>
       <c r="E17" s="2">
         <f>ROUND(2200*E15,0)</f>
-        <v>152</v>
+        <v>498</v>
       </c>
       <c r="F17" s="2">
         <f>ROUND(2200*F15,0)</f>
-        <v>617</v>
+        <v>142</v>
       </c>
       <c r="G17" s="3">
         <f>SUM(B17:F17)</f>
         <v>2201</v>
       </c>
-      <c r="I17" s="29" t="s">
-        <v>251</v>
+      <c r="I17" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5711,104 +6192,85 @@
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
       <c r="I18" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="J18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="I19" t="s">
         <v>234</v>
       </c>
       <c r="J19" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1"/>
-    <row r="23" spans="1:10" ht="30" thickBot="1">
-      <c r="A23" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="27" thickBot="1">
+      <c r="A20" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B20" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" ht="16" thickBot="1">
-      <c r="A24" s="5" t="s">
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="6">
-        <v>0.28418060000000001</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0.71581939999999999</v>
-      </c>
-      <c r="D24" s="6">
-        <f>SUM(B24:C24)</f>
+      <c r="B21" s="6">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="D21" s="6">
+        <f>SUM(B21:C21)</f>
         <v>1</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" t="s">
-        <v>211</v>
-      </c>
-      <c r="G24" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="16" thickBot="1">
-      <c r="A25" s="5" t="s">
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="8">
-        <f t="shared" ref="B25:C25" si="2">ROUND(2000*B24,0)</f>
-        <v>568</v>
-      </c>
-      <c r="C25" s="8">
+      <c r="B22" s="8">
+        <f t="shared" ref="B22:C22" si="2">ROUND(2000*B21,0)</f>
+        <v>334</v>
+      </c>
+      <c r="C22" s="8">
         <f t="shared" si="2"/>
-        <v>1432</v>
-      </c>
-      <c r="D25" s="8">
-        <f>SUM(B25:C25)</f>
+        <v>1666</v>
+      </c>
+      <c r="D22" s="8">
+        <f>SUM(B22:C22)</f>
         <v>2000</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="44" thickBot="1">
-      <c r="A26" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="10">
-        <f>ROUND(2200*B24,0)</f>
-        <v>625</v>
-      </c>
-      <c r="C26" s="10">
-        <f t="shared" ref="C26" si="3">ROUND(2200*C24,0)</f>
-        <v>1575</v>
-      </c>
-      <c r="D26" s="10">
-        <f>SUM(B26:C26)</f>
+    </row>
+    <row r="23" spans="1:10" ht="27" thickBot="1">
+      <c r="A23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="10">
+        <f>ROUND(2200*B21,0)</f>
+        <v>367</v>
+      </c>
+      <c r="C23" s="10">
+        <f t="shared" ref="C23" si="3">ROUND(2200*C21,0)</f>
+        <v>1833</v>
+      </c>
+      <c r="D23" s="10">
+        <f>SUM(B23:C23)</f>
         <v>2200</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="G26" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="G27" t="s">
-        <v>298</v>
+      <c r="I23" t="s">
+        <v>234</v>
+      </c>
+      <c r="J23" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -5816,17 +6278,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:J23"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D23" sqref="A20:D23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -5840,16 +6302,16 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
         <f>1-C2</f>
-        <v>0.5072618222776264</v>
+        <v>0.51342426197866531</v>
       </c>
       <c r="C2" s="6">
-        <v>0.4927381777223736</v>
+        <v>0.48657573802133475</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(B2:C2)</f>
@@ -5860,17 +6322,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="8">
         <f>ROUND(2000*B2,0)</f>
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="C3" s="8">
         <f>ROUND(2000*C2,0)</f>
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="D3" s="8">
         <f>ROUND(2000*D2,0)</f>
@@ -5879,17 +6341,17 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="8">
         <f>ROUND(2200*B2,0)</f>
-        <v>1116</v>
+        <v>1130</v>
       </c>
       <c r="C4" s="8">
         <f>ROUND(2200*C2,0)</f>
-        <v>1084</v>
+        <v>1070</v>
       </c>
       <c r="D4" s="8">
         <f>ROUND(2200*D2,0)</f>
@@ -5898,8 +6360,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -5920,82 +6382,82 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="6">
-        <v>0.10402815988780871</v>
+        <v>0.1582325601298683</v>
       </c>
       <c r="C8" s="6">
-        <v>0.17502163559091188</v>
+        <v>0.2131137356790879</v>
       </c>
       <c r="D8" s="6">
-        <v>0.24488811098766669</v>
+        <v>0.29681998391047659</v>
       </c>
       <c r="E8" s="6">
-        <v>0.25292269475436224</v>
+        <v>0.20571250504618752</v>
       </c>
       <c r="F8" s="6">
-        <v>0.22313939877924996</v>
+        <v>0.12612121523437902</v>
       </c>
       <c r="G8" s="7">
         <f>SUM(B8:F8)</f>
-        <v>0.99999999999999944</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+        <v>0.99999999999999933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="8">
         <f t="shared" ref="B9:G9" si="0">ROUND(2000*B8,0)</f>
-        <v>208</v>
+        <v>316</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>426</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>594</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>506</v>
+        <v>411</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="0"/>
-        <v>446</v>
+        <v>252</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="8">
         <f t="shared" ref="B10:G10" si="1">ROUND(2200*B8,0)</f>
-        <v>229</v>
+        <v>348</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" si="1"/>
-        <v>385</v>
+        <v>469</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" si="1"/>
-        <v>539</v>
+        <v>653</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>556</v>
+        <v>453</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="1"/>
-        <v>491</v>
+        <v>277</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="1"/>
@@ -6013,127 +6475,115 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="16" thickBot="1">
+    <row r="14" spans="1:10" ht="78" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>48</v>
+        <v>277</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>111</v>
+        <v>278</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="I14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+      <c r="I14" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15">
-        <v>0.25286894787704101</v>
-      </c>
-      <c r="C15">
-        <v>6.7500838497375801E-2</v>
-      </c>
-      <c r="D15">
-        <v>0.38909366153470298</v>
-      </c>
-      <c r="E15">
-        <v>0.22614691528820399</v>
-      </c>
-      <c r="F15">
-        <v>6.4389636802676301E-2</v>
+      <c r="B15" s="16">
+        <v>0.34196297187100699</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0.303696271169138</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.13099525360860201</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0.128080832149781</v>
+      </c>
+      <c r="F15" s="16">
+        <v>9.5264671201471807E-2</v>
       </c>
       <c r="G15" s="17">
         <f>SUM(B15:F15)</f>
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>111</v>
-      </c>
-      <c r="J15" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16" thickBot="1">
+        <v>0.99999999999999978</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="10">
         <f>ROUND(2000*B15,0)</f>
-        <v>506</v>
+        <v>684</v>
       </c>
       <c r="C16" s="10">
         <f>ROUND(2000*C15,0)</f>
-        <v>135</v>
+        <v>607</v>
       </c>
       <c r="D16" s="10">
         <f>ROUND(2000*D15,0)</f>
-        <v>778</v>
+        <v>262</v>
       </c>
       <c r="E16" s="10">
         <f>ROUND(2000*E15,0)</f>
-        <v>452</v>
+        <v>256</v>
       </c>
       <c r="F16" s="10">
         <f>ROUND(2000*F15,0)</f>
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="G16" s="3">
         <f>SUM(B16:F16)</f>
         <v>2000</v>
       </c>
-      <c r="I16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30" thickBot="1">
+    </row>
+    <row r="17" spans="1:10" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2">
         <f>ROUND(2200*B15,0)</f>
-        <v>556</v>
+        <v>752</v>
       </c>
       <c r="C17" s="2">
         <f>ROUND(2200*C15,0)</f>
-        <v>149</v>
+        <v>668</v>
       </c>
       <c r="D17" s="2">
         <f>ROUND(2200*D15,0)</f>
-        <v>856</v>
+        <v>288</v>
       </c>
       <c r="E17" s="2">
         <f>ROUND(2200*E15,0)</f>
-        <v>498</v>
+        <v>282</v>
       </c>
       <c r="F17" s="2">
         <f>ROUND(2200*F15,0)</f>
-        <v>142</v>
+        <v>210</v>
       </c>
       <c r="G17" s="3">
         <f>SUM(B17:F17)</f>
-        <v>2201</v>
-      </c>
-      <c r="I17" t="s">
-        <v>255</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6144,409 +6594,6 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
-      <c r="I18" t="s">
-        <v>256</v>
-      </c>
-      <c r="J18" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1">
-      <c r="I19" t="s">
-        <v>234</v>
-      </c>
-      <c r="J19" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="30" thickBot="1">
-      <c r="A20" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" ht="16" thickBot="1">
-      <c r="A21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="D21" s="6">
-        <f>SUM(B21:C21)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
-      <c r="A22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="8">
-        <f t="shared" ref="B22:C22" si="2">ROUND(2000*B21,0)</f>
-        <v>334</v>
-      </c>
-      <c r="C22" s="8">
-        <f t="shared" si="2"/>
-        <v>1666</v>
-      </c>
-      <c r="D22" s="8">
-        <f>SUM(B22:C22)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="30" thickBot="1">
-      <c r="A23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="10">
-        <f>ROUND(2200*B21,0)</f>
-        <v>367</v>
-      </c>
-      <c r="C23" s="10">
-        <f t="shared" ref="C23" si="3">ROUND(2200*C21,0)</f>
-        <v>1833</v>
-      </c>
-      <c r="D23" s="10">
-        <f>SUM(B23:C23)</f>
-        <v>2200</v>
-      </c>
-      <c r="I23" t="s">
-        <v>234</v>
-      </c>
-      <c r="J23" t="s">
-        <v>302</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:J25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6">
-        <f>1-C2</f>
-        <v>0.51342426197866531</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.48657573802133475</v>
-      </c>
-      <c r="D2" s="7">
-        <f>SUM(B2:C2)</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8">
-        <f>ROUND(2000*B2,0)</f>
-        <v>1027</v>
-      </c>
-      <c r="C3" s="8">
-        <f>ROUND(2000*C2,0)</f>
-        <v>973</v>
-      </c>
-      <c r="D3" s="8">
-        <f>ROUND(2000*D2,0)</f>
-        <v>2000</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="8">
-        <f>ROUND(2200*B2,0)</f>
-        <v>1130</v>
-      </c>
-      <c r="C4" s="8">
-        <f>ROUND(2200*C2,0)</f>
-        <v>1070</v>
-      </c>
-      <c r="D4" s="8">
-        <f>ROUND(2200*D2,0)</f>
-        <v>2200</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
-      <c r="A7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.1582325601298683</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.2131137356790879</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.29681998391047659</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.20571250504618752</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.12612121523437902</v>
-      </c>
-      <c r="G8" s="7">
-        <f>SUM(B8:F8)</f>
-        <v>0.99999999999999933</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8">
-        <f t="shared" ref="B9:G9" si="0">ROUND(2000*B8,0)</f>
-        <v>316</v>
-      </c>
-      <c r="C9" s="8">
-        <f t="shared" si="0"/>
-        <v>426</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" si="0"/>
-        <v>594</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
-        <v>411</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>252</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8">
-        <f t="shared" ref="B10:G10" si="1">ROUND(2200*B8,0)</f>
-        <v>348</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" si="1"/>
-        <v>469</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" si="1"/>
-        <v>653</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="1"/>
-        <v>453</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="1"/>
-        <v>277</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="1"/>
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="14" spans="1:10" ht="86" thickBot="1">
-      <c r="A14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
-      <c r="A15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="16">
-        <v>0.34196297187100699</v>
-      </c>
-      <c r="C15" s="16">
-        <v>0.303696271169138</v>
-      </c>
-      <c r="D15" s="16">
-        <v>0.13099525360860201</v>
-      </c>
-      <c r="E15" s="16">
-        <v>0.128080832149781</v>
-      </c>
-      <c r="F15" s="16">
-        <v>9.5264671201471807E-2</v>
-      </c>
-      <c r="G15" s="17">
-        <f>SUM(B15:F15)</f>
-        <v>0.99999999999999978</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="16" thickBot="1">
-      <c r="A16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="10">
-        <f>ROUND(2000*B15,0)</f>
-        <v>684</v>
-      </c>
-      <c r="C16" s="10">
-        <f>ROUND(2000*C15,0)</f>
-        <v>607</v>
-      </c>
-      <c r="D16" s="10">
-        <f>ROUND(2000*D15,0)</f>
-        <v>262</v>
-      </c>
-      <c r="E16" s="10">
-        <f>ROUND(2000*E15,0)</f>
-        <v>256</v>
-      </c>
-      <c r="F16" s="10">
-        <f>ROUND(2000*F15,0)</f>
-        <v>191</v>
-      </c>
-      <c r="G16" s="3">
-        <f>SUM(B16:F16)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30" thickBot="1">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2">
-        <f>ROUND(2200*B15,0)</f>
-        <v>752</v>
-      </c>
-      <c r="C17" s="2">
-        <f>ROUND(2200*C15,0)</f>
-        <v>668</v>
-      </c>
-      <c r="D17" s="2">
-        <f>ROUND(2200*D15,0)</f>
-        <v>288</v>
-      </c>
-      <c r="E17" s="2">
-        <f>ROUND(2200*E15,0)</f>
-        <v>282</v>
-      </c>
-      <c r="F17" s="2">
-        <f>ROUND(2200*F15,0)</f>
-        <v>210</v>
-      </c>
-      <c r="G17" s="3">
-        <f>SUM(B17:F17)</f>
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:10">
       <c r="I19" t="s">
@@ -6556,8 +6603,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16" thickBot="1"/>
-    <row r="21" spans="1:10" ht="30" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="21" spans="1:10" ht="27" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -6569,7 +6616,7 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -6584,7 +6631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -6601,7 +6648,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30" thickBot="1">
+    <row r="24" spans="1:10" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -6635,22 +6682,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -6665,7 +6712,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="16" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -6683,7 +6730,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -6703,7 +6750,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="16" thickBot="1">
+    <row r="4" spans="1:7" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -6734,7 +6781,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="16" thickBot="1">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -6743,7 +6790,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="16" thickBot="1">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -6764,7 +6811,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="16" thickBot="1">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -6788,7 +6835,7 @@
         <v>1.0001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" thickBot="1">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -6817,7 +6864,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" thickBot="1">
+    <row r="10" spans="1:7" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -6846,8 +6893,8 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" thickBot="1"/>
-    <row r="12" spans="1:7" ht="16" thickBot="1">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -6865,7 +6912,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="16" thickBot="1">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -6885,7 +6932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" thickBot="1">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -6910,7 +6957,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" thickBot="1">
+    <row r="15" spans="1:7" ht="27" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -6940,7 +6987,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" thickBot="1">
+    <row r="18" spans="1:7" ht="27" thickBot="1">
       <c r="A18" s="9" t="s">
         <v>13</v>
       </c>
@@ -6960,7 +7007,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16" thickBot="1">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
@@ -6984,7 +7031,7 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" thickBot="1">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -7013,7 +7060,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" thickBot="1">
+    <row r="21" spans="1:7" ht="27" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
@@ -7051,7 +7098,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="24" spans="1:7" ht="16" thickBot="1">
+    <row r="24" spans="1:7" ht="15.75" thickBot="1">
       <c r="A24" s="13" t="s">
         <v>76</v>
       </c>
@@ -7062,7 +7109,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" thickBot="1">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
@@ -7077,7 +7124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16" thickBot="1">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -7094,7 +7141,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16" thickBot="1">
+    <row r="27" spans="1:7" ht="27" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
@@ -7122,16 +7169,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -7145,7 +7192,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -7165,7 +7212,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -7184,7 +7231,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -7203,8 +7250,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -7225,7 +7272,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -7249,7 +7296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -7278,7 +7325,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -7318,7 +7365,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="16" thickBot="1">
+    <row r="14" spans="1:10" ht="27" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -7347,7 +7394,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -7377,7 +7424,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -7412,7 +7459,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" thickBot="1">
+    <row r="17" spans="1:11" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -7473,8 +7520,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16" thickBot="1"/>
-    <row r="21" spans="1:11" ht="30" thickBot="1">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="21" spans="1:11" ht="27" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -7486,7 +7533,7 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:11" ht="16" thickBot="1">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -7501,7 +7548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16" thickBot="1">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -7518,7 +7565,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30" thickBot="1">
+    <row r="24" spans="1:11" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -7552,22 +7599,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1">
+    <row r="1" spans="1:12" ht="27" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
@@ -7593,7 +7640,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="16" thickBot="1">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -7626,7 +7673,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="16" thickBot="1">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -7660,7 +7707,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="16" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -7710,7 +7757,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="0.5" customHeight="1">
+    <row r="6" spans="1:12" ht="0.6" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -7724,14 +7771,14 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="16" thickBot="1">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="16" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -7751,7 +7798,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="16" thickBot="1">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -7774,7 +7821,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="16" thickBot="1">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -7799,7 +7846,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="16" thickBot="1">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -7840,7 +7887,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="16" thickBot="1">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -7854,7 +7901,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="16" thickBot="1">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
@@ -7880,7 +7927,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="16" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -7909,7 +7956,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="16" thickBot="1">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -7943,7 +7990,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="16" thickBot="1">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -7993,7 +8040,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="16" thickBot="1">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -8007,7 +8054,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="30" thickBot="1">
+    <row r="20" spans="1:12" ht="27" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
@@ -8031,7 +8078,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="16" thickBot="1">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -8057,7 +8104,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="16" thickBot="1">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -8088,7 +8135,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="16" thickBot="1">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -8119,7 +8166,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="16" thickBot="1">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1">
       <c r="A24" s="9" t="s">
         <v>30</v>
       </c>
@@ -8129,7 +8176,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="16" thickBot="1">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1">
       <c r="A25" s="5"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -8154,7 +8201,7 @@
       <c r="F26" s="12"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:12" ht="16" thickBot="1">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
@@ -8173,7 +8220,7 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="16" thickBot="1">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
@@ -8195,7 +8242,7 @@
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:12" ht="16" thickBot="1">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>88</v>
       </c>
@@ -8214,7 +8261,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:12" ht="16" thickBot="1">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>87</v>
       </c>
@@ -8236,7 +8283,7 @@
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:12" ht="30" thickBot="1">
+    <row r="31" spans="1:12" ht="27" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>89</v>
       </c>
@@ -8269,12 +8316,12 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="36" spans="1:10" ht="16" thickBot="1">
+    <row r="36" spans="1:10" ht="15.75" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="30" thickBot="1">
+    <row r="37" spans="1:10" ht="27" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>1</v>
       </c>
@@ -8304,7 +8351,7 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="16" thickBot="1">
+    <row r="38" spans="1:10" ht="15.75" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
@@ -8337,7 +8384,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16" thickBot="1">
+    <row r="39" spans="1:10" ht="15.75" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
@@ -8378,7 +8425,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16" thickBot="1">
+    <row r="40" spans="1:10" ht="15.75" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>12</v>
       </c>
@@ -8445,12 +8492,12 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" ht="16" thickBot="1">
+    <row r="43" spans="1:10" ht="15.75" thickBot="1">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="16" thickBot="1">
+    <row r="44" spans="1:10" ht="15.75" thickBot="1">
       <c r="A44" s="9" t="s">
         <v>64</v>
       </c>
@@ -8471,7 +8518,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:10" ht="16" thickBot="1">
+    <row r="45" spans="1:10" ht="15.75" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>10</v>
       </c>
@@ -8495,7 +8542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="16" thickBot="1">
+    <row r="46" spans="1:10" ht="15.75" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>11</v>
       </c>
@@ -8524,7 +8571,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="16" thickBot="1">
+    <row r="47" spans="1:10" ht="15.75" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>12</v>
       </c>
@@ -8580,16 +8627,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H26" sqref="A20:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -8603,7 +8650,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="30" thickBot="1">
+    <row r="2" spans="1:11" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -8624,7 +8671,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -8645,7 +8692,7 @@
         <v>0.95277529961698948</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" thickBot="1">
+    <row r="4" spans="1:11" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -8664,8 +8711,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1"/>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -8686,7 +8733,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="30" thickBot="1">
+    <row r="8" spans="1:11" ht="27" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -8710,7 +8757,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -8739,7 +8786,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" thickBot="1">
+    <row r="10" spans="1:11" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -8779,7 +8826,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="30" thickBot="1">
+    <row r="13" spans="1:11" ht="27" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -8805,7 +8852,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" thickBot="1">
+    <row r="14" spans="1:11" ht="27" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -8835,7 +8882,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -8870,7 +8917,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" thickBot="1">
+    <row r="16" spans="1:11" ht="27" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -8920,7 +8967,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16">
+    <row r="19" spans="1:11" ht="15.75">
       <c r="J19" t="s">
         <v>234</v>
       </c>
@@ -8928,7 +8975,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16" thickBot="1">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
       <c r="A20" s="13" t="s">
         <v>76</v>
       </c>
@@ -8942,7 +8989,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="30" thickBot="1">
+    <row r="21" spans="1:11" ht="27" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -8960,7 +9007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16" thickBot="1">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -8987,7 +9034,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" thickBot="1">
+    <row r="23" spans="1:11" ht="27" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -9021,23 +9068,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G23" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="G23" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -9051,7 +9098,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="30" thickBot="1">
+    <row r="2" spans="1:10" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -9072,7 +9119,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -9093,7 +9140,7 @@
         <v>0.90805800128462044</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -9112,8 +9159,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -9134,7 +9181,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="30" thickBot="1">
+    <row r="8" spans="1:10" ht="27" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -9158,7 +9205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -9187,7 +9234,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -9227,7 +9274,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="30" thickBot="1">
+    <row r="13" spans="1:10" ht="27" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -9247,7 +9294,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" thickBot="1">
+    <row r="14" spans="1:10" ht="27" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -9270,8 +9317,11 @@
         <f>SUM(B14:F14)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+      <c r="J14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -9300,734 +9350,269 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" thickBot="1">
+    <row r="16" spans="1:10" ht="27" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2">
-        <f>ROUND(2200*B14,0)</f>
-        <v>585</v>
-      </c>
-      <c r="C16" s="2">
-        <f>ROUND(2200*C14,0)</f>
-        <v>423</v>
-      </c>
-      <c r="D16" s="2">
-        <f>ROUND(2200*D14,0)</f>
-        <v>434</v>
-      </c>
-      <c r="E16" s="2">
-        <f>ROUND(2200*E14,0)</f>
-        <v>515</v>
-      </c>
-      <c r="F16" s="2">
-        <f>ROUND(2200*F14,0)</f>
-        <v>244</v>
+        <v>326</v>
+      </c>
+      <c r="B16" s="10">
+        <v>528</v>
+      </c>
+      <c r="C16" s="10">
+        <v>382</v>
+      </c>
+      <c r="D16" s="10">
+        <v>391</v>
+      </c>
+      <c r="E16" s="10">
+        <v>465</v>
+      </c>
+      <c r="F16" s="10">
+        <v>220</v>
       </c>
       <c r="G16" s="3">
         <f>SUM(B16:F16)</f>
-        <v>2201</v>
-      </c>
-      <c r="J16" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="39.75" thickBot="1">
+      <c r="A17" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="2">
+        <f>ROUND(1.1*B16,0)</f>
+        <v>581</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:G17" si="2">ROUND(1.1*C16,0)</f>
+        <v>420</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="2"/>
+        <v>430</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="2"/>
+        <v>512</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>242</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="2"/>
+        <v>2185</v>
+      </c>
+      <c r="J17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="9" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="11"/>
-      <c r="J17" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="11"/>
+      <c r="J18" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:10" ht="39.75" thickBot="1">
+      <c r="A20" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" ht="27" thickBot="1">
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.34949580000000002</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.48005009999999998</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.1704541</v>
+      </c>
+      <c r="E21" s="7">
+        <f>SUM(B21:D21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" ref="B22:D22" si="3">ROUND(2000*B21,0)</f>
+        <v>699</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="3"/>
+        <v>960</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="3"/>
+        <v>341</v>
+      </c>
+      <c r="E22" s="20">
+        <f t="shared" ref="E22:E23" si="4">SUM(B22:D22)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="27" thickBot="1">
+      <c r="A23" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B23" s="10">
+        <v>693</v>
+      </c>
+      <c r="C23" s="10">
+        <v>955</v>
+      </c>
+      <c r="D23" s="10">
+        <v>338</v>
+      </c>
+      <c r="E23" s="20">
+        <f t="shared" si="4"/>
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="52.5" thickBot="1">
+      <c r="A24" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24" s="10">
+        <f>ROUND(1.1*B23,0)</f>
+        <v>762</v>
+      </c>
+      <c r="C24" s="10">
+        <f t="shared" ref="C24:E24" si="5">ROUND(1.1*C23,0)</f>
+        <v>1051</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="5"/>
+        <v>372</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="5"/>
+        <v>2185</v>
+      </c>
+      <c r="H24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="H25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="36" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A27" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B27" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C27" s="36" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" thickBot="1">
-      <c r="A20" s="5" t="s">
+    <row r="28" spans="1:10" s="36" customFormat="1" ht="27" thickBot="1">
+      <c r="A28" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B20">
+      <c r="B28" s="36">
         <v>0.4699139</v>
       </c>
-      <c r="C20">
+      <c r="C28" s="36">
         <v>0.5300861</v>
       </c>
-      <c r="D20" s="17">
-        <f>SUM(B20:C20)</f>
+      <c r="D28" s="38">
+        <f>SUM(B28:C28)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16" thickBot="1">
-      <c r="A21" s="5" t="s">
+    <row r="29" spans="1:10" s="36" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A29" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B21">
-        <f>ROUND(2000*B20,0)</f>
+      <c r="B29" s="36">
+        <f>ROUND(2000*B28,0)</f>
         <v>940</v>
       </c>
-      <c r="C21">
-        <f>ROUND(2000*C20,0)</f>
+      <c r="C29" s="36">
+        <f>ROUND(2000*C28,0)</f>
         <v>1060</v>
       </c>
-      <c r="D21">
-        <f>SUM(B21:C21)</f>
+      <c r="D29" s="36">
+        <f>SUM(B29:C29)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30" thickBot="1">
-      <c r="A22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22">
-        <f>ROUND(2200*B20,0)</f>
+    <row r="30" spans="1:10" s="36" customFormat="1" ht="39.75" thickBot="1">
+      <c r="A30" s="37" t="s">
+        <v>327</v>
+      </c>
+      <c r="B30" s="36">
+        <f>ROUND(2200*B28,0)</f>
         <v>1034</v>
       </c>
-      <c r="C22">
-        <f>ROUND(2200*C20,0)</f>
+      <c r="C30" s="36">
+        <f>ROUND(2200*C28,0)</f>
         <v>1166</v>
       </c>
-      <c r="D22">
-        <f>SUM(B22:C22)</f>
+      <c r="D30" s="36">
+        <f>SUM(B30:C30)</f>
         <v>2200</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="9" t="s">
+    <row r="31" spans="1:10" s="36" customFormat="1">
+      <c r="A31" s="39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16" thickBot="1"/>
-    <row r="25" spans="1:10" ht="44" thickBot="1">
-      <c r="A25" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:10" ht="30" thickBot="1">
-      <c r="A26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="6">
-        <v>0.34949580000000002</v>
-      </c>
-      <c r="C26" s="6">
-        <v>0.48005009999999998</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0.1704541</v>
-      </c>
-      <c r="E26" s="7">
-        <f>SUM(B26:D26)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="16" thickBot="1">
-      <c r="A27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="8">
-        <f t="shared" ref="B27:D27" si="2">ROUND(2000*B26,0)</f>
-        <v>699</v>
-      </c>
-      <c r="C27" s="8">
-        <f t="shared" si="2"/>
-        <v>960</v>
-      </c>
-      <c r="D27" s="8">
-        <f t="shared" si="2"/>
-        <v>341</v>
-      </c>
-      <c r="E27" s="20">
-        <f t="shared" ref="E27" si="3">SUM(B27:D27)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="44" thickBot="1">
-      <c r="A28" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="10">
-        <f>ROUND(2200*B26,0)</f>
-        <v>769</v>
-      </c>
-      <c r="C28" s="10">
-        <f t="shared" ref="C28:D28" si="4">ROUND(2200*C26,0)</f>
-        <v>1056</v>
-      </c>
-      <c r="D28" s="10">
-        <f t="shared" si="4"/>
-        <v>375</v>
-      </c>
-      <c r="E28" s="20">
-        <f>SUM(B28:D28)</f>
-        <v>2200</v>
-      </c>
-      <c r="H28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="H29" t="s">
-        <v>128</v>
-      </c>
-    </row>
+    <row r="32" spans="1:10" s="36" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:13" ht="16" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" ht="30" thickBot="1">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6">
-        <f>1/(1+F3)</f>
-        <v>0.51901684851665975</v>
-      </c>
-      <c r="C2" s="6">
-        <f>F3/(1+F3)</f>
-        <v>0.48098315148334025</v>
-      </c>
-      <c r="D2" s="7">
-        <f>SUM(B2:C2)</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="16" thickBot="1">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8">
-        <f>ROUND(2000*B2,0)</f>
-        <v>1038</v>
-      </c>
-      <c r="C3" s="8">
-        <f>ROUND(2000*C2,0)</f>
-        <v>962</v>
-      </c>
-      <c r="D3" s="8">
-        <f>ROUND(2000*D2,0)</f>
-        <v>2000</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
-        <v>0.9267197256851698</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="30" thickBot="1">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="8">
-        <f>ROUND(2200*B2,0)</f>
-        <v>1142</v>
-      </c>
-      <c r="C4" s="8">
-        <f>ROUND(2200*C2,0)</f>
-        <v>1058</v>
-      </c>
-      <c r="D4" s="8">
-        <f>ROUND(2200*D2,0)</f>
-        <v>2200</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="6" spans="1:13" ht="16" thickBot="1"/>
-    <row r="7" spans="1:13" ht="16" thickBot="1">
-      <c r="A7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" ht="30" thickBot="1">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6">
-        <v>8.7186977295412069E-2</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.16950329109546619</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.28241706430402902</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.23566356936015237</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.22522909794494045</v>
-      </c>
-      <c r="G8" s="7">
-        <f>SUM(B8:F8)</f>
-        <v>1.0000000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="16" thickBot="1">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8">
-        <f t="shared" ref="B9:G9" si="0">ROUND(2000*B8,0)</f>
-        <v>174</v>
-      </c>
-      <c r="C9" s="8">
-        <f t="shared" si="0"/>
-        <v>339</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" si="0"/>
-        <v>565</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
-        <v>471</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30" thickBot="1">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8">
-        <f t="shared" ref="B10:G10" si="1">ROUND(2200*B8,0)</f>
-        <v>192</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" si="1"/>
-        <v>373</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" si="1"/>
-        <v>621</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="1"/>
-        <v>518</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="1"/>
-        <v>496</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="1"/>
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="13" spans="1:13" ht="30" thickBot="1">
-      <c r="A13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="L13" t="s">
-        <v>133</v>
-      </c>
-      <c r="M13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="30" thickBot="1">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>0.22699743780161807</v>
-      </c>
-      <c r="C14">
-        <v>0.11760227498582748</v>
-      </c>
-      <c r="D14">
-        <v>0.21868217573091719</v>
-      </c>
-      <c r="E14">
-        <v>0.14443883329201232</v>
-      </c>
-      <c r="F14">
-        <v>0.2922792781896249</v>
-      </c>
-      <c r="G14">
-        <f>SUM(B14:F14)</f>
-        <v>1</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="L14" t="s">
-        <v>111</v>
-      </c>
-      <c r="M14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16" thickBot="1">
-      <c r="A15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="10">
-        <f t="shared" ref="B15:F15" si="2">ROUND(2000*B14,0)</f>
-        <v>454</v>
-      </c>
-      <c r="C15" s="10">
-        <f t="shared" si="2"/>
-        <v>235</v>
-      </c>
-      <c r="D15" s="10">
-        <f t="shared" si="2"/>
-        <v>437</v>
-      </c>
-      <c r="E15" s="10">
-        <f t="shared" si="2"/>
-        <v>289</v>
-      </c>
-      <c r="F15" s="10">
-        <f t="shared" si="2"/>
-        <v>585</v>
-      </c>
-      <c r="G15" s="10">
-        <f>SUM(B15:F15)</f>
-        <v>2000</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="L15" t="s">
-        <v>112</v>
-      </c>
-      <c r="M15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="30" thickBot="1">
-      <c r="A16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2">
-        <f t="shared" ref="B16:F16" si="3">ROUND(2200*B14,0)</f>
-        <v>499</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="3"/>
-        <v>259</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="3"/>
-        <v>481</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="3"/>
-        <v>318</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="3"/>
-        <v>643</v>
-      </c>
-      <c r="G16" s="2">
-        <f>SUM(B16:F16)</f>
-        <v>2200</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="L16" t="s">
-        <v>113</v>
-      </c>
-      <c r="M16" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="11"/>
-      <c r="L17" t="s">
-        <v>114</v>
-      </c>
-      <c r="M17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="L18" t="s">
-        <v>234</v>
-      </c>
-      <c r="M18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="16" thickBot="1"/>
-    <row r="20" spans="1:13" ht="30" thickBot="1">
-      <c r="A20" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" ht="30" thickBot="1">
-      <c r="A21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0.43314069999999999</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0.56685929999999995</v>
-      </c>
-      <c r="D21" s="6">
-        <f>SUM(B21:C21)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="16" thickBot="1">
-      <c r="A22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="8">
-        <f t="shared" ref="B22:C22" si="4">ROUND(2000*B21,0)</f>
-        <v>866</v>
-      </c>
-      <c r="C22" s="8">
-        <f t="shared" si="4"/>
-        <v>1134</v>
-      </c>
-      <c r="D22" s="8">
-        <f>SUM(B22:C22)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="44" thickBot="1">
-      <c r="A23" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="10">
-        <f>ROUND(2200*B21,0)</f>
-        <v>953</v>
-      </c>
-      <c r="C23" s="10">
-        <f t="shared" ref="C23" si="5">ROUND(2200*C21,0)</f>
-        <v>1247</v>
-      </c>
-      <c r="D23" s="10">
-        <f>SUM(B23:C23)</f>
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="28" spans="1:13" ht="16" thickBot="1">
-      <c r="A28" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="30" thickBot="1">
-      <c r="A29" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:13" ht="30" thickBot="1">
-      <c r="A30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="6">
-        <v>0.57801659999999999</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0.42198340000000001</v>
-      </c>
-      <c r="D30" s="6">
-        <f>SUM(B30:C30)</f>
-        <v>1</v>
-      </c>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:13" ht="16" thickBot="1">
-      <c r="A31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="8">
-        <f t="shared" ref="B31:C31" si="6">ROUND(2000*B30,0)</f>
-        <v>1156</v>
-      </c>
-      <c r="C31" s="8">
-        <f t="shared" si="6"/>
-        <v>844</v>
-      </c>
-      <c r="D31" s="8">
-        <f>SUM(B31:C31)</f>
-        <v>2000</v>
-      </c>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="1:13" ht="44" thickBot="1">
-      <c r="A32" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="10">
-        <f>ROUND(2200*B30,0)</f>
-        <v>1272</v>
-      </c>
-      <c r="C32" s="10">
-        <f t="shared" ref="C32" si="7">ROUND(2200*C30,0)</f>
-        <v>928</v>
-      </c>
-      <c r="D32" s="10">
-        <f>SUM(B32:C32)</f>
-        <v>2200</v>
-      </c>
-      <c r="E32" s="20"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -10041,7 +9626,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="30" thickBot="1">
+    <row r="2" spans="1:11" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -10062,7 +9647,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -10083,7 +9668,7 @@
         <v>0.97448244785232785</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" thickBot="1">
+    <row r="4" spans="1:11" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -10102,8 +9687,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1"/>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -10124,7 +9709,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="30" thickBot="1">
+    <row r="8" spans="1:11" ht="27" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -10148,7 +9733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -10177,7 +9762,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" thickBot="1">
+    <row r="10" spans="1:11" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -10226,7 +9811,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -10249,7 +9834,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" thickBot="1">
+    <row r="15" spans="1:11" ht="27" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -10280,7 +9865,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -10316,33 +9901,28 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" thickBot="1">
+    <row r="17" spans="1:11" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2">
-        <f t="shared" ref="B17:F17" si="3">ROUND(2200*B15,0)</f>
-        <v>650</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" si="3"/>
-        <v>409</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="3"/>
-        <v>621</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="3"/>
-        <v>237</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="3"/>
-        <v>284</v>
-      </c>
-      <c r="G17" s="2">
+        <v>326</v>
+      </c>
+      <c r="B17" s="10">
+        <v>590</v>
+      </c>
+      <c r="C17" s="10">
+        <v>371</v>
+      </c>
+      <c r="D17" s="10">
+        <v>560</v>
+      </c>
+      <c r="E17" s="10">
+        <v>215</v>
+      </c>
+      <c r="F17" s="10">
+        <v>255</v>
+      </c>
+      <c r="G17" s="10">
         <f>SUM(B17:F17)</f>
-        <v>2201</v>
+        <v>1991</v>
       </c>
       <c r="H17" s="3"/>
       <c r="J17" t="s">
@@ -10352,14 +9932,35 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="11"/>
+    <row r="18" spans="1:11" ht="27" thickBot="1">
+      <c r="A18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2">
+        <f>ROUND(1.1*B17,0)</f>
+        <v>649</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ref="C18:G18" si="3">ROUND(1.1*C17,0)</f>
+        <v>408</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="3"/>
+        <v>616</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="3"/>
+        <v>237</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="3"/>
+        <v>281</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="3"/>
+        <v>2190</v>
+      </c>
+      <c r="H18" s="3"/>
       <c r="J18" t="s">
         <v>133</v>
       </c>
@@ -10368,6 +9969,13 @@
       </c>
     </row>
     <row r="19" spans="1:11">
+      <c r="A19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="11"/>
       <c r="J19" t="s">
         <v>107</v>
       </c>
@@ -10383,68 +9991,71 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16" thickBot="1">
-      <c r="A21" s="13" t="s">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A22" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>77</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="30" thickBot="1">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:11" ht="27" thickBot="1">
+      <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>0.30268220000000001</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>0.69731779999999999</v>
       </c>
-      <c r="D22" s="17">
-        <f>SUM(B22:C22)</f>
+      <c r="D23" s="17">
+        <f>SUM(B23:C23)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="16" thickBot="1">
-      <c r="A23" s="5" t="s">
+      <c r="J23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B23">
-        <f>ROUND(2000*B22,0)</f>
+      <c r="B24">
+        <f>ROUND(2000*B23,0)</f>
         <v>605</v>
       </c>
-      <c r="C23">
-        <f>ROUND(2000*C22,0)</f>
+      <c r="C24">
+        <f>ROUND(2000*C23,0)</f>
         <v>1395</v>
-      </c>
-      <c r="D23">
-        <f>SUM(B23:C23)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="30" thickBot="1">
-      <c r="A24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <f>ROUND(2200*B22,0)</f>
-        <v>666</v>
-      </c>
-      <c r="C24">
-        <f>ROUND(2200*C22,0)</f>
-        <v>1534</v>
       </c>
       <c r="D24">
         <f>SUM(B24:C24)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="27" thickBot="1">
+      <c r="A25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <f>ROUND(2200*B23,0)</f>
+        <v>666</v>
+      </c>
+      <c r="C25">
+        <f>ROUND(2200*C23,0)</f>
+        <v>1534</v>
+      </c>
+      <c r="D25">
+        <f>SUM(B25:C25)</f>
         <v>2200</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="9" t="s">
+    <row r="26" spans="1:11">
+      <c r="A26" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -10454,17 +10065,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K25"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -10478,7 +10089,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="30" thickBot="1">
+    <row r="2" spans="1:11" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -10499,7 +10110,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -10520,7 +10131,7 @@
         <v>0.98351979013457747</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" thickBot="1">
+    <row r="4" spans="1:11" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -10539,8 +10150,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1"/>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -10561,7 +10172,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="30" thickBot="1">
+    <row r="8" spans="1:11" ht="27" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -10585,7 +10196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -10614,7 +10225,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" thickBot="1">
+    <row r="10" spans="1:11" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -10659,7 +10270,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" thickBot="1">
+    <row r="14" spans="1:11" ht="27" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -10685,7 +10296,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" thickBot="1">
+    <row r="15" spans="1:11" ht="27" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -10715,7 +10326,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -10750,42 +10361,542 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" thickBot="1">
+    <row r="17" spans="1:11" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2">
-        <f>ROUND(2200*B15,0)</f>
-        <v>285</v>
-      </c>
-      <c r="C17" s="2">
-        <f>ROUND(2200*C15,0)</f>
-        <v>687</v>
-      </c>
-      <c r="D17" s="2">
-        <f>ROUND(2200*D15,0)</f>
-        <v>461</v>
-      </c>
-      <c r="E17" s="2">
-        <f>ROUND(2200*E15,0)</f>
-        <v>520</v>
-      </c>
-      <c r="F17" s="2">
-        <f>ROUND(2200*F15,0)</f>
-        <v>247</v>
+        <v>326</v>
+      </c>
+      <c r="B17" s="10">
+        <v>256</v>
+      </c>
+      <c r="C17" s="10">
+        <v>622</v>
+      </c>
+      <c r="D17" s="10">
+        <v>417</v>
+      </c>
+      <c r="E17" s="10">
+        <v>470</v>
+      </c>
+      <c r="F17" s="10">
+        <v>224</v>
       </c>
       <c r="G17" s="3">
         <f>SUM(B17:F17)</f>
-        <v>2200</v>
+        <v>1989</v>
       </c>
       <c r="J17" t="s">
         <v>229</v>
       </c>
-      <c r="K17" t="s">
+    </row>
+    <row r="18" spans="1:11" ht="39.75" thickBot="1">
+      <c r="A18" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B18" s="2">
+        <f>ROUND(1.1*B17,0)</f>
+        <v>282</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" ref="C18:F18" si="2">ROUND(1.1*C17,0)</f>
+        <v>684</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="2"/>
+        <v>459</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="2"/>
+        <v>517</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="G18" s="3">
+        <f>SUM(B18:F18)</f>
+        <v>2188</v>
+      </c>
+      <c r="J18" t="s">
+        <v>230</v>
+      </c>
+      <c r="K18" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="19" spans="1:11">
+      <c r="A19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="22" spans="1:11" ht="27" thickBot="1">
+      <c r="A22" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="H22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="27" thickBot="1">
+      <c r="A23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.17558260000000001</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.42319580000000001</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.40122160000000001</v>
+      </c>
+      <c r="E23" s="7">
+        <f>SUM(B23:D23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="8">
+        <f>ROUND(2000*B23,0)+1</f>
+        <v>352</v>
+      </c>
+      <c r="C24" s="8">
+        <f t="shared" ref="C24:D24" si="3">ROUND(2000*C23,0)+1</f>
+        <v>847</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" si="3"/>
+        <v>803</v>
+      </c>
+      <c r="E24" s="20">
+        <f t="shared" ref="E24:E25" si="4">SUM(B24:D24)</f>
+        <v>2002</v>
+      </c>
+      <c r="H24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="27" thickBot="1">
+      <c r="A25" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B25" s="10">
+        <v>351</v>
+      </c>
+      <c r="C25" s="10">
+        <v>841</v>
+      </c>
+      <c r="D25" s="10">
+        <v>800</v>
+      </c>
+      <c r="E25" s="20">
+        <f t="shared" si="4"/>
+        <v>1992</v>
+      </c>
+      <c r="H25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="52.5" thickBot="1">
+      <c r="A26" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B26" s="10">
+        <f>ROUND(1.1*B25,0)</f>
+        <v>386</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" ref="C26:D26" si="5">ROUND(1.1*C25,0)</f>
+        <v>925</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="5"/>
+        <v>880</v>
+      </c>
+      <c r="E26" s="20">
+        <f>SUM(B26:D26)</f>
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="27" thickBot="1">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6">
+        <f>1/(1+F3)</f>
+        <v>0.51914911814227283</v>
+      </c>
+      <c r="C2" s="6">
+        <f>F3/(1+F3)</f>
+        <v>0.48085088185772712</v>
+      </c>
+      <c r="D2" s="7">
+        <f>SUM(B2:C2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8">
+        <f>ROUND(2000*B2,0)</f>
+        <v>1038</v>
+      </c>
+      <c r="C3" s="8">
+        <f>ROUND(2000*C2,0)</f>
+        <v>962</v>
+      </c>
+      <c r="D3" s="8">
+        <f>ROUND(2000*D2,0)</f>
+        <v>2000</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7">
+        <v>0.92622883301508352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="27" thickBot="1">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8">
+        <f>ROUND(2200*B2,0)</f>
+        <v>1142</v>
+      </c>
+      <c r="C4" s="8">
+        <f>ROUND(2200*C2,0)</f>
+        <v>1058</v>
+      </c>
+      <c r="D4" s="8">
+        <f>ROUND(2200*D2,0)</f>
+        <v>2200</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="27" thickBot="1">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6">
+        <v>7.7537574259398639E-2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.12102414349872047</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.24363458605206709</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.22420400944608818</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.33359968674372587</v>
+      </c>
+      <c r="G8" s="7">
+        <f>SUM(B8:F8)</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" ref="B9:G9" si="0">ROUND(2000*B8,0)</f>
+        <v>155</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>487</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>448</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>667</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="27" thickBot="1">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" ref="B10:G10" si="1">ROUND(2200*B8,0)</f>
+        <v>171</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="1"/>
+        <v>536</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>493</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="1"/>
+        <v>734</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="27" thickBot="1">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>0.34599740763411402</v>
+      </c>
+      <c r="C14">
+        <v>0.176839093907908</v>
+      </c>
+      <c r="D14">
+        <v>0.109666596260914</v>
+      </c>
+      <c r="E14">
+        <v>0.167605083516045</v>
+      </c>
+      <c r="F14">
+        <v>0.19989181868101899</v>
+      </c>
+      <c r="G14">
+        <f>SUM(B14:F14)</f>
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10">
+        <f>ROUND(2000*B14,0)</f>
+        <v>692</v>
+      </c>
+      <c r="C15" s="10">
+        <f>ROUND(2000*C14,0)</f>
+        <v>354</v>
+      </c>
+      <c r="D15" s="10">
+        <f>ROUND(2000*D14,0)</f>
+        <v>219</v>
+      </c>
+      <c r="E15" s="10">
+        <f>ROUND(2000*E14,0)</f>
+        <v>335</v>
+      </c>
+      <c r="F15" s="10">
+        <f>ROUND(2000*F14,0)</f>
+        <v>400</v>
+      </c>
+      <c r="G15" s="10">
+        <f>SUM(B15:F15)</f>
+        <v>2000</v>
+      </c>
+      <c r="I15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="27" thickBot="1">
+      <c r="A16" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B16" s="10">
+        <v>691</v>
+      </c>
+      <c r="C16" s="10">
+        <v>353</v>
+      </c>
+      <c r="D16" s="10">
+        <v>218</v>
+      </c>
+      <c r="E16" s="10">
+        <v>334</v>
+      </c>
+      <c r="F16" s="10">
+        <v>399</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(B16:F16)</f>
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="39.75" thickBot="1">
+      <c r="A17" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="2">
+        <f>ROUND(1.1*B16,0)</f>
+        <v>760</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:F17" si="2">ROUND(1.1*C16,0)</f>
+        <v>388</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="2"/>
+        <v>367</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>439</v>
+      </c>
+      <c r="G17" s="2">
+        <f>SUM(B17:F17)</f>
+        <v>2194</v>
+      </c>
+      <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="9" t="s">
         <v>30</v>
       </c>
@@ -10794,99 +10905,93 @@
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
       <c r="J18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="16" thickBot="1"/>
-    <row r="21" spans="1:11" ht="30" thickBot="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="21" spans="1:10" ht="27" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>125</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="12"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:11" ht="30" thickBot="1">
+    <row r="22" spans="1:10" ht="27" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="6">
-        <v>0.17558260000000001</v>
+        <v>0.30428880000000003</v>
       </c>
       <c r="C22" s="6">
-        <v>0.42319580000000001</v>
+        <v>0.69571119999999997</v>
       </c>
       <c r="D22" s="6">
-        <v>0.40122160000000001</v>
-      </c>
-      <c r="E22" s="7">
-        <f>SUM(B22:D22)</f>
+        <f>SUM(B22:C22)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="16" thickBot="1">
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="8">
-        <f>ROUND(2000*B22,0)+1</f>
-        <v>352</v>
+        <f t="shared" ref="B23:C23" si="3">ROUND(2000*B22,0)</f>
+        <v>609</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" ref="C23:D23" si="2">ROUND(2000*C22,0)+1</f>
-        <v>847</v>
+        <f t="shared" si="3"/>
+        <v>1391</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="2"/>
-        <v>803</v>
-      </c>
-      <c r="E23" s="20">
-        <f t="shared" ref="E23" si="3">SUM(B23:D23)</f>
-        <v>2002</v>
-      </c>
-      <c r="H23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="44" thickBot="1">
+        <f>SUM(B23:C23)</f>
+        <v>2000</v>
+      </c>
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="1:10" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>89</v>
+        <v>326</v>
       </c>
       <c r="B24" s="10">
-        <f>ROUND(2200*B22,0)</f>
-        <v>386</v>
+        <v>609</v>
       </c>
       <c r="C24" s="10">
-        <f>ROUND(2200*D22,0)</f>
-        <v>883</v>
-      </c>
-      <c r="D24" s="10">
-        <f>ROUND(2200*C22,0)</f>
-        <v>931</v>
-      </c>
-      <c r="E24" s="20">
-        <f>SUM(B24:D24)</f>
-        <v>2200</v>
-      </c>
-      <c r="H24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+        <v>1386</v>
+      </c>
+      <c r="D24" s="8">
+        <f>SUM(B24:C24)</f>
+        <v>1995</v>
+      </c>
+      <c r="E24" s="20"/>
+    </row>
+    <row r="25" spans="1:10" ht="52.5" thickBot="1">
+      <c r="A25" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B25" s="10">
+        <f>ROUND(1.1*B24,0)</f>
+        <v>670</v>
+      </c>
+      <c r="C25" s="10">
+        <f>ROUND(1.1*C24,0)</f>
+        <v>1525</v>
+      </c>
+      <c r="D25" s="10">
+        <f>SUM(B25:C25)</f>
+        <v>2195</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="G25" t="s">
+        <v>332</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10894,16 +10999,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -10917,17 +11022,17 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="30" thickBot="1">
+    <row r="2" spans="1:13" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="6">
         <f>1/(1+F3)</f>
-        <v>0.51914911814227283</v>
+        <v>0.51901684851665975</v>
       </c>
       <c r="C2" s="6">
         <f>F3/(1+F3)</f>
-        <v>0.48085088185772712</v>
+        <v>0.48098315148334025</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(B2:C2)</f>
@@ -10938,7 +11043,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -10956,10 +11061,10 @@
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
-        <v>0.92622883301508352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+        <v>0.9267197256851698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -10978,8 +11083,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -11000,89 +11105,89 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="30" thickBot="1">
+    <row r="8" spans="1:13" ht="27" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="6">
-        <v>7.7537574259398639E-2</v>
+        <v>8.7186977295412069E-2</v>
       </c>
       <c r="C8" s="6">
-        <v>0.12102414349872047</v>
+        <v>0.16950329109546619</v>
       </c>
       <c r="D8" s="6">
-        <v>0.24363458605206709</v>
+        <v>0.28241706430402902</v>
       </c>
       <c r="E8" s="6">
-        <v>0.22420400944608818</v>
+        <v>0.23566356936015237</v>
       </c>
       <c r="F8" s="6">
-        <v>0.33359968674372587</v>
+        <v>0.22522909794494045</v>
       </c>
       <c r="G8" s="7">
         <f>SUM(B8:F8)</f>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="8">
         <f t="shared" ref="B9:G9" si="0">ROUND(2000*B8,0)</f>
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" si="0"/>
-        <v>242</v>
+        <v>339</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
-        <v>487</v>
+        <v>565</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="0"/>
-        <v>667</v>
+        <v>450</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:13" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="8">
         <f t="shared" ref="B10:G10" si="1">ROUND(2200*B8,0)</f>
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" si="1"/>
-        <v>266</v>
+        <v>373</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" si="1"/>
-        <v>536</v>
+        <v>621</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" si="1"/>
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="1"/>
-        <v>734</v>
+        <v>496</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:13">
       <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
@@ -11093,130 +11198,139 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="16" thickBot="1">
+    <row r="13" spans="1:13" ht="27" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="D13" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="30" thickBot="1">
+      <c r="M13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="27" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>0.34599740763411402</v>
+        <v>0.22699743780161807</v>
       </c>
       <c r="C14">
-        <v>0.176839093907908</v>
+        <v>0.11760227498582748</v>
       </c>
       <c r="D14">
-        <v>0.109666596260914</v>
+        <v>0.21868217573091719</v>
       </c>
       <c r="E14">
-        <v>0.167605083516045</v>
+        <v>0.14443883329201232</v>
       </c>
       <c r="F14">
-        <v>0.19989181868101899</v>
+        <v>0.2922792781896249</v>
       </c>
       <c r="G14">
         <f>SUM(B14:F14)</f>
         <v>1</v>
       </c>
-      <c r="I14" t="s">
-        <v>133</v>
-      </c>
-      <c r="J14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+      <c r="H14" s="17"/>
+      <c r="L14" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="10">
-        <f>ROUND(2000*B14,0)</f>
-        <v>692</v>
+        <f t="shared" ref="B15:F15" si="2">ROUND(2000*B14,0)</f>
+        <v>454</v>
       </c>
       <c r="C15" s="10">
-        <f>ROUND(2000*C14,0)</f>
-        <v>354</v>
+        <f t="shared" si="2"/>
+        <v>235</v>
       </c>
       <c r="D15" s="10">
-        <f>ROUND(2000*D14,0)</f>
-        <v>219</v>
+        <f t="shared" si="2"/>
+        <v>437</v>
       </c>
       <c r="E15" s="10">
-        <f>ROUND(2000*E14,0)</f>
-        <v>335</v>
+        <f t="shared" si="2"/>
+        <v>289</v>
       </c>
       <c r="F15" s="10">
-        <f>ROUND(2000*F14,0)</f>
-        <v>400</v>
+        <f t="shared" si="2"/>
+        <v>585</v>
       </c>
       <c r="G15" s="10">
         <f>SUM(B15:F15)</f>
         <v>2000</v>
       </c>
-      <c r="I15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="30" thickBot="1">
+      <c r="H15" s="3"/>
+      <c r="L15" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="27" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="2">
-        <f>ROUND(2200*B14,0)</f>
-        <v>761</v>
+        <f t="shared" ref="B16:F16" si="3">ROUND(2200*B14,0)</f>
+        <v>499</v>
       </c>
       <c r="C16" s="2">
-        <f>ROUND(2200*C14,0)</f>
-        <v>389</v>
+        <f t="shared" si="3"/>
+        <v>259</v>
       </c>
       <c r="D16" s="2">
-        <f>ROUND(2200*D14,0)</f>
-        <v>241</v>
+        <f t="shared" si="3"/>
+        <v>481</v>
       </c>
       <c r="E16" s="2">
-        <f>ROUND(2200*E14,0)</f>
-        <v>369</v>
+        <f t="shared" si="3"/>
+        <v>318</v>
       </c>
       <c r="F16" s="2">
-        <f>ROUND(2200*F14,0)</f>
-        <v>440</v>
+        <f t="shared" si="3"/>
+        <v>643</v>
       </c>
       <c r="G16" s="2">
         <f>SUM(B16:F16)</f>
         <v>2200</v>
       </c>
-      <c r="I16" t="s">
-        <v>140</v>
-      </c>
-      <c r="J16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="H16" s="3"/>
+      <c r="L16" t="s">
+        <v>113</v>
+      </c>
+      <c r="M16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="9" t="s">
         <v>30</v>
       </c>
@@ -11224,75 +11338,169 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="11"/>
-      <c r="J17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1"/>
-    <row r="20" spans="1:10" ht="30" thickBot="1">
+      <c r="L17" t="s">
+        <v>114</v>
+      </c>
+      <c r="M17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="L18" t="s">
+        <v>234</v>
+      </c>
+      <c r="M18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:13" ht="27" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" ht="30" thickBot="1">
+    </row>
+    <row r="21" spans="1:13" ht="27" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="6">
-        <v>0.30428880000000003</v>
+        <v>0.43314069999999999</v>
       </c>
       <c r="C21" s="6">
-        <v>0.69571119999999997</v>
+        <v>0.56685929999999995</v>
       </c>
       <c r="D21" s="6">
         <f>SUM(B21:C21)</f>
         <v>1</v>
       </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="8">
-        <f t="shared" ref="B22:C22" si="2">ROUND(2000*B21,0)</f>
-        <v>609</v>
+        <f t="shared" ref="B22:C22" si="4">ROUND(2000*B21,0)</f>
+        <v>866</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="2"/>
-        <v>1391</v>
+        <f t="shared" si="4"/>
+        <v>1134</v>
       </c>
       <c r="D22" s="8">
         <f>SUM(B22:C22)</f>
         <v>2000</v>
       </c>
-      <c r="E22" s="20"/>
-    </row>
-    <row r="23" spans="1:10" ht="44" thickBot="1">
+    </row>
+    <row r="23" spans="1:13" ht="39.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B23" s="10">
         <f>ROUND(2200*B21,0)</f>
-        <v>669</v>
+        <v>953</v>
       </c>
       <c r="C23" s="10">
-        <f t="shared" ref="C23" si="3">ROUND(2200*C21,0)</f>
-        <v>1531</v>
+        <f t="shared" ref="C23" si="5">ROUND(2200*C21,0)</f>
+        <v>1247</v>
       </c>
       <c r="D23" s="10">
         <f>SUM(B23:C23)</f>
         <v>2200</v>
       </c>
-      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A28" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="27" thickBot="1">
+      <c r="A29" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" ht="27" thickBot="1">
+      <c r="A30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0.57801659999999999</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.42198340000000001</v>
+      </c>
+      <c r="D30" s="6">
+        <f>SUM(B30:C30)</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="8">
+        <f t="shared" ref="B31:C31" si="6">ROUND(2000*B30,0)</f>
+        <v>1156</v>
+      </c>
+      <c r="C31" s="8">
+        <f t="shared" si="6"/>
+        <v>844</v>
+      </c>
+      <c r="D31" s="8">
+        <f>SUM(B31:C31)</f>
+        <v>2000</v>
+      </c>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:13" ht="39.75" thickBot="1">
+      <c r="A32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="10">
+        <f>ROUND(2200*B30,0)</f>
+        <v>1272</v>
+      </c>
+      <c r="C32" s="10">
+        <f t="shared" ref="C32" si="7">ROUND(2200*C30,0)</f>
+        <v>928</v>
+      </c>
+      <c r="D32" s="10">
+        <f>SUM(B32:C32)</f>
+        <v>2200</v>
+      </c>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14475" tabRatio="923" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14475" tabRatio="923" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="quotas_US" sheetId="2" r:id="rId1"/>
@@ -1050,16 +1050,16 @@
     <t>New Quota (+10%) after bug</t>
   </si>
   <si>
-    <t>* 14 zipcodes were not properly treated at the beginning: we counted which region/urbanity failed to be recorded, will correct the ,csv data, we decrement the quotas by the corresponding numbers, and we now excludes (from the count) those respondents for which the zipcode is not correctly treated</t>
-  </si>
-  <si>
-    <t>* 9 zipcodes were not properly treated at the beginning: we counted which region/urbanity failed to be recorded, will correct the ,csv data, we decrement the quotas by the corresponding numbers, and we now excludes (from the count) those respondents for which the zipcode is not correctly treated</t>
-  </si>
-  <si>
-    <t>* 7 zipcodes were invalid: we dropped them; and 10 zipcode were not properly treated at the beginning: we counted which region/urbanity failed to be recorded, will correct the ,csv data, we decrement the quotas by the corresponding numbers, and we now excludes (from the count) those respondents for which the zipcode is not correctly treated</t>
-  </si>
-  <si>
-    <t>* 5 zipcodes were invalid: we dropped them; and 5 zipcodes were not properly treated at the beginning: we counted which region/urbanity failed to be recorded, will correct the ,csv data, we decrement the quotas by the corresponding numbers, and we now excludes (from the count) those respondents for which the zipcode is not correctly treated</t>
+    <t>* 5 zipcodes were invalid: we dropped them; and 5 zipcodes were not properly treated at the beginning: we counted which region/urbanity failed to be recorded, have corrected the data, we decrement the quotas by the corresponding numbers, and we now excludes (from the count) those respondents for which the zipcode is not correctly treated</t>
+  </si>
+  <si>
+    <t>* 7 zipcodes were invalid: we dropped them; and 10 zipcode were not properly treated at the beginning: we counted which region/urbanity failed to be recorded, have corrected the data, we decrement the quotas by the corresponding numbers, and we now excludes (from the count) those respondents for which the zipcode is not correctly treated</t>
+  </si>
+  <si>
+    <t>* 9 zipcodes were not properly treated at the beginning: we counted which region/urbanity failed to be recorded, have corrected the data, we decrement the quotas by the corresponding numbers, and we now excludes (from the count) those respondents for which the zipcode is not correctly treated</t>
+  </si>
+  <si>
+    <t>* 14 zipcodes were not properly treated at the beginning: we counted which region/urbanity failed to be recorded, have corrected the data, we decrement the quotas by the corresponding numbers, and we now excludes (from the count) those respondents for which the zipcode is not correctly treated</t>
   </si>
 </sst>
 </file>
@@ -9078,8 +9078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9318,7 +9318,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1">
@@ -9603,8 +9603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10017,7 +10017,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1">
@@ -10070,7 +10070,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:F18"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10448,7 +10448,7 @@
       </c>
       <c r="E22" s="12"/>
       <c r="H22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="27" thickBot="1">
@@ -10554,7 +10554,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10990,7 +10990,7 @@
       </c>
       <c r="E25" s="20"/>
       <c r="G25" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14475" tabRatio="923" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14475" tabRatio="923" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="quotas_US" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="334">
   <si>
     <t>IDF</t>
   </si>
@@ -1060,6 +1060,9 @@
   </si>
   <si>
     <t>* 14 zipcodes were not properly treated at the beginning: we counted which region/urbanity failed to be recorded, have corrected the data, we decrement the quotas by the corresponding numbers, and we now excludes (from the count) those respondents for which the zipcode is not correctly treated</t>
+  </si>
+  <si>
+    <t>* The quota count was badly coded on qualtrics, implying the 4 extra Central counts.</t>
   </si>
 </sst>
 </file>
@@ -9078,7 +9081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -11000,10 +11003,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11296,31 +11299,26 @@
     </row>
     <row r="16" spans="1:13" ht="27" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2">
-        <f t="shared" ref="B16:F16" si="3">ROUND(2200*B14,0)</f>
-        <v>499</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="3"/>
-        <v>259</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="3"/>
-        <v>481</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="3"/>
-        <v>318</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="3"/>
-        <v>643</v>
-      </c>
-      <c r="G16" s="2">
+        <v>326</v>
+      </c>
+      <c r="B16" s="10">
+        <v>454</v>
+      </c>
+      <c r="C16" s="10">
+        <v>239</v>
+      </c>
+      <c r="D16" s="10">
+        <v>437</v>
+      </c>
+      <c r="E16" s="10">
+        <v>289</v>
+      </c>
+      <c r="F16" s="10">
+        <v>585</v>
+      </c>
+      <c r="G16" s="10">
         <f>SUM(B16:F16)</f>
-        <v>2200</v>
+        <v>2004</v>
       </c>
       <c r="H16" s="3"/>
       <c r="L16" t="s">
@@ -11330,14 +11328,35 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="11"/>
+    <row r="17" spans="1:13" ht="39.75" thickBot="1">
+      <c r="A17" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="2">
+        <f>ROUND(1.1*B16,0)</f>
+        <v>499</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:G17" si="3">ROUND(1.1*C16,0)</f>
+        <v>263</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="3"/>
+        <v>481</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="3"/>
+        <v>318</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="3"/>
+        <v>644</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="3"/>
+        <v>2204</v>
+      </c>
+      <c r="H17" s="3"/>
       <c r="L17" t="s">
         <v>114</v>
       </c>
@@ -11346,6 +11365,13 @@
       </c>
     </row>
     <row r="18" spans="1:13">
+      <c r="A18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="11"/>
       <c r="L18" t="s">
         <v>234</v>
       </c>
@@ -11353,154 +11379,157 @@
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:13" ht="27" thickBot="1">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="21" spans="1:13" ht="27" thickBot="1">
+      <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B21" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:13" ht="27" thickBot="1">
-      <c r="A21" s="5" t="s">
+      <c r="D21" s="12"/>
+      <c r="G21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="27" thickBot="1">
+      <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B22" s="6">
         <v>0.43314069999999999</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C22" s="6">
         <v>0.56685929999999995</v>
       </c>
-      <c r="D21" s="6">
-        <f>SUM(B21:C21)</f>
+      <c r="D22" s="6">
+        <f>SUM(B22:C22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="8">
-        <f t="shared" ref="B22:C22" si="4">ROUND(2000*B21,0)</f>
+      <c r="B23" s="8">
+        <f t="shared" ref="B23:C23" si="4">ROUND(2000*B22,0)</f>
         <v>866</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C23" s="8">
         <f t="shared" si="4"/>
         <v>1134</v>
       </c>
-      <c r="D22" s="8">
-        <f>SUM(B22:C22)</f>
+      <c r="D23" s="8">
+        <f>SUM(B23:C23)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="39.75" thickBot="1">
-      <c r="A23" s="5" t="s">
+    <row r="24" spans="1:13" ht="39.75" thickBot="1">
+      <c r="A24" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="10">
-        <f>ROUND(2200*B21,0)</f>
+      <c r="B24" s="10">
+        <f>ROUND(2200*B22,0)</f>
         <v>953</v>
       </c>
-      <c r="C23" s="10">
-        <f t="shared" ref="C23" si="5">ROUND(2200*C21,0)</f>
+      <c r="C24" s="10">
+        <f t="shared" ref="C24" si="5">ROUND(2200*C22,0)</f>
         <v>1247</v>
       </c>
-      <c r="D23" s="10">
-        <f>SUM(B23:C23)</f>
+      <c r="D24" s="10">
+        <f>SUM(B24:C24)</f>
         <v>2200</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="9" t="s">
+    <row r="25" spans="1:13">
+      <c r="A25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A28" s="1" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="27" thickBot="1">
-      <c r="A29" s="9" t="s">
+    <row r="30" spans="1:13" ht="27" thickBot="1">
+      <c r="A30" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B30" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:13" ht="27" thickBot="1">
-      <c r="A30" s="5" t="s">
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" ht="27" thickBot="1">
+      <c r="A31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B31" s="6">
         <v>0.57801659999999999</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C31" s="6">
         <v>0.42198340000000001</v>
       </c>
-      <c r="D30" s="6">
-        <f>SUM(B30:C30)</f>
+      <c r="D31" s="6">
+        <f>SUM(B31:C31)</f>
         <v>1</v>
       </c>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A31" s="5" t="s">
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" thickBot="1">
+      <c r="A32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="8">
-        <f t="shared" ref="B31:C31" si="6">ROUND(2000*B30,0)</f>
+      <c r="B32" s="8">
+        <f t="shared" ref="B32:C32" si="6">ROUND(2000*B31,0)</f>
         <v>1156</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C32" s="8">
         <f t="shared" si="6"/>
         <v>844</v>
       </c>
-      <c r="D31" s="8">
-        <f>SUM(B31:C31)</f>
+      <c r="D32" s="8">
+        <f>SUM(B32:C32)</f>
         <v>2000</v>
       </c>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="1:13" ht="39.75" thickBot="1">
-      <c r="A32" s="5" t="s">
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" spans="1:5" ht="39.75" thickBot="1">
+      <c r="A33" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="10">
-        <f>ROUND(2200*B30,0)</f>
+      <c r="B33" s="10">
+        <f>ROUND(2200*B31,0)</f>
         <v>1272</v>
       </c>
-      <c r="C32" s="10">
-        <f t="shared" ref="C32" si="7">ROUND(2200*C30,0)</f>
+      <c r="C33" s="10">
+        <f t="shared" ref="C33" si="7">ROUND(2200*C31,0)</f>
         <v>928</v>
       </c>
-      <c r="D32" s="10">
-        <f>SUM(B32:C32)</f>
+      <c r="D33" s="10">
+        <f>SUM(B33:C33)</f>
         <v>2200</v>
       </c>
-      <c r="E32" s="20"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="9" t="s">
+      <c r="E33" s="20"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14475" tabRatio="923" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14475" tabRatio="923" firstSheet="16" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="quotas_US" sheetId="2" r:id="rId1"/>
@@ -27,9 +27,9 @@
     <sheet name="quotas_SA" sheetId="14" r:id="rId13"/>
     <sheet name="quotas_CN" sheetId="15" r:id="rId14"/>
     <sheet name="quotas_BR" sheetId="16" r:id="rId15"/>
-    <sheet name="quotas_MX" sheetId="17" r:id="rId16"/>
-    <sheet name="quotas_SK" sheetId="18" r:id="rId17"/>
-    <sheet name="quota_CA" sheetId="20" r:id="rId18"/>
+    <sheet name="quota_CA" sheetId="20" r:id="rId16"/>
+    <sheet name="quotas_MX" sheetId="17" r:id="rId17"/>
+    <sheet name="quotas_SK" sheetId="18" r:id="rId18"/>
     <sheet name="quota_TR" sheetId="21" r:id="rId19"/>
     <sheet name="quota_UA" sheetId="22" r:id="rId20"/>
   </sheets>
@@ -4935,6 +4935,421 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D23" sqref="A20:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6">
+        <f>1-C2</f>
+        <v>0.5072618222776264</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.4927381777223736</v>
+      </c>
+      <c r="D2" s="7">
+        <f>SUM(B2:C2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8">
+        <f>ROUND(2000*B2,0)</f>
+        <v>1015</v>
+      </c>
+      <c r="C3" s="8">
+        <f>ROUND(2000*C2,0)</f>
+        <v>985</v>
+      </c>
+      <c r="D3" s="8">
+        <f>ROUND(2000*D2,0)</f>
+        <v>2000</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="27" thickBot="1">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8">
+        <f>ROUND(2200*B2,0)</f>
+        <v>1116</v>
+      </c>
+      <c r="C4" s="8">
+        <f>ROUND(2200*C2,0)</f>
+        <v>1084</v>
+      </c>
+      <c r="D4" s="8">
+        <f>ROUND(2200*D2,0)</f>
+        <v>2200</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.10402815988780871</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.17502163559091188</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.24488811098766669</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.25292269475436224</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.22313939877924996</v>
+      </c>
+      <c r="G8" s="7">
+        <f>SUM(B8:F8)</f>
+        <v>0.99999999999999944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" ref="B9:G9" si="0">ROUND(2000*B8,0)</f>
+        <v>208</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>506</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>446</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="27" thickBot="1">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" ref="B10:G10" si="1">ROUND(2200*B8,0)</f>
+        <v>229</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" si="1"/>
+        <v>385</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="1"/>
+        <v>539</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>556</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="1"/>
+        <v>491</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>0.25286894787704101</v>
+      </c>
+      <c r="C15">
+        <v>6.7500838497375801E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.38909366153470298</v>
+      </c>
+      <c r="E15">
+        <v>0.22614691528820399</v>
+      </c>
+      <c r="F15">
+        <v>6.4389636802676301E-2</v>
+      </c>
+      <c r="G15" s="17">
+        <f>SUM(B15:F15)</f>
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="10">
+        <f>ROUND(2000*B15,0)</f>
+        <v>506</v>
+      </c>
+      <c r="C16" s="10">
+        <f>ROUND(2000*C15,0)</f>
+        <v>135</v>
+      </c>
+      <c r="D16" s="10">
+        <f>ROUND(2000*D15,0)</f>
+        <v>778</v>
+      </c>
+      <c r="E16" s="10">
+        <f>ROUND(2000*E15,0)</f>
+        <v>452</v>
+      </c>
+      <c r="F16" s="10">
+        <f>ROUND(2000*F15,0)</f>
+        <v>129</v>
+      </c>
+      <c r="G16" s="3">
+        <f>SUM(B16:F16)</f>
+        <v>2000</v>
+      </c>
+      <c r="I16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="27" thickBot="1">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <f>ROUND(2200*B15,0)</f>
+        <v>556</v>
+      </c>
+      <c r="C17" s="2">
+        <f>ROUND(2200*C15,0)</f>
+        <v>149</v>
+      </c>
+      <c r="D17" s="2">
+        <f>ROUND(2200*D15,0)</f>
+        <v>856</v>
+      </c>
+      <c r="E17" s="2">
+        <f>ROUND(2200*E15,0)</f>
+        <v>498</v>
+      </c>
+      <c r="F17" s="2">
+        <f>ROUND(2200*F15,0)</f>
+        <v>142</v>
+      </c>
+      <c r="G17" s="3">
+        <f>SUM(B17:F17)</f>
+        <v>2201</v>
+      </c>
+      <c r="I17" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="11"/>
+      <c r="I18" t="s">
+        <v>256</v>
+      </c>
+      <c r="J18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+      <c r="I19" t="s">
+        <v>234</v>
+      </c>
+      <c r="J19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="27" thickBot="1">
+      <c r="A20" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="D21" s="6">
+        <f>SUM(B21:C21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8">
+        <f t="shared" ref="B22:C22" si="2">ROUND(2000*B21,0)</f>
+        <v>334</v>
+      </c>
+      <c r="C22" s="8">
+        <f t="shared" si="2"/>
+        <v>1666</v>
+      </c>
+      <c r="D22" s="8">
+        <f>SUM(B22:C22)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="27" thickBot="1">
+      <c r="A23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="10">
+        <f>ROUND(2200*B21,0)</f>
+        <v>367</v>
+      </c>
+      <c r="C23" s="10">
+        <f t="shared" ref="C23" si="3">ROUND(2200*C21,0)</f>
+        <v>1833</v>
+      </c>
+      <c r="D23" s="10">
+        <f>SUM(B23:C23)</f>
+        <v>2200</v>
+      </c>
+      <c r="I23" t="s">
+        <v>234</v>
+      </c>
+      <c r="J23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
@@ -5406,11 +5821,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -5859,421 +6274,6 @@
     <row r="26" spans="1:10">
       <c r="I26" t="s">
         <v>320</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D23" sqref="A20:D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6">
-        <f>1-C2</f>
-        <v>0.5072618222776264</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.4927381777223736</v>
-      </c>
-      <c r="D2" s="7">
-        <f>SUM(B2:C2)</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8">
-        <f>ROUND(2000*B2,0)</f>
-        <v>1015</v>
-      </c>
-      <c r="C3" s="8">
-        <f>ROUND(2000*C2,0)</f>
-        <v>985</v>
-      </c>
-      <c r="D3" s="8">
-        <f>ROUND(2000*D2,0)</f>
-        <v>2000</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="8">
-        <f>ROUND(2200*B2,0)</f>
-        <v>1116</v>
-      </c>
-      <c r="C4" s="8">
-        <f>ROUND(2200*C2,0)</f>
-        <v>1084</v>
-      </c>
-      <c r="D4" s="8">
-        <f>ROUND(2200*D2,0)</f>
-        <v>2200</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.10402815988780871</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.17502163559091188</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.24488811098766669</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.25292269475436224</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.22313939877924996</v>
-      </c>
-      <c r="G8" s="7">
-        <f>SUM(B8:F8)</f>
-        <v>0.99999999999999944</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8">
-        <f t="shared" ref="B9:G9" si="0">ROUND(2000*B8,0)</f>
-        <v>208</v>
-      </c>
-      <c r="C9" s="8">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" si="0"/>
-        <v>490</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
-        <v>506</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>446</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8">
-        <f t="shared" ref="B10:G10" si="1">ROUND(2200*B8,0)</f>
-        <v>229</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" si="1"/>
-        <v>385</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" si="1"/>
-        <v>539</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="1"/>
-        <v>556</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="1"/>
-        <v>491</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="1"/>
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="I14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>0.25286894787704101</v>
-      </c>
-      <c r="C15">
-        <v>6.7500838497375801E-2</v>
-      </c>
-      <c r="D15">
-        <v>0.38909366153470298</v>
-      </c>
-      <c r="E15">
-        <v>0.22614691528820399</v>
-      </c>
-      <c r="F15">
-        <v>6.4389636802676301E-2</v>
-      </c>
-      <c r="G15" s="17">
-        <f>SUM(B15:F15)</f>
-        <v>1</v>
-      </c>
-      <c r="I15" t="s">
-        <v>111</v>
-      </c>
-      <c r="J15" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="10">
-        <f>ROUND(2000*B15,0)</f>
-        <v>506</v>
-      </c>
-      <c r="C16" s="10">
-        <f>ROUND(2000*C15,0)</f>
-        <v>135</v>
-      </c>
-      <c r="D16" s="10">
-        <f>ROUND(2000*D15,0)</f>
-        <v>778</v>
-      </c>
-      <c r="E16" s="10">
-        <f>ROUND(2000*E15,0)</f>
-        <v>452</v>
-      </c>
-      <c r="F16" s="10">
-        <f>ROUND(2000*F15,0)</f>
-        <v>129</v>
-      </c>
-      <c r="G16" s="3">
-        <f>SUM(B16:F16)</f>
-        <v>2000</v>
-      </c>
-      <c r="I16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="27" thickBot="1">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2">
-        <f>ROUND(2200*B15,0)</f>
-        <v>556</v>
-      </c>
-      <c r="C17" s="2">
-        <f>ROUND(2200*C15,0)</f>
-        <v>149</v>
-      </c>
-      <c r="D17" s="2">
-        <f>ROUND(2200*D15,0)</f>
-        <v>856</v>
-      </c>
-      <c r="E17" s="2">
-        <f>ROUND(2200*E15,0)</f>
-        <v>498</v>
-      </c>
-      <c r="F17" s="2">
-        <f>ROUND(2200*F15,0)</f>
-        <v>142</v>
-      </c>
-      <c r="G17" s="3">
-        <f>SUM(B17:F17)</f>
-        <v>2201</v>
-      </c>
-      <c r="I17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="11"/>
-      <c r="I18" t="s">
-        <v>256</v>
-      </c>
-      <c r="J18" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
-      <c r="I19" t="s">
-        <v>234</v>
-      </c>
-      <c r="J19" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="27" thickBot="1">
-      <c r="A20" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="D21" s="6">
-        <f>SUM(B21:C21)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="8">
-        <f t="shared" ref="B22:C22" si="2">ROUND(2000*B21,0)</f>
-        <v>334</v>
-      </c>
-      <c r="C22" s="8">
-        <f t="shared" si="2"/>
-        <v>1666</v>
-      </c>
-      <c r="D22" s="8">
-        <f>SUM(B22:C22)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="27" thickBot="1">
-      <c r="A23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="10">
-        <f>ROUND(2200*B21,0)</f>
-        <v>367</v>
-      </c>
-      <c r="C23" s="10">
-        <f t="shared" ref="C23" si="3">ROUND(2200*C21,0)</f>
-        <v>1833</v>
-      </c>
-      <c r="D23" s="10">
-        <f>SUM(B23:C23)</f>
-        <v>2200</v>
-      </c>
-      <c r="I23" t="s">
-        <v>234</v>
-      </c>
-      <c r="J23" t="s">
-        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -6285,8 +6285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -7175,8 +7175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -11005,7 +11005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afabre\Documents\www\oecd_climate\questionnaires\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26EC504-B7F2-514B-913D-64876403B1A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14475" tabRatio="923" firstSheet="16" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="923" firstSheet="15" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quotas_US" sheetId="2" r:id="rId1"/>
@@ -33,7 +34,7 @@
     <sheet name="quota_TR" sheetId="21" r:id="rId19"/>
     <sheet name="quota_UA" sheetId="22" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="336">
   <si>
     <t>IDF</t>
   </si>
@@ -903,12 +904,6 @@
     <t>Mediterranean</t>
   </si>
   <si>
-    <t>Aegean</t>
-  </si>
-  <si>
-    <t>Black Sea</t>
-  </si>
-  <si>
     <t>Anatolia:</t>
   </si>
   <si>
@@ -1063,12 +1058,24 @@
   </si>
   <si>
     <t>* The quota count was badly coded on qualtrics, implying the 4 extra Central counts.</t>
+  </si>
+  <si>
+    <t>North West:</t>
+  </si>
+  <si>
+    <t>Aegean + Black Sea</t>
+  </si>
+  <si>
+    <t>Central-West (0,109) + South-West (0,111)</t>
+  </si>
+  <si>
+    <t>Center-East (0,082) + Center-West (0,229)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -1297,7 +1304,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1574,14 +1581,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -2070,24 +2077,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="D22" r:id="rId2" display="https://www.ers.usda.gov/data-products/rural-urban-commuting-area-codes/"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D22" r:id="rId2" display="https://www.ers.usda.gov/data-products/rural-urban-commuting-area-codes/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -2101,7 +2108,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2121,7 +2128,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2140,7 +2147,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -2159,8 +2166,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -2181,7 +2188,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -2205,7 +2212,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -2234,7 +2241,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -2274,7 +2281,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="27" thickBot="1">
+    <row r="14" spans="1:10" ht="30" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -2303,7 +2310,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -2330,7 +2337,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -2365,7 +2372,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27" thickBot="1">
+    <row r="17" spans="1:10" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -2420,8 +2427,8 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="23" spans="1:10" ht="27" thickBot="1">
+    <row r="22" spans="1:10" ht="16" thickBot="1"/>
+    <row r="23" spans="1:10" ht="30" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -2434,7 +2441,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+    <row r="24" spans="1:10" ht="16" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -2453,10 +2460,10 @@
         <v>211</v>
       </c>
       <c r="G24" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -2477,10 +2484,10 @@
         <v>171</v>
       </c>
       <c r="G25" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="39.75" thickBot="1">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="44" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>89</v>
       </c>
@@ -2498,12 +2505,12 @@
       </c>
       <c r="E26" s="20"/>
       <c r="G26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="G27" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2512,21 +2519,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -2541,7 +2548,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="27" thickBot="1">
+    <row r="2" spans="1:11" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2563,7 +2570,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2585,7 +2592,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="27" thickBot="1">
+    <row r="4" spans="1:11" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -2626,7 +2633,7 @@
       <c r="G6" s="24"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="7" spans="1:11" ht="16" thickBot="1">
       <c r="A7" s="9"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -2636,7 +2643,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1">
+    <row r="8" spans="1:11" ht="16" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -2658,7 +2665,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:11" ht="27" thickBot="1">
+    <row r="9" spans="1:11" ht="30" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -2683,7 +2690,7 @@
       </c>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1">
+    <row r="10" spans="1:11" ht="16" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -2713,7 +2720,7 @@
       </c>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:11" ht="27" thickBot="1">
+    <row r="11" spans="1:11" ht="30" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -2758,7 +2765,7 @@
     <row r="13" spans="1:11">
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:11" ht="65.25" thickBot="1">
+    <row r="14" spans="1:11" ht="72" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -2772,7 +2779,7 @@
         <v>119</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>120</v>
@@ -2780,10 +2787,10 @@
       <c r="G14" s="29"/>
       <c r="H14" s="25"/>
       <c r="K14" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="27" thickBot="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -2807,7 +2814,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -2839,7 +2846,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="27" thickBot="1">
+    <row r="17" spans="1:12" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -2908,15 +2915,15 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="27" thickBot="1">
+    <row r="21" spans="1:12" ht="30" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>218</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -2924,7 +2931,7 @@
       <c r="G21" s="29"/>
       <c r="H21" s="25"/>
     </row>
-    <row r="22" spans="1:12" ht="27" thickBot="1">
+    <row r="22" spans="1:12" ht="30" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -2943,7 +2950,7 @@
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1">
+    <row r="23" spans="1:12" ht="16" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -2963,7 +2970,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:12" ht="27" thickBot="1">
+    <row r="24" spans="1:12" ht="30" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -3009,7 +3016,7 @@
       <c r="E27" s="11"/>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="1:12" ht="27" thickBot="1">
+    <row r="28" spans="1:12" ht="30" thickBot="1">
       <c r="A28" s="9" t="s">
         <v>218</v>
       </c>
@@ -3033,7 +3040,7 @@
       </c>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="1:12" ht="27" thickBot="1">
+    <row r="29" spans="1:12" ht="30" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
@@ -3060,7 +3067,7 @@
         <v>0.99989215000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1">
+    <row r="30" spans="1:12" ht="16" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
@@ -3093,7 +3100,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="27" thickBot="1">
+    <row r="31" spans="1:12" ht="30" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
@@ -3182,16 +3189,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -3205,7 +3212,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="27" thickBot="1">
+    <row r="2" spans="1:11" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3226,7 +3233,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -3247,7 +3254,7 @@
         <v>0.99792841994678028</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27.75" thickBot="1">
+    <row r="4" spans="1:11" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -3266,8 +3273,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="34"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="16" thickBot="1"/>
+    <row r="7" spans="1:11" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -3288,7 +3295,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="27" thickBot="1">
+    <row r="8" spans="1:11" ht="30" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3312,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+    <row r="9" spans="1:11" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3341,7 +3348,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" thickBot="1">
+    <row r="10" spans="1:11" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3381,7 +3388,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="27" thickBot="1">
+    <row r="14" spans="1:11" ht="30" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -3410,7 +3417,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="27" thickBot="1">
+    <row r="15" spans="1:11" ht="30" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3440,7 +3447,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -3475,7 +3482,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27" thickBot="1">
+    <row r="17" spans="1:11" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3530,8 +3537,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="23" spans="1:11" ht="27" thickBot="1">
+    <row r="22" spans="1:11" ht="16" thickBot="1"/>
+    <row r="23" spans="1:11" ht="30" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -3544,7 +3551,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="27" thickBot="1">
+    <row r="24" spans="1:11" ht="30" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -3566,7 +3573,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1">
+    <row r="25" spans="1:11" ht="16" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -3590,7 +3597,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="39.75" thickBot="1">
+    <row r="26" spans="1:11" ht="44" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>89</v>
       </c>
@@ -3615,16 +3622,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -3638,7 +3645,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+    <row r="2" spans="1:11" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3659,7 +3666,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -3680,7 +3687,7 @@
         <v>0.97760081385085629</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27" thickBot="1">
+    <row r="4" spans="1:11" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -3699,8 +3706,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="16" thickBot="1"/>
+    <row r="7" spans="1:11" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -3721,7 +3728,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1">
+    <row r="8" spans="1:11" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3745,7 +3752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+    <row r="9" spans="1:11" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3774,7 +3781,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" thickBot="1">
+    <row r="10" spans="1:11" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3814,7 +3821,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
+    <row r="14" spans="1:11" ht="16" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -3837,7 +3844,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1">
+    <row r="15" spans="1:11" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3867,7 +3874,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -3902,7 +3909,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27" thickBot="1">
+    <row r="17" spans="1:11" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3952,8 +3959,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="22" spans="1:11" ht="27" thickBot="1">
+    <row r="21" spans="1:11" ht="16" thickBot="1"/>
+    <row r="22" spans="1:11" ht="30" thickBot="1">
       <c r="A22" s="9" t="s">
         <v>85</v>
       </c>
@@ -3966,7 +3973,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+    <row r="23" spans="1:11" ht="16" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -3988,7 +3995,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1">
+    <row r="24" spans="1:11" ht="16" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
@@ -4015,7 +4022,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="39.75" thickBot="1">
+    <row r="25" spans="1:11" ht="44" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>89</v>
       </c>
@@ -4039,16 +4046,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -4062,7 +4069,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4083,7 +4090,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -4104,7 +4111,7 @@
         <v>1.0341140064832992</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -4123,8 +4130,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -4145,7 +4152,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -4169,7 +4176,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -4198,7 +4205,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4238,7 +4245,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="27" thickBot="1">
+    <row r="13" spans="1:10" ht="30" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -4252,7 +4259,7 @@
         <v>256</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>48</v>
@@ -4261,7 +4268,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+    <row r="14" spans="1:10" ht="16" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -4291,7 +4298,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -4326,7 +4333,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="27" thickBot="1">
+    <row r="16" spans="1:10" ht="30" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -4364,7 +4371,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1">
+    <row r="19" spans="1:9" ht="16" thickBot="1">
       <c r="A19" s="13" t="s">
         <v>76</v>
       </c>
@@ -4375,7 +4382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1">
+    <row r="20" spans="1:9" ht="16" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
@@ -4396,7 +4403,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1">
+    <row r="21" spans="1:9" ht="16" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -4413,7 +4420,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="27" thickBot="1">
+    <row r="22" spans="1:9" ht="30" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -4541,16 +4548,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -4564,7 +4571,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4585,7 +4592,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+    <row r="3" spans="1:7" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -4606,7 +4613,7 @@
         <v>0.95217958067188335</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27" thickBot="1">
+    <row r="4" spans="1:7" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -4625,8 +4632,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1">
+    <row r="6" spans="1:7" ht="16" thickBot="1"/>
+    <row r="7" spans="1:7" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -4647,7 +4654,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1">
+    <row r="8" spans="1:7" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -4671,7 +4678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1">
+    <row r="9" spans="1:7" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -4700,7 +4707,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" thickBot="1">
+    <row r="10" spans="1:7" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4740,7 +4747,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1">
+    <row r="14" spans="1:7" ht="16" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -4763,7 +4770,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
+    <row r="15" spans="1:7" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -4787,7 +4794,7 @@
         <v>0.99999999999999933</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+    <row r="16" spans="1:7" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -4816,7 +4823,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27" thickBot="1">
+    <row r="17" spans="1:10" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4848,7 +4855,7 @@
         <v>234</v>
       </c>
       <c r="J17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4860,20 +4867,20 @@
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="21" spans="1:10" ht="27" thickBot="1">
+    <row r="20" spans="1:10" ht="16" thickBot="1"/>
+    <row r="21" spans="1:10" ht="30" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="16" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -4888,7 +4895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="16" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -4905,7 +4912,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="27" thickBot="1">
+    <row r="24" spans="1:10" ht="30" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -4925,7 +4932,7 @@
         <v>234</v>
       </c>
       <c r="J24" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -4934,16 +4941,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D23" sqref="A20:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -4957,7 +4964,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4977,7 +4984,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -4996,7 +5003,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -5015,8 +5022,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -5037,7 +5044,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -5061,7 +5068,7 @@
         <v>0.99999999999999944</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -5090,7 +5097,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5130,7 +5137,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+    <row r="14" spans="1:10" ht="16" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -5159,7 +5166,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -5189,7 +5196,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -5221,7 +5228,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27" thickBot="1">
+    <row r="17" spans="1:10" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5268,7 +5275,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="16" thickBot="1">
       <c r="I19" t="s">
         <v>234</v>
       </c>
@@ -5276,7 +5283,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="27" thickBot="1">
+    <row r="20" spans="1:10" ht="30" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>85</v>
       </c>
@@ -5288,7 +5295,7 @@
       </c>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="16" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -5303,7 +5310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="16" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -5320,7 +5327,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="27" thickBot="1">
+    <row r="23" spans="1:10" ht="30" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -5340,7 +5347,7 @@
         <v>234</v>
       </c>
       <c r="J23" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -5349,16 +5356,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -5372,7 +5379,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -5393,7 +5400,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -5414,7 +5421,7 @@
         <v>0.92970833595125124</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -5433,8 +5440,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -5455,7 +5462,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -5479,7 +5486,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -5508,7 +5515,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5548,7 +5555,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="27" thickBot="1">
+    <row r="14" spans="1:10" ht="30" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -5577,7 +5584,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -5607,7 +5614,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -5642,7 +5649,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27" thickBot="1">
+    <row r="17" spans="1:10" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5700,7 +5707,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="16" thickBot="1">
       <c r="A21" s="13" t="s">
         <v>76</v>
       </c>
@@ -5708,13 +5715,13 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="16" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -5732,7 +5739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="16" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -5753,13 +5760,13 @@
         <v>2000</v>
       </c>
       <c r="F23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G23" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="27" thickBot="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -5783,7 +5790,7 @@
         <v>208</v>
       </c>
       <c r="G24" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5794,15 +5801,15 @@
         <v>214</v>
       </c>
       <c r="H25" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="G26" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H26" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5810,7 +5817,7 @@
         <v>51</v>
       </c>
       <c r="H27" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5822,16 +5829,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -5845,7 +5852,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -5866,7 +5873,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -5887,7 +5894,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -5906,8 +5913,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -5928,7 +5935,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -5952,7 +5959,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -5981,7 +5988,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -6021,7 +6028,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="27" thickBot="1">
+    <row r="14" spans="1:10" ht="16" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -6032,13 +6039,13 @@
         <v>133</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>256</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>139</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>139</v>
@@ -6047,7 +6054,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -6058,17 +6065,18 @@
         <v>0.343251015277311</v>
       </c>
       <c r="D15" s="31">
-        <v>0.10921309468591101</v>
+        <v>0.22025659607004799</v>
       </c>
       <c r="E15" s="31">
-        <v>0.111043501384137</v>
-      </c>
-      <c r="F15" s="31">
         <v>0.25032612031513901</v>
+      </c>
+      <c r="F15" s="17">
+        <f>SUM(A15:E15)</f>
+        <v>1</v>
       </c>
       <c r="G15" s="17">
         <f>SUM(B15:F15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="s">
         <v>133</v>
@@ -6077,7 +6085,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -6091,19 +6099,19 @@
       </c>
       <c r="D16" s="10">
         <f>ROUND(2000*D15,0)</f>
-        <v>218</v>
+        <v>441</v>
       </c>
       <c r="E16" s="10">
         <f>ROUND(2000*E15,0)</f>
-        <v>222</v>
-      </c>
-      <c r="F16" s="10">
-        <f>ROUND(2000*F15,0)</f>
         <v>501</v>
+      </c>
+      <c r="F16" s="3">
+        <f>SUM(A16:E16)</f>
+        <v>2001</v>
       </c>
       <c r="G16" s="3">
         <f>SUM(B16:F16)</f>
-        <v>2000</v>
+        <v>4002</v>
       </c>
       <c r="I16" t="s">
         <v>244</v>
@@ -6112,7 +6120,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27" thickBot="1">
+    <row r="17" spans="1:10" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -6126,19 +6134,19 @@
       </c>
       <c r="D17" s="2">
         <f>ROUND(2200*D15,0)</f>
-        <v>240</v>
+        <v>485</v>
       </c>
       <c r="E17" s="2">
         <f>ROUND(2200*E15,0)</f>
-        <v>244</v>
-      </c>
-      <c r="F17" s="2">
-        <f>ROUND(2200*F15,0)</f>
         <v>551</v>
+      </c>
+      <c r="F17" s="3">
+        <f>SUM(A17:E17)</f>
+        <v>2201</v>
       </c>
       <c r="G17" s="3">
         <f>SUM(B17:F17)</f>
-        <v>2200</v>
+        <v>4402</v>
       </c>
       <c r="I17" t="s">
         <v>112</v>
@@ -6170,21 +6178,29 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10">
+      <c r="I20" t="s">
+        <v>176</v>
+      </c>
+      <c r="J20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16" thickBot="1">
       <c r="A21" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C21" t="s">
         <v>188</v>
       </c>
       <c r="D21" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -6202,10 +6218,10 @@
         <v>1.0000000099999999</v>
       </c>
       <c r="H22" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -6229,10 +6245,10 @@
         <v>140</v>
       </c>
       <c r="H23" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="27" thickBot="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -6257,7 +6273,7 @@
       </c>
       <c r="G24" s="15"/>
       <c r="H24" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -6268,12 +6284,12 @@
         <v>234</v>
       </c>
       <c r="I25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="I26" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -6282,16 +6298,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -6305,7 +6321,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -6325,7 +6341,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -6344,7 +6360,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -6363,8 +6379,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -6385,7 +6401,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -6409,7 +6425,7 @@
         <v>0.99999999999999933</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -6438,7 +6454,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -6478,7 +6494,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="78" thickBot="1">
+    <row r="14" spans="1:10" ht="86" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -6492,22 +6508,19 @@
         <v>279</v>
       </c>
       <c r="E14" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="J14" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="G14" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>282</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    </row>
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -6521,17 +6534,20 @@
         <v>0.13099525360860201</v>
       </c>
       <c r="E15" s="16">
-        <v>0.128080832149781</v>
-      </c>
-      <c r="F15" s="16">
-        <v>9.5264671201471807E-2</v>
-      </c>
-      <c r="G15" s="17">
-        <f>SUM(B15:F15)</f>
+        <v>0.22334550335125281</v>
+      </c>
+      <c r="F15" s="17">
+        <f ca="1">SUM(B15:F15)</f>
         <v>0.99999999999999978</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+      <c r="I15" t="s">
+        <v>332</v>
+      </c>
+      <c r="J15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -6549,18 +6565,14 @@
       </c>
       <c r="E16" s="10">
         <f>ROUND(2000*E15,0)</f>
-        <v>256</v>
-      </c>
-      <c r="F16" s="10">
-        <f>ROUND(2000*F15,0)</f>
-        <v>191</v>
-      </c>
-      <c r="G16" s="3">
-        <f>SUM(B16:F16)</f>
+        <v>447</v>
+      </c>
+      <c r="F16" s="3">
+        <f ca="1">SUM(B16:F16)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27" thickBot="1">
+    <row r="17" spans="1:10" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -6578,15 +6590,11 @@
       </c>
       <c r="E17" s="2">
         <f>ROUND(2200*E15,0)</f>
-        <v>282</v>
-      </c>
-      <c r="F17" s="2">
-        <f>ROUND(2200*F15,0)</f>
-        <v>210</v>
-      </c>
-      <c r="G17" s="3">
-        <f>SUM(B17:F17)</f>
-        <v>2200</v>
+        <v>491</v>
+      </c>
+      <c r="F17" s="3">
+        <f ca="1">SUM(B17:F17)</f>
+        <v>2199</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6603,11 +6611,11 @@
         <v>234</v>
       </c>
       <c r="J19" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="21" spans="1:10" ht="27" thickBot="1">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16" thickBot="1"/>
+    <row r="21" spans="1:10" ht="30" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -6619,7 +6627,7 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="16" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -6634,7 +6642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="16" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -6651,7 +6659,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="27" thickBot="1">
+    <row r="24" spans="1:10" ht="30" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -6671,12 +6679,12 @@
         <v>234</v>
       </c>
       <c r="J24" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="J25" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -6685,22 +6693,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -6715,7 +6723,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -6733,7 +6741,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+    <row r="3" spans="1:7" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -6753,7 +6761,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="27" thickBot="1">
+    <row r="4" spans="1:7" ht="16" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -6784,7 +6792,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1">
+    <row r="6" spans="1:7" ht="16" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -6793,7 +6801,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1">
+    <row r="7" spans="1:7" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -6814,7 +6822,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1">
+    <row r="8" spans="1:7" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -6838,7 +6846,7 @@
         <v>1.0001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1">
+    <row r="9" spans="1:7" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -6867,7 +6875,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" thickBot="1">
+    <row r="10" spans="1:7" ht="16" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -6896,8 +6904,8 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1">
+    <row r="11" spans="1:7" ht="16" thickBot="1"/>
+    <row r="12" spans="1:7" ht="16" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -6915,7 +6923,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1">
+    <row r="13" spans="1:7" ht="16" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -6935,7 +6943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1">
+    <row r="14" spans="1:7" ht="16" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -6960,7 +6968,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="27" thickBot="1">
+    <row r="15" spans="1:7" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -6990,7 +6998,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="27" thickBot="1">
+    <row r="18" spans="1:7" ht="16" thickBot="1">
       <c r="A18" s="9" t="s">
         <v>13</v>
       </c>
@@ -7010,7 +7018,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1">
+    <row r="19" spans="1:7" ht="16" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
@@ -7034,7 +7042,7 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1">
+    <row r="20" spans="1:7" ht="16" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -7063,7 +7071,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="27" thickBot="1">
+    <row r="21" spans="1:7" ht="16" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
@@ -7101,7 +7109,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1">
+    <row r="24" spans="1:7" ht="16" thickBot="1">
       <c r="A24" s="13" t="s">
         <v>76</v>
       </c>
@@ -7112,7 +7120,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1">
+    <row r="25" spans="1:7" ht="16" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
@@ -7127,7 +7135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1">
+    <row r="26" spans="1:7" ht="16" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -7144,7 +7152,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27" thickBot="1">
+    <row r="27" spans="1:7" ht="16" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
@@ -7172,16 +7180,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -7195,7 +7203,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -7215,7 +7223,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -7234,7 +7242,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -7253,8 +7261,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -7275,7 +7283,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="16" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -7299,7 +7307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -7328,7 +7336,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -7368,133 +7376,119 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="27" thickBot="1">
+    <row r="14" spans="1:10" ht="16" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>285</v>
+        <v>175</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="E14" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="E14" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="F14" s="29" t="s">
         <v>139</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J14" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="31">
-        <v>8.2140396161971399E-2</v>
+        <v>0.31130874366166739</v>
       </c>
       <c r="C15" s="31">
-        <v>0.229168347499696</v>
+        <v>0.21309541835208201</v>
       </c>
       <c r="D15" s="31">
-        <v>0.21309541835208201</v>
+        <v>0.22456565856781299</v>
       </c>
       <c r="E15" s="31">
-        <v>0.22456565856781299</v>
-      </c>
-      <c r="F15" s="31">
         <v>0.25103017941843703</v>
       </c>
-      <c r="G15" s="17">
-        <f>SUM(B15:F15)</f>
+      <c r="F15" s="17">
+        <f>SUM(B15:E15)</f>
         <v>0.99999999999999933</v>
       </c>
       <c r="I15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J15" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="10">
         <f>ROUND(2000*B15,0)</f>
-        <v>164</v>
+        <v>623</v>
       </c>
       <c r="C16" s="10">
         <f>ROUND(2000*C15,0)</f>
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="D16" s="10">
         <f>ROUND(2000*D15,0)</f>
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="E16" s="10">
         <f>ROUND(2000*E15,0)</f>
-        <v>449</v>
-      </c>
-      <c r="F16" s="10">
-        <f>ROUND(2000*F15,0)</f>
         <v>502</v>
       </c>
-      <c r="G16" s="3">
-        <f>SUM(B16:F16)</f>
-        <v>1999</v>
+      <c r="F16" s="3">
+        <f>SUM(B16:E16)</f>
+        <v>2000</v>
       </c>
       <c r="I16" t="s">
         <v>256</v>
       </c>
       <c r="J16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="27" thickBot="1">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2">
         <f>ROUND(2200*B15,0)</f>
-        <v>181</v>
+        <v>685</v>
       </c>
       <c r="C17" s="2">
         <f>ROUND(2200*C15,0)</f>
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="D17" s="2">
         <f>ROUND(2200*D15,0)</f>
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="E17" s="2">
         <f>ROUND(2200*E15,0)</f>
-        <v>494</v>
-      </c>
-      <c r="F17" s="2">
-        <f>ROUND(2200*F15,0)</f>
         <v>552</v>
       </c>
-      <c r="G17" s="3">
-        <f>SUM(B17:F17)</f>
+      <c r="F17" s="3">
+        <f>SUM(B17:E17)</f>
         <v>2200</v>
       </c>
       <c r="I17" t="s">
         <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -7509,7 +7503,7 @@
         <v>48</v>
       </c>
       <c r="J18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -7517,14 +7511,21 @@
         <v>234</v>
       </c>
       <c r="J19" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="21" spans="1:11" ht="27" thickBot="1">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16" thickBot="1">
+      <c r="I20" t="s">
+        <v>131</v>
+      </c>
+      <c r="J20" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -7536,7 +7537,7 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1">
+    <row r="22" spans="1:11" ht="16" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -7551,7 +7552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+    <row r="23" spans="1:11" ht="16" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -7568,7 +7569,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="27" thickBot="1">
+    <row r="24" spans="1:11" ht="30" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -7588,12 +7589,12 @@
         <v>234</v>
       </c>
       <c r="J24" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="J25" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -7602,22 +7603,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" thickBot="1">
+    <row r="1" spans="1:12" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
@@ -7643,7 +7644,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+    <row r="2" spans="1:12" ht="16" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -7676,7 +7677,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1">
+    <row r="3" spans="1:12" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -7710,7 +7711,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1">
+    <row r="4" spans="1:12" ht="16" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -7760,7 +7761,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="0.6" customHeight="1">
+    <row r="6" spans="1:12" ht="0.5" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -7774,14 +7775,14 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+    <row r="7" spans="1:12" ht="16" thickBot="1">
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+    <row r="8" spans="1:12" ht="16" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -7801,7 +7802,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1">
+    <row r="9" spans="1:12" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -7824,7 +7825,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1">
+    <row r="10" spans="1:12" ht="16" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -7849,7 +7850,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1">
+    <row r="11" spans="1:12" ht="16" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -7890,7 +7891,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+    <row r="13" spans="1:12" ht="16" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -7904,7 +7905,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1">
+    <row r="14" spans="1:12" ht="16" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
@@ -7930,7 +7931,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1">
+    <row r="15" spans="1:12" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -7959,7 +7960,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1">
+    <row r="16" spans="1:12" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -7993,7 +7994,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1">
+    <row r="17" spans="1:12" ht="16" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -8043,7 +8044,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+    <row r="19" spans="1:12" ht="16" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -8057,7 +8058,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="27" thickBot="1">
+    <row r="20" spans="1:12" ht="30" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
@@ -8081,7 +8082,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+    <row r="21" spans="1:12" ht="16" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -8107,7 +8108,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1">
+    <row r="22" spans="1:12" ht="16" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -8138,7 +8139,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1">
+    <row r="23" spans="1:12" ht="16" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -8169,7 +8170,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1">
+    <row r="24" spans="1:12" ht="16" thickBot="1">
       <c r="A24" s="9" t="s">
         <v>30</v>
       </c>
@@ -8179,7 +8180,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+    <row r="25" spans="1:12" ht="16" thickBot="1">
       <c r="A25" s="5"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -8204,7 +8205,7 @@
       <c r="F26" s="12"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1">
+    <row r="27" spans="1:12" ht="16" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
@@ -8223,7 +8224,7 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="16" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
@@ -8245,7 +8246,7 @@
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1">
+    <row r="29" spans="1:12" ht="16" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>88</v>
       </c>
@@ -8264,7 +8265,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1">
+    <row r="30" spans="1:12" ht="16" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>87</v>
       </c>
@@ -8286,7 +8287,7 @@
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:12" ht="27" thickBot="1">
+    <row r="31" spans="1:12" ht="30" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>89</v>
       </c>
@@ -8319,12 +8320,12 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1">
+    <row r="36" spans="1:10" ht="16" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="27" thickBot="1">
+    <row r="37" spans="1:10" ht="30" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>1</v>
       </c>
@@ -8354,7 +8355,7 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1">
+    <row r="38" spans="1:10" ht="16" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
@@ -8387,7 +8388,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1">
+    <row r="39" spans="1:10" ht="16" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
@@ -8428,7 +8429,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1">
+    <row r="40" spans="1:10" ht="16" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>12</v>
       </c>
@@ -8495,12 +8496,12 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1">
+    <row r="43" spans="1:10" ht="16" thickBot="1">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1">
+    <row r="44" spans="1:10" ht="16" thickBot="1">
       <c r="A44" s="9" t="s">
         <v>64</v>
       </c>
@@ -8521,7 +8522,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1">
+    <row r="45" spans="1:10" ht="16" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>10</v>
       </c>
@@ -8545,7 +8546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1">
+    <row r="46" spans="1:10" ht="16" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>11</v>
       </c>
@@ -8574,7 +8575,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1">
+    <row r="47" spans="1:10" ht="16" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>12</v>
       </c>
@@ -8630,16 +8631,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H26" sqref="A20:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -8653,7 +8654,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="27" thickBot="1">
+    <row r="2" spans="1:11" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -8674,7 +8675,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -8695,7 +8696,7 @@
         <v>0.95277529961698948</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27" thickBot="1">
+    <row r="4" spans="1:11" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -8714,8 +8715,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="16" thickBot="1"/>
+    <row r="7" spans="1:11" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -8736,7 +8737,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="27" thickBot="1">
+    <row r="8" spans="1:11" ht="30" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -8760,7 +8761,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+    <row r="9" spans="1:11" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -8789,7 +8790,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" thickBot="1">
+    <row r="10" spans="1:11" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -8829,7 +8830,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="27" thickBot="1">
+    <row r="13" spans="1:11" ht="30" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -8855,7 +8856,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="27" thickBot="1">
+    <row r="14" spans="1:11" ht="30" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -8885,7 +8886,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1">
+    <row r="15" spans="1:11" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -8920,7 +8921,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="27" thickBot="1">
+    <row r="16" spans="1:11" ht="30" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -8970,7 +8971,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75">
+    <row r="19" spans="1:11" ht="16">
       <c r="J19" t="s">
         <v>234</v>
       </c>
@@ -8978,7 +8979,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1">
+    <row r="20" spans="1:11" ht="16" thickBot="1">
       <c r="A20" s="13" t="s">
         <v>76</v>
       </c>
@@ -8992,7 +8993,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="27" thickBot="1">
+    <row r="21" spans="1:11" ht="30" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -9010,7 +9011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1">
+    <row r="22" spans="1:11" ht="16" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -9037,7 +9038,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="27" thickBot="1">
+    <row r="23" spans="1:11" ht="30" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -9071,23 +9072,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G23" r:id="rId1"/>
+    <hyperlink ref="G23" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -9101,7 +9102,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="27" thickBot="1">
+    <row r="2" spans="1:10" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -9122,7 +9123,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -9143,7 +9144,7 @@
         <v>0.90805800128462044</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -9162,8 +9163,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -9184,7 +9185,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="27" thickBot="1">
+    <row r="8" spans="1:10" ht="30" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -9208,7 +9209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -9237,7 +9238,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -9277,7 +9278,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="27" thickBot="1">
+    <row r="13" spans="1:10" ht="30" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -9297,7 +9298,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="27" thickBot="1">
+    <row r="14" spans="1:10" ht="30" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -9321,10 +9322,10 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -9353,9 +9354,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="27" thickBot="1">
+    <row r="16" spans="1:10" ht="30" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B16" s="10">
         <v>528</v>
@@ -9377,9 +9378,9 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="39.75" thickBot="1">
+    <row r="17" spans="1:10" ht="44" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B17" s="2">
         <f>ROUND(1.1*B16,0)</f>
@@ -9421,8 +9422,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:10" ht="39.75" thickBot="1">
+    <row r="19" spans="1:10" ht="16" thickBot="1"/>
+    <row r="20" spans="1:10" ht="44" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>85</v>
       </c>
@@ -9437,7 +9438,7 @@
       </c>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:10" ht="27" thickBot="1">
+    <row r="21" spans="1:10" ht="30" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -9455,7 +9456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="16" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -9476,9 +9477,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="27" thickBot="1">
+    <row r="23" spans="1:10" ht="30" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B23" s="10">
         <v>693</v>
@@ -9494,9 +9495,9 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="52.5" thickBot="1">
+    <row r="24" spans="1:10" ht="58" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B24" s="10">
         <f>ROUND(1.1*B23,0)</f>
@@ -9530,7 +9531,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="36" customFormat="1" ht="15.75" thickBot="1">
+    <row r="27" spans="1:10" s="36" customFormat="1" ht="16" thickBot="1">
       <c r="A27" s="35" t="s">
         <v>76</v>
       </c>
@@ -9541,7 +9542,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="36" customFormat="1" ht="27" thickBot="1">
+    <row r="28" spans="1:10" s="36" customFormat="1" ht="30" thickBot="1">
       <c r="A28" s="37" t="s">
         <v>10</v>
       </c>
@@ -9556,7 +9557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="36" customFormat="1" ht="15.75" thickBot="1">
+    <row r="29" spans="1:10" s="36" customFormat="1" ht="16" thickBot="1">
       <c r="A29" s="37" t="s">
         <v>11</v>
       </c>
@@ -9573,9 +9574,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="36" customFormat="1" ht="39.75" thickBot="1">
+    <row r="30" spans="1:10" s="36" customFormat="1" ht="44" thickBot="1">
       <c r="A30" s="37" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B30" s="36">
         <f>ROUND(2200*B28,0)</f>
@@ -9603,19 +9604,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -9629,7 +9630,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="27" thickBot="1">
+    <row r="2" spans="1:11" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -9650,7 +9651,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -9671,7 +9672,7 @@
         <v>0.97448244785232785</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27" thickBot="1">
+    <row r="4" spans="1:11" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -9690,8 +9691,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="16" thickBot="1"/>
+    <row r="7" spans="1:11" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -9712,7 +9713,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="27" thickBot="1">
+    <row r="8" spans="1:11" ht="30" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -9736,7 +9737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+    <row r="9" spans="1:11" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -9765,7 +9766,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" thickBot="1">
+    <row r="10" spans="1:11" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -9814,7 +9815,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
+    <row r="14" spans="1:11" ht="16" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -9837,7 +9838,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="27" thickBot="1">
+    <row r="15" spans="1:11" ht="30" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -9868,7 +9869,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -9904,9 +9905,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27" thickBot="1">
+    <row r="17" spans="1:11" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B17" s="10">
         <v>590</v>
@@ -9935,7 +9936,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="27" thickBot="1">
+    <row r="18" spans="1:11" ht="30" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
@@ -9994,7 +9995,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1">
+    <row r="22" spans="1:11" ht="16" thickBot="1">
       <c r="A22" s="13" t="s">
         <v>76</v>
       </c>
@@ -10005,7 +10006,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="27" thickBot="1">
+    <row r="23" spans="1:11" ht="30" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -10020,10 +10021,10 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
@@ -10040,7 +10041,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="27" thickBot="1">
+    <row r="25" spans="1:11" ht="30" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>12</v>
       </c>
@@ -10069,16 +10070,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -10092,7 +10093,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="27" thickBot="1">
+    <row r="2" spans="1:11" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -10113,7 +10114,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -10134,7 +10135,7 @@
         <v>0.98351979013457747</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27" thickBot="1">
+    <row r="4" spans="1:11" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -10153,8 +10154,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="16" thickBot="1"/>
+    <row r="7" spans="1:11" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -10175,7 +10176,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="27" thickBot="1">
+    <row r="8" spans="1:11" ht="30" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -10199,7 +10200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+    <row r="9" spans="1:11" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -10228,7 +10229,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" thickBot="1">
+    <row r="10" spans="1:11" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -10273,7 +10274,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="27" thickBot="1">
+    <row r="14" spans="1:11" ht="30" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -10299,7 +10300,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="27" thickBot="1">
+    <row r="15" spans="1:11" ht="30" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -10329,7 +10330,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="16" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -10364,9 +10365,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27" thickBot="1">
+    <row r="17" spans="1:11" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B17" s="10">
         <v>256</v>
@@ -10391,9 +10392,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="39.75" thickBot="1">
+    <row r="18" spans="1:11" ht="44" thickBot="1">
       <c r="A18" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B18" s="2">
         <f>ROUND(1.1*B17,0)</f>
@@ -10435,8 +10436,8 @@
       <c r="D19" s="2"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="22" spans="1:11" ht="27" thickBot="1">
+    <row r="21" spans="1:11" ht="16" thickBot="1"/>
+    <row r="22" spans="1:11" ht="30" thickBot="1">
       <c r="A22" s="9" t="s">
         <v>85</v>
       </c>
@@ -10451,10 +10452,10 @@
       </c>
       <c r="E22" s="12"/>
       <c r="H22" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="27" thickBot="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -10472,7 +10473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1">
+    <row r="24" spans="1:11" ht="16" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
@@ -10496,9 +10497,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="27" thickBot="1">
+    <row r="25" spans="1:11" ht="30" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B25" s="10">
         <v>351</v>
@@ -10517,9 +10518,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="52.5" thickBot="1">
+    <row r="26" spans="1:11" ht="58" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B26" s="10">
         <f>ROUND(1.1*B25,0)</f>
@@ -10553,16 +10554,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -10576,7 +10577,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="27" thickBot="1">
+    <row r="2" spans="1:10" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -10597,7 +10598,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -10618,7 +10619,7 @@
         <v>0.92622883301508352</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -10637,8 +10638,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="16" thickBot="1"/>
+    <row r="7" spans="1:10" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -10659,7 +10660,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="27" thickBot="1">
+    <row r="8" spans="1:10" ht="30" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -10683,7 +10684,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -10712,7 +10713,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -10752,7 +10753,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1">
+    <row r="13" spans="1:10" ht="16" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -10775,7 +10776,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="27" thickBot="1">
+    <row r="14" spans="1:10" ht="30" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -10805,7 +10806,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -10840,9 +10841,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="27" thickBot="1">
+    <row r="16" spans="1:10" ht="30" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B16" s="10">
         <v>691</v>
@@ -10864,9 +10865,9 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="39.75" thickBot="1">
+    <row r="17" spans="1:10" ht="44" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B17" s="2">
         <f>ROUND(1.1*B16,0)</f>
@@ -10911,8 +10912,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="21" spans="1:10" ht="27" thickBot="1">
+    <row r="20" spans="1:10" ht="16" thickBot="1"/>
+    <row r="21" spans="1:10" ht="30" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -10925,7 +10926,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="27" thickBot="1">
+    <row r="22" spans="1:10" ht="30" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -10941,7 +10942,7 @@
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="16" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -10959,9 +10960,9 @@
       </c>
       <c r="E23" s="20"/>
     </row>
-    <row r="24" spans="1:10" ht="27" thickBot="1">
+    <row r="24" spans="1:10" ht="30" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B24" s="10">
         <v>609</v>
@@ -10975,9 +10976,9 @@
       </c>
       <c r="E24" s="20"/>
     </row>
-    <row r="25" spans="1:10" ht="52.5" thickBot="1">
+    <row r="25" spans="1:10" ht="58" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B25" s="10">
         <f>ROUND(1.1*B24,0)</f>
@@ -10993,7 +10994,7 @@
       </c>
       <c r="E25" s="20"/>
       <c r="G25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -11002,16 +11003,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+    <row r="1" spans="1:13" ht="16" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -11025,7 +11026,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="27" thickBot="1">
+    <row r="2" spans="1:13" ht="30" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -11046,7 +11047,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+    <row r="3" spans="1:13" ht="16" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -11067,7 +11068,7 @@
         <v>0.9267197256851698</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="27" thickBot="1">
+    <row r="4" spans="1:13" ht="30" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -11086,8 +11087,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1">
+    <row r="6" spans="1:13" ht="16" thickBot="1"/>
+    <row r="7" spans="1:13" ht="16" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -11108,7 +11109,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:13" ht="27" thickBot="1">
+    <row r="8" spans="1:13" ht="30" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -11132,7 +11133,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1">
+    <row r="9" spans="1:13" ht="16" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -11161,7 +11162,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="27" thickBot="1">
+    <row r="10" spans="1:13" ht="30" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -11201,7 +11202,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="27" thickBot="1">
+    <row r="13" spans="1:13" ht="30" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -11230,7 +11231,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="27" thickBot="1">
+    <row r="14" spans="1:13" ht="30" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -11261,7 +11262,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+    <row r="15" spans="1:13" ht="16" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -11297,9 +11298,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="27" thickBot="1">
+    <row r="16" spans="1:13" ht="30" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B16" s="10">
         <v>454</v>
@@ -11328,9 +11329,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="39.75" thickBot="1">
+    <row r="17" spans="1:13" ht="44" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B17" s="2">
         <f>ROUND(1.1*B16,0)</f>
@@ -11379,8 +11380,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="21" spans="1:13" ht="27" thickBot="1">
+    <row r="20" spans="1:13" ht="16" thickBot="1"/>
+    <row r="21" spans="1:13" ht="30" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -11392,10 +11393,10 @@
       </c>
       <c r="D21" s="12"/>
       <c r="G21" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="27" thickBot="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -11410,7 +11411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1">
+    <row r="23" spans="1:13" ht="16" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -11427,7 +11428,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="39.75" thickBot="1">
+    <row r="24" spans="1:13" ht="44" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>89</v>
       </c>
@@ -11452,12 +11453,12 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1">
+    <row r="29" spans="1:13" ht="16" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="27" thickBot="1">
+    <row r="30" spans="1:13" ht="30" thickBot="1">
       <c r="A30" s="9" t="s">
         <v>85</v>
       </c>
@@ -11470,7 +11471,7 @@
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
     </row>
-    <row r="31" spans="1:13" ht="27" thickBot="1">
+    <row r="31" spans="1:13" ht="30" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>10</v>
       </c>
@@ -11486,7 +11487,7 @@
       </c>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1">
+    <row r="32" spans="1:13" ht="16" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>11</v>
       </c>
@@ -11504,7 +11505,7 @@
       </c>
       <c r="E32" s="20"/>
     </row>
-    <row r="33" spans="1:5" ht="39.75" thickBot="1">
+    <row r="33" spans="1:5" ht="44" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>89</v>
       </c>

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26EC504-B7F2-514B-913D-64876403B1A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE1C0AE-7F50-0445-A188-53A1729D7F1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="923" firstSheet="15" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="923" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quotas_US" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="333">
   <si>
     <t>IDF</t>
   </si>
@@ -895,21 +895,9 @@
     <t>https://www.inegi.org.mx/default.html</t>
   </si>
   <si>
-    <t>Anatolia</t>
-  </si>
-  <si>
     <t>Marmara</t>
   </si>
   <si>
-    <t>Mediterranean</t>
-  </si>
-  <si>
-    <t>Anatolia:</t>
-  </si>
-  <si>
-    <t>Central Anatolia, Southeastern Anatolia, Eastern Anatolia</t>
-  </si>
-  <si>
     <t>https://www.icisleri.gov.tr/turkiyenin-nufus-haritasi</t>
   </si>
   <si>
@@ -1060,16 +1048,19 @@
     <t>* The quota count was badly coded on qualtrics, implying the 4 extra Central counts.</t>
   </si>
   <si>
-    <t>North West:</t>
-  </si>
-  <si>
-    <t>Aegean + Black Sea</t>
-  </si>
-  <si>
     <t>Central-West (0,109) + South-West (0,111)</t>
   </si>
   <si>
     <t>Center-East (0,082) + Center-West (0,229)</t>
+  </si>
+  <si>
+    <t>Aegean + Mediterranean</t>
+  </si>
+  <si>
+    <t>Central Anatolia + Black Sea</t>
+  </si>
+  <si>
+    <t>Eastern Anatolia + Southeast Anatolia</t>
   </si>
 </sst>
 </file>
@@ -2460,7 +2451,7 @@
         <v>211</v>
       </c>
       <c r="G24" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16" thickBot="1">
@@ -2484,7 +2475,7 @@
         <v>171</v>
       </c>
       <c r="G25" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="44" thickBot="1">
@@ -2505,12 +2496,12 @@
       </c>
       <c r="E26" s="20"/>
       <c r="G26" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="G27" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2770,7 @@
         <v>119</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>120</v>
@@ -2787,7 +2778,7 @@
       <c r="G14" s="29"/>
       <c r="H14" s="25"/>
       <c r="K14" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" thickBot="1">
@@ -2920,10 +2911,10 @@
         <v>218</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -4259,7 +4250,7 @@
         <v>256</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>48</v>
@@ -4855,7 +4846,7 @@
         <v>234</v>
       </c>
       <c r="J17" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4873,10 +4864,10 @@
         <v>85</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D21" s="12"/>
     </row>
@@ -4932,7 +4923,7 @@
         <v>234</v>
       </c>
       <c r="J24" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -5347,7 +5338,7 @@
         <v>234</v>
       </c>
       <c r="J23" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -5715,7 +5706,7 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D21" t="s">
         <v>50</v>
@@ -5760,10 +5751,10 @@
         <v>2000</v>
       </c>
       <c r="F23" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G23" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" thickBot="1">
@@ -5790,7 +5781,7 @@
         <v>208</v>
       </c>
       <c r="G24" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5801,15 +5792,15 @@
         <v>214</v>
       </c>
       <c r="H25" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="G26" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H26" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5817,7 +5808,7 @@
         <v>51</v>
       </c>
       <c r="H27" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5832,8 +5823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -6183,7 +6174,7 @@
         <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16" thickBot="1">
@@ -6191,13 +6182,13 @@
         <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C21" t="s">
         <v>188</v>
       </c>
       <c r="D21" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16" thickBot="1">
@@ -6218,7 +6209,7 @@
         <v>1.0000000099999999</v>
       </c>
       <c r="H22" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16" thickBot="1">
@@ -6245,7 +6236,7 @@
         <v>140</v>
       </c>
       <c r="H23" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" thickBot="1">
@@ -6273,7 +6264,7 @@
       </c>
       <c r="G24" s="15"/>
       <c r="H24" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -6284,12 +6275,12 @@
         <v>234</v>
       </c>
       <c r="I25" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="I26" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -6301,8 +6292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -6494,30 +6485,30 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="86" thickBot="1">
+    <row r="14" spans="1:10" ht="44" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" t="s">
         <v>277</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>107</v>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
+        <v>256</v>
       </c>
       <c r="F14" s="29" t="s">
         <v>139</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>280</v>
+        <v>176</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1">
@@ -6525,26 +6516,26 @@
         <v>10</v>
       </c>
       <c r="B15" s="16">
-        <v>0.34196297187100699</v>
+        <v>0.303696271169138</v>
       </c>
       <c r="C15" s="16">
-        <v>0.303696271169138</v>
+        <v>0.25907608575838292</v>
       </c>
       <c r="D15" s="16">
-        <v>0.13099525360860201</v>
+        <v>0.25298382338133019</v>
       </c>
       <c r="E15" s="16">
-        <v>0.22334550335125281</v>
+        <v>0.18424381969114889</v>
       </c>
       <c r="F15" s="17">
         <f ca="1">SUM(B15:F15)</f>
         <v>0.99999999999999978</v>
       </c>
       <c r="I15" t="s">
-        <v>332</v>
+        <v>111</v>
       </c>
       <c r="J15" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16" thickBot="1">
@@ -6553,24 +6544,30 @@
       </c>
       <c r="B16" s="10">
         <f>ROUND(2000*B15,0)</f>
-        <v>684</v>
+        <v>607</v>
       </c>
       <c r="C16" s="10">
         <f>ROUND(2000*C15,0)</f>
-        <v>607</v>
+        <v>518</v>
       </c>
       <c r="D16" s="10">
         <f>ROUND(2000*D15,0)</f>
-        <v>262</v>
+        <v>506</v>
       </c>
       <c r="E16" s="10">
         <f>ROUND(2000*E15,0)</f>
-        <v>447</v>
+        <v>368</v>
       </c>
       <c r="F16" s="3">
         <f ca="1">SUM(B16:F16)</f>
         <v>2000</v>
       </c>
+      <c r="I16" t="s">
+        <v>256</v>
+      </c>
+      <c r="J16" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
@@ -6578,19 +6575,19 @@
       </c>
       <c r="B17" s="2">
         <f>ROUND(2200*B15,0)</f>
-        <v>752</v>
+        <v>668</v>
       </c>
       <c r="C17" s="2">
         <f>ROUND(2200*C15,0)</f>
-        <v>668</v>
+        <v>570</v>
       </c>
       <c r="D17" s="2">
         <f>ROUND(2200*D15,0)</f>
-        <v>288</v>
+        <v>557</v>
       </c>
       <c r="E17" s="2">
         <f>ROUND(2200*E15,0)</f>
-        <v>491</v>
+        <v>405</v>
       </c>
       <c r="F17" s="3">
         <f ca="1">SUM(B17:F17)</f>
@@ -6611,7 +6608,7 @@
         <v>234</v>
       </c>
       <c r="J19" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16" thickBot="1"/>
@@ -6679,12 +6676,12 @@
         <v>234</v>
       </c>
       <c r="J24" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="J25" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -7184,7 +7181,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -7396,10 +7393,10 @@
         <v>139</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J14" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1">
@@ -7423,10 +7420,10 @@
         <v>0.99999999999999933</v>
       </c>
       <c r="I15" t="s">
+        <v>280</v>
+      </c>
+      <c r="J15" t="s">
         <v>284</v>
-      </c>
-      <c r="J15" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16" thickBot="1">
@@ -7457,7 +7454,7 @@
         <v>256</v>
       </c>
       <c r="J16" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" thickBot="1">
@@ -7488,7 +7485,7 @@
         <v>47</v>
       </c>
       <c r="J17" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -7503,7 +7500,7 @@
         <v>48</v>
       </c>
       <c r="J18" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -7511,10 +7508,10 @@
         <v>234</v>
       </c>
       <c r="J19" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K19" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16" thickBot="1">
@@ -7522,7 +7519,7 @@
         <v>131</v>
       </c>
       <c r="J20" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30" thickBot="1">
@@ -7589,12 +7586,12 @@
         <v>234</v>
       </c>
       <c r="J24" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="J25" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -9322,7 +9319,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1">
@@ -9356,7 +9353,7 @@
     </row>
     <row r="16" spans="1:10" ht="30" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B16" s="10">
         <v>528</v>
@@ -9380,7 +9377,7 @@
     </row>
     <row r="17" spans="1:10" ht="44" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B17" s="2">
         <f>ROUND(1.1*B16,0)</f>
@@ -9479,7 +9476,7 @@
     </row>
     <row r="23" spans="1:10" ht="30" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B23" s="10">
         <v>693</v>
@@ -9497,7 +9494,7 @@
     </row>
     <row r="24" spans="1:10" ht="58" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B24" s="10">
         <f>ROUND(1.1*B23,0)</f>
@@ -9576,7 +9573,7 @@
     </row>
     <row r="30" spans="1:10" s="36" customFormat="1" ht="44" thickBot="1">
       <c r="A30" s="37" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B30" s="36">
         <f>ROUND(2200*B28,0)</f>
@@ -9907,7 +9904,7 @@
     </row>
     <row r="17" spans="1:11" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B17" s="10">
         <v>590</v>
@@ -10021,7 +10018,7 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16" thickBot="1">
@@ -10367,7 +10364,7 @@
     </row>
     <row r="17" spans="1:11" ht="30" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B17" s="10">
         <v>256</v>
@@ -10394,7 +10391,7 @@
     </row>
     <row r="18" spans="1:11" ht="44" thickBot="1">
       <c r="A18" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B18" s="2">
         <f>ROUND(1.1*B17,0)</f>
@@ -10452,7 +10449,7 @@
       </c>
       <c r="E22" s="12"/>
       <c r="H22" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30" thickBot="1">
@@ -10499,7 +10496,7 @@
     </row>
     <row r="25" spans="1:11" ht="30" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B25" s="10">
         <v>351</v>
@@ -10520,7 +10517,7 @@
     </row>
     <row r="26" spans="1:11" ht="58" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B26" s="10">
         <f>ROUND(1.1*B25,0)</f>
@@ -10843,7 +10840,7 @@
     </row>
     <row r="16" spans="1:10" ht="30" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B16" s="10">
         <v>691</v>
@@ -10867,7 +10864,7 @@
     </row>
     <row r="17" spans="1:10" ht="44" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B17" s="2">
         <f>ROUND(1.1*B16,0)</f>
@@ -10962,7 +10959,7 @@
     </row>
     <row r="24" spans="1:10" ht="30" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B24" s="10">
         <v>609</v>
@@ -10978,7 +10975,7 @@
     </row>
     <row r="25" spans="1:10" ht="58" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B25" s="10">
         <f>ROUND(1.1*B24,0)</f>
@@ -10994,7 +10991,7 @@
       </c>
       <c r="E25" s="20"/>
       <c r="G25" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -11300,7 +11297,7 @@
     </row>
     <row r="16" spans="1:13" ht="30" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B16" s="10">
         <v>454</v>
@@ -11331,7 +11328,7 @@
     </row>
     <row r="17" spans="1:13" ht="44" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B17" s="2">
         <f>ROUND(1.1*B16,0)</f>
@@ -11393,7 +11390,7 @@
       </c>
       <c r="D21" s="12"/>
       <c r="G21" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="30" thickBot="1">

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE1C0AE-7F50-0445-A188-53A1729D7F1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72080CAC-68D6-094D-8A9F-C076A981542A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="923" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="923" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quotas_US" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="341">
   <si>
     <t>IDF</t>
   </si>
@@ -1061,6 +1061,30 @@
   </si>
   <si>
     <t>Eastern Anatolia + Southeast Anatolia</t>
+  </si>
+  <si>
+    <t>DEPRECATED</t>
+  </si>
+  <si>
+    <t>&lt;10k</t>
+  </si>
+  <si>
+    <t>urban_category</t>
+  </si>
+  <si>
+    <t>10k-500k</t>
+  </si>
+  <si>
+    <t>&gt;500k</t>
+  </si>
+  <si>
+    <t>https://journals.openedition.org/cybergeo/28554</t>
+  </si>
+  <si>
+    <t>Table 1 (first row) + Total Census population 2010</t>
+  </si>
+  <si>
+    <t>https://journals.openedition.org/cybergeo/docannexe/image/28554/img-6.png</t>
   </si>
 </sst>
 </file>
@@ -1175,7 +1199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1185,6 +1209,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,7 +1248,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1291,6 +1321,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4038,10 +4069,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -4362,174 +4393,277 @@
       <c r="D17" s="2"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="19" spans="1:9" ht="16" thickBot="1">
-      <c r="A19" s="13" t="s">
+    <row r="22" spans="1:9" ht="30" thickBot="1">
+      <c r="A22" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16" thickBot="1">
+      <c r="A23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>0.36999306854688396</v>
+      </c>
+      <c r="C23">
+        <v>0.35274265629581675</v>
+      </c>
+      <c r="D23">
+        <v>0.27726427515729923</v>
+      </c>
+      <c r="E23" s="17">
+        <f>SUM(B23:D23)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16" thickBot="1">
+      <c r="A24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="10">
+        <f>ROUND(2000*B23,0)</f>
+        <v>740</v>
+      </c>
+      <c r="C24" s="10">
+        <f>ROUND(2000*C23,0)</f>
+        <v>705</v>
+      </c>
+      <c r="D24" s="10">
+        <f>ROUND(2000*D23,0)</f>
+        <v>555</v>
+      </c>
+      <c r="E24" s="3">
+        <f>SUM(B24:D24)</f>
+        <v>2000</v>
+      </c>
+      <c r="G24" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" thickBot="1">
+      <c r="A25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2">
+        <f>ROUND(2200*B23,0)</f>
+        <v>814</v>
+      </c>
+      <c r="C25" s="2">
+        <f>ROUND(2200*C23,0)</f>
+        <v>776</v>
+      </c>
+      <c r="D25" s="2">
+        <f>ROUND(2200*D23,0)</f>
+        <v>610</v>
+      </c>
+      <c r="E25" s="3">
+        <f>SUM(B25:D25)</f>
+        <v>2200</v>
+      </c>
+      <c r="H25" t="s">
+        <v>339</v>
+      </c>
+      <c r="I25" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="40" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16" thickBot="1">
+      <c r="A32" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B32" t="s">
         <v>51</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16" thickBot="1">
-      <c r="A20" s="5" t="s">
+    <row r="33" spans="1:9" ht="16" thickBot="1">
+      <c r="A33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B20">
+      <c r="B33">
         <v>0.4437874</v>
       </c>
-      <c r="C20">
+      <c r="C33">
         <v>0.55621259999999995</v>
       </c>
-      <c r="D20" s="17">
-        <f>SUM(B20:C20)</f>
+      <c r="D33" s="17">
+        <f>SUM(B33:C33)</f>
         <v>1</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F33" t="s">
         <v>186</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G33" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16" thickBot="1">
-      <c r="A21" s="5" t="s">
+    <row r="34" spans="1:9" ht="16" thickBot="1">
+      <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B21">
-        <f>ROUND(2000*B20,0)</f>
+      <c r="B34">
+        <f>ROUND(2000*B33,0)</f>
         <v>888</v>
       </c>
-      <c r="C21">
-        <f>ROUND(2000*C20,0)</f>
+      <c r="C34">
+        <f>ROUND(2000*C33,0)</f>
         <v>1112</v>
       </c>
-      <c r="D21">
-        <f>SUM(B21:C21)</f>
+      <c r="D34">
+        <f>SUM(B34:C34)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30" thickBot="1">
-      <c r="A22" s="5" t="s">
+    <row r="35" spans="1:9" ht="30" thickBot="1">
+      <c r="A35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B22">
-        <f>ROUND(2200*B20,0)</f>
+      <c r="B35">
+        <f>ROUND(2200*B33,0)</f>
         <v>976</v>
       </c>
-      <c r="C22">
-        <f>ROUND(2200*C20,0)</f>
+      <c r="C35">
+        <f>ROUND(2200*C33,0)</f>
         <v>1224</v>
       </c>
-      <c r="D22">
-        <f>SUM(B22:C22)</f>
+      <c r="D35">
+        <f>SUM(B35:C35)</f>
         <v>2200</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G35" t="s">
         <v>189</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H35" t="s">
         <v>190</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I35" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="9" t="s">
+    <row r="36" spans="1:9">
+      <c r="A36" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G36" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H36" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="I23">
+      <c r="I36">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="G24" s="30" t="s">
+    <row r="37" spans="1:9">
+      <c r="G37" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="H24" s="30" t="s">
+      <c r="H37" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="I24">
+      <c r="I37">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="G25" s="30" t="s">
+    <row r="38" spans="1:9">
+      <c r="G38" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H38" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="I25">
+      <c r="I38">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="G26" t="s">
+    <row r="39" spans="1:9">
+      <c r="G39" t="s">
         <v>196</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H39" t="s">
         <v>197</v>
       </c>
-      <c r="I26">
+      <c r="I39">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="G27" t="s">
+    <row r="40" spans="1:9">
+      <c r="G40" t="s">
         <v>198</v>
       </c>
-      <c r="I27">
+      <c r="I40">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="G28" t="s">
+    <row r="41" spans="1:9">
+      <c r="G41" t="s">
         <v>199</v>
       </c>
-      <c r="I28">
+      <c r="I41">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="G29" t="s">
+    <row r="42" spans="1:9">
+      <c r="G42" t="s">
         <v>200</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H42" t="s">
         <v>201</v>
       </c>
-      <c r="I29">
+      <c r="I42">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="G30" t="s">
+    <row r="43" spans="1:9">
+      <c r="G43" t="s">
         <v>202</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H43" t="s">
         <v>203</v>
       </c>
-      <c r="I30">
+      <c r="I43">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="G31" t="s">
+    <row r="44" spans="1:9">
+      <c r="G44" t="s">
         <v>204</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H44" t="s">
         <v>205</v>
       </c>
-      <c r="I31">
+      <c r="I44">
         <v>0</v>
       </c>
     </row>
@@ -6062,11 +6196,11 @@
         <v>0.25032612031513901</v>
       </c>
       <c r="F15" s="17">
-        <f>SUM(A15:E15)</f>
+        <f t="shared" ref="F15:G17" si="2">SUM(A15:E15)</f>
         <v>1</v>
       </c>
       <c r="G15" s="17">
-        <f>SUM(B15:F15)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I15" t="s">
@@ -6097,11 +6231,11 @@
         <v>501</v>
       </c>
       <c r="F16" s="3">
-        <f>SUM(A16:E16)</f>
+        <f t="shared" si="2"/>
         <v>2001</v>
       </c>
       <c r="G16" s="3">
-        <f>SUM(B16:F16)</f>
+        <f t="shared" si="2"/>
         <v>4002</v>
       </c>
       <c r="I16" t="s">
@@ -6132,11 +6266,11 @@
         <v>551</v>
       </c>
       <c r="F17" s="3">
-        <f>SUM(A17:E17)</f>
+        <f t="shared" si="2"/>
         <v>2201</v>
       </c>
       <c r="G17" s="3">
-        <f>SUM(B17:F17)</f>
+        <f t="shared" si="2"/>
         <v>4402</v>
       </c>
       <c r="I17" t="s">
@@ -6292,7 +6426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Bluebii/Library/Mobile Documents/com~apple~CloudDocs/TRAVAIL/Jobs/Stantcheva_2020:21/OECD/oecd_climate/questionnaires/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afabre\Documents\www\oecd_climate\questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72080CAC-68D6-094D-8A9F-C076A981542A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="923" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14475" tabRatio="923" firstSheet="5" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="quotas_US" sheetId="2" r:id="rId1"/>
@@ -34,7 +33,7 @@
     <sheet name="quota_TR" sheetId="21" r:id="rId19"/>
     <sheet name="quota_UA" sheetId="22" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="342">
   <si>
     <t>IDF</t>
   </si>
@@ -1086,11 +1085,14 @@
   <si>
     <t>https://journals.openedition.org/cybergeo/docannexe/image/28554/img-6.png</t>
   </si>
+  <si>
+    <t>* 15 quotas Northeast were also falsely counted as East</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -1326,7 +1328,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1603,14 +1605,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -2099,24 +2101,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D22" r:id="rId2" display="https://www.ers.usda.gov/data-products/rural-urban-commuting-area-codes/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="D22" r:id="rId2" display="https://www.ers.usda.gov/data-products/rural-urban-commuting-area-codes/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -2130,7 +2132,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2150,7 +2152,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2169,7 +2171,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -2188,8 +2190,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -2210,7 +2212,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -2234,7 +2236,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -2263,7 +2265,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -2303,7 +2305,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="30" thickBot="1">
+    <row r="14" spans="1:10" ht="27" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -2332,7 +2334,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -2359,7 +2361,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -2394,7 +2396,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" thickBot="1">
+    <row r="17" spans="1:10" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -2449,8 +2451,8 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1"/>
-    <row r="23" spans="1:10" ht="30" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="23" spans="1:10" ht="27" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -2463,7 +2465,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="16" thickBot="1">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -2485,7 +2487,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16" thickBot="1">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -2509,7 +2511,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="44" thickBot="1">
+    <row r="26" spans="1:10" ht="39.75" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>89</v>
       </c>
@@ -2541,21 +2543,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -2570,7 +2572,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="30" thickBot="1">
+    <row r="2" spans="1:11" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2592,7 +2594,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2614,7 +2616,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="30" thickBot="1">
+    <row r="4" spans="1:11" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -2655,7 +2657,7 @@
       <c r="G6" s="24"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -2665,7 +2667,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:11" ht="16" thickBot="1">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -2687,7 +2689,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:11" ht="30" thickBot="1">
+    <row r="9" spans="1:11" ht="27" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -2712,7 +2714,7 @@
       </c>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:11" ht="16" thickBot="1">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -2742,7 +2744,7 @@
       </c>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:11" ht="30" thickBot="1">
+    <row r="11" spans="1:11" ht="27" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -2787,7 +2789,7 @@
     <row r="13" spans="1:11">
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:11" ht="72" thickBot="1">
+    <row r="14" spans="1:11" ht="65.25" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -2812,7 +2814,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" thickBot="1">
+    <row r="15" spans="1:11" ht="27" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -2836,7 +2838,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -2868,7 +2870,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" thickBot="1">
+    <row r="17" spans="1:12" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -2937,7 +2939,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="30" thickBot="1">
+    <row r="21" spans="1:12" ht="27" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>218</v>
       </c>
@@ -2953,7 +2955,7 @@
       <c r="G21" s="29"/>
       <c r="H21" s="25"/>
     </row>
-    <row r="22" spans="1:12" ht="30" thickBot="1">
+    <row r="22" spans="1:12" ht="27" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -2972,7 +2974,7 @@
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:12" ht="16" thickBot="1">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -2992,7 +2994,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:12" ht="30" thickBot="1">
+    <row r="24" spans="1:12" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -3038,7 +3040,7 @@
       <c r="E27" s="11"/>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="1:12" ht="30" thickBot="1">
+    <row r="28" spans="1:12" ht="27" thickBot="1">
       <c r="A28" s="9" t="s">
         <v>218</v>
       </c>
@@ -3062,7 +3064,7 @@
       </c>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="1:12" ht="30" thickBot="1">
+    <row r="29" spans="1:12" ht="27" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
@@ -3089,7 +3091,7 @@
         <v>0.99989215000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16" thickBot="1">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
@@ -3122,7 +3124,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="30" thickBot="1">
+    <row r="31" spans="1:12" ht="27" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
@@ -3211,16 +3213,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -3234,7 +3236,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="30" thickBot="1">
+    <row r="2" spans="1:11" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3255,7 +3257,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -3276,7 +3278,7 @@
         <v>0.99792841994678028</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" thickBot="1">
+    <row r="4" spans="1:11" ht="27.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -3295,8 +3297,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="34"/>
     </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1"/>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -3317,7 +3319,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="30" thickBot="1">
+    <row r="8" spans="1:11" ht="27" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3341,7 +3343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3370,7 +3372,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" thickBot="1">
+    <row r="10" spans="1:11" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3410,7 +3412,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="30" thickBot="1">
+    <row r="14" spans="1:11" ht="27" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -3439,7 +3441,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" thickBot="1">
+    <row r="15" spans="1:11" ht="27" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3469,7 +3471,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -3504,7 +3506,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" thickBot="1">
+    <row r="17" spans="1:11" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3559,8 +3561,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16" thickBot="1"/>
-    <row r="23" spans="1:11" ht="30" thickBot="1">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="23" spans="1:11" ht="27" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -3573,7 +3575,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="30" thickBot="1">
+    <row r="24" spans="1:11" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -3595,7 +3597,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16" thickBot="1">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -3619,7 +3621,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="44" thickBot="1">
+    <row r="26" spans="1:11" ht="39.75" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>89</v>
       </c>
@@ -3644,16 +3646,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -3667,7 +3669,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="16" thickBot="1">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3688,7 +3690,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -3709,7 +3711,7 @@
         <v>0.97760081385085629</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" thickBot="1">
+    <row r="4" spans="1:11" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -3728,8 +3730,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1"/>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -3750,7 +3752,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="16" thickBot="1">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3774,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3803,7 +3805,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" thickBot="1">
+    <row r="10" spans="1:11" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3843,7 +3845,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -3866,7 +3868,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3896,7 +3898,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -3931,7 +3933,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" thickBot="1">
+    <row r="17" spans="1:11" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3981,8 +3983,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16" thickBot="1"/>
-    <row r="22" spans="1:11" ht="30" thickBot="1">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="22" spans="1:11" ht="27" thickBot="1">
       <c r="A22" s="9" t="s">
         <v>85</v>
       </c>
@@ -3995,7 +3997,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="16" thickBot="1">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -4017,7 +4019,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16" thickBot="1">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
@@ -4044,7 +4046,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="44" thickBot="1">
+    <row r="25" spans="1:11" ht="39.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>89</v>
       </c>
@@ -4068,16 +4070,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:J44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B17" sqref="B17:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -4091,7 +4093,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4112,7 +4114,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -4133,7 +4135,7 @@
         <v>1.0341140064832992</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -4152,8 +4154,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -4174,7 +4176,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -4198,7 +4200,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -4227,7 +4229,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4267,7 +4269,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="30" thickBot="1">
+    <row r="13" spans="1:10" ht="27" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -4290,7 +4292,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16" thickBot="1">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -4320,7 +4322,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -4355,242 +4357,258 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2">
-        <f>ROUND(2200*B14,0)</f>
-        <v>272</v>
-      </c>
-      <c r="C16" s="2">
-        <f>ROUND(2200*C14,0)</f>
-        <v>181</v>
-      </c>
-      <c r="D16" s="2">
-        <f>ROUND(2200*D14,0)</f>
-        <v>635</v>
-      </c>
-      <c r="E16" s="2">
-        <f>ROUND(2200*E14,0)</f>
-        <v>634</v>
-      </c>
-      <c r="F16" s="2">
-        <f>ROUND(2200*F14,0)</f>
-        <v>478</v>
+        <v>320</v>
+      </c>
+      <c r="B16" s="10">
+        <v>248</v>
+      </c>
+      <c r="C16" s="10">
+        <v>164</v>
+      </c>
+      <c r="D16" s="10">
+        <v>592</v>
+      </c>
+      <c r="E16" s="10">
+        <v>576</v>
+      </c>
+      <c r="F16" s="10">
+        <v>435</v>
       </c>
       <c r="G16" s="3">
         <f>SUM(B16:F16)</f>
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="9" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="27" thickBot="1">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <f>ROUND(1.1*B16,0)</f>
+        <v>273</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" ref="C17:F17" si="2">ROUND(1.1*C16,0)</f>
+        <v>180</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="2"/>
+        <v>651</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="2"/>
+        <v>634</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>479</v>
+      </c>
+      <c r="G17" s="3">
+        <f>SUM(B17:F17)</f>
+        <v>2217</v>
+      </c>
+      <c r="I17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="22" spans="1:9" ht="30" thickBot="1">
-      <c r="A22" s="9" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="23" spans="1:9" ht="27" thickBot="1">
+      <c r="A23" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B23" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C23" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D23" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E23" s="29" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16" thickBot="1">
-      <c r="A23" s="5" t="s">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>0.36999306854688396</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>0.35274265629581675</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>0.27726427515729923</v>
       </c>
-      <c r="E23" s="17">
-        <f>SUM(B23:D23)</f>
+      <c r="E24" s="17">
+        <f>SUM(B24:D24)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16" thickBot="1">
-      <c r="A24" s="5" t="s">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="10">
-        <f>ROUND(2000*B23,0)</f>
+      <c r="B25" s="10">
+        <f>ROUND(2000*B24,0)</f>
         <v>740</v>
       </c>
-      <c r="C24" s="10">
-        <f>ROUND(2000*C23,0)</f>
+      <c r="C25" s="10">
+        <f>ROUND(2000*C24,0)</f>
         <v>705</v>
       </c>
-      <c r="D24" s="10">
-        <f>ROUND(2000*D23,0)</f>
+      <c r="D25" s="10">
+        <f>ROUND(2000*D24,0)</f>
         <v>555</v>
-      </c>
-      <c r="E24" s="3">
-        <f>SUM(B24:D24)</f>
-        <v>2000</v>
-      </c>
-      <c r="G24" t="s">
-        <v>140</v>
-      </c>
-      <c r="H24" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="30" thickBot="1">
-      <c r="A25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="2">
-        <f>ROUND(2200*B23,0)</f>
-        <v>814</v>
-      </c>
-      <c r="C25" s="2">
-        <f>ROUND(2200*C23,0)</f>
-        <v>776</v>
-      </c>
-      <c r="D25" s="2">
-        <f>ROUND(2200*D23,0)</f>
-        <v>610</v>
       </c>
       <c r="E25" s="3">
         <f>SUM(B25:D25)</f>
+        <v>2000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="27" thickBot="1">
+      <c r="A26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2">
+        <f>ROUND(2200*B24,0)</f>
+        <v>814</v>
+      </c>
+      <c r="C26" s="2">
+        <f>ROUND(2200*C24,0)</f>
+        <v>776</v>
+      </c>
+      <c r="D26" s="2">
+        <f>ROUND(2200*D24,0)</f>
+        <v>610</v>
+      </c>
+      <c r="E26" s="3">
+        <f>SUM(B26:D26)</f>
         <v>2200</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H26" t="s">
         <v>339</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I26" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="9" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="40" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="40" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16" thickBot="1">
-      <c r="A32" s="13" t="s">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A33" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>51</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16" thickBot="1">
-      <c r="A33" s="5" t="s">
+    <row r="34" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A34" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>0.4437874</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>0.55621259999999995</v>
       </c>
-      <c r="D33" s="17">
-        <f>SUM(B33:C33)</f>
+      <c r="D34" s="17">
+        <f>SUM(B34:C34)</f>
         <v>1</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
         <v>186</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G34" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16" thickBot="1">
-      <c r="A34" s="5" t="s">
+    <row r="35" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B34">
-        <f>ROUND(2000*B33,0)</f>
+      <c r="B35">
+        <f>ROUND(2000*B34,0)</f>
         <v>888</v>
       </c>
-      <c r="C34">
-        <f>ROUND(2000*C33,0)</f>
+      <c r="C35">
+        <f>ROUND(2000*C34,0)</f>
         <v>1112</v>
-      </c>
-      <c r="D34">
-        <f>SUM(B34:C34)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="30" thickBot="1">
-      <c r="A35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35">
-        <f>ROUND(2200*B33,0)</f>
-        <v>976</v>
-      </c>
-      <c r="C35">
-        <f>ROUND(2200*C33,0)</f>
-        <v>1224</v>
       </c>
       <c r="D35">
         <f>SUM(B35:C35)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="27" thickBot="1">
+      <c r="A36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <f>ROUND(2200*B34,0)</f>
+        <v>976</v>
+      </c>
+      <c r="C36">
+        <f>ROUND(2200*C34,0)</f>
+        <v>1224</v>
+      </c>
+      <c r="D36">
+        <f>SUM(B36:C36)</f>
         <v>2200</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>189</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H36" t="s">
         <v>190</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I36" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="9" t="s">
+    <row r="37" spans="1:9">
+      <c r="A37" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="G37" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="H36" s="30" t="s">
+      <c r="H37" s="30" t="s">
         <v>188</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="G37" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>193</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -4598,29 +4616,32 @@
     </row>
     <row r="38" spans="1:9">
       <c r="G38" s="30" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="G39" t="s">
-        <v>196</v>
-      </c>
-      <c r="H39" t="s">
-        <v>197</v>
+      <c r="G39" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>195</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="G40" t="s">
-        <v>198</v>
+        <v>196</v>
+      </c>
+      <c r="H40" t="s">
+        <v>197</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4628,7 +4649,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="G41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4636,10 +4657,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="G42" t="s">
-        <v>200</v>
-      </c>
-      <c r="H42" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -4647,10 +4665,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="G43" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -4658,12 +4676,23 @@
     </row>
     <row r="44" spans="1:9">
       <c r="G44" t="s">
+        <v>202</v>
+      </c>
+      <c r="H44" t="s">
+        <v>203</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="G45" t="s">
         <v>204</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H45" t="s">
         <v>205</v>
       </c>
-      <c r="I44">
+      <c r="I45">
         <v>0</v>
       </c>
     </row>
@@ -4673,16 +4702,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -4696,7 +4725,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="16" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4717,7 +4746,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -4738,7 +4767,7 @@
         <v>0.95217958067188335</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" thickBot="1">
+    <row r="4" spans="1:7" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -4757,8 +4786,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="16" thickBot="1"/>
-    <row r="7" spans="1:7" ht="16" thickBot="1">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -4779,7 +4808,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="16" thickBot="1">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -4803,7 +4832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" thickBot="1">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -4832,7 +4861,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" thickBot="1">
+    <row r="10" spans="1:7" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4872,7 +4901,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="16" thickBot="1">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -4895,7 +4924,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" thickBot="1">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -4919,7 +4948,7 @@
         <v>0.99999999999999933</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16" thickBot="1">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -4948,7 +4977,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" thickBot="1">
+    <row r="17" spans="1:10" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4992,8 +5021,8 @@
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="20" spans="1:10" ht="16" thickBot="1"/>
-    <row r="21" spans="1:10" ht="30" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="21" spans="1:10" ht="27" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -5005,7 +5034,7 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -5020,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -5037,7 +5066,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30" thickBot="1">
+    <row r="24" spans="1:10" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -5066,16 +5095,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D23" sqref="A20:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -5089,7 +5118,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -5109,7 +5138,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -5128,7 +5157,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -5147,8 +5176,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -5169,7 +5198,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -5193,7 +5222,7 @@
         <v>0.99999999999999944</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -5222,7 +5251,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5262,7 +5291,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="16" thickBot="1">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -5291,7 +5320,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -5321,7 +5350,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -5353,7 +5382,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" thickBot="1">
+    <row r="17" spans="1:10" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5400,7 +5429,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="I19" t="s">
         <v>234</v>
       </c>
@@ -5408,7 +5437,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" thickBot="1">
+    <row r="20" spans="1:10" ht="27" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>85</v>
       </c>
@@ -5420,7 +5449,7 @@
       </c>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:10" ht="16" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -5435,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -5452,7 +5481,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30" thickBot="1">
+    <row r="23" spans="1:10" ht="27" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -5481,16 +5510,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -5504,7 +5533,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -5525,7 +5554,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -5546,7 +5575,7 @@
         <v>0.92970833595125124</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -5565,8 +5594,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -5587,7 +5616,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -5611,7 +5640,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -5640,7 +5669,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5680,7 +5709,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="30" thickBot="1">
+    <row r="14" spans="1:10" ht="27" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -5709,7 +5738,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -5739,7 +5768,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -5774,7 +5803,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" thickBot="1">
+    <row r="17" spans="1:10" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5832,7 +5861,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="13" t="s">
         <v>76</v>
       </c>
@@ -5846,7 +5875,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -5864,7 +5893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -5891,7 +5920,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30" thickBot="1">
+    <row r="24" spans="1:10" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -5954,16 +5983,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -5977,7 +6006,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -5998,7 +6027,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -6019,7 +6048,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -6038,8 +6067,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -6060,7 +6089,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -6084,7 +6113,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -6113,7 +6142,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -6153,7 +6182,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="16" thickBot="1">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -6179,7 +6208,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -6210,7 +6239,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -6245,7 +6274,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" thickBot="1">
+    <row r="17" spans="1:10" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -6311,7 +6340,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="13" t="s">
         <v>76</v>
       </c>
@@ -6325,7 +6354,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -6346,7 +6375,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -6373,7 +6402,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30" thickBot="1">
+    <row r="24" spans="1:10" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -6423,16 +6452,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -6446,7 +6475,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -6466,7 +6495,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -6485,7 +6514,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -6504,8 +6533,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -6526,7 +6555,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -6550,7 +6579,7 @@
         <v>0.99999999999999933</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -6579,7 +6608,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -6619,7 +6648,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="44" thickBot="1">
+    <row r="14" spans="1:10" ht="39.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -6645,7 +6674,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -6672,7 +6701,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -6703,7 +6732,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" thickBot="1">
+    <row r="17" spans="1:10" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -6745,8 +6774,8 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16" thickBot="1"/>
-    <row r="21" spans="1:10" ht="30" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="21" spans="1:10" ht="27" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -6758,7 +6787,7 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -6773,7 +6802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -6790,7 +6819,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30" thickBot="1">
+    <row r="24" spans="1:10" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -6824,22 +6853,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -6854,7 +6883,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="16" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -6872,7 +6901,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="16" thickBot="1">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -6892,7 +6921,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="16" thickBot="1">
+    <row r="4" spans="1:7" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -6923,7 +6952,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="16" thickBot="1">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -6932,7 +6961,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="16" thickBot="1">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -6953,7 +6982,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="16" thickBot="1">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -6977,7 +7006,7 @@
         <v>1.0001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16" thickBot="1">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -7006,7 +7035,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16" thickBot="1">
+    <row r="10" spans="1:7" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -7035,8 +7064,8 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16" thickBot="1"/>
-    <row r="12" spans="1:7" ht="16" thickBot="1">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -7054,7 +7083,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="16" thickBot="1">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -7074,7 +7103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16" thickBot="1">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -7099,7 +7128,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16" thickBot="1">
+    <row r="15" spans="1:7" ht="27" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -7129,7 +7158,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16" thickBot="1">
+    <row r="18" spans="1:7" ht="27" thickBot="1">
       <c r="A18" s="9" t="s">
         <v>13</v>
       </c>
@@ -7149,7 +7178,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16" thickBot="1">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
@@ -7173,7 +7202,7 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" thickBot="1">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -7202,7 +7231,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" thickBot="1">
+    <row r="21" spans="1:7" ht="27" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
@@ -7240,7 +7269,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="24" spans="1:7" ht="16" thickBot="1">
+    <row r="24" spans="1:7" ht="15.75" thickBot="1">
       <c r="A24" s="13" t="s">
         <v>76</v>
       </c>
@@ -7251,7 +7280,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" thickBot="1">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
@@ -7266,7 +7295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16" thickBot="1">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -7283,7 +7312,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16" thickBot="1">
+    <row r="27" spans="1:7" ht="27" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
@@ -7311,16 +7340,16 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -7334,7 +7363,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="16" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -7354,7 +7383,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -7373,7 +7402,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -7392,8 +7421,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -7414,7 +7443,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="16" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -7438,7 +7467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -7467,7 +7496,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -7507,7 +7536,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="16" thickBot="1">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -7533,7 +7562,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -7560,7 +7589,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -7591,7 +7620,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" thickBot="1">
+    <row r="17" spans="1:11" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -7648,7 +7677,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16" thickBot="1">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
       <c r="I20" t="s">
         <v>131</v>
       </c>
@@ -7656,7 +7685,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="30" thickBot="1">
+    <row r="21" spans="1:11" ht="27" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -7668,7 +7697,7 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:11" ht="16" thickBot="1">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -7683,7 +7712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16" thickBot="1">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -7700,7 +7729,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30" thickBot="1">
+    <row r="24" spans="1:11" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -7734,22 +7763,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" thickBot="1">
+    <row r="1" spans="1:12" ht="27" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
@@ -7775,7 +7804,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="16" thickBot="1">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -7808,7 +7837,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="16" thickBot="1">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -7842,7 +7871,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="16" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -7892,7 +7921,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="0.5" customHeight="1">
+    <row r="6" spans="1:12" ht="0.6" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -7906,14 +7935,14 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="16" thickBot="1">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="16" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -7933,7 +7962,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="16" thickBot="1">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -7956,7 +7985,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="16" thickBot="1">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -7981,7 +8010,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="16" thickBot="1">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -8022,7 +8051,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="16" thickBot="1">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -8036,7 +8065,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="16" thickBot="1">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
@@ -8062,7 +8091,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="16" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -8091,7 +8120,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="16" thickBot="1">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -8125,7 +8154,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="16" thickBot="1">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -8175,7 +8204,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="16" thickBot="1">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -8189,7 +8218,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="30" thickBot="1">
+    <row r="20" spans="1:12" ht="27" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
@@ -8213,7 +8242,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="16" thickBot="1">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -8239,7 +8268,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="16" thickBot="1">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -8270,7 +8299,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="16" thickBot="1">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -8301,7 +8330,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="16" thickBot="1">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1">
       <c r="A24" s="9" t="s">
         <v>30</v>
       </c>
@@ -8311,7 +8340,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="16" thickBot="1">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1">
       <c r="A25" s="5"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -8336,7 +8365,7 @@
       <c r="F26" s="12"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:12" ht="16" thickBot="1">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
@@ -8355,7 +8384,7 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="16" thickBot="1">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
@@ -8377,7 +8406,7 @@
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:12" ht="16" thickBot="1">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>88</v>
       </c>
@@ -8396,7 +8425,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:12" ht="16" thickBot="1">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>87</v>
       </c>
@@ -8418,7 +8447,7 @@
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:12" ht="30" thickBot="1">
+    <row r="31" spans="1:12" ht="27" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>89</v>
       </c>
@@ -8451,12 +8480,12 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="36" spans="1:10" ht="16" thickBot="1">
+    <row r="36" spans="1:10" ht="15.75" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="30" thickBot="1">
+    <row r="37" spans="1:10" ht="27" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>1</v>
       </c>
@@ -8486,7 +8515,7 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="16" thickBot="1">
+    <row r="38" spans="1:10" ht="15.75" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
@@ -8519,7 +8548,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16" thickBot="1">
+    <row r="39" spans="1:10" ht="15.75" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
@@ -8560,7 +8589,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16" thickBot="1">
+    <row r="40" spans="1:10" ht="15.75" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>12</v>
       </c>
@@ -8627,12 +8656,12 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" ht="16" thickBot="1">
+    <row r="43" spans="1:10" ht="15.75" thickBot="1">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="16" thickBot="1">
+    <row r="44" spans="1:10" ht="15.75" thickBot="1">
       <c r="A44" s="9" t="s">
         <v>64</v>
       </c>
@@ -8653,7 +8682,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:10" ht="16" thickBot="1">
+    <row r="45" spans="1:10" ht="15.75" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>10</v>
       </c>
@@ -8677,7 +8706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="16" thickBot="1">
+    <row r="46" spans="1:10" ht="15.75" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>11</v>
       </c>
@@ -8706,7 +8735,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="16" thickBot="1">
+    <row r="47" spans="1:10" ht="15.75" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>12</v>
       </c>
@@ -8762,16 +8791,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H26" sqref="A20:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -8785,7 +8814,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="30" thickBot="1">
+    <row r="2" spans="1:11" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -8806,7 +8835,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -8827,7 +8856,7 @@
         <v>0.95277529961698948</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" thickBot="1">
+    <row r="4" spans="1:11" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -8846,8 +8875,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1"/>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -8868,7 +8897,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="30" thickBot="1">
+    <row r="8" spans="1:11" ht="27" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -8892,7 +8921,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -8921,7 +8950,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" thickBot="1">
+    <row r="10" spans="1:11" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -8961,7 +8990,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="30" thickBot="1">
+    <row r="13" spans="1:11" ht="27" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -8987,7 +9016,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" thickBot="1">
+    <row r="14" spans="1:11" ht="27" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -9017,7 +9046,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16" thickBot="1">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -9052,7 +9081,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" thickBot="1">
+    <row r="16" spans="1:11" ht="27" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -9102,7 +9131,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16">
+    <row r="19" spans="1:11" ht="15.75">
       <c r="J19" t="s">
         <v>234</v>
       </c>
@@ -9110,7 +9139,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16" thickBot="1">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
       <c r="A20" s="13" t="s">
         <v>76</v>
       </c>
@@ -9124,7 +9153,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="30" thickBot="1">
+    <row r="21" spans="1:11" ht="27" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -9142,7 +9171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16" thickBot="1">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -9169,7 +9198,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" thickBot="1">
+    <row r="23" spans="1:11" ht="27" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -9203,23 +9232,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G23" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="G23" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -9233,7 +9262,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="30" thickBot="1">
+    <row r="2" spans="1:10" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -9254,7 +9283,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -9275,7 +9304,7 @@
         <v>0.90805800128462044</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -9294,8 +9323,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -9316,7 +9345,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="30" thickBot="1">
+    <row r="8" spans="1:10" ht="27" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -9340,7 +9369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -9369,7 +9398,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -9409,7 +9438,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="30" thickBot="1">
+    <row r="13" spans="1:10" ht="27" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -9429,7 +9458,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" thickBot="1">
+    <row r="14" spans="1:10" ht="27" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -9456,7 +9485,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -9485,7 +9514,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" thickBot="1">
+    <row r="16" spans="1:10" ht="27" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>320</v>
       </c>
@@ -9509,7 +9538,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="44" thickBot="1">
+    <row r="17" spans="1:10" ht="39.75" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>321</v>
       </c>
@@ -9553,8 +9582,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16" thickBot="1"/>
-    <row r="20" spans="1:10" ht="44" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:10" ht="39.75" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>85</v>
       </c>
@@ -9569,7 +9598,7 @@
       </c>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:10" ht="30" thickBot="1">
+    <row r="21" spans="1:10" ht="27" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -9587,7 +9616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -9608,7 +9637,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30" thickBot="1">
+    <row r="23" spans="1:10" ht="27" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>320</v>
       </c>
@@ -9626,7 +9655,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="58" thickBot="1">
+    <row r="24" spans="1:10" ht="52.5" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>322</v>
       </c>
@@ -9662,7 +9691,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="36" customFormat="1" ht="16" thickBot="1">
+    <row r="27" spans="1:10" s="36" customFormat="1" ht="15.75" thickBot="1">
       <c r="A27" s="35" t="s">
         <v>76</v>
       </c>
@@ -9673,7 +9702,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="36" customFormat="1" ht="30" thickBot="1">
+    <row r="28" spans="1:10" s="36" customFormat="1" ht="27" thickBot="1">
       <c r="A28" s="37" t="s">
         <v>10</v>
       </c>
@@ -9688,7 +9717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="36" customFormat="1" ht="16" thickBot="1">
+    <row r="29" spans="1:10" s="36" customFormat="1" ht="15.75" thickBot="1">
       <c r="A29" s="37" t="s">
         <v>11</v>
       </c>
@@ -9705,7 +9734,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="36" customFormat="1" ht="44" thickBot="1">
+    <row r="30" spans="1:10" s="36" customFormat="1" ht="39.75" thickBot="1">
       <c r="A30" s="37" t="s">
         <v>321</v>
       </c>
@@ -9735,19 +9764,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -9761,7 +9790,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="30" thickBot="1">
+    <row r="2" spans="1:11" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -9782,7 +9811,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -9803,7 +9832,7 @@
         <v>0.97448244785232785</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" thickBot="1">
+    <row r="4" spans="1:11" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -9822,8 +9851,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1"/>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -9844,7 +9873,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="30" thickBot="1">
+    <row r="8" spans="1:11" ht="27" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -9868,7 +9897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -9897,7 +9926,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" thickBot="1">
+    <row r="10" spans="1:11" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -9946,7 +9975,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="29"/>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -9969,7 +9998,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" thickBot="1">
+    <row r="15" spans="1:11" ht="27" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -10000,7 +10029,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -10036,7 +10065,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" thickBot="1">
+    <row r="17" spans="1:11" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>320</v>
       </c>
@@ -10067,7 +10096,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="30" thickBot="1">
+    <row r="18" spans="1:11" ht="27" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>12</v>
       </c>
@@ -10126,7 +10155,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16" thickBot="1">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="13" t="s">
         <v>76</v>
       </c>
@@ -10137,7 +10166,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" thickBot="1">
+    <row r="23" spans="1:11" ht="27" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -10155,7 +10184,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16" thickBot="1">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
@@ -10172,7 +10201,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30" thickBot="1">
+    <row r="25" spans="1:11" ht="27" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>12</v>
       </c>
@@ -10201,16 +10230,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -10224,7 +10253,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="30" thickBot="1">
+    <row r="2" spans="1:11" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -10245,7 +10274,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -10266,7 +10295,7 @@
         <v>0.98351979013457747</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" thickBot="1">
+    <row r="4" spans="1:11" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -10285,8 +10314,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="16" thickBot="1"/>
-    <row r="7" spans="1:11" ht="16" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -10307,7 +10336,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="30" thickBot="1">
+    <row r="8" spans="1:11" ht="27" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -10331,7 +10360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -10360,7 +10389,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" thickBot="1">
+    <row r="10" spans="1:11" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -10405,7 +10434,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" thickBot="1">
+    <row r="14" spans="1:11" ht="27" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -10431,7 +10460,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" thickBot="1">
+    <row r="15" spans="1:11" ht="27" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -10461,7 +10490,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -10496,7 +10525,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" thickBot="1">
+    <row r="17" spans="1:11" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>320</v>
       </c>
@@ -10523,7 +10552,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="44" thickBot="1">
+    <row r="18" spans="1:11" ht="39.75" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>321</v>
       </c>
@@ -10567,8 +10596,8 @@
       <c r="D19" s="2"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="21" spans="1:11" ht="16" thickBot="1"/>
-    <row r="22" spans="1:11" ht="30" thickBot="1">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="22" spans="1:11" ht="27" thickBot="1">
       <c r="A22" s="9" t="s">
         <v>85</v>
       </c>
@@ -10586,7 +10615,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" thickBot="1">
+    <row r="23" spans="1:11" ht="27" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -10604,7 +10633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16" thickBot="1">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
@@ -10628,7 +10657,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30" thickBot="1">
+    <row r="25" spans="1:11" ht="27" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>320</v>
       </c>
@@ -10649,7 +10678,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="58" thickBot="1">
+    <row r="26" spans="1:11" ht="52.5" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>322</v>
       </c>
@@ -10685,16 +10714,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -10708,7 +10737,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="30" thickBot="1">
+    <row r="2" spans="1:10" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -10729,7 +10758,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -10750,7 +10779,7 @@
         <v>0.92622883301508352</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -10769,8 +10798,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="16" thickBot="1"/>
-    <row r="7" spans="1:10" ht="16" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -10791,7 +10820,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="30" thickBot="1">
+    <row r="8" spans="1:10" ht="27" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -10815,7 +10844,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -10844,7 +10873,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -10884,7 +10913,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="16" thickBot="1">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -10907,7 +10936,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" thickBot="1">
+    <row r="14" spans="1:10" ht="27" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -10937,7 +10966,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -10972,7 +11001,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" thickBot="1">
+    <row r="16" spans="1:10" ht="27" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>320</v>
       </c>
@@ -10996,7 +11025,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="44" thickBot="1">
+    <row r="17" spans="1:10" ht="39.75" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>321</v>
       </c>
@@ -11043,8 +11072,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16" thickBot="1"/>
-    <row r="21" spans="1:10" ht="30" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="21" spans="1:10" ht="27" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -11057,7 +11086,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="30" thickBot="1">
+    <row r="22" spans="1:10" ht="27" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -11073,7 +11102,7 @@
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:10" ht="16" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -11091,7 +11120,7 @@
       </c>
       <c r="E23" s="20"/>
     </row>
-    <row r="24" spans="1:10" ht="30" thickBot="1">
+    <row r="24" spans="1:10" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>320</v>
       </c>
@@ -11107,7 +11136,7 @@
       </c>
       <c r="E24" s="20"/>
     </row>
-    <row r="25" spans="1:10" ht="58" thickBot="1">
+    <row r="25" spans="1:10" ht="52.5" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>322</v>
       </c>
@@ -11134,16 +11163,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="16" thickBot="1">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -11157,7 +11186,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="30" thickBot="1">
+    <row r="2" spans="1:13" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -11178,7 +11207,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16" thickBot="1">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -11199,7 +11228,7 @@
         <v>0.9267197256851698</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30" thickBot="1">
+    <row r="4" spans="1:13" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -11218,8 +11247,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="16" thickBot="1"/>
-    <row r="7" spans="1:13" ht="16" thickBot="1">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -11240,7 +11269,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:13" ht="30" thickBot="1">
+    <row r="8" spans="1:13" ht="27" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -11264,7 +11293,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" thickBot="1">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -11293,7 +11322,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30" thickBot="1">
+    <row r="10" spans="1:13" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -11333,7 +11362,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="30" thickBot="1">
+    <row r="13" spans="1:13" ht="27" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -11362,7 +11391,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30" thickBot="1">
+    <row r="14" spans="1:13" ht="27" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -11393,7 +11422,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16" thickBot="1">
+    <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -11429,7 +11458,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30" thickBot="1">
+    <row r="16" spans="1:13" ht="27" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>320</v>
       </c>
@@ -11460,7 +11489,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="44" thickBot="1">
+    <row r="17" spans="1:13" ht="39.75" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>321</v>
       </c>
@@ -11511,8 +11540,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16" thickBot="1"/>
-    <row r="21" spans="1:13" ht="30" thickBot="1">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="21" spans="1:13" ht="27" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -11527,7 +11556,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30" thickBot="1">
+    <row r="22" spans="1:13" ht="27" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -11542,7 +11571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16" thickBot="1">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -11559,7 +11588,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="44" thickBot="1">
+    <row r="24" spans="1:13" ht="39.75" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>89</v>
       </c>
@@ -11584,12 +11613,12 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="29" spans="1:13" ht="16" thickBot="1">
+    <row r="29" spans="1:13" ht="15.75" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="30" thickBot="1">
+    <row r="30" spans="1:13" ht="27" thickBot="1">
       <c r="A30" s="9" t="s">
         <v>85</v>
       </c>
@@ -11602,7 +11631,7 @@
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
     </row>
-    <row r="31" spans="1:13" ht="30" thickBot="1">
+    <row r="31" spans="1:13" ht="27" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>10</v>
       </c>
@@ -11618,7 +11647,7 @@
       </c>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:13" ht="16" thickBot="1">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>11</v>
       </c>
@@ -11636,7 +11665,7 @@
       </c>
       <c r="E32" s="20"/>
     </row>
-    <row r="33" spans="1:5" ht="44" thickBot="1">
+    <row r="33" spans="1:5" ht="39.75" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>89</v>
       </c>

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14475" tabRatio="916" firstSheet="2" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="25610" windowHeight="14480" tabRatio="916" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="quota_AU" sheetId="19" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="347">
   <si>
     <t>IDF</t>
   </si>
@@ -1029,9 +1029,6 @@
     <t>New Quota (+10%)</t>
   </si>
   <si>
-    <t>New Quota (+10%) after bug</t>
-  </si>
-  <si>
     <t>* 5 zipcodes were invalid: we dropped them; and 5 zipcodes were not properly treated at the beginning: we counted which region/urbanity failed to be recorded, have corrected the data, we decrement the quotas by the corresponding numbers, and we now excludes (from the count) those respondents for which the zipcode is not correctly treated</t>
   </si>
   <si>
@@ -1087,6 +1084,24 @@
   </si>
   <si>
     <t>* 15 quotas Northeast were also falsely counted as East</t>
+  </si>
+  <si>
+    <t>Quota + extra</t>
+  </si>
+  <si>
+    <t>Q extra + 10%</t>
+  </si>
+  <si>
+    <t>Q extra +10%</t>
+  </si>
+  <si>
+    <t>Q new extra +10%</t>
+  </si>
+  <si>
+    <t>New quota (+10%)</t>
+  </si>
+  <si>
+    <t>New quota +10%</t>
   </si>
 </sst>
 </file>
@@ -1612,9 +1627,9 @@
       <selection activeCell="A23" sqref="A23:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -1628,7 +1643,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1648,7 +1663,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1667,7 +1682,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="26.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1686,8 +1701,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1708,7 +1723,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1732,7 +1747,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1761,7 +1776,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="26.5" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1801,7 +1816,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="27" thickBot="1">
+    <row r="14" spans="1:10" ht="26.5" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -1830,7 +1845,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -1857,7 +1872,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -1892,7 +1907,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27" thickBot="1">
+    <row r="17" spans="1:10" ht="26.5" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -1947,8 +1962,8 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="23" spans="1:10" ht="27" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1"/>
+    <row r="23" spans="1:10" ht="26.5" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -1961,7 +1976,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -1983,7 +1998,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -2007,7 +2022,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="39.75" thickBot="1">
+    <row r="26" spans="1:10" ht="39" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>89</v>
       </c>
@@ -2040,15 +2055,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:9" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -2062,7 +2080,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:9" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2083,7 +2101,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:9" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2104,401 +2122,499 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:9" ht="15" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="B4" s="8">
-        <f>ROUND(2200*B2,0)</f>
-        <v>1095</v>
+        <f>2139*B2</f>
+        <v>1064.1791044776121</v>
       </c>
       <c r="C4" s="8">
-        <f>ROUND(2200*C2,0)</f>
-        <v>1105</v>
+        <f t="shared" ref="C4:D4" si="0">2139*C2</f>
+        <v>1074.8208955223881</v>
       </c>
       <c r="D4" s="8">
-        <f>ROUND(2200*D2,0)</f>
-        <v>2200</v>
+        <f t="shared" si="0"/>
+        <v>2139</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A7" s="9" t="s">
+    <row r="5" spans="1:9" ht="15" thickBot="1">
+      <c r="A5" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" s="8">
+        <f>ROUND(2139*1.1*B2,0)</f>
+        <v>1171</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" ref="C5:D5" si="1">ROUND(2139*1.1*C2,0)</f>
+        <v>1182</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="1"/>
+        <v>2353</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1"/>
+    <row r="8" spans="1:9" ht="15" thickBot="1">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A8" s="5" t="s">
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B9" s="6">
         <v>9.7661294959996411E-2</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="6">
         <v>0.15904807790968184</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="6">
         <v>0.27449641413428144</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="6">
         <v>0.28165171586977938</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="6">
         <v>0.18714249712626085</v>
       </c>
-      <c r="G8" s="7">
-        <f>SUM(B8:F8)</f>
+      <c r="G9" s="7">
+        <f>SUM(B9:F9)</f>
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:9" ht="15" thickBot="1">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8">
-        <f t="shared" ref="B9:G9" si="0">ROUND(2000*B8,0)</f>
+      <c r="B10" s="8">
+        <f t="shared" ref="B10:G10" si="2">ROUND(2000*B9,0)</f>
         <v>195</v>
       </c>
-      <c r="C9" s="8">
-        <f t="shared" si="0"/>
+      <c r="C10" s="8">
+        <f t="shared" si="2"/>
         <v>318</v>
       </c>
-      <c r="D9" s="8">
-        <f t="shared" si="0"/>
+      <c r="D10" s="8">
+        <f t="shared" si="2"/>
         <v>549</v>
       </c>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
+      <c r="E10" s="8">
+        <f t="shared" si="2"/>
         <v>563</v>
       </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
         <v>374</v>
       </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
+      <c r="G10" s="8">
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8">
-        <f t="shared" ref="B10:G10" si="1">ROUND(2200*B8,0)</f>
-        <v>215</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" si="1"/>
-        <v>350</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" si="1"/>
-        <v>604</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="1"/>
-        <v>620</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="1"/>
-        <v>412</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="1"/>
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:9" ht="15" thickBot="1">
+      <c r="A11" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="8">
+        <f>2139*B9</f>
+        <v>208.89750991943234</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" ref="C11:G11" si="3">2139*C9</f>
+        <v>340.20383864880944</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="3"/>
+        <v>587.147829833228</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="3"/>
+        <v>602.45302024545811</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="3"/>
+        <v>400.29780135307197</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="3"/>
+        <v>2138.9999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1">
+      <c r="A12" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" s="8">
+        <f>ROUND(2139*1.1*B9,0)</f>
+        <v>230</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" ref="C12:G12" si="4">ROUND(2139*1.1*C9,0)</f>
+        <v>374</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="4"/>
+        <v>646</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="4"/>
+        <v>663</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="4"/>
+        <v>440</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="4"/>
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A14" s="9" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1">
+      <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B16" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C16" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D16" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E16" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F16" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G16" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I16" s="29" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A15" s="5" t="s">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
+      <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B17" s="31">
         <v>0.18616626833750199</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C17" s="31">
         <v>0.343251015277311</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D17" s="31">
         <v>0.22025659607004799</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E17" s="31">
         <v>0.25032612031513901</v>
       </c>
-      <c r="F15" s="17">
-        <f t="shared" ref="F15:G17" si="2">SUM(A15:E15)</f>
+      <c r="F17" s="17">
+        <f t="shared" ref="F17:G20" si="5">SUM(A17:E17)</f>
         <v>1</v>
       </c>
-      <c r="G15" s="17">
-        <f t="shared" si="2"/>
+      <c r="G17" s="17">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I17" t="s">
         <v>133</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J17" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A16" s="5" t="s">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
+      <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="10">
-        <f>ROUND(2000*B15,0)</f>
+      <c r="B18" s="10">
+        <f>ROUND(2000*B17,0)</f>
         <v>372</v>
       </c>
-      <c r="C16" s="10">
-        <f>ROUND(2000*C15,0)</f>
+      <c r="C18" s="10">
+        <f>ROUND(2000*C17,0)</f>
         <v>687</v>
       </c>
-      <c r="D16" s="10">
-        <f>ROUND(2000*D15,0)</f>
+      <c r="D18" s="10">
+        <f>ROUND(2000*D17,0)</f>
         <v>441</v>
       </c>
-      <c r="E16" s="10">
-        <f>ROUND(2000*E15,0)</f>
+      <c r="E18" s="10">
+        <f>ROUND(2000*E17,0)</f>
         <v>501</v>
       </c>
-      <c r="F16" s="3">
-        <f t="shared" si="2"/>
+      <c r="F18" s="3">
+        <f t="shared" si="5"/>
         <v>2001</v>
       </c>
-      <c r="G16" s="3">
-        <f t="shared" si="2"/>
+      <c r="G18" s="3">
+        <f t="shared" si="5"/>
         <v>4002</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I18" t="s">
         <v>244</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J18" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27" thickBot="1">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2">
-        <f>ROUND(2200*B15,0)</f>
-        <v>410</v>
-      </c>
-      <c r="C17" s="2">
-        <f>ROUND(2200*C15,0)</f>
-        <v>755</v>
-      </c>
-      <c r="D17" s="2">
-        <f>ROUND(2200*D15,0)</f>
-        <v>485</v>
-      </c>
-      <c r="E17" s="2">
-        <f>ROUND(2200*E15,0)</f>
-        <v>551</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="2"/>
-        <v>2201</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="2"/>
-        <v>4402</v>
-      </c>
-      <c r="I17" t="s">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
+      <c r="A19" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B19" s="10">
+        <f>2139*B17</f>
+        <v>398.20964797391679</v>
+      </c>
+      <c r="C19" s="10">
+        <f t="shared" ref="C19:F19" si="6">2139*C17</f>
+        <v>734.21392167816828</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="6"/>
+        <v>471.12885899383264</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="6"/>
+        <v>535.44757135408236</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="6"/>
+        <v>2139</v>
+      </c>
+      <c r="G19" s="10">
+        <f>2139*G17</f>
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickBot="1">
+      <c r="A20" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B20" s="2">
+        <f>ROUND(2139*1.1*B17,0)</f>
+        <v>438</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" ref="C20:G20" si="7">ROUND(2139*1.1*C17,0)</f>
+        <v>808</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="7"/>
+        <v>518</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="7"/>
+        <v>589</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="7"/>
+        <v>2353</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="7"/>
+        <v>4706</v>
+      </c>
+      <c r="I20" t="s">
         <v>112</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J20" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="9" t="s">
+    <row r="21" spans="1:10">
+      <c r="A21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="11"/>
-      <c r="I18" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="11"/>
+      <c r="I21" t="s">
         <v>256</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J21" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="I19" t="s">
+    <row r="22" spans="1:10">
+      <c r="I22" t="s">
         <v>234</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J22" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="I20" t="s">
+    <row r="23" spans="1:10">
+      <c r="I23" t="s">
         <v>176</v>
       </c>
-      <c r="J20" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A21" s="13" t="s">
+      <c r="J23" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" thickBot="1">
+      <c r="A24" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>308</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C24" t="s">
         <v>188</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D24" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A22" s="5" t="s">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
+      <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B22">
+      <c r="B25">
         <v>8.4078910000000007E-2</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C25" s="17">
         <v>0.4967454</v>
       </c>
-      <c r="D22">
+      <c r="D25">
         <v>0.41917569999999998</v>
       </c>
-      <c r="E22" s="17">
-        <f>SUM(B22:D22)</f>
+      <c r="E25" s="17">
+        <f>SUM(B25:D25)</f>
         <v>1.0000000099999999</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H25" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A23" s="5" t="s">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
+      <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B23">
-        <f>ROUND(2000*B22,0)</f>
+      <c r="B26">
+        <f>ROUND(2000*B25,0)</f>
         <v>168</v>
       </c>
-      <c r="C23">
-        <f>ROUND(2000*D22,0)</f>
+      <c r="C26">
+        <f>ROUND(2000*D25,0)</f>
         <v>838</v>
       </c>
-      <c r="D23">
-        <f>ROUND(2000*C22,0)</f>
+      <c r="D26">
+        <f>ROUND(2000*C25,0)</f>
         <v>993</v>
       </c>
-      <c r="E23">
-        <f>SUM(B23:D23)</f>
+      <c r="E26">
+        <f>SUM(B26:D26)</f>
         <v>1999</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F26" t="s">
         <v>140</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H26" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="27" thickBot="1">
-      <c r="A24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <f>ROUND(2200*B22,0)</f>
-        <v>185</v>
-      </c>
-      <c r="C24">
-        <f>ROUND(2200*D22,0)</f>
-        <v>922</v>
-      </c>
-      <c r="D24">
-        <f>ROUND(2200*C22,0)</f>
-        <v>1093</v>
-      </c>
-      <c r="E24">
-        <f>SUM(B24:D24)</f>
-        <v>2200</v>
-      </c>
-      <c r="F24" t="s">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
+      <c r="A27" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B27">
+        <f>2139*B25</f>
+        <v>179.84478849000001</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:E27" si="8">2139*C25</f>
+        <v>1062.5384105999999</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="8"/>
+        <v>896.61682229999997</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="8"/>
+        <v>2139.0000213899998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" thickBot="1">
+      <c r="A28" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B28">
+        <f>ROUND(2139*1.1*B25,0)</f>
+        <v>198</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:E28" si="9">ROUND(2139*1.1*C25,0)</f>
+        <v>1169</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="9"/>
+        <v>986</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="9"/>
+        <v>2353</v>
+      </c>
+      <c r="F28" t="s">
         <v>208</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" t="s">
+      <c r="G28" s="15"/>
+      <c r="H28" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="9" t="s">
+    <row r="29" spans="1:10">
+      <c r="A29" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H29" t="s">
         <v>234</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I29" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="I26" t="s">
+    <row r="30" spans="1:10">
+      <c r="I30" t="s">
         <v>314</v>
       </c>
     </row>
@@ -2509,18 +2625,19 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -2534,7 +2651,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="27" thickBot="1">
+    <row r="2" spans="1:7" ht="26.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2555,7 +2672,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:7" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2576,394 +2693,489 @@
         <v>0.97448244785232785</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27" thickBot="1">
+    <row r="4" spans="1:7" ht="15" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="B4" s="8">
-        <f>ROUND(2200*B2,0)</f>
-        <v>1114</v>
+        <f>2277*B2</f>
+        <v>1153.2135940112939</v>
       </c>
       <c r="C4" s="8">
-        <f>ROUND(2200*C2,0)</f>
-        <v>1086</v>
+        <f t="shared" ref="C4:D4" si="0">2277*C2</f>
+        <v>1123.7864059887063</v>
       </c>
       <c r="D4" s="8">
-        <f>ROUND(2200*D2,0)</f>
-        <v>2200</v>
+        <f t="shared" si="0"/>
+        <v>2277</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A7" s="9" t="s">
+    <row r="5" spans="1:7" ht="15" thickBot="1">
+      <c r="A5" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" s="8">
+        <f>ROUND(2277*1.1*B2,0)</f>
+        <v>1269</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" ref="C5:D5" si="1">ROUND(2277*1.1*C2,0)</f>
+        <v>1236</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="1"/>
+        <v>2505</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1"/>
+    <row r="8" spans="1:7" ht="15" thickBot="1">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="27" thickBot="1">
-      <c r="A8" s="5" t="s">
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="26.5" thickBot="1">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B9" s="6">
         <v>7.9191491752479096E-2</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="6">
         <v>0.12421461688688819</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="6">
         <v>0.28456157532012299</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="6">
         <v>0.26561284423668119</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="6">
         <v>0.24641947180382848</v>
       </c>
-      <c r="G8" s="7">
-        <f>SUM(B8:F8)</f>
+      <c r="G9" s="7">
+        <f>SUM(B9:F9)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:7" ht="15" thickBot="1">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8">
-        <f t="shared" ref="B9:G9" si="0">ROUND(2000*B8,0)</f>
+      <c r="B10" s="8">
+        <f t="shared" ref="B10:G10" si="2">ROUND(2000*B9,0)</f>
         <v>158</v>
       </c>
-      <c r="C9" s="8">
-        <f t="shared" si="0"/>
+      <c r="C10" s="8">
+        <f t="shared" si="2"/>
         <v>248</v>
       </c>
-      <c r="D9" s="8">
-        <f t="shared" si="0"/>
+      <c r="D10" s="8">
+        <f t="shared" si="2"/>
         <v>569</v>
       </c>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
+      <c r="E10" s="8">
+        <f t="shared" si="2"/>
         <v>531</v>
       </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
         <v>493</v>
       </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
+      <c r="G10" s="8">
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" thickBot="1">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8">
-        <f t="shared" ref="B10:G10" si="1">ROUND(2200*B8,0)</f>
-        <v>174</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" si="1"/>
-        <v>273</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" si="1"/>
-        <v>626</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="1"/>
-        <v>584</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="1"/>
-        <v>542</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="1"/>
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:7" ht="15" thickBot="1">
+      <c r="A11" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="8">
+        <f>2277*B9</f>
+        <v>180.3190267203949</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" ref="C11:G11" si="3">2277*C9</f>
+        <v>282.83668265144439</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="3"/>
+        <v>647.9467070039201</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="3"/>
+        <v>604.80044632692307</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="3"/>
+        <v>561.09713729731743</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="3"/>
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1">
+      <c r="A12" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" s="8">
+        <f>ROUND(2277*1.1*B9,0)</f>
+        <v>198</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" ref="C12:G12" si="4">ROUND(2277*1.1*C9,0)</f>
+        <v>311</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="4"/>
+        <v>713</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="4"/>
+        <v>665</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="4"/>
+        <v>617</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="4"/>
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="9"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A14" s="9" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1">
+      <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B16" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C16" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E16" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F16" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G16" s="29" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="27" thickBot="1">
-      <c r="A15" s="5" t="s">
+    <row r="17" spans="1:11" ht="26.5" thickBot="1">
+      <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B17" s="31">
         <v>0.29524004813828703</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C17" s="31">
         <v>0.18598442871189</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D17" s="31">
         <v>0.282121279527561</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E17" s="31">
         <v>0.107772925616947</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F17" s="31">
         <v>0.12888131800531499</v>
       </c>
-      <c r="G15">
-        <f>SUM(B15:F15)</f>
+      <c r="G17">
+        <f>SUM(B17:F17)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="J15" s="3" t="s">
+      <c r="H17" s="17"/>
+      <c r="J17" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A16" s="5" t="s">
+    <row r="18" spans="1:11" ht="15" thickBot="1">
+      <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="10">
-        <f t="shared" ref="B16:F16" si="2">ROUND(2000*B15,0)</f>
+      <c r="B18" s="10">
+        <f t="shared" ref="B18:F18" si="5">ROUND(2000*B17,0)</f>
         <v>590</v>
       </c>
-      <c r="C16" s="10">
-        <f t="shared" si="2"/>
+      <c r="C18" s="10">
+        <f t="shared" si="5"/>
         <v>372</v>
       </c>
-      <c r="D16" s="10">
-        <f t="shared" si="2"/>
+      <c r="D18" s="10">
+        <f t="shared" si="5"/>
         <v>564</v>
       </c>
-      <c r="E16" s="10">
-        <f t="shared" si="2"/>
+      <c r="E18" s="10">
+        <f t="shared" si="5"/>
         <v>216</v>
       </c>
-      <c r="F16" s="10">
-        <f t="shared" si="2"/>
+      <c r="F18" s="10">
+        <f t="shared" si="5"/>
         <v>258</v>
       </c>
-      <c r="G16" s="10">
-        <f>SUM(B16:F16)</f>
+      <c r="G18" s="10">
+        <f>SUM(B18:F18)</f>
         <v>2000</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="J16" s="3" t="s">
+      <c r="H18" s="3"/>
+      <c r="J18" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27" thickBot="1">
-      <c r="A17" s="5" t="s">
+    <row r="19" spans="1:11" ht="15" thickBot="1">
+      <c r="A19" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B19" s="10">
         <v>590</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C19" s="10">
         <v>371</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D19" s="10">
         <v>560</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E19" s="10">
         <v>215</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F19" s="10">
         <v>255</v>
       </c>
-      <c r="G17" s="10">
-        <f>SUM(B17:F17)</f>
+      <c r="G19" s="10">
+        <f>SUM(B19:F19)</f>
         <v>1991</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="J17" t="s">
+      <c r="H19" s="3"/>
+      <c r="J19" t="s">
         <v>47</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K19" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="27" thickBot="1">
-      <c r="A18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="2">
-        <f>ROUND(1.1*B17,0)</f>
-        <v>649</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" ref="C18:G18" si="3">ROUND(1.1*C17,0)</f>
-        <v>408</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="3"/>
-        <v>616</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="3"/>
-        <v>237</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="3"/>
-        <v>281</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="3"/>
-        <v>2190</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="J18" t="s">
+    <row r="20" spans="1:11" ht="15" thickBot="1">
+      <c r="A20" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" s="10">
+        <f>2277*B17</f>
+        <v>672.26158961087958</v>
+      </c>
+      <c r="C20" s="10">
+        <f t="shared" ref="C20:G20" si="6">2277*C17</f>
+        <v>423.48654417697355</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="6"/>
+        <v>642.39015348425642</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="6"/>
+        <v>245.39895162978831</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="6"/>
+        <v>293.46276109810225</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" si="6"/>
+        <v>2276.9999999999995</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1">
+      <c r="A21" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B21" s="2">
+        <f>ROUND(1.1*B20,0)</f>
+        <v>739</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" ref="C21:G21" si="7">ROUND(1.1*C20,0)</f>
+        <v>466</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="7"/>
+        <v>707</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="7"/>
+        <v>270</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="7"/>
+        <v>323</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="7"/>
+        <v>2505</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="J21" t="s">
         <v>133</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="9" t="s">
+    <row r="22" spans="1:11">
+      <c r="A22" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="11"/>
-      <c r="J19" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="11"/>
+      <c r="J22" t="s">
         <v>107</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K22" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="J20" t="s">
+    <row r="23" spans="1:11">
+      <c r="J23" t="s">
         <v>140</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A22" s="13" t="s">
+    <row r="25" spans="1:11" ht="15" thickBot="1">
+      <c r="A25" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>77</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="27" thickBot="1">
-      <c r="A23" s="5" t="s">
+    <row r="26" spans="1:11" ht="26.5" thickBot="1">
+      <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B23">
+      <c r="B26">
         <v>0.30268220000000001</v>
       </c>
-      <c r="C23">
+      <c r="C26">
         <v>0.69731779999999999</v>
       </c>
-      <c r="D23" s="17">
-        <f>SUM(B23:C23)</f>
+      <c r="D26" s="17">
+        <f>SUM(B26:C26)</f>
         <v>1</v>
       </c>
-      <c r="J23" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A24" s="5" t="s">
+      <c r="J26" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" thickBot="1">
+      <c r="A27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B24">
-        <f>ROUND(2000*B23,0)</f>
+      <c r="B27">
+        <f>ROUND(2000*B26,0)</f>
         <v>605</v>
       </c>
-      <c r="C24">
-        <f>ROUND(2000*C23,0)</f>
+      <c r="C27">
+        <f>ROUND(2000*C26,0)</f>
         <v>1395</v>
       </c>
-      <c r="D24">
-        <f>SUM(B24:C24)</f>
+      <c r="D27">
+        <f>SUM(B27:C27)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="27" thickBot="1">
-      <c r="A25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25">
-        <f>ROUND(2200*B23,0)</f>
-        <v>666</v>
-      </c>
-      <c r="C25">
-        <f>ROUND(2200*C23,0)</f>
-        <v>1534</v>
-      </c>
-      <c r="D25">
-        <f>SUM(B25:C25)</f>
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="9" t="s">
+    <row r="28" spans="1:11" ht="15" thickBot="1">
+      <c r="A28" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B28" s="3">
+        <f>2277*B26</f>
+        <v>689.20736940000006</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" ref="C28:D28" si="8">2277*C26</f>
+        <v>1587.7926305999999</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" si="8"/>
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" thickBot="1">
+      <c r="A29" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B29">
+        <f>ROUND(2277*1.1*B26,0)</f>
+        <v>758</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:D29" si="9">ROUND(2277*1.1*C26,0)</f>
+        <v>1747</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="9"/>
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2981,9 +3193,9 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -2997,7 +3209,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3017,7 +3229,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -3036,7 +3248,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="26.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -3055,8 +3267,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -3077,7 +3289,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3101,7 +3313,7 @@
         <v>0.99999999999999933</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3130,7 +3342,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="26.5" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3170,7 +3382,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="39.75" thickBot="1">
+    <row r="14" spans="1:10" ht="39" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -3193,10 +3405,10 @@
         <v>176</v>
       </c>
       <c r="J14" s="29" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3220,10 +3432,10 @@
         <v>111</v>
       </c>
       <c r="J15" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -3251,10 +3463,10 @@
         <v>256</v>
       </c>
       <c r="J16" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="27" thickBot="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="26.5" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3296,8 +3508,8 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="21" spans="1:10" ht="27" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1"/>
+    <row r="21" spans="1:10" ht="26.5" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -3309,7 +3521,7 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -3324,7 +3536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -3341,7 +3553,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="27" thickBot="1">
+    <row r="24" spans="1:10" ht="26.5" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -3378,13 +3590,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -3398,7 +3613,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="27" thickBot="1">
+    <row r="2" spans="1:11" ht="26.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3419,7 +3634,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -3440,7 +3655,7 @@
         <v>0.98351979013457747</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27" thickBot="1">
+    <row r="4" spans="1:11" ht="15" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -3459,8 +3674,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="15" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -3481,7 +3696,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="27" thickBot="1">
+    <row r="8" spans="1:11" ht="26.5" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3505,7 +3720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+    <row r="9" spans="1:11" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3534,7 +3749,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" thickBot="1">
+    <row r="10" spans="1:11" ht="15" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3579,7 +3794,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="27" thickBot="1">
+    <row r="14" spans="1:11" ht="26.5" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -3605,7 +3820,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="27" thickBot="1">
+    <row r="15" spans="1:11" ht="26.5" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3635,7 +3850,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -3670,7 +3885,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27" thickBot="1">
+    <row r="17" spans="1:11" ht="26.5" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>320</v>
       </c>
@@ -3697,9 +3912,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="39.75" thickBot="1">
+    <row r="18" spans="1:11" ht="15" thickBot="1">
       <c r="A18" s="5" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="B18" s="2">
         <f>ROUND(1.1*B17,0)</f>
@@ -3741,8 +3956,8 @@
       <c r="D19" s="2"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="22" spans="1:11" ht="27" thickBot="1">
+    <row r="21" spans="1:11" ht="15" thickBot="1"/>
+    <row r="22" spans="1:11" ht="26.5" thickBot="1">
       <c r="A22" s="9" t="s">
         <v>85</v>
       </c>
@@ -3757,10 +3972,10 @@
       </c>
       <c r="E22" s="12"/>
       <c r="H22" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="27" thickBot="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="26.5" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -3778,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1">
+    <row r="24" spans="1:11" ht="15" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
@@ -3802,7 +4017,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="27" thickBot="1">
+    <row r="25" spans="1:11" ht="26.5" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>320</v>
       </c>
@@ -3823,9 +4038,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="52.5" thickBot="1">
+    <row r="26" spans="1:11" ht="15" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="B26" s="10">
         <f>ROUND(1.1*B25,0)</f>
@@ -3860,13 +4075,16 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -3921,442 +4139,718 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>1040</v>
-      </c>
-      <c r="C4">
-        <v>959</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <f>SUM(B4:D4)</f>
-        <v>2010</v>
+        <v>341</v>
+      </c>
+      <c r="B4" s="3">
+        <f>B3*2218/2000</f>
+        <v>1125.635</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" ref="C4:E4" si="0">C3*2218/2000</f>
+        <v>1092.365</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B5" s="3">
+        <f>1.1*B4</f>
+        <v>1238.1985000000002</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ref="C5:E5" si="1">1.1*C4</f>
+        <v>1201.6015000000002</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
+        <v>2439.8000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6">
-        <f>SUM(B6:E6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="14">
-        <v>11.8</v>
-      </c>
-      <c r="C7" s="14">
-        <v>18</v>
-      </c>
-      <c r="D7" s="14">
-        <v>24.3</v>
-      </c>
-      <c r="E7" s="14">
-        <v>24.67</v>
-      </c>
-      <c r="F7" s="14">
-        <f>100-SUM(B7:E7)</f>
-        <v>21.22999999999999</v>
-      </c>
-      <c r="G7">
-        <f>SUM(B7:F7)</f>
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>1040</v>
+      </c>
+      <c r="C6">
+        <v>959</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <f>SUM(B6:D6)</f>
+        <v>2010</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8">
-        <f>20*B7</f>
-        <v>236</v>
-      </c>
-      <c r="C8">
-        <f>20*C7</f>
-        <v>360</v>
-      </c>
-      <c r="D8">
-        <f>20*D7</f>
-        <v>486</v>
-      </c>
-      <c r="E8" s="3">
-        <f>20*E7</f>
-        <v>493.40000000000003</v>
-      </c>
-      <c r="F8" s="3">
-        <f>2000-SUM(B8:E8)</f>
-        <v>424.59999999999991</v>
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
       </c>
       <c r="G8">
-        <f>SUM(B8:F8)</f>
-        <v>2000</v>
+        <f>SUM(B8:E8)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <v>225</v>
-      </c>
-      <c r="C9">
-        <v>360</v>
-      </c>
-      <c r="D9">
-        <v>493</v>
-      </c>
-      <c r="E9" s="3">
-        <v>500</v>
-      </c>
-      <c r="F9">
-        <v>432</v>
+        <v>36</v>
+      </c>
+      <c r="B9" s="14">
+        <v>11.8</v>
+      </c>
+      <c r="C9" s="14">
+        <v>18</v>
+      </c>
+      <c r="D9" s="14">
+        <v>24.3</v>
+      </c>
+      <c r="E9" s="14">
+        <v>24.67</v>
+      </c>
+      <c r="F9" s="14">
+        <f>100-SUM(B9:E9)</f>
+        <v>21.22999999999999</v>
       </c>
       <c r="G9">
         <f>SUM(B9:F9)</f>
-        <v>2010</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="E10" s="3"/>
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <f>20*B9</f>
+        <v>236</v>
+      </c>
+      <c r="C10">
+        <f>20*C9</f>
+        <v>360</v>
+      </c>
+      <c r="D10">
+        <f>20*D9</f>
+        <v>486</v>
+      </c>
+      <c r="E10" s="3">
+        <f>20*E9</f>
+        <v>493.40000000000003</v>
+      </c>
+      <c r="F10" s="3">
+        <f>2000-SUM(B10:E10)</f>
+        <v>424.59999999999991</v>
+      </c>
+      <c r="G10">
+        <f>SUM(B10:F10)</f>
+        <v>2000</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
+        <v>341</v>
+      </c>
+      <c r="B11" s="3">
+        <f>B10*2218/2000</f>
+        <v>261.72399999999999</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" ref="C11:G11" si="2">C10*2218/2000</f>
+        <v>399.24</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
+        <v>538.97400000000005</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="2"/>
+        <v>547.18060000000014</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="2"/>
+        <v>470.88139999999993</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>2218</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="14">
-        <v>20.338000000000001</v>
-      </c>
-      <c r="C12" s="14">
-        <v>23.901</v>
-      </c>
-      <c r="D12" s="14">
-        <v>24.39</v>
-      </c>
-      <c r="E12" s="14">
-        <v>31.370999999999999</v>
+        <v>342</v>
+      </c>
+      <c r="B12" s="3">
+        <f>1.1*B11</f>
+        <v>287.89640000000003</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" ref="C12:G12" si="3">1.1*C11</f>
+        <v>439.16400000000004</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="3"/>
+        <v>592.87140000000011</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="3"/>
+        <v>601.89866000000018</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" ref="F12:F13" si="0">SUM(B12:E12)</f>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>517.96953999999994</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="3"/>
+        <v>2439.8000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="3">
-        <f>20*B12</f>
-        <v>406.76</v>
-      </c>
-      <c r="C13" s="3">
-        <f>20*C12</f>
-        <v>478.02</v>
-      </c>
-      <c r="D13" s="3">
-        <f>20*D12</f>
-        <v>487.8</v>
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>225</v>
+      </c>
+      <c r="C13">
+        <v>360</v>
+      </c>
+      <c r="D13">
+        <v>493</v>
       </c>
       <c r="E13" s="3">
-        <f>20*E12</f>
-        <v>627.41999999999996</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>500</v>
+      </c>
+      <c r="F13">
+        <v>432</v>
+      </c>
+      <c r="G13">
+        <f>SUM(B13:F13)</f>
+        <v>2010</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3">
-        <v>486</v>
-      </c>
-      <c r="C14" s="3">
-        <v>565</v>
-      </c>
-      <c r="D14" s="3">
-        <v>546</v>
-      </c>
-      <c r="E14" s="3">
-        <v>413</v>
-      </c>
-      <c r="F14" s="3">
-        <f>SUM(B14:E14)</f>
-        <v>2010</v>
-      </c>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
+        <v>36</v>
+      </c>
+      <c r="B16" s="14">
+        <v>20.338000000000001</v>
+      </c>
+      <c r="C16" s="14">
+        <v>23.901</v>
+      </c>
+      <c r="D16" s="14">
+        <v>24.39</v>
+      </c>
+      <c r="E16" s="14">
+        <v>31.370999999999999</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" ref="F16:F17" si="4">SUM(B16:E16)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="14">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="C17" s="14">
-        <v>20.8</v>
-      </c>
-      <c r="D17" s="14">
-        <v>23.9</v>
-      </c>
-      <c r="E17" s="14">
-        <v>38.299999999999997</v>
+        <v>90</v>
+      </c>
+      <c r="B17" s="3">
+        <f>20*B16</f>
+        <v>406.76</v>
+      </c>
+      <c r="C17" s="3">
+        <f>20*C16</f>
+        <v>478.02</v>
+      </c>
+      <c r="D17" s="3">
+        <f>20*D16</f>
+        <v>487.8</v>
+      </c>
+      <c r="E17" s="3">
+        <f>20*E16</f>
+        <v>627.41999999999996</v>
       </c>
       <c r="F17" s="3">
-        <f>SUM(B17:E17)</f>
-        <v>100.1</v>
+        <f t="shared" si="4"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18">
-        <f>20*B17</f>
-        <v>342</v>
-      </c>
-      <c r="C18">
-        <f>20*C17</f>
-        <v>416</v>
-      </c>
-      <c r="D18">
-        <f>20*D17</f>
-        <v>478</v>
-      </c>
-      <c r="E18">
-        <f>20*E17</f>
-        <v>766</v>
+        <v>341</v>
+      </c>
+      <c r="B18" s="3">
+        <f>B17*2218/2000</f>
+        <v>451.09683999999999</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" ref="C18:F18" si="5">C17*2218/2000</f>
+        <v>530.12417999999991</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="5"/>
+        <v>540.97020000000009</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="5"/>
+        <v>695.80877999999996</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" ref="F18" si="1">SUM(B18:E18)</f>
-        <v>2002</v>
+        <f t="shared" si="5"/>
+        <v>2218</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
+        <v>342</v>
+      </c>
+      <c r="B19" s="3">
+        <f>1.1*B18</f>
+        <v>496.206524</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" ref="C19:F19" si="6">1.1*C18</f>
+        <v>583.13659799999994</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="6"/>
+        <v>595.06722000000013</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="6"/>
+        <v>765.38965800000005</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="6"/>
+        <v>2439.8000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B19">
-        <v>387</v>
-      </c>
-      <c r="C19">
-        <v>404</v>
-      </c>
-      <c r="D19">
-        <v>746</v>
-      </c>
-      <c r="E19">
-        <v>463</v>
-      </c>
-      <c r="F19" s="3">
-        <f>SUM(B19:E19)</f>
-        <v>2000</v>
+      <c r="B20" s="3">
+        <v>486</v>
+      </c>
+      <c r="C20" s="3">
+        <v>565</v>
+      </c>
+      <c r="D20" s="3">
+        <v>546</v>
+      </c>
+      <c r="E20" s="3">
+        <v>413</v>
+      </c>
+      <c r="F20" s="3">
+        <f>SUM(B20:E20)</f>
+        <v>2010</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="14">
-        <v>73.238</v>
-      </c>
-      <c r="C22" s="14">
-        <v>26.762</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="3">
-        <f>20*B22</f>
-        <v>1464.76</v>
-      </c>
-      <c r="C23" s="3">
-        <f>20*C22</f>
-        <v>535.24</v>
-      </c>
-      <c r="D23" s="3">
-        <f>SUM(B23:C23)</f>
-        <v>2000</v>
+        <v>36</v>
+      </c>
+      <c r="B23" s="14">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C23" s="14">
+        <v>20.8</v>
+      </c>
+      <c r="D23" s="14">
+        <v>23.9</v>
+      </c>
+      <c r="E23" s="14">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="F23" s="3">
+        <f>SUM(B23:E23)</f>
+        <v>100.1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1437</v>
-      </c>
-      <c r="C24" s="3">
-        <v>556</v>
-      </c>
-      <c r="D24" s="3">
-        <f>SUM(B24:C24)</f>
-        <v>1993</v>
+        <v>90</v>
+      </c>
+      <c r="B24">
+        <f>20*B23</f>
+        <v>342</v>
+      </c>
+      <c r="C24">
+        <f>20*C23</f>
+        <v>416</v>
+      </c>
+      <c r="D24">
+        <f>20*D23</f>
+        <v>478</v>
+      </c>
+      <c r="E24">
+        <f>20*E23</f>
+        <v>766</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" ref="F24" si="7">SUM(B24:E24)</f>
+        <v>2002</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" t="s">
+        <v>341</v>
+      </c>
+      <c r="B25" s="3">
+        <f>B24*2218/2000</f>
+        <v>379.27800000000002</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ref="C25:F25" si="8">C24*2218/2000</f>
+        <v>461.34399999999999</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="8"/>
+        <v>530.10199999999998</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="8"/>
+        <v>849.49400000000003</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="8"/>
+        <v>2220.2179999999998</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" t="s">
-        <v>35</v>
+        <v>342</v>
+      </c>
+      <c r="B26" s="3">
+        <f>1.1*B25</f>
+        <v>417.20580000000007</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" ref="C26:F26" si="9">1.1*C25</f>
+        <v>507.47840000000002</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="9"/>
+        <v>583.11220000000003</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="9"/>
+        <v>934.44340000000011</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="9"/>
+        <v>2442.2397999999998</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>60.1</v>
+        <v>387</v>
       </c>
       <c r="C27">
-        <v>18.5</v>
+        <v>404</v>
       </c>
       <c r="D27">
-        <v>13.4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28">
-        <f>B27*20</f>
-        <v>1202</v>
-      </c>
-      <c r="C28">
-        <f>C27*20</f>
-        <v>370</v>
-      </c>
-      <c r="D28">
-        <f>D27*20</f>
-        <v>268</v>
-      </c>
-      <c r="E28">
-        <f>SUM(B28:D28)</f>
-        <v>1840</v>
+        <v>746</v>
+      </c>
+      <c r="E27">
+        <v>463</v>
+      </c>
+      <c r="F27" s="3">
+        <f>SUM(B27:E27)</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="14">
+        <v>73.238</v>
+      </c>
+      <c r="C30" s="14">
+        <v>26.762</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="3">
+        <f>20*B30</f>
+        <v>1464.76</v>
+      </c>
+      <c r="C31" s="3">
+        <f>20*C30</f>
+        <v>535.24</v>
+      </c>
+      <c r="D31" s="3">
+        <f>SUM(B31:C31)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>341</v>
+      </c>
+      <c r="B32" s="3">
+        <f>B31*2218/2000</f>
+        <v>1624.41884</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" ref="C32:D32" si="10">C31*2218/2000</f>
+        <v>593.58116000000007</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="10"/>
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B33" s="3">
+        <f>1.1*B32</f>
+        <v>1786.8607240000001</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" ref="C33:D33" si="11">1.1*C32</f>
+        <v>652.93927600000018</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="11"/>
+        <v>2439.8000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
         <v>30</v>
       </c>
-      <c r="B29">
+      <c r="B34" s="3">
+        <v>1437</v>
+      </c>
+      <c r="C34" s="3">
+        <v>556</v>
+      </c>
+      <c r="D34" s="3">
+        <f>SUM(B34:C34)</f>
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>60.1</v>
+      </c>
+      <c r="C37">
+        <v>18.5</v>
+      </c>
+      <c r="D37">
+        <v>13.4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38">
+        <f>B37*20</f>
+        <v>1202</v>
+      </c>
+      <c r="C38">
+        <f>C37*20</f>
+        <v>370</v>
+      </c>
+      <c r="D38">
+        <f>D37*20</f>
+        <v>268</v>
+      </c>
+      <c r="E38">
+        <f>SUM(B38:D38)</f>
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>341</v>
+      </c>
+      <c r="B39" s="3">
+        <f>B38*2218/2000</f>
+        <v>1333.018</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" ref="C39:E39" si="12">C38*2218/2000</f>
+        <v>410.33</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="12"/>
+        <v>297.21199999999999</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="12"/>
+        <v>2040.56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>342</v>
+      </c>
+      <c r="B40" s="3">
+        <f>1.1*B39</f>
+        <v>1466.3198000000002</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" ref="C40:E40" si="13">1.1*C39</f>
+        <v>451.363</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="13"/>
+        <v>326.9332</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="13"/>
+        <v>2244.616</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41">
         <v>1539</v>
       </c>
-      <c r="C29">
+      <c r="C41">
         <v>100</v>
       </c>
-      <c r="D29">
+      <c r="D41">
         <v>182</v>
       </c>
-      <c r="E29">
-        <f>SUM(B29:D29)</f>
+      <c r="E41">
+        <f>SUM(B41:D41)</f>
         <v>1821</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="D22" r:id="rId2" display="https://www.ers.usda.gov/data-products/rural-urban-commuting-area-codes/"/>
+    <hyperlink ref="D30" r:id="rId2" display="https://www.ers.usda.gov/data-products/rural-urban-commuting-area-codes/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4370,9 +4864,9 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -4386,7 +4880,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4407,7 +4901,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+    <row r="3" spans="1:7" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -4428,7 +4922,7 @@
         <v>0.95217958067188335</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27" thickBot="1">
+    <row r="4" spans="1:7" ht="26.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -4447,8 +4941,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1">
+    <row r="6" spans="1:7" ht="15" thickBot="1"/>
+    <row r="7" spans="1:7" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -4469,7 +4963,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1">
+    <row r="8" spans="1:7" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -4493,7 +4987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1">
+    <row r="9" spans="1:7" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -4522,7 +5016,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" thickBot="1">
+    <row r="10" spans="1:7" ht="26.5" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4562,7 +5056,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1">
+    <row r="14" spans="1:7" ht="15" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -4585,7 +5079,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
+    <row r="15" spans="1:7" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -4609,7 +5103,7 @@
         <v>0.99999999999999933</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+    <row r="16" spans="1:7" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -4638,7 +5132,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27" thickBot="1">
+    <row r="17" spans="1:10" ht="26.5" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4682,8 +5176,8 @@
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="21" spans="1:10" ht="27" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1"/>
+    <row r="21" spans="1:10" ht="26.5" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -4695,7 +5189,7 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -4710,7 +5204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -4727,7 +5221,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="27" thickBot="1">
+    <row r="24" spans="1:10" ht="26.5" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -4763,9 +5257,9 @@
       <selection activeCell="B17" sqref="B17:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -4779,7 +5273,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4800,7 +5294,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -4821,7 +5315,7 @@
         <v>1.0341140064832992</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="26.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -4840,8 +5334,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -4862,7 +5356,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -4886,7 +5380,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -4915,7 +5409,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="26.5" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -4955,7 +5449,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="27" thickBot="1">
+    <row r="13" spans="1:10" ht="26.5" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -4978,7 +5472,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+    <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -5008,7 +5502,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -5043,7 +5537,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>320</v>
       </c>
@@ -5067,7 +5561,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27" thickBot="1">
+    <row r="17" spans="1:9" ht="26.5" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5096,7 +5590,7 @@
         <v>2217</v>
       </c>
       <c r="I17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5108,24 +5602,24 @@
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="27" thickBot="1">
+    <row r="23" spans="1:9" ht="26.5" thickBot="1">
       <c r="A23" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="C23" s="18" t="s">
+      <c r="D23" s="18" t="s">
         <v>336</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>337</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1">
+    <row r="24" spans="1:9" ht="15" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -5143,7 +5637,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1">
+    <row r="25" spans="1:9" ht="15" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -5167,10 +5661,10 @@
         <v>140</v>
       </c>
       <c r="H25" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="27" thickBot="1">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="26.5" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>12</v>
       </c>
@@ -5191,10 +5685,10 @@
         <v>2200</v>
       </c>
       <c r="H26" t="s">
+        <v>338</v>
+      </c>
+      <c r="I26" t="s">
         <v>339</v>
-      </c>
-      <c r="I26" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -5208,10 +5702,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="40" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15" thickBot="1">
       <c r="A33" s="13" t="s">
         <v>76</v>
       </c>
@@ -5222,7 +5716,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1">
+    <row r="34" spans="1:9" ht="15" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>10</v>
       </c>
@@ -5243,7 +5737,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1">
+    <row r="35" spans="1:9" ht="15" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>11</v>
       </c>
@@ -5260,7 +5754,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="27" thickBot="1">
+    <row r="36" spans="1:9" ht="26.5" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>12</v>
       </c>
@@ -5391,18 +5885,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -5417,7 +5911,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="27" thickBot="1">
+    <row r="2" spans="1:11" ht="26.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -5439,7 +5933,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -5461,7 +5955,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="27" thickBot="1">
+    <row r="4" spans="1:11" ht="26.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -5502,7 +5996,7 @@
       <c r="G6" s="24"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="7" spans="1:11" ht="15" thickBot="1">
       <c r="A7" s="9"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -5512,7 +6006,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1">
+    <row r="8" spans="1:11" ht="15" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -5534,7 +6028,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:11" ht="27" thickBot="1">
+    <row r="9" spans="1:11" ht="26.5" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -5559,7 +6053,7 @@
       </c>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1">
+    <row r="10" spans="1:11" ht="15" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -5589,7 +6083,7 @@
       </c>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:11" ht="27" thickBot="1">
+    <row r="11" spans="1:11" ht="26.5" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -5634,7 +6128,7 @@
     <row r="13" spans="1:11">
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:11" ht="65.25" thickBot="1">
+    <row r="14" spans="1:11" ht="64" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -5659,7 +6153,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="27" thickBot="1">
+    <row r="15" spans="1:11" ht="26.5" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -5683,7 +6177,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -5715,7 +6209,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="27" thickBot="1">
+    <row r="17" spans="1:12" ht="26.5" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5784,7 +6278,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="27" thickBot="1">
+    <row r="21" spans="1:12" ht="26.5" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>218</v>
       </c>
@@ -5800,7 +6294,7 @@
       <c r="G21" s="29"/>
       <c r="H21" s="25"/>
     </row>
-    <row r="22" spans="1:12" ht="27" thickBot="1">
+    <row r="22" spans="1:12" ht="26.5" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -5819,7 +6313,7 @@
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1">
+    <row r="23" spans="1:12" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -5839,7 +6333,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:12" ht="27" thickBot="1">
+    <row r="24" spans="1:12" ht="26.5" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -5885,7 +6379,7 @@
       <c r="E27" s="11"/>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="1:12" ht="27" thickBot="1">
+    <row r="28" spans="1:12" ht="26.5" thickBot="1">
       <c r="A28" s="9" t="s">
         <v>218</v>
       </c>
@@ -5909,7 +6403,7 @@
       </c>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="1:12" ht="27" thickBot="1">
+    <row r="29" spans="1:12" ht="26.5" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
@@ -5936,7 +6430,7 @@
         <v>0.99989215000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1">
+    <row r="30" spans="1:12" ht="15" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
@@ -5969,7 +6463,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="27" thickBot="1">
+    <row r="31" spans="1:12" ht="26.5" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
@@ -6065,9 +6559,9 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -6081,7 +6575,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="27" thickBot="1">
+    <row r="2" spans="1:11" ht="26.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -6102,7 +6596,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -6123,7 +6617,7 @@
         <v>0.99792841994678028</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27.75" thickBot="1">
+    <row r="4" spans="1:11" ht="27.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -6142,8 +6636,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="34"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="15" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -6164,7 +6658,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="27" thickBot="1">
+    <row r="8" spans="1:11" ht="26.5" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -6188,7 +6682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+    <row r="9" spans="1:11" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -6217,7 +6711,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" thickBot="1">
+    <row r="10" spans="1:11" ht="26.5" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -6257,7 +6751,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="27" thickBot="1">
+    <row r="14" spans="1:11" ht="26.5" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -6286,7 +6780,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="27" thickBot="1">
+    <row r="15" spans="1:11" ht="26.5" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -6316,7 +6810,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -6351,7 +6845,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27" thickBot="1">
+    <row r="17" spans="1:11" ht="26.5" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -6406,8 +6900,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="23" spans="1:11" ht="27" thickBot="1">
+    <row r="22" spans="1:11" ht="15" thickBot="1"/>
+    <row r="23" spans="1:11" ht="26.5" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -6420,7 +6914,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="27" thickBot="1">
+    <row r="24" spans="1:11" ht="26.5" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -6442,7 +6936,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1">
+    <row r="25" spans="1:11" ht="15" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -6466,7 +6960,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="39.75" thickBot="1">
+    <row r="26" spans="1:11" ht="39" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>89</v>
       </c>
@@ -6498,9 +6992,9 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -6514,7 +7008,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+    <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -6535,7 +7029,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -6556,7 +7050,7 @@
         <v>0.97760081385085629</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27" thickBot="1">
+    <row r="4" spans="1:11" ht="26.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -6575,8 +7069,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="15" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -6597,7 +7091,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1">
+    <row r="8" spans="1:11" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -6621,7 +7115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+    <row r="9" spans="1:11" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -6650,7 +7144,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" thickBot="1">
+    <row r="10" spans="1:11" ht="26.5" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -6690,7 +7184,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
+    <row r="14" spans="1:11" ht="15" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -6713,7 +7207,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1">
+    <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -6743,7 +7237,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -6778,7 +7272,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27" thickBot="1">
+    <row r="17" spans="1:11" ht="26.5" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -6828,8 +7322,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="22" spans="1:11" ht="27" thickBot="1">
+    <row r="21" spans="1:11" ht="15" thickBot="1"/>
+    <row r="22" spans="1:11" ht="26.5" thickBot="1">
       <c r="A22" s="9" t="s">
         <v>85</v>
       </c>
@@ -6842,7 +7336,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+    <row r="23" spans="1:11" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -6864,7 +7358,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1">
+    <row r="24" spans="1:11" ht="15" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
@@ -6891,7 +7385,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="39.75" thickBot="1">
+    <row r="25" spans="1:11" ht="39" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>89</v>
       </c>
@@ -6916,15 +7410,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D23" sqref="A20:D23"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -6938,7 +7435,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -6958,7 +7455,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -6977,350 +7474,444 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="B4" s="8">
-        <f>ROUND(2200*B2,0)</f>
-        <v>1116</v>
+        <f>B3*2249/2000</f>
+        <v>1141.3675000000001</v>
       </c>
       <c r="C4" s="8">
-        <f>ROUND(2200*C2,0)</f>
-        <v>1084</v>
+        <f t="shared" ref="C4:D4" si="0">C3*2249/2000</f>
+        <v>1107.6324999999999</v>
       </c>
       <c r="D4" s="8">
-        <f>ROUND(2200*D2,0)</f>
-        <v>2200</v>
+        <f t="shared" si="0"/>
+        <v>2249</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A7" s="9" t="s">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
+      <c r="A5" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" s="8">
+        <f>ROUND(2249*1.1*B2,0)</f>
+        <v>1255</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" ref="C5:D5" si="1">ROUND(2249*1.1*C2,0)</f>
+        <v>1219</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="1"/>
+        <v>2474</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1"/>
+    <row r="8" spans="1:10" ht="15" thickBot="1">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A8" s="5" t="s">
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B9" s="6">
         <v>0.10402815988780871</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="6">
         <v>0.17502163559091188</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="6">
         <v>0.24488811098766669</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="6">
         <v>0.25292269475436224</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="6">
         <v>0.22313939877924996</v>
       </c>
-      <c r="G8" s="7">
-        <f>SUM(B8:F8)</f>
+      <c r="G9" s="7">
+        <f>SUM(B9:F9)</f>
         <v>0.99999999999999944</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8">
-        <f t="shared" ref="B9:G9" si="0">ROUND(2000*B8,0)</f>
+      <c r="B10" s="8">
+        <f t="shared" ref="B10:G10" si="2">ROUND(2000*B9,0)</f>
         <v>208</v>
       </c>
-      <c r="C9" s="8">
-        <f t="shared" si="0"/>
+      <c r="C10" s="8">
+        <f t="shared" si="2"/>
         <v>350</v>
       </c>
-      <c r="D9" s="8">
-        <f t="shared" si="0"/>
+      <c r="D10" s="8">
+        <f t="shared" si="2"/>
         <v>490</v>
       </c>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
+      <c r="E10" s="8">
+        <f t="shared" si="2"/>
         <v>506</v>
       </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
         <v>446</v>
       </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
+      <c r="G10" s="8">
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8">
-        <f t="shared" ref="B10:G10" si="1">ROUND(2200*B8,0)</f>
-        <v>229</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" si="1"/>
-        <v>385</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" si="1"/>
-        <v>539</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="1"/>
-        <v>556</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="1"/>
-        <v>491</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="1"/>
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
+      <c r="A11" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="8">
+        <f>B10*2249/2000</f>
+        <v>233.89599999999999</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" ref="C11:G11" si="3">C10*2249/2000</f>
+        <v>393.57499999999999</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="3"/>
+        <v>551.005</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="3"/>
+        <v>568.99699999999996</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="3"/>
+        <v>501.52699999999999</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="3"/>
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1">
+      <c r="A12" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" s="8">
+        <f>ROUND(2249*1.1*B9,0)</f>
+        <v>257</v>
+      </c>
+      <c r="C12" s="8">
+        <f>ROUND(2249*1.1*C9,0)</f>
+        <v>433</v>
+      </c>
+      <c r="D12" s="8">
+        <f>ROUND(2249*1.1*D9,0)</f>
+        <v>606</v>
+      </c>
+      <c r="E12" s="8">
+        <f>ROUND(2249*1.1*E9,0)</f>
+        <v>626</v>
+      </c>
+      <c r="F12" s="8">
+        <f>ROUND(2249*1.1*F9,0)</f>
+        <v>552</v>
+      </c>
+      <c r="G12" s="8">
+        <f>ROUND(2249*1.1*G9,0)</f>
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A14" s="9" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickBot="1">
+      <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B16" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C16" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D16" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E16" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F16" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G16" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I16" t="s">
         <v>48</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J16" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A15" s="5" t="s">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
+      <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>0.25286894787704101</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>6.7500838497375801E-2</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <v>0.38909366153470298</v>
       </c>
-      <c r="E15">
+      <c r="E17">
         <v>0.22614691528820399</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <v>6.4389636802676301E-2</v>
       </c>
-      <c r="G15" s="17">
-        <f>SUM(B15:F15)</f>
+      <c r="G17" s="17">
+        <f>SUM(B17:F17)</f>
         <v>1</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I17" t="s">
         <v>111</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J17" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A16" s="5" t="s">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
+      <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="10">
-        <f>ROUND(2000*B15,0)</f>
+      <c r="B18" s="10">
+        <f>ROUND(2000*B17,0)</f>
         <v>506</v>
       </c>
-      <c r="C16" s="10">
-        <f>ROUND(2000*C15,0)</f>
+      <c r="C18" s="10">
+        <f>ROUND(2000*C17,0)</f>
         <v>135</v>
       </c>
-      <c r="D16" s="10">
-        <f>ROUND(2000*D15,0)</f>
+      <c r="D18" s="10">
+        <f>ROUND(2000*D17,0)</f>
         <v>778</v>
       </c>
-      <c r="E16" s="10">
-        <f>ROUND(2000*E15,0)</f>
+      <c r="E18" s="10">
+        <f>ROUND(2000*E17,0)</f>
         <v>452</v>
       </c>
-      <c r="F16" s="10">
-        <f>ROUND(2000*F15,0)</f>
+      <c r="F18" s="10">
+        <f>ROUND(2000*F17,0)</f>
         <v>129</v>
       </c>
-      <c r="G16" s="3">
-        <f>SUM(B16:F16)</f>
+      <c r="G18" s="3">
+        <f>SUM(B18:F18)</f>
         <v>2000</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I18" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27" thickBot="1">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2">
-        <f>ROUND(2200*B15,0)</f>
-        <v>556</v>
-      </c>
-      <c r="C17" s="2">
-        <f>ROUND(2200*C15,0)</f>
-        <v>149</v>
-      </c>
-      <c r="D17" s="2">
-        <f>ROUND(2200*D15,0)</f>
-        <v>856</v>
-      </c>
-      <c r="E17" s="2">
-        <f>ROUND(2200*E15,0)</f>
-        <v>498</v>
-      </c>
-      <c r="F17" s="2">
-        <f>ROUND(2200*F15,0)</f>
-        <v>142</v>
-      </c>
-      <c r="G17" s="3">
-        <f>SUM(B17:F17)</f>
-        <v>2201</v>
-      </c>
-      <c r="I17" t="s">
+    <row r="19" spans="1:10" ht="26.5" thickBot="1">
+      <c r="A19" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B19" s="10">
+        <f>B18*2249/2000</f>
+        <v>568.99699999999996</v>
+      </c>
+      <c r="C19" s="10">
+        <f t="shared" ref="C19:G19" si="4">C18*2249/2000</f>
+        <v>151.8075</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="4"/>
+        <v>874.86099999999999</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="4"/>
+        <v>508.274</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="4"/>
+        <v>145.06049999999999</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="4"/>
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickBot="1">
+      <c r="A20" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B20" s="2">
+        <f>ROUND(2249*1.1*B17,0)</f>
+        <v>626</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" ref="C20:G20" si="5">ROUND(2249*1.1*C17,0)</f>
+        <v>167</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="5"/>
+        <v>963</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="5"/>
+        <v>559</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="5"/>
+        <v>159</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="5"/>
+        <v>2474</v>
+      </c>
+      <c r="I20" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="9" t="s">
+    <row r="21" spans="1:10">
+      <c r="A21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="11"/>
-      <c r="I18" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="11"/>
+      <c r="I21" t="s">
         <v>256</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J21" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
-      <c r="I19" t="s">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
+      <c r="I22" t="s">
         <v>234</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J22" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="27" thickBot="1">
-      <c r="A20" s="9" t="s">
+    <row r="23" spans="1:10" ht="26.5" thickBot="1">
+      <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B23" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A21" s="5" t="s">
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" thickBot="1">
+      <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B24" s="6">
         <v>0.16700000000000001</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C24" s="6">
         <v>0.83299999999999996</v>
       </c>
-      <c r="D21" s="6">
-        <f>SUM(B21:C21)</f>
+      <c r="D24" s="6">
+        <f>SUM(B24:C24)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A22" s="5" t="s">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
+      <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="8">
-        <f t="shared" ref="B22:C22" si="2">ROUND(2000*B21,0)</f>
+      <c r="B25" s="8">
+        <f t="shared" ref="B25:C25" si="6">ROUND(2000*B24,0)</f>
         <v>334</v>
       </c>
-      <c r="C22" s="8">
-        <f t="shared" si="2"/>
+      <c r="C25" s="8">
+        <f t="shared" si="6"/>
         <v>1666</v>
       </c>
-      <c r="D22" s="8">
-        <f>SUM(B22:C22)</f>
+      <c r="D25" s="8">
+        <f>SUM(B25:C25)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="27" thickBot="1">
-      <c r="A23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="10">
-        <f>ROUND(2200*B21,0)</f>
-        <v>367</v>
-      </c>
-      <c r="C23" s="10">
-        <f t="shared" ref="C23" si="3">ROUND(2200*C21,0)</f>
-        <v>1833</v>
-      </c>
-      <c r="D23" s="10">
-        <f>SUM(B23:C23)</f>
-        <v>2200</v>
-      </c>
-      <c r="I23" t="s">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
+      <c r="A26" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B26" s="10">
+        <f>B25*2249/2000</f>
+        <v>375.58300000000003</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" ref="C26:D26" si="7">C25*2249/2000</f>
+        <v>1873.4169999999999</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="7"/>
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickBot="1">
+      <c r="A27" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B27" s="10">
+        <f>ROUND(2249*1.1*B24,0)</f>
+        <v>413</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" ref="C27:D27" si="8">ROUND(2249*1.1*C24,0)</f>
+        <v>2061</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="8"/>
+        <v>2474</v>
+      </c>
+      <c r="I27" t="s">
         <v>234</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J27" t="s">
         <v>296</v>
       </c>
     </row>
@@ -7337,9 +7928,9 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -7353,7 +7944,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -7373,7 +7964,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -7392,7 +7983,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="26.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -7411,8 +8002,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -7433,7 +8024,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -7457,7 +8048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -7486,7 +8077,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="26.5" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -7526,7 +8117,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+    <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -7552,7 +8143,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -7579,7 +8170,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -7610,7 +8201,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27" thickBot="1">
+    <row r="17" spans="1:11" ht="26.5" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -7667,15 +8258,15 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1">
+    <row r="20" spans="1:11" ht="15" thickBot="1">
       <c r="I20" t="s">
         <v>131</v>
       </c>
       <c r="J20" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="27" thickBot="1">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="26.5" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -7687,7 +8278,7 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1">
+    <row r="22" spans="1:11" ht="15" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -7702,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+    <row r="23" spans="1:11" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -7719,7 +8310,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="27" thickBot="1">
+    <row r="24" spans="1:11" ht="26.5" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -7760,15 +8351,15 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -7783,7 +8374,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -7801,7 +8392,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+    <row r="3" spans="1:7" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -7821,7 +8412,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="27" thickBot="1">
+    <row r="4" spans="1:7" ht="15" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -7852,7 +8443,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1">
+    <row r="6" spans="1:7" ht="15" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -7861,7 +8452,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1">
+    <row r="7" spans="1:7" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -7882,7 +8473,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1">
+    <row r="8" spans="1:7" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -7906,7 +8497,7 @@
         <v>1.0001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1">
+    <row r="9" spans="1:7" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -7935,7 +8526,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" thickBot="1">
+    <row r="10" spans="1:7" ht="15" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -7964,8 +8555,8 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1">
+    <row r="11" spans="1:7" ht="15" thickBot="1"/>
+    <row r="12" spans="1:7" ht="15" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -7983,7 +8574,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1">
+    <row r="13" spans="1:7" ht="15" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -8003,7 +8594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1">
+    <row r="14" spans="1:7" ht="15" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -8028,7 +8619,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="27" thickBot="1">
+    <row r="15" spans="1:7" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -8058,7 +8649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="27" thickBot="1">
+    <row r="18" spans="1:7" ht="15" thickBot="1">
       <c r="A18" s="9" t="s">
         <v>13</v>
       </c>
@@ -8078,7 +8669,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1">
+    <row r="19" spans="1:7" ht="15" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
@@ -8102,7 +8693,7 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1">
+    <row r="20" spans="1:7" ht="15" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -8131,7 +8722,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="27" thickBot="1">
+    <row r="21" spans="1:7" ht="15" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
@@ -8169,7 +8760,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1">
+    <row r="24" spans="1:7" ht="15" thickBot="1">
       <c r="A24" s="13" t="s">
         <v>76</v>
       </c>
@@ -8180,7 +8771,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1">
+    <row r="25" spans="1:7" ht="15" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
@@ -8195,7 +8786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1">
+    <row r="26" spans="1:7" ht="15" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -8212,7 +8803,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27" thickBot="1">
+    <row r="27" spans="1:7" ht="15" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
@@ -8247,15 +8838,15 @@
       <selection activeCell="A26" sqref="A26:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
@@ -8281,7 +8872,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+    <row r="2" spans="1:12" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -8314,7 +8905,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1">
+    <row r="3" spans="1:12" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -8348,7 +8939,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1">
+    <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -8398,7 +8989,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="0.6" customHeight="1">
+    <row r="6" spans="1:12" ht="0.65" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -8412,14 +9003,14 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+    <row r="7" spans="1:12" ht="15" thickBot="1">
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+    <row r="8" spans="1:12" ht="15" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -8439,7 +9030,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1">
+    <row r="9" spans="1:12" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -8462,7 +9053,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1">
+    <row r="10" spans="1:12" ht="15" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -8487,7 +9078,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1">
+    <row r="11" spans="1:12" ht="15" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -8528,7 +9119,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+    <row r="13" spans="1:12" ht="15" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -8542,7 +9133,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1">
+    <row r="14" spans="1:12" ht="15" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
@@ -8568,7 +9159,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1">
+    <row r="15" spans="1:12" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -8597,7 +9188,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1">
+    <row r="16" spans="1:12" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -8631,7 +9222,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1">
+    <row r="17" spans="1:12" ht="15" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -8681,7 +9272,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+    <row r="19" spans="1:12" ht="15" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -8695,7 +9286,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="27" thickBot="1">
+    <row r="20" spans="1:12" ht="26.5" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
@@ -8719,7 +9310,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+    <row r="21" spans="1:12" ht="15" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -8745,7 +9336,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1">
+    <row r="22" spans="1:12" ht="15" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -8776,7 +9367,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1">
+    <row r="23" spans="1:12" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -8807,7 +9398,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1">
+    <row r="24" spans="1:12" ht="15" thickBot="1">
       <c r="A24" s="9" t="s">
         <v>30</v>
       </c>
@@ -8817,7 +9408,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+    <row r="25" spans="1:12" ht="15" thickBot="1">
       <c r="A25" s="5"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -8842,7 +9433,7 @@
       <c r="F26" s="12"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1">
+    <row r="27" spans="1:12" ht="15" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
@@ -8861,7 +9452,7 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="15" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
@@ -8883,7 +9474,7 @@
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1">
+    <row r="29" spans="1:12" ht="15" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>88</v>
       </c>
@@ -8902,7 +9493,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1">
+    <row r="30" spans="1:12" ht="15" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>87</v>
       </c>
@@ -8924,7 +9515,7 @@
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:12" ht="27" thickBot="1">
+    <row r="31" spans="1:12" ht="26.5" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>89</v>
       </c>
@@ -8957,12 +9548,12 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1">
+    <row r="36" spans="1:10" ht="15" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="27" thickBot="1">
+    <row r="37" spans="1:10" ht="26.5" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>1</v>
       </c>
@@ -8992,7 +9583,7 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1">
+    <row r="38" spans="1:10" ht="15" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
@@ -9025,7 +9616,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1">
+    <row r="39" spans="1:10" ht="15" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
@@ -9066,7 +9657,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1">
+    <row r="40" spans="1:10" ht="15" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>12</v>
       </c>
@@ -9133,12 +9724,12 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1">
+    <row r="43" spans="1:10" ht="15" thickBot="1">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1">
+    <row r="44" spans="1:10" ht="15" thickBot="1">
       <c r="A44" s="9" t="s">
         <v>64</v>
       </c>
@@ -9159,7 +9750,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1">
+    <row r="45" spans="1:10" ht="15" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>10</v>
       </c>
@@ -9183,7 +9774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1">
+    <row r="46" spans="1:10" ht="15" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>11</v>
       </c>
@@ -9212,7 +9803,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1">
+    <row r="47" spans="1:10" ht="15" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>12</v>
       </c>
@@ -9275,9 +9866,9 @@
       <selection activeCell="H26" sqref="A20:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -9291,7 +9882,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="27" thickBot="1">
+    <row r="2" spans="1:11" ht="26.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -9312,7 +9903,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -9333,7 +9924,7 @@
         <v>0.95277529961698948</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27" thickBot="1">
+    <row r="4" spans="1:11" ht="26.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -9352,8 +9943,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="15" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -9374,7 +9965,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="27" thickBot="1">
+    <row r="8" spans="1:11" ht="26.5" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -9398,7 +9989,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+    <row r="9" spans="1:11" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -9427,7 +10018,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" thickBot="1">
+    <row r="10" spans="1:11" ht="26.5" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -9467,7 +10058,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="27" thickBot="1">
+    <row r="13" spans="1:11" ht="26.5" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -9493,7 +10084,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="27" thickBot="1">
+    <row r="14" spans="1:11" ht="26.5" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -9523,7 +10114,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1">
+    <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -9558,7 +10149,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="27" thickBot="1">
+    <row r="16" spans="1:11" ht="26.5" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -9608,7 +10199,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75">
+    <row r="19" spans="1:11" ht="15.5">
       <c r="J19" t="s">
         <v>234</v>
       </c>
@@ -9616,7 +10207,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1">
+    <row r="20" spans="1:11" ht="15" thickBot="1">
       <c r="A20" s="13" t="s">
         <v>76</v>
       </c>
@@ -9630,7 +10221,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="27" thickBot="1">
+    <row r="21" spans="1:11" ht="26.5" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -9648,7 +10239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1">
+    <row r="22" spans="1:11" ht="15" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -9675,7 +10266,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="27" thickBot="1">
+    <row r="23" spans="1:11" ht="26.5" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -9717,15 +10308,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -9739,7 +10333,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="27" thickBot="1">
+    <row r="2" spans="1:10" ht="26.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -9760,7 +10354,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -9781,459 +10375,557 @@
         <v>0.90805800128462044</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="B4" s="8">
-        <f>ROUND(2200*B2,0)</f>
-        <v>1153</v>
+        <f>2238*B2</f>
+        <v>1172.9203192425191</v>
       </c>
       <c r="C4" s="8">
-        <f>ROUND(2200*C2,0)</f>
-        <v>1047</v>
+        <f t="shared" ref="C4:D4" si="0">2238*C2</f>
+        <v>1065.0796807574809</v>
       </c>
       <c r="D4" s="8">
-        <f>ROUND(2200*D2,0)</f>
-        <v>2200</v>
+        <f t="shared" si="0"/>
+        <v>2238</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A7" s="9" t="s">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
+      <c r="A5" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" s="8">
+        <f>ROUND(2238*1.1*B2,0)</f>
+        <v>1290</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" ref="C5:D5" si="1">ROUND(2238*1.1*C2,0)</f>
+        <v>1172</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="1"/>
+        <v>2462</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1"/>
+    <row r="8" spans="1:10" ht="15" thickBot="1">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="27" thickBot="1">
-      <c r="A8" s="5" t="s">
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="26.5" thickBot="1">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B9" s="6">
         <v>7.9952779995488915E-2</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="6">
         <v>0.12237462522799993</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="6">
         <v>0.24164701853283579</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="6">
         <v>0.27065084873707446</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="6">
         <v>0.28537472750660098</v>
       </c>
-      <c r="G8" s="7">
-        <f>SUM(B8:F8)</f>
+      <c r="G9" s="7">
+        <f>SUM(B9:F9)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8">
-        <f t="shared" ref="B9:G9" si="0">ROUND(2000*B8,0)</f>
+      <c r="B10" s="8">
+        <f t="shared" ref="B10:G10" si="2">ROUND(2000*B9,0)</f>
         <v>160</v>
       </c>
-      <c r="C9" s="8">
-        <f t="shared" si="0"/>
+      <c r="C10" s="8">
+        <f t="shared" si="2"/>
         <v>245</v>
       </c>
-      <c r="D9" s="8">
-        <f t="shared" si="0"/>
+      <c r="D10" s="8">
+        <f t="shared" si="2"/>
         <v>483</v>
       </c>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
+      <c r="E10" s="8">
+        <f t="shared" si="2"/>
         <v>541</v>
       </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
         <v>571</v>
       </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
+      <c r="G10" s="8">
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8">
-        <f t="shared" ref="B10:G10" si="1">ROUND(2200*B8,0)</f>
-        <v>176</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" si="1"/>
-        <v>269</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" si="1"/>
+    <row r="11" spans="1:10" ht="15" thickBot="1">
+      <c r="A11" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="8">
+        <f>2238*B9</f>
+        <v>178.93432162990419</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" ref="C11:G11" si="3">2238*C9</f>
+        <v>273.87441126026386</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="3"/>
+        <v>540.80602747648652</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="3"/>
+        <v>605.71659947357261</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="3"/>
+        <v>638.66864015977296</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="3"/>
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1">
+      <c r="A12" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B12" s="8">
+        <f>ROUND(2238*1.1*B9,0)</f>
+        <v>197</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" ref="C12:G12" si="4">ROUND(2238*1.1*C9,0)</f>
+        <v>301</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="4"/>
+        <v>595</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="4"/>
+        <v>666</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="4"/>
+        <v>703</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="4"/>
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="26.5" thickBot="1">
+      <c r="A15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="26.5" thickBot="1">
+      <c r="A16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="21">
+        <v>0.26589170000000001</v>
+      </c>
+      <c r="C16" s="21">
+        <v>0.1920481</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0.19711400000000001</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0.2339965</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0.1109497</v>
+      </c>
+      <c r="G16" s="17">
+        <f>SUM(B16:F16)</f>
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" thickBot="1">
+      <c r="A17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="10">
+        <f>ROUND(2000*B16,0)</f>
         <v>532</v>
       </c>
-      <c r="E10" s="8">
-        <f t="shared" si="1"/>
-        <v>595</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="1"/>
-        <v>628</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="1"/>
+      <c r="C17" s="10">
+        <f>ROUND(2000*C16,0)</f>
+        <v>384</v>
+      </c>
+      <c r="D17" s="10">
+        <f>ROUND(2000*D16,0)</f>
+        <v>394</v>
+      </c>
+      <c r="E17" s="10">
+        <f>ROUND(2000*E16,0)</f>
+        <v>468</v>
+      </c>
+      <c r="F17" s="10">
+        <f>ROUND(2000*F16,0)</f>
+        <v>222</v>
+      </c>
+      <c r="G17" s="3">
+        <f>SUM(B17:F17)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1">
+      <c r="A18" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B18" s="10">
+        <v>528</v>
+      </c>
+      <c r="C18" s="10">
+        <v>382</v>
+      </c>
+      <c r="D18" s="10">
+        <v>391</v>
+      </c>
+      <c r="E18" s="10">
+        <v>465</v>
+      </c>
+      <c r="F18" s="10">
+        <v>220</v>
+      </c>
+      <c r="G18" s="3">
+        <f>SUM(B18:F18)</f>
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1">
+      <c r="A19" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B19" s="10">
+        <f>2238*B16</f>
+        <v>595.06562459999998</v>
+      </c>
+      <c r="C19" s="10">
+        <f t="shared" ref="C19:G19" si="5">2238*C16</f>
+        <v>429.80364780000002</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="5"/>
+        <v>441.14113200000003</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="5"/>
+        <v>523.684167</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="5"/>
+        <v>248.3054286</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="5"/>
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" thickBot="1">
+      <c r="A20" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B20" s="2">
+        <f>ROUND(1.1*B19,0)</f>
+        <v>655</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" ref="C20:G20" si="6">ROUND(1.1*C19,0)</f>
+        <v>473</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="6"/>
+        <v>485</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="6"/>
+        <v>576</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="6"/>
+        <v>273</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="6"/>
+        <v>2462</v>
+      </c>
+      <c r="J20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="11"/>
+      <c r="J21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" thickBot="1"/>
+    <row r="23" spans="1:10" ht="39" thickBot="1">
+      <c r="A23" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" ht="26.5" thickBot="1">
+      <c r="A24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.34949580000000002</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.48005009999999998</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.1704541</v>
+      </c>
+      <c r="E24" s="7">
+        <f>SUM(B24:D24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" thickBot="1">
+      <c r="A25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="8">
+        <f t="shared" ref="B25:D25" si="7">ROUND(2000*B24,0)</f>
+        <v>699</v>
+      </c>
+      <c r="C25" s="8">
+        <f t="shared" si="7"/>
+        <v>960</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="7"/>
+        <v>341</v>
+      </c>
+      <c r="E25" s="20">
+        <f t="shared" ref="E25:E26" si="8">SUM(B25:D25)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="26.5" thickBot="1">
+      <c r="A26" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B26" s="10">
+        <v>693</v>
+      </c>
+      <c r="C26" s="10">
+        <v>955</v>
+      </c>
+      <c r="D26" s="10">
+        <v>338</v>
+      </c>
+      <c r="E26" s="20">
+        <f t="shared" si="8"/>
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickBot="1">
+      <c r="A27" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B27" s="10">
+        <f>2238*B24</f>
+        <v>782.1716004000001</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" ref="C27:E27" si="9">2238*C24</f>
+        <v>1074.3521237999998</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="9"/>
+        <v>381.4762758</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="9"/>
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="26.5" thickBot="1">
+      <c r="A28" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B28" s="10">
+        <f>ROUND(1.1*B27,0)</f>
+        <v>860</v>
+      </c>
+      <c r="C28" s="10">
+        <f t="shared" ref="C28:E28" si="10">ROUND(1.1*C27,0)</f>
+        <v>1182</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" si="10"/>
+        <v>420</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" si="10"/>
+        <v>2462</v>
+      </c>
+      <c r="H28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="H29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="36" customFormat="1" ht="15" thickBot="1">
+      <c r="A31" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="36" customFormat="1" ht="27" thickBot="1">
+      <c r="A32" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="36">
+        <v>0.4699139</v>
+      </c>
+      <c r="C32" s="36">
+        <v>0.5300861</v>
+      </c>
+      <c r="D32" s="38">
+        <f>SUM(B32:C32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="36" customFormat="1" ht="15" thickBot="1">
+      <c r="A33" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="36">
+        <f>ROUND(2000*B32,0)</f>
+        <v>940</v>
+      </c>
+      <c r="C33" s="36">
+        <f>ROUND(2000*C32,0)</f>
+        <v>1060</v>
+      </c>
+      <c r="D33" s="36">
+        <f>SUM(B33:C33)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="36" customFormat="1" ht="40" thickBot="1">
+      <c r="A34" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="B34" s="36">
+        <f>ROUND(2200*B32,0)</f>
+        <v>1034</v>
+      </c>
+      <c r="C34" s="36">
+        <f>ROUND(2200*C32,0)</f>
+        <v>1166</v>
+      </c>
+      <c r="D34" s="36">
+        <f>SUM(B34:C34)</f>
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="9" t="s">
+    <row r="35" spans="1:4" s="36" customFormat="1">
+      <c r="A35" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="13" spans="1:10" ht="27" thickBot="1">
-      <c r="A13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="27" thickBot="1">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="21">
-        <v>0.26589170000000001</v>
-      </c>
-      <c r="C14" s="21">
-        <v>0.1920481</v>
-      </c>
-      <c r="D14" s="21">
-        <v>0.19711400000000001</v>
-      </c>
-      <c r="E14" s="21">
-        <v>0.2339965</v>
-      </c>
-      <c r="F14" s="22">
-        <v>0.1109497</v>
-      </c>
-      <c r="G14" s="17">
-        <f>SUM(B14:F14)</f>
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="10">
-        <f>ROUND(2000*B14,0)</f>
-        <v>532</v>
-      </c>
-      <c r="C15" s="10">
-        <f>ROUND(2000*C14,0)</f>
-        <v>384</v>
-      </c>
-      <c r="D15" s="10">
-        <f>ROUND(2000*D14,0)</f>
-        <v>394</v>
-      </c>
-      <c r="E15" s="10">
-        <f>ROUND(2000*E14,0)</f>
-        <v>468</v>
-      </c>
-      <c r="F15" s="10">
-        <f>ROUND(2000*F14,0)</f>
-        <v>222</v>
-      </c>
-      <c r="G15" s="3">
-        <f>SUM(B15:F15)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="27" thickBot="1">
-      <c r="A16" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B16" s="10">
-        <v>528</v>
-      </c>
-      <c r="C16" s="10">
-        <v>382</v>
-      </c>
-      <c r="D16" s="10">
-        <v>391</v>
-      </c>
-      <c r="E16" s="10">
-        <v>465</v>
-      </c>
-      <c r="F16" s="10">
-        <v>220</v>
-      </c>
-      <c r="G16" s="3">
-        <f>SUM(B16:F16)</f>
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="39.75" thickBot="1">
-      <c r="A17" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B17" s="2">
-        <f>ROUND(1.1*B16,0)</f>
-        <v>581</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" ref="C17:G17" si="2">ROUND(1.1*C16,0)</f>
-        <v>420</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="2"/>
-        <v>430</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="2"/>
-        <v>512</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="2"/>
-        <v>242</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="2"/>
-        <v>2185</v>
-      </c>
-      <c r="J17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="11"/>
-      <c r="J18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:10" ht="39.75" thickBot="1">
-      <c r="A20" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:10" ht="27" thickBot="1">
-      <c r="A21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0.34949580000000002</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0.48005009999999998</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0.1704541</v>
-      </c>
-      <c r="E21" s="7">
-        <f>SUM(B21:D21)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="8">
-        <f t="shared" ref="B22:D22" si="3">ROUND(2000*B21,0)</f>
-        <v>699</v>
-      </c>
-      <c r="C22" s="8">
-        <f t="shared" si="3"/>
-        <v>960</v>
-      </c>
-      <c r="D22" s="8">
-        <f t="shared" si="3"/>
-        <v>341</v>
-      </c>
-      <c r="E22" s="20">
-        <f t="shared" ref="E22:E23" si="4">SUM(B22:D22)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="27" thickBot="1">
-      <c r="A23" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B23" s="10">
-        <v>693</v>
-      </c>
-      <c r="C23" s="10">
-        <v>955</v>
-      </c>
-      <c r="D23" s="10">
-        <v>338</v>
-      </c>
-      <c r="E23" s="20">
-        <f t="shared" si="4"/>
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="52.5" thickBot="1">
-      <c r="A24" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B24" s="10">
-        <f>ROUND(1.1*B23,0)</f>
-        <v>762</v>
-      </c>
-      <c r="C24" s="10">
-        <f t="shared" ref="C24:E24" si="5">ROUND(1.1*C23,0)</f>
-        <v>1051</v>
-      </c>
-      <c r="D24" s="10">
-        <f t="shared" si="5"/>
-        <v>372</v>
-      </c>
-      <c r="E24" s="10">
-        <f t="shared" si="5"/>
-        <v>2185</v>
-      </c>
-      <c r="H24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="H25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="36" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A27" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" s="36" customFormat="1" ht="27" thickBot="1">
-      <c r="A28" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="36">
-        <v>0.4699139</v>
-      </c>
-      <c r="C28" s="36">
-        <v>0.5300861</v>
-      </c>
-      <c r="D28" s="38">
-        <f>SUM(B28:C28)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="36" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A29" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="36">
-        <f>ROUND(2000*B28,0)</f>
-        <v>940</v>
-      </c>
-      <c r="C29" s="36">
-        <f>ROUND(2000*C28,0)</f>
-        <v>1060</v>
-      </c>
-      <c r="D29" s="36">
-        <f>SUM(B29:C29)</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="36" customFormat="1" ht="39.75" thickBot="1">
-      <c r="A30" s="37" t="s">
-        <v>321</v>
-      </c>
-      <c r="B30" s="36">
-        <f>ROUND(2200*B28,0)</f>
-        <v>1034</v>
-      </c>
-      <c r="C30" s="36">
-        <f>ROUND(2200*C28,0)</f>
-        <v>1166</v>
-      </c>
-      <c r="D30" s="36">
-        <f>SUM(B30:C30)</f>
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="36" customFormat="1">
-      <c r="A31" s="39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="36" customFormat="1"/>
+    </row>
+    <row r="36" spans="1:4" s="36" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10242,15 +10934,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -10264,7 +10959,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="27" thickBot="1">
+    <row r="2" spans="1:10" ht="26.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -10285,7 +10980,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -10306,382 +11001,478 @@
         <v>0.92622883301508352</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="B4" s="8">
-        <f>ROUND(2200*B2,0)</f>
-        <v>1142</v>
+        <f>2086*B2</f>
+        <v>1082.9450604447811</v>
       </c>
       <c r="C4" s="8">
-        <f>ROUND(2200*C2,0)</f>
-        <v>1058</v>
+        <f t="shared" ref="C4:D4" si="0">2086*C2</f>
+        <v>1003.0549395552188</v>
       </c>
       <c r="D4" s="8">
-        <f>ROUND(2200*D2,0)</f>
-        <v>2200</v>
+        <f t="shared" si="0"/>
+        <v>2086</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A7" s="9" t="s">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8">
+        <f>ROUND(2086*1.1*B2,0)</f>
+        <v>1191</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" ref="C5:D5" si="1">ROUND(2086*1.1*C2,0)</f>
+        <v>1103</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="1"/>
+        <v>2295</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1"/>
+    <row r="8" spans="1:10" ht="15" thickBot="1">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="27" thickBot="1">
-      <c r="A8" s="5" t="s">
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="26.5" thickBot="1">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B9" s="6">
         <v>7.7537574259398639E-2</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="6">
         <v>0.12102414349872047</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D9" s="6">
         <v>0.24363458605206709</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E9" s="6">
         <v>0.22420400944608818</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F9" s="6">
         <v>0.33359968674372587</v>
       </c>
-      <c r="G8" s="7">
-        <f>SUM(B8:F8)</f>
+      <c r="G9" s="7">
+        <f>SUM(B9:F9)</f>
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8">
-        <f t="shared" ref="B9:G9" si="0">ROUND(2000*B8,0)</f>
+      <c r="B10" s="8">
+        <f t="shared" ref="B10:G10" si="2">ROUND(2000*B9,0)</f>
         <v>155</v>
       </c>
-      <c r="C9" s="8">
-        <f t="shared" si="0"/>
+      <c r="C10" s="8">
+        <f t="shared" si="2"/>
         <v>242</v>
       </c>
-      <c r="D9" s="8">
-        <f t="shared" si="0"/>
+      <c r="D10" s="8">
+        <f t="shared" si="2"/>
         <v>487</v>
       </c>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
+      <c r="E10" s="8">
+        <f t="shared" si="2"/>
         <v>448</v>
       </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
+      <c r="F10" s="8">
+        <f t="shared" si="2"/>
         <v>667</v>
       </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
+      <c r="G10" s="8">
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="8">
-        <f t="shared" ref="B10:G10" si="1">ROUND(2200*B8,0)</f>
-        <v>171</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" si="1"/>
-        <v>266</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" si="1"/>
-        <v>536</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="1"/>
-        <v>493</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="1"/>
-        <v>734</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="1"/>
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
+      <c r="A11" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="8">
+        <f>2086*B9</f>
+        <v>161.74337990510557</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" ref="C11:G11" si="3">2086*C9</f>
+        <v>252.4563633383309</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="3"/>
+        <v>508.22174650461193</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="3"/>
+        <v>467.68956370453992</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="3"/>
+        <v>695.88894654741216</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="3"/>
+        <v>2086.0000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1">
+      <c r="A12" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B12" s="8">
+        <f>ROUND(2086*1.1*B9,0)</f>
+        <v>178</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" ref="C12:G12" si="4">ROUND(2086*1.1*C9,0)</f>
+        <v>278</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="4"/>
+        <v>559</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="4"/>
+        <v>514</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="4"/>
+        <v>765</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="4"/>
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A13" s="9" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1">
+      <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B15" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C15" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D15" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E15" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="29" t="s">
+      <c r="G15" s="29" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="27" thickBot="1">
-      <c r="A14" s="5" t="s">
+    <row r="16" spans="1:10" ht="26.5" thickBot="1">
+      <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14">
+      <c r="B16">
         <v>0.34599740763411402</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>0.176839093907908</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>0.109666596260914</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>0.167605083516045</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <v>0.19989181868101899</v>
       </c>
-      <c r="G14">
-        <f>SUM(B14:F14)</f>
+      <c r="G16">
+        <f>SUM(B16:F16)</f>
         <v>1</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I16" t="s">
         <v>133</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J16" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A15" s="5" t="s">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
+      <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="10">
-        <f>ROUND(2000*B14,0)</f>
+      <c r="B17" s="10">
+        <f>ROUND(2000*B16,0)</f>
         <v>692</v>
       </c>
-      <c r="C15" s="10">
-        <f>ROUND(2000*C14,0)</f>
+      <c r="C17" s="10">
+        <f>ROUND(2000*C16,0)</f>
         <v>354</v>
       </c>
-      <c r="D15" s="10">
-        <f>ROUND(2000*D14,0)</f>
+      <c r="D17" s="10">
+        <f>ROUND(2000*D16,0)</f>
         <v>219</v>
       </c>
-      <c r="E15" s="10">
-        <f>ROUND(2000*E14,0)</f>
+      <c r="E17" s="10">
+        <f>ROUND(2000*E16,0)</f>
         <v>335</v>
       </c>
-      <c r="F15" s="10">
-        <f>ROUND(2000*F14,0)</f>
+      <c r="F17" s="10">
+        <f>ROUND(2000*F16,0)</f>
         <v>400</v>
       </c>
-      <c r="G15" s="10">
-        <f>SUM(B15:F15)</f>
+      <c r="G17" s="10">
+        <f>SUM(B17:F17)</f>
         <v>2000</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I17" t="s">
         <v>47</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J17" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="27" thickBot="1">
-      <c r="A16" s="5" t="s">
+    <row r="18" spans="1:10" ht="26.5" thickBot="1">
+      <c r="A18" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B18" s="10">
         <v>691</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C18" s="10">
         <v>353</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D18" s="10">
         <v>218</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E18" s="10">
         <v>334</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F18" s="10">
         <v>399</v>
       </c>
-      <c r="G16" s="10">
-        <f>SUM(B16:F16)</f>
+      <c r="G18" s="10">
+        <f>SUM(B18:F18)</f>
         <v>1995</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="39.75" thickBot="1">
-      <c r="A17" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B17" s="2">
-        <f>ROUND(1.1*B16,0)</f>
-        <v>760</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" ref="C17:F17" si="2">ROUND(1.1*C16,0)</f>
-        <v>388</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="2"/>
-        <v>367</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="2"/>
-        <v>439</v>
-      </c>
-      <c r="G17" s="2">
-        <f>SUM(B17:F17)</f>
-        <v>2194</v>
-      </c>
-      <c r="I17" t="s">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
+      <c r="A19" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B19" s="10">
+        <f>2086*B16</f>
+        <v>721.7505923247619</v>
+      </c>
+      <c r="C19" s="10">
+        <f t="shared" ref="C19:H19" si="5">2086*C16</f>
+        <v>368.88634989189609</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="5"/>
+        <v>228.76451980026661</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="5"/>
+        <v>349.6242042144699</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="5"/>
+        <v>416.97433376860562</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="5"/>
+        <v>2086</v>
+      </c>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" ht="26.5" thickBot="1">
+      <c r="A20" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B20" s="2">
+        <f>ROUND(1.1*B19,0)</f>
+        <v>794</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" ref="C20:G20" si="6">ROUND(1.1*C19,0)</f>
+        <v>406</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="6"/>
+        <v>252</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="6"/>
+        <v>385</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="6"/>
+        <v>459</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="6"/>
+        <v>2295</v>
+      </c>
+      <c r="I20" t="s">
         <v>140</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="9" t="s">
+    <row r="21" spans="1:10">
+      <c r="A21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="11"/>
-      <c r="J18" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="11"/>
+      <c r="J21" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="21" spans="1:10" ht="27" thickBot="1">
-      <c r="A21" s="9" t="s">
+    <row r="23" spans="1:10" ht="15" thickBot="1"/>
+    <row r="24" spans="1:10" ht="26.5" thickBot="1">
+      <c r="A24" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B24" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:10" ht="27" thickBot="1">
-      <c r="A22" s="5" t="s">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" ht="26.5" thickBot="1">
+      <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B25" s="6">
         <v>0.30428880000000003</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C25" s="6">
         <v>0.69571119999999997</v>
       </c>
-      <c r="D22" s="6">
-        <f>SUM(B22:C22)</f>
+      <c r="D25" s="6">
+        <f>SUM(B25:C25)</f>
         <v>1</v>
       </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A23" s="5" t="s">
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" thickBot="1">
+      <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="8">
-        <f t="shared" ref="B23:C23" si="3">ROUND(2000*B22,0)</f>
+      <c r="B26" s="8">
+        <f t="shared" ref="B26:C26" si="7">ROUND(2000*B25,0)</f>
         <v>609</v>
       </c>
-      <c r="C23" s="8">
-        <f t="shared" si="3"/>
+      <c r="C26" s="8">
+        <f t="shared" si="7"/>
         <v>1391</v>
       </c>
-      <c r="D23" s="8">
-        <f>SUM(B23:C23)</f>
+      <c r="D26" s="8">
+        <f>SUM(B26:C26)</f>
         <v>2000</v>
       </c>
-      <c r="E23" s="20"/>
-    </row>
-    <row r="24" spans="1:10" ht="27" thickBot="1">
-      <c r="A24" s="5" t="s">
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" thickBot="1">
+      <c r="A27" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B27" s="10">
         <v>609</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C27" s="10">
         <v>1386</v>
       </c>
-      <c r="D24" s="8">
-        <f>SUM(B24:C24)</f>
+      <c r="D27" s="8">
+        <f>SUM(B27:C27)</f>
         <v>1995</v>
       </c>
-      <c r="E24" s="20"/>
-    </row>
-    <row r="25" spans="1:10" ht="52.5" thickBot="1">
-      <c r="A25" s="5" t="s">
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" thickBot="1">
+      <c r="A28" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B28" s="10">
+        <f>2086*B25</f>
+        <v>634.74643680000008</v>
+      </c>
+      <c r="C28" s="10">
+        <f t="shared" ref="C28:D28" si="8">2086*C25</f>
+        <v>1451.2535631999999</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" si="8"/>
+        <v>2086</v>
+      </c>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="1:10" ht="26.5" thickBot="1">
+      <c r="A29" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B29" s="10">
+        <f>ROUND(1.1*B28,0)</f>
+        <v>698</v>
+      </c>
+      <c r="C29" s="10">
+        <f t="shared" ref="C29:D29" si="9">ROUND(1.1*C28,0)</f>
+        <v>1596</v>
+      </c>
+      <c r="D29" s="10">
+        <f t="shared" si="9"/>
+        <v>2295</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="G29" t="s">
         <v>322</v>
-      </c>
-      <c r="B25" s="10">
-        <f>ROUND(1.1*B24,0)</f>
-        <v>670</v>
-      </c>
-      <c r="C25" s="10">
-        <f>ROUND(1.1*C24,0)</f>
-        <v>1525</v>
-      </c>
-      <c r="D25" s="10">
-        <f>SUM(B25:C25)</f>
-        <v>2195</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="G25" t="s">
-        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -10697,9 +11488,9 @@
       <selection activeCell="B22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -10713,7 +11504,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -10734,7 +11525,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -10755,7 +11546,7 @@
         <v>0.92970833595125124</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="26.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -10774,8 +11565,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -10796,7 +11587,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -10820,7 +11611,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -10849,7 +11640,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="26.5" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -10889,7 +11680,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="27" thickBot="1">
+    <row r="14" spans="1:10" ht="26.5" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -10918,7 +11709,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -10948,7 +11739,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -10983,7 +11774,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27" thickBot="1">
+    <row r="17" spans="1:10" ht="26.5" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -11041,7 +11832,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="13" t="s">
         <v>76</v>
       </c>
@@ -11055,7 +11846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -11073,7 +11864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -11100,7 +11891,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="27" thickBot="1">
+    <row r="24" spans="1:10" ht="26.5" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -11170,9 +11961,9 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+    <row r="1" spans="1:13" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -11186,7 +11977,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="27" thickBot="1">
+    <row r="2" spans="1:13" ht="26.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -11207,7 +11998,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+    <row r="3" spans="1:13" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -11228,7 +12019,7 @@
         <v>0.9267197256851698</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="27" thickBot="1">
+    <row r="4" spans="1:13" ht="26.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -11247,8 +12038,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1">
+    <row r="6" spans="1:13" ht="15" thickBot="1"/>
+    <row r="7" spans="1:13" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -11269,7 +12060,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:13" ht="27" thickBot="1">
+    <row r="8" spans="1:13" ht="26.5" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -11293,7 +12084,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1">
+    <row r="9" spans="1:13" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -11322,7 +12113,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="27" thickBot="1">
+    <row r="10" spans="1:13" ht="26.5" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -11362,7 +12153,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="27" thickBot="1">
+    <row r="13" spans="1:13" ht="26.5" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -11391,7 +12182,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="27" thickBot="1">
+    <row r="14" spans="1:13" ht="26.5" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -11422,7 +12213,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -11458,7 +12249,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="27" thickBot="1">
+    <row r="16" spans="1:13" ht="26.5" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>320</v>
       </c>
@@ -11489,7 +12280,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="39.75" thickBot="1">
+    <row r="17" spans="1:13" ht="39" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>321</v>
       </c>
@@ -11540,8 +12331,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="21" spans="1:13" ht="27" thickBot="1">
+    <row r="20" spans="1:13" ht="15" thickBot="1"/>
+    <row r="21" spans="1:13" ht="26.5" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -11553,10 +12344,10 @@
       </c>
       <c r="D21" s="12"/>
       <c r="G21" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="27" thickBot="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="26.5" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -11571,7 +12362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1">
+    <row r="23" spans="1:13" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -11588,7 +12379,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="39.75" thickBot="1">
+    <row r="24" spans="1:13" ht="39" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>89</v>
       </c>
@@ -11613,12 +12404,12 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1">
+    <row r="29" spans="1:13" ht="15" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="27" thickBot="1">
+    <row r="30" spans="1:13" ht="26.5" thickBot="1">
       <c r="A30" s="9" t="s">
         <v>85</v>
       </c>
@@ -11631,7 +12422,7 @@
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
     </row>
-    <row r="31" spans="1:13" ht="27" thickBot="1">
+    <row r="31" spans="1:13" ht="26.5" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>10</v>
       </c>
@@ -11647,7 +12438,7 @@
       </c>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1">
+    <row r="32" spans="1:13" ht="15" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>11</v>
       </c>
@@ -11665,7 +12456,7 @@
       </c>
       <c r="E32" s="20"/>
     </row>
-    <row r="33" spans="1:5" ht="39.75" thickBot="1">
+    <row r="33" spans="1:5" ht="39" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>89</v>
       </c>

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="25610" windowHeight="14480" tabRatio="916" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="25610" windowHeight="14480" tabRatio="916" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="quota_AU" sheetId="19" r:id="rId1"/>
@@ -2057,7 +2057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B27" sqref="B27:E27"/>
     </sheetView>
   </sheetViews>
@@ -2557,19 +2557,19 @@
       <c r="A27" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <f>2139*B25</f>
         <v>179.84478849000001</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <f t="shared" ref="C27:E27" si="8">2139*C25</f>
         <v>1062.5384105999999</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <f t="shared" si="8"/>
         <v>896.61682229999997</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <f t="shared" si="8"/>
         <v>2139.0000213899998</v>
       </c>
@@ -2627,8 +2627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:D28"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -3590,7 +3590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -10310,8 +10310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -10662,28 +10662,28 @@
         <v>341</v>
       </c>
       <c r="B19" s="10">
-        <f>2238*B16</f>
-        <v>595.06562459999998</v>
+        <f>2238*B16-4</f>
+        <v>591.06562459999998</v>
       </c>
       <c r="C19" s="10">
-        <f t="shared" ref="C19:G19" si="5">2238*C16</f>
-        <v>429.80364780000002</v>
+        <f>2238*C16-2</f>
+        <v>427.80364780000002</v>
       </c>
       <c r="D19" s="10">
-        <f t="shared" si="5"/>
-        <v>441.14113200000003</v>
+        <f>2238*D16-3</f>
+        <v>438.14113200000003</v>
       </c>
       <c r="E19" s="10">
-        <f t="shared" si="5"/>
-        <v>523.684167</v>
+        <f>2238*E16-3</f>
+        <v>520.684167</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="5"/>
-        <v>248.3054286</v>
+        <f>2238*F16-2</f>
+        <v>246.3054286</v>
       </c>
       <c r="G19" s="10">
-        <f t="shared" si="5"/>
-        <v>2238</v>
+        <f>2238*G16-14</f>
+        <v>2224</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" thickBot="1">
@@ -10692,27 +10692,27 @@
       </c>
       <c r="B20" s="2">
         <f>ROUND(1.1*B19,0)</f>
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" ref="C20:G20" si="6">ROUND(1.1*C19,0)</f>
-        <v>473</v>
+        <f t="shared" ref="C20:G20" si="5">ROUND(1.1*C19,0)</f>
+        <v>471</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="6"/>
-        <v>485</v>
+        <f t="shared" si="5"/>
+        <v>482</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="6"/>
-        <v>576</v>
+        <f t="shared" si="5"/>
+        <v>573</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="6"/>
-        <v>273</v>
+        <f t="shared" si="5"/>
+        <v>271</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="6"/>
-        <v>2462</v>
+        <f t="shared" si="5"/>
+        <v>2446</v>
       </c>
       <c r="J20" t="s">
         <v>116</v>
@@ -10769,19 +10769,19 @@
         <v>11</v>
       </c>
       <c r="B25" s="8">
-        <f t="shared" ref="B25:D25" si="7">ROUND(2000*B24,0)</f>
+        <f t="shared" ref="B25:D25" si="6">ROUND(2000*B24,0)</f>
         <v>699</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>960</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>341</v>
       </c>
       <c r="E25" s="20">
-        <f t="shared" ref="E25:E26" si="8">SUM(B25:D25)</f>
+        <f t="shared" ref="E25:E26" si="7">SUM(B25:D25)</f>
         <v>2000</v>
       </c>
     </row>
@@ -10799,7 +10799,7 @@
         <v>338</v>
       </c>
       <c r="E26" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1986</v>
       </c>
     </row>
@@ -10808,20 +10808,20 @@
         <v>341</v>
       </c>
       <c r="B27" s="10">
-        <f>2238*B24</f>
-        <v>782.1716004000001</v>
+        <f>2238*B24-6</f>
+        <v>776.1716004000001</v>
       </c>
       <c r="C27" s="10">
-        <f t="shared" ref="C27:E27" si="9">2238*C24</f>
-        <v>1074.3521237999998</v>
+        <f>2238*C24-5</f>
+        <v>1069.3521237999998</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" si="9"/>
-        <v>381.4762758</v>
+        <f>2238*D24-3</f>
+        <v>378.4762758</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" si="9"/>
-        <v>2238</v>
+        <f>2238*E24-14</f>
+        <v>2224</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="26.5" thickBot="1">
@@ -10830,19 +10830,19 @@
       </c>
       <c r="B28" s="10">
         <f>ROUND(1.1*B27,0)</f>
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C28" s="10">
-        <f t="shared" ref="C28:E28" si="10">ROUND(1.1*C27,0)</f>
-        <v>1182</v>
+        <f t="shared" ref="C28:E28" si="8">ROUND(1.1*C27,0)</f>
+        <v>1176</v>
       </c>
       <c r="D28" s="10">
-        <f t="shared" si="10"/>
-        <v>420</v>
+        <f t="shared" si="8"/>
+        <v>416</v>
       </c>
       <c r="E28" s="10">
-        <f t="shared" si="10"/>
-        <v>2462</v>
+        <f t="shared" si="8"/>
+        <v>2446</v>
       </c>
       <c r="H28" t="s">
         <v>127</v>

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -2347,7 +2347,7 @@
         <v>0.25032612031513901</v>
       </c>
       <c r="F17" s="17">
-        <f t="shared" ref="F17:G20" si="5">SUM(A17:E17)</f>
+        <f t="shared" ref="F17:G18" si="5">SUM(A17:E17)</f>
         <v>1</v>
       </c>
       <c r="G17" s="17">
@@ -2651,7 +2651,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="26.5" thickBot="1">
+    <row r="2" spans="1:7" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="26.5" thickBot="1">
+    <row r="9" spans="1:7" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="26.5" thickBot="1">
+    <row r="17" spans="1:11" ht="15" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="26.5" thickBot="1">
+    <row r="26" spans="1:11" ht="15" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
@@ -3613,7 +3613,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="26.5" thickBot="1">
+    <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="26.5" thickBot="1">
+    <row r="8" spans="1:11" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="26.5" thickBot="1">
+    <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="26.5" thickBot="1">
+    <row r="17" spans="1:11" ht="15" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>320</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="26.5" thickBot="1">
+    <row r="23" spans="1:11" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="26.5" thickBot="1">
+    <row r="25" spans="1:11" ht="15" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>320</v>
       </c>
@@ -7621,27 +7621,27 @@
         <v>343</v>
       </c>
       <c r="B12" s="8">
-        <f>ROUND(2249*1.1*B9,0)</f>
+        <f t="shared" ref="B12:G12" si="4">ROUND(2249*1.1*B9,0)</f>
         <v>257</v>
       </c>
       <c r="C12" s="8">
-        <f>ROUND(2249*1.1*C9,0)</f>
+        <f t="shared" si="4"/>
         <v>433</v>
       </c>
       <c r="D12" s="8">
-        <f>ROUND(2249*1.1*D9,0)</f>
+        <f t="shared" si="4"/>
         <v>606</v>
       </c>
       <c r="E12" s="8">
-        <f>ROUND(2249*1.1*E9,0)</f>
+        <f t="shared" si="4"/>
         <v>626</v>
       </c>
       <c r="F12" s="8">
-        <f>ROUND(2249*1.1*F9,0)</f>
+        <f t="shared" si="4"/>
         <v>552</v>
       </c>
       <c r="G12" s="8">
-        <f>ROUND(2249*1.1*G9,0)</f>
+        <f t="shared" si="4"/>
         <v>2474</v>
       </c>
     </row>
@@ -7747,7 +7747,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="26.5" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>341</v>
       </c>
@@ -7756,23 +7756,23 @@
         <v>568.99699999999996</v>
       </c>
       <c r="C19" s="10">
-        <f t="shared" ref="C19:G19" si="4">C18*2249/2000</f>
+        <f t="shared" ref="C19:G19" si="5">C18*2249/2000</f>
         <v>151.8075</v>
       </c>
       <c r="D19" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>874.86099999999999</v>
       </c>
       <c r="E19" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>508.274</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>145.06049999999999</v>
       </c>
       <c r="G19" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2249</v>
       </c>
     </row>
@@ -7785,23 +7785,23 @@
         <v>626</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" ref="C20:G20" si="5">ROUND(2249*1.1*C17,0)</f>
+        <f t="shared" ref="C20:G20" si="6">ROUND(2249*1.1*C17,0)</f>
         <v>167</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>963</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>559</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>159</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2474</v>
       </c>
       <c r="I20" t="s">
@@ -7831,7 +7831,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="26.5" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -7863,11 +7863,11 @@
         <v>11</v>
       </c>
       <c r="B25" s="8">
-        <f t="shared" ref="B25:C25" si="6">ROUND(2000*B24,0)</f>
+        <f t="shared" ref="B25:C25" si="7">ROUND(2000*B24,0)</f>
         <v>334</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1666</v>
       </c>
       <c r="D25" s="8">
@@ -7884,11 +7884,11 @@
         <v>375.58300000000003</v>
       </c>
       <c r="C26" s="10">
-        <f t="shared" ref="C26:D26" si="7">C25*2249/2000</f>
+        <f t="shared" ref="C26:D26" si="8">C25*2249/2000</f>
         <v>1873.4169999999999</v>
       </c>
       <c r="D26" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2249</v>
       </c>
     </row>
@@ -7901,11 +7901,11 @@
         <v>413</v>
       </c>
       <c r="C27" s="10">
-        <f t="shared" ref="C27:D27" si="8">ROUND(2249*1.1*C24,0)</f>
+        <f t="shared" ref="C27:D27" si="9">ROUND(2249*1.1*C24,0)</f>
         <v>2061</v>
       </c>
       <c r="D27" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2474</v>
       </c>
       <c r="I27" t="s">
@@ -10333,7 +10333,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="26.5" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -10435,7 +10435,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="26.5" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="26.5" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -10746,7 +10746,7 @@
       </c>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="26.5" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="26.5" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>320</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="26.5" thickBot="1">
+    <row r="28" spans="1:10" ht="15" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>344</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="36" customFormat="1" ht="27" thickBot="1">
+    <row r="32" spans="1:10" s="36" customFormat="1" ht="15" thickBot="1">
       <c r="A32" s="37" t="s">
         <v>10</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="36" customFormat="1" ht="40" thickBot="1">
+    <row r="34" spans="1:4" s="36" customFormat="1" ht="15" thickBot="1">
       <c r="A34" s="37" t="s">
         <v>321</v>
       </c>
@@ -10959,7 +10959,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="26.5" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="26.5" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="26.5" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="26.5" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>320</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>721.7505923247619</v>
       </c>
       <c r="C19" s="10">
-        <f t="shared" ref="C19:H19" si="5">2086*C16</f>
+        <f t="shared" ref="C19:G19" si="5">2086*C16</f>
         <v>368.88634989189609</v>
       </c>
       <c r="D19" s="10">
@@ -11386,7 +11386,7 @@
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:10" ht="26.5" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="470" windowWidth="25610" windowHeight="14480" tabRatio="916" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14475" tabRatio="916" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="quota_AU" sheetId="19" r:id="rId1"/>
@@ -1627,9 +1627,9 @@
       <selection activeCell="A23" sqref="A23:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -1643,7 +1643,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="26.5" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1701,8 +1701,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="26.5" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1816,7 +1816,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="26.5" thickBot="1">
+    <row r="14" spans="1:10" ht="27" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="26.5" thickBot="1">
+    <row r="17" spans="1:10" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -1962,8 +1962,8 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1"/>
-    <row r="23" spans="1:10" ht="26.5" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="23" spans="1:10" ht="27" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -1976,7 +1976,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="39" thickBot="1">
+    <row r="26" spans="1:10" ht="39.75" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>89</v>
       </c>
@@ -2061,12 +2061,12 @@
       <selection activeCell="B27" sqref="B27:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -2080,7 +2080,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>341</v>
       </c>
@@ -2141,7 +2141,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>343</v>
       </c>
@@ -2160,8 +2160,8 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1"/>
-    <row r="8" spans="1:9" ht="15" thickBot="1">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>341</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>2138.9999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>343</v>
       </c>
@@ -2304,7 +2304,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>341</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>4278</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>343</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="13" t="s">
         <v>76</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>341</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>2139.0000213899998</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>343</v>
       </c>
@@ -2631,13 +2631,13 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>0.97448244785232785</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>341</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>343</v>
       </c>
@@ -2731,8 +2731,8 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1"/>
-    <row r="8" spans="1:7" ht="15" thickBot="1">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>341</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>343</v>
       </c>
@@ -2884,7 +2884,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" thickBot="1">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" thickBot="1">
+    <row r="19" spans="1:11" ht="15.75" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>320</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>341</v>
       </c>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>343</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
       <c r="A25" s="13" t="s">
         <v>76</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1">
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" thickBot="1">
+    <row r="27" spans="1:11" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>11</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>341</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1">
+    <row r="29" spans="1:11" ht="15.75" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>343</v>
       </c>
@@ -3193,9 +3193,9 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -3209,7 +3209,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -3248,7 +3248,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="26.5" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -3267,8 +3267,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>0.99999999999999933</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="26.5" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3382,7 +3382,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="39" thickBot="1">
+    <row r="14" spans="1:10" ht="39.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="26.5" thickBot="1">
+    <row r="17" spans="1:10" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3508,8 +3508,8 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1"/>
-    <row r="21" spans="1:10" ht="26.5" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="21" spans="1:10" ht="27" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="26.5" thickBot="1">
+    <row r="24" spans="1:10" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -3594,12 +3594,12 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -3613,7 +3613,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>0.98351979013457747</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -3674,8 +3674,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="26.5" thickBot="1">
+    <row r="14" spans="1:11" ht="27" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>320</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" thickBot="1">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>345</v>
       </c>
@@ -3956,8 +3956,8 @@
       <c r="D19" s="2"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1"/>
-    <row r="22" spans="1:11" ht="26.5" thickBot="1">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="22" spans="1:11" ht="27" thickBot="1">
       <c r="A22" s="9" t="s">
         <v>85</v>
       </c>
@@ -3975,7 +3975,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>320</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1">
+    <row r="26" spans="1:11" ht="15.75" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>346</v>
       </c>
@@ -4077,13 +4077,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4864,9 +4864,9 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -4880,7 +4880,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>0.95217958067188335</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="26.5" thickBot="1">
+    <row r="4" spans="1:7" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -4941,8 +4941,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1"/>
-    <row r="7" spans="1:7" ht="15" thickBot="1">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -4963,7 +4963,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="26.5" thickBot="1">
+    <row r="10" spans="1:7" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5056,7 +5056,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>0.99999999999999933</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="26.5" thickBot="1">
+    <row r="17" spans="1:10" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5176,8 +5176,8 @@
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1"/>
-    <row r="21" spans="1:10" ht="26.5" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="21" spans="1:10" ht="27" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="26.5" thickBot="1">
+    <row r="24" spans="1:10" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -5257,9 +5257,9 @@
       <selection activeCell="B17" sqref="B17:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -5273,7 +5273,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>1.0341140064832992</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="26.5" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -5334,8 +5334,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -5356,7 +5356,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="26.5" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -5449,7 +5449,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="26.5" thickBot="1">
+    <row r="13" spans="1:10" ht="27" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>320</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="26.5" thickBot="1">
+    <row r="17" spans="1:9" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="26.5" thickBot="1">
+    <row r="23" spans="1:9" ht="27" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>334</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" thickBot="1">
+    <row r="24" spans="1:9" ht="15.75" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="26.5" thickBot="1">
+    <row r="26" spans="1:9" ht="27" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>12</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1">
       <c r="A33" s="13" t="s">
         <v>76</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1">
+    <row r="34" spans="1:9" ht="15.75" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>10</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" thickBot="1">
+    <row r="35" spans="1:9" ht="15.75" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>11</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="26.5" thickBot="1">
+    <row r="36" spans="1:9" ht="27" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>12</v>
       </c>
@@ -5889,14 +5889,14 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -5911,7 +5911,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="26.5" thickBot="1">
+    <row r="2" spans="1:11" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -5933,7 +5933,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="26.5" thickBot="1">
+    <row r="4" spans="1:11" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -5996,7 +5996,7 @@
       <c r="G6" s="24"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1">
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -6006,7 +6006,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -6028,7 +6028,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:11" ht="26.5" thickBot="1">
+    <row r="9" spans="1:11" ht="27" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -6053,7 +6053,7 @@
       </c>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -6083,7 +6083,7 @@
       </c>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:11" ht="26.5" thickBot="1">
+    <row r="11" spans="1:11" ht="27" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -6128,7 +6128,7 @@
     <row r="13" spans="1:11">
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:11" ht="64" thickBot="1">
+    <row r="14" spans="1:11" ht="65.25" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="26.5" thickBot="1">
+    <row r="15" spans="1:11" ht="27" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="26.5" thickBot="1">
+    <row r="17" spans="1:12" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="26.5" thickBot="1">
+    <row r="21" spans="1:12" ht="27" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>218</v>
       </c>
@@ -6294,7 +6294,7 @@
       <c r="G21" s="29"/>
       <c r="H21" s="25"/>
     </row>
-    <row r="22" spans="1:12" ht="26.5" thickBot="1">
+    <row r="22" spans="1:12" ht="27" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -6313,7 +6313,7 @@
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -6333,7 +6333,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:12" ht="26.5" thickBot="1">
+    <row r="24" spans="1:12" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -6379,7 +6379,7 @@
       <c r="E27" s="11"/>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="1:12" ht="26.5" thickBot="1">
+    <row r="28" spans="1:12" ht="27" thickBot="1">
       <c r="A28" s="9" t="s">
         <v>218</v>
       </c>
@@ -6403,7 +6403,7 @@
       </c>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="1:12" ht="26.5" thickBot="1">
+    <row r="29" spans="1:12" ht="27" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>0.99989215000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" thickBot="1">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="26.5" thickBot="1">
+    <row r="31" spans="1:12" ht="27" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
@@ -6559,9 +6559,9 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -6575,7 +6575,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="26.5" thickBot="1">
+    <row r="2" spans="1:11" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>0.99792841994678028</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27.5" thickBot="1">
+    <row r="4" spans="1:11" ht="27.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -6636,8 +6636,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="34"/>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="26.5" thickBot="1">
+    <row r="8" spans="1:11" ht="27" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.5" thickBot="1">
+    <row r="10" spans="1:11" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -6751,7 +6751,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="26.5" thickBot="1">
+    <row r="14" spans="1:11" ht="27" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="26.5" thickBot="1">
+    <row r="15" spans="1:11" ht="27" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="26.5" thickBot="1">
+    <row r="17" spans="1:11" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -6900,8 +6900,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" thickBot="1"/>
-    <row r="23" spans="1:11" ht="26.5" thickBot="1">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="23" spans="1:11" ht="27" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -6914,7 +6914,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="26.5" thickBot="1">
+    <row r="24" spans="1:11" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1">
+    <row r="25" spans="1:11" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="39" thickBot="1">
+    <row r="26" spans="1:11" ht="39.75" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>89</v>
       </c>
@@ -6992,9 +6992,9 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -7008,7 +7008,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>0.97760081385085629</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.5" thickBot="1">
+    <row r="4" spans="1:11" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -7069,8 +7069,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -7091,7 +7091,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.5" thickBot="1">
+    <row r="10" spans="1:11" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -7184,7 +7184,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="26.5" thickBot="1">
+    <row r="17" spans="1:11" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -7322,8 +7322,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1"/>
-    <row r="22" spans="1:11" ht="26.5" thickBot="1">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="22" spans="1:11" ht="27" thickBot="1">
       <c r="A22" s="9" t="s">
         <v>85</v>
       </c>
@@ -7336,7 +7336,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1">
+    <row r="24" spans="1:11" ht="15.75" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="39" thickBot="1">
+    <row r="25" spans="1:11" ht="39.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>89</v>
       </c>
@@ -7416,12 +7416,12 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -7435,7 +7435,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -7474,7 +7474,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>341</v>
       </c>
@@ -7493,7 +7493,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>343</v>
       </c>
@@ -7512,8 +7512,8 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1"/>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -7534,7 +7534,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>0.99999999999999944</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>341</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>343</v>
       </c>
@@ -7656,7 +7656,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
@@ -7715,7 +7715,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>341</v>
       </c>
@@ -7776,7 +7776,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>343</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="I22" t="s">
         <v>234</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -7843,7 +7843,7 @@
       </c>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>341</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>343</v>
       </c>
@@ -7928,9 +7928,9 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -7944,7 +7944,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -7983,7 +7983,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="26.5" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -8002,8 +8002,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -8024,7 +8024,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="26.5" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -8117,7 +8117,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="26.5" thickBot="1">
+    <row r="17" spans="1:11" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
       <c r="I20" t="s">
         <v>131</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="26.5" thickBot="1">
+    <row r="21" spans="1:11" ht="27" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -8278,7 +8278,7 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:11" ht="15" thickBot="1">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" thickBot="1">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="26.5" thickBot="1">
+    <row r="24" spans="1:11" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -8351,15 +8351,15 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -8374,7 +8374,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -8392,7 +8392,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -8412,7 +8412,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1">
+    <row r="4" spans="1:7" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -8443,7 +8443,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -8452,7 +8452,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -8473,7 +8473,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -8497,7 +8497,7 @@
         <v>1.0001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1">
+    <row r="10" spans="1:7" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -8555,8 +8555,8 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1"/>
-    <row r="12" spans="1:7" ht="15" thickBot="1">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -8574,7 +8574,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1">
+    <row r="15" spans="1:7" ht="27" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1">
+    <row r="18" spans="1:7" ht="27" thickBot="1">
       <c r="A18" s="9" t="s">
         <v>13</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1">
+    <row r="21" spans="1:7" ht="27" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
@@ -8760,7 +8760,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1">
+    <row r="24" spans="1:7" ht="15.75" thickBot="1">
       <c r="A24" s="13" t="s">
         <v>76</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1">
+    <row r="27" spans="1:7" ht="27" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
@@ -8838,15 +8838,15 @@
       <selection activeCell="A26" sqref="A26:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
+    <row r="1" spans="1:12" ht="27" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
@@ -8872,7 +8872,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -8905,7 +8905,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -8939,7 +8939,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -8989,7 +8989,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="0.65" customHeight="1">
+    <row r="6" spans="1:12" ht="0.6" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -9003,14 +9003,14 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -9030,7 +9030,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -9053,7 +9053,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -9078,7 +9078,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -9119,7 +9119,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -9133,7 +9133,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
@@ -9159,7 +9159,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -9188,7 +9188,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -9222,7 +9222,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -9272,7 +9272,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -9286,7 +9286,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="26.5" thickBot="1">
+    <row r="20" spans="1:12" ht="27" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
@@ -9310,7 +9310,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -9336,7 +9336,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -9367,7 +9367,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -9398,7 +9398,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1">
       <c r="A24" s="9" t="s">
         <v>30</v>
       </c>
@@ -9408,7 +9408,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="15" thickBot="1">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1">
       <c r="A25" s="5"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -9433,7 +9433,7 @@
       <c r="F26" s="12"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:12" ht="15" thickBot="1">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
@@ -9452,7 +9452,7 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
@@ -9474,7 +9474,7 @@
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>88</v>
       </c>
@@ -9493,7 +9493,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:12" ht="15" thickBot="1">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>87</v>
       </c>
@@ -9515,7 +9515,7 @@
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:12" ht="26.5" thickBot="1">
+    <row r="31" spans="1:12" ht="27" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>89</v>
       </c>
@@ -9548,12 +9548,12 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1">
+    <row r="36" spans="1:10" ht="15.75" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="26.5" thickBot="1">
+    <row r="37" spans="1:10" ht="27" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>1</v>
       </c>
@@ -9583,7 +9583,7 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1">
+    <row r="38" spans="1:10" ht="15.75" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" thickBot="1">
+    <row r="39" spans="1:10" ht="15.75" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" thickBot="1">
+    <row r="40" spans="1:10" ht="15.75" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>12</v>
       </c>
@@ -9724,12 +9724,12 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" ht="15" thickBot="1">
+    <row r="43" spans="1:10" ht="15.75" thickBot="1">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1">
+    <row r="44" spans="1:10" ht="15.75" thickBot="1">
       <c r="A44" s="9" t="s">
         <v>64</v>
       </c>
@@ -9750,7 +9750,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1">
+    <row r="45" spans="1:10" ht="15.75" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>10</v>
       </c>
@@ -9774,7 +9774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" thickBot="1">
+    <row r="46" spans="1:10" ht="15.75" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>11</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" thickBot="1">
+    <row r="47" spans="1:10" ht="15.75" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>12</v>
       </c>
@@ -9866,9 +9866,9 @@
       <selection activeCell="H26" sqref="A20:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -9882,7 +9882,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="26.5" thickBot="1">
+    <row r="2" spans="1:11" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -9924,7 +9924,7 @@
         <v>0.95277529961698948</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.5" thickBot="1">
+    <row r="4" spans="1:11" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -9943,8 +9943,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15" thickBot="1">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -9965,7 +9965,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="26.5" thickBot="1">
+    <row r="8" spans="1:11" ht="27" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.5" thickBot="1">
+    <row r="10" spans="1:11" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -10058,7 +10058,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="26.5" thickBot="1">
+    <row r="13" spans="1:11" ht="27" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="26.5" thickBot="1">
+    <row r="14" spans="1:11" ht="27" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -10114,7 +10114,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="26.5" thickBot="1">
+    <row r="16" spans="1:11" ht="27" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.5">
+    <row r="19" spans="1:11" ht="15.75">
       <c r="J19" t="s">
         <v>234</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1">
       <c r="A20" s="13" t="s">
         <v>76</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="26.5" thickBot="1">
+    <row r="21" spans="1:11" ht="27" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" thickBot="1">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="26.5" thickBot="1">
+    <row r="23" spans="1:11" ht="27" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -10310,16 +10310,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -10333,7 +10333,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -10375,7 +10375,7 @@
         <v>0.90805800128462044</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>341</v>
       </c>
@@ -10394,7 +10394,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>344</v>
       </c>
@@ -10413,8 +10413,8 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1"/>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -10435,7 +10435,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>341</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>344</v>
       </c>
@@ -10557,7 +10557,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="26.5" thickBot="1">
+    <row r="15" spans="1:10" ht="27" thickBot="1">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>320</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>341</v>
       </c>
@@ -10686,7 +10686,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>344</v>
       </c>
@@ -10730,8 +10730,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1"/>
-    <row r="23" spans="1:10" ht="39" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="23" spans="1:10" ht="39.75" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -10746,7 +10746,7 @@
       </c>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>320</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>341</v>
       </c>
@@ -10824,7 +10824,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>344</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="36" customFormat="1" ht="15" thickBot="1">
+    <row r="31" spans="1:10" s="36" customFormat="1" ht="15.75" thickBot="1">
       <c r="A31" s="35" t="s">
         <v>76</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="36" customFormat="1" ht="15" thickBot="1">
+    <row r="32" spans="1:10" s="36" customFormat="1" ht="15.75" thickBot="1">
       <c r="A32" s="37" t="s">
         <v>10</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="36" customFormat="1" ht="15" thickBot="1">
+    <row r="33" spans="1:4" s="36" customFormat="1" ht="15.75" thickBot="1">
       <c r="A33" s="37" t="s">
         <v>11</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="36" customFormat="1" ht="15" thickBot="1">
+    <row r="34" spans="1:4" s="36" customFormat="1" ht="15.75" thickBot="1">
       <c r="A34" s="37" t="s">
         <v>321</v>
       </c>
@@ -10940,12 +10940,12 @@
       <selection activeCell="B28" sqref="B28:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -10959,7 +10959,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -11001,7 +11001,7 @@
         <v>0.92622883301508352</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>341</v>
       </c>
@@ -11020,7 +11020,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -11039,8 +11039,8 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1"/>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>341</v>
       </c>
@@ -11143,7 +11143,7 @@
         <v>2086.0000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>343</v>
       </c>
@@ -11183,7 +11183,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -11236,7 +11236,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -11271,7 +11271,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>320</v>
       </c>
@@ -11295,7 +11295,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>341</v>
       </c>
@@ -11325,7 +11325,7 @@
       </c>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:10" ht="26.5" thickBot="1">
+    <row r="20" spans="1:10" ht="27" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>344</v>
       </c>
@@ -11372,8 +11372,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1"/>
-    <row r="24" spans="1:10" ht="26.5" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="24" spans="1:10" ht="27" thickBot="1">
       <c r="A24" s="9" t="s">
         <v>85</v>
       </c>
@@ -11386,7 +11386,7 @@
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
@@ -11402,7 +11402,7 @@
       </c>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -11420,7 +11420,7 @@
       </c>
       <c r="E26" s="20"/>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>320</v>
       </c>
@@ -11436,7 +11436,7 @@
       </c>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>341</v>
       </c>
@@ -11454,7 +11454,7 @@
       </c>
       <c r="E28" s="20"/>
     </row>
-    <row r="29" spans="1:10" ht="26.5" thickBot="1">
+    <row r="29" spans="1:10" ht="27" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>344</v>
       </c>
@@ -11488,9 +11488,9 @@
       <selection activeCell="B22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -11504,7 +11504,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>0.92970833595125124</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="26.5" thickBot="1">
+    <row r="4" spans="1:10" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -11565,8 +11565,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15" thickBot="1">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -11587,7 +11587,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -11611,7 +11611,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="26.5" thickBot="1">
+    <row r="10" spans="1:10" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -11680,7 +11680,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="26.5" thickBot="1">
+    <row r="14" spans="1:10" ht="27" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="26.5" thickBot="1">
+    <row r="17" spans="1:10" ht="27" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="13" t="s">
         <v>76</v>
       </c>
@@ -11846,7 +11846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -11891,7 +11891,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="26.5" thickBot="1">
+    <row r="24" spans="1:10" ht="27" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -11961,9 +11961,9 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -11977,7 +11977,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="26.5" thickBot="1">
+    <row r="2" spans="1:13" ht="27" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" thickBot="1">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>0.9267197256851698</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="26.5" thickBot="1">
+    <row r="4" spans="1:13" ht="27" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -12038,8 +12038,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="15" thickBot="1"/>
-    <row r="7" spans="1:13" ht="15" thickBot="1">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -12060,7 +12060,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:13" ht="26.5" thickBot="1">
+    <row r="8" spans="1:13" ht="27" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" thickBot="1">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="26.5" thickBot="1">
+    <row r="10" spans="1:13" ht="27" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -12153,7 +12153,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="26.5" thickBot="1">
+    <row r="13" spans="1:13" ht="27" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="26.5" thickBot="1">
+    <row r="14" spans="1:13" ht="27" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1">
+    <row r="15" spans="1:13" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="26.5" thickBot="1">
+    <row r="16" spans="1:13" ht="27" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>320</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="39" thickBot="1">
+    <row r="17" spans="1:13" ht="39.75" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>321</v>
       </c>
@@ -12331,8 +12331,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1"/>
-    <row r="21" spans="1:13" ht="26.5" thickBot="1">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1"/>
+    <row r="21" spans="1:13" ht="27" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="26.5" thickBot="1">
+    <row r="22" spans="1:13" ht="27" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="39" thickBot="1">
+    <row r="24" spans="1:13" ht="39.75" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>89</v>
       </c>
@@ -12404,12 +12404,12 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1">
+    <row r="29" spans="1:13" ht="15.75" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="26.5" thickBot="1">
+    <row r="30" spans="1:13" ht="27" thickBot="1">
       <c r="A30" s="9" t="s">
         <v>85</v>
       </c>
@@ -12422,7 +12422,7 @@
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
     </row>
-    <row r="31" spans="1:13" ht="26.5" thickBot="1">
+    <row r="31" spans="1:13" ht="27" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>10</v>
       </c>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:13" ht="15" thickBot="1">
+    <row r="32" spans="1:13" ht="15.75" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>11</v>
       </c>
@@ -12456,7 +12456,7 @@
       </c>
       <c r="E32" s="20"/>
     </row>
-    <row r="33" spans="1:5" ht="39" thickBot="1">
+    <row r="33" spans="1:5" ht="39.75" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>89</v>
       </c>

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -4077,7 +4077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -4077,8 +4077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -1348,88 +1348,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4901,7 +4820,7 @@
         <v>1466.3198000000002</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" ref="C40:E41" si="13">1.1*C39</f>
+        <f t="shared" ref="C40:E40" si="13">1.1*C39</f>
         <v>451.363</v>
       </c>
       <c r="D40" s="3">

--- a/questionnaires/quotas.xlsx
+++ b/questionnaires/quotas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14475" tabRatio="916" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="470" windowWidth="25610" windowHeight="14480" tabRatio="916" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="quota_AU" sheetId="19" r:id="rId1"/>
@@ -1627,12 +1627,12 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:E26"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -1646,7 +1646,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1685,7 +1685,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="26.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -1704,8 +1704,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="26.5" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1819,7 +1819,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="27" thickBot="1">
+    <row r="14" spans="1:10" ht="26.5" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27" thickBot="1">
+    <row r="17" spans="1:10" ht="26.5" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -1965,8 +1965,8 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="23" spans="1:10" ht="27" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1"/>
+    <row r="23" spans="1:10" ht="26.5" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -1979,7 +1979,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="39.75" thickBot="1">
+    <row r="26" spans="1:10" ht="39" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>89</v>
       </c>
@@ -2064,12 +2064,12 @@
       <selection activeCell="B27" sqref="B27:E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1">
+    <row r="1" spans="1:9" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -2083,7 +2083,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
+    <row r="2" spans="1:9" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1">
+    <row r="3" spans="1:9" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1">
+    <row r="4" spans="1:9" ht="15" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>341</v>
       </c>
@@ -2144,7 +2144,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1">
+    <row r="5" spans="1:9" ht="15" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>343</v>
       </c>
@@ -2163,8 +2163,8 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1">
+    <row r="7" spans="1:9" ht="15" thickBot="1"/>
+    <row r="8" spans="1:9" ht="15" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1">
+    <row r="9" spans="1:9" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1">
+    <row r="10" spans="1:9" ht="15" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1">
+    <row r="11" spans="1:9" ht="15" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>341</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>2138.9999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1">
+    <row r="12" spans="1:9" ht="15" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>343</v>
       </c>
@@ -2307,7 +2307,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1">
+    <row r="16" spans="1:9" ht="15" thickBot="1">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>341</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>4278</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>343</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="13" t="s">
         <v>76</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>341</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>2139.0000213899998</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1">
+    <row r="28" spans="1:10" ht="15" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>343</v>
       </c>
@@ -2630,17 +2630,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -2654,7 +2654,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+    <row r="3" spans="1:7" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>0.97448244785232785</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1">
+    <row r="4" spans="1:7" ht="15" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>341</v>
       </c>
@@ -2715,7 +2715,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1">
+    <row r="5" spans="1:7" ht="15" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>343</v>
       </c>
@@ -2734,8 +2734,8 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1">
+    <row r="7" spans="1:7" ht="15" thickBot="1"/>
+    <row r="8" spans="1:7" ht="15" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1">
+    <row r="9" spans="1:7" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1">
+    <row r="10" spans="1:7" ht="15" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1">
+    <row r="11" spans="1:7" ht="15" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>341</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1">
+    <row r="12" spans="1:7" ht="15" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>343</v>
       </c>
@@ -2887,7 +2887,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="29"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+    <row r="16" spans="1:7" ht="15" thickBot="1">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1">
+    <row r="17" spans="1:11" ht="15" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1">
+    <row r="18" spans="1:11" ht="15" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1">
+    <row r="19" spans="1:11" ht="15" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>320</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1">
+    <row r="20" spans="1:11" ht="15" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>341</v>
       </c>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1">
+    <row r="21" spans="1:11" ht="15" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>343</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1">
+    <row r="25" spans="1:11" ht="15" thickBot="1">
       <c r="A25" s="13" t="s">
         <v>76</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1">
+    <row r="26" spans="1:11" ht="15" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1">
+    <row r="27" spans="1:11" ht="15" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>11</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1">
+    <row r="28" spans="1:11" ht="15" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>341</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1">
+    <row r="29" spans="1:11" ht="15" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>343</v>
       </c>
@@ -3196,9 +3196,9 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -3212,7 +3212,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="26.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -3270,8 +3270,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>0.99999999999999933</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="26.5" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3385,7 +3385,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="39.75" thickBot="1">
+    <row r="14" spans="1:10" ht="39" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27" thickBot="1">
+    <row r="17" spans="1:10" ht="26.5" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3511,8 +3511,8 @@
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="21" spans="1:10" ht="27" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1"/>
+    <row r="21" spans="1:10" ht="26.5" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="27" thickBot="1">
+    <row r="24" spans="1:10" ht="26.5" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -3597,12 +3597,12 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -3616,7 +3616,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+    <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>0.98351979013457747</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1">
+    <row r="4" spans="1:11" ht="15" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -3677,8 +3677,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="15" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1">
+    <row r="8" spans="1:11" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+    <row r="9" spans="1:11" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1">
+    <row r="10" spans="1:11" ht="15" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="27" thickBot="1">
+    <row r="14" spans="1:11" ht="26.5" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1">
+    <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1">
+    <row r="17" spans="1:11" ht="15" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>320</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1">
+    <row r="18" spans="1:11" ht="15" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>345</v>
       </c>
@@ -3959,8 +3959,8 @@
       <c r="D19" s="2"/>
       <c r="E19" s="11"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="22" spans="1:11" ht="27" thickBot="1">
+    <row r="21" spans="1:11" ht="15" thickBot="1"/>
+    <row r="22" spans="1:11" ht="26.5" thickBot="1">
       <c r="A22" s="9" t="s">
         <v>85</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+    <row r="23" spans="1:11" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1">
+    <row r="24" spans="1:11" ht="15" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1">
+    <row r="25" spans="1:11" ht="15" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>320</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1">
+    <row r="26" spans="1:11" ht="15" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>346</v>
       </c>
@@ -4081,12 +4081,12 @@
   <dimension ref="A1:XFD42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4498,10 +4498,10 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
@@ -21267,9 +21267,9 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -21283,7 +21283,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -21304,7 +21304,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+    <row r="3" spans="1:7" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -21325,7 +21325,7 @@
         <v>0.95217958067188335</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="27" thickBot="1">
+    <row r="4" spans="1:7" ht="26.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -21344,8 +21344,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1">
+    <row r="6" spans="1:7" ht="15" thickBot="1"/>
+    <row r="7" spans="1:7" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -21366,7 +21366,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1">
+    <row r="8" spans="1:7" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -21390,7 +21390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1">
+    <row r="9" spans="1:7" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -21419,7 +21419,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" thickBot="1">
+    <row r="10" spans="1:7" ht="26.5" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -21459,7 +21459,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1">
+    <row r="14" spans="1:7" ht="15" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -21482,7 +21482,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1">
+    <row r="15" spans="1:7" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -21506,7 +21506,7 @@
         <v>0.99999999999999933</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+    <row r="16" spans="1:7" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -21535,7 +21535,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27" thickBot="1">
+    <row r="17" spans="1:10" ht="26.5" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -21579,8 +21579,8 @@
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="21" spans="1:10" ht="27" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1"/>
+    <row r="21" spans="1:10" ht="26.5" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -21592,7 +21592,7 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -21607,7 +21607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -21624,7 +21624,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="27" thickBot="1">
+    <row r="24" spans="1:10" ht="26.5" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -21660,9 +21660,9 @@
       <selection activeCell="B17" sqref="B17:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -21676,7 +21676,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -21697,7 +21697,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -21718,7 +21718,7 @@
         <v>1.0341140064832992</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="26.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -21737,8 +21737,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -21759,7 +21759,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -21783,7 +21783,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -21812,7 +21812,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="26.5" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -21852,7 +21852,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="27" thickBot="1">
+    <row r="13" spans="1:10" ht="26.5" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -21875,7 +21875,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+    <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -21905,7 +21905,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -21940,7 +21940,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>320</v>
       </c>
@@ -21964,7 +21964,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27" thickBot="1">
+    <row r="17" spans="1:9" ht="26.5" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -22005,7 +22005,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="27" thickBot="1">
+    <row r="23" spans="1:9" ht="26.5" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>334</v>
       </c>
@@ -22022,7 +22022,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1">
+    <row r="24" spans="1:9" ht="15" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -22040,7 +22040,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1">
+    <row r="25" spans="1:9" ht="15" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -22067,7 +22067,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="27" thickBot="1">
+    <row r="26" spans="1:9" ht="26.5" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>12</v>
       </c>
@@ -22108,7 +22108,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1">
+    <row r="33" spans="1:9" ht="15" thickBot="1">
       <c r="A33" s="13" t="s">
         <v>76</v>
       </c>
@@ -22119,7 +22119,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1">
+    <row r="34" spans="1:9" ht="15" thickBot="1">
       <c r="A34" s="5" t="s">
         <v>10</v>
       </c>
@@ -22140,7 +22140,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1">
+    <row r="35" spans="1:9" ht="15" thickBot="1">
       <c r="A35" s="5" t="s">
         <v>11</v>
       </c>
@@ -22157,7 +22157,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="27" thickBot="1">
+    <row r="36" spans="1:9" ht="26.5" thickBot="1">
       <c r="A36" s="5" t="s">
         <v>12</v>
       </c>
@@ -22292,14 +22292,14 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -22314,7 +22314,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="27" thickBot="1">
+    <row r="2" spans="1:11" ht="26.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -22336,7 +22336,7 @@
       </c>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -22358,7 +22358,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="27" thickBot="1">
+    <row r="4" spans="1:11" ht="26.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -22399,7 +22399,7 @@
       <c r="G6" s="24"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="7" spans="1:11" ht="15" thickBot="1">
       <c r="A7" s="9"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -22409,7 +22409,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1">
+    <row r="8" spans="1:11" ht="15" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -22431,7 +22431,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:11" ht="27" thickBot="1">
+    <row r="9" spans="1:11" ht="26.5" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -22456,7 +22456,7 @@
       </c>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1">
+    <row r="10" spans="1:11" ht="15" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -22486,7 +22486,7 @@
       </c>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:11" ht="27" thickBot="1">
+    <row r="11" spans="1:11" ht="26.5" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -22531,7 +22531,7 @@
     <row r="13" spans="1:11">
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:11" ht="65.25" thickBot="1">
+    <row r="14" spans="1:11" ht="64" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -22556,7 +22556,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="27" thickBot="1">
+    <row r="15" spans="1:11" ht="26.5" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -22580,7 +22580,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -22612,7 +22612,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="27" thickBot="1">
+    <row r="17" spans="1:12" ht="26.5" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -22681,7 +22681,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="27" thickBot="1">
+    <row r="21" spans="1:12" ht="26.5" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>218</v>
       </c>
@@ -22697,7 +22697,7 @@
       <c r="G21" s="29"/>
       <c r="H21" s="25"/>
     </row>
-    <row r="22" spans="1:12" ht="27" thickBot="1">
+    <row r="22" spans="1:12" ht="26.5" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -22716,7 +22716,7 @@
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1">
+    <row r="23" spans="1:12" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -22736,7 +22736,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:12" ht="27" thickBot="1">
+    <row r="24" spans="1:12" ht="26.5" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -22782,7 +22782,7 @@
       <c r="E27" s="11"/>
       <c r="H27" s="25"/>
     </row>
-    <row r="28" spans="1:12" ht="27" thickBot="1">
+    <row r="28" spans="1:12" ht="26.5" thickBot="1">
       <c r="A28" s="9" t="s">
         <v>218</v>
       </c>
@@ -22806,7 +22806,7 @@
       </c>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="1:12" ht="27" thickBot="1">
+    <row r="29" spans="1:12" ht="26.5" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
@@ -22833,7 +22833,7 @@
         <v>0.99989215000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1">
+    <row r="30" spans="1:12" ht="15" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>11</v>
       </c>
@@ -22866,7 +22866,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="27" thickBot="1">
+    <row r="31" spans="1:12" ht="26.5" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>12</v>
       </c>
@@ -22962,9 +22962,9 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -22978,7 +22978,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="27" thickBot="1">
+    <row r="2" spans="1:11" ht="26.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -22999,7 +22999,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -23020,7 +23020,7 @@
         <v>0.99792841994678028</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27.75" thickBot="1">
+    <row r="4" spans="1:11" ht="27.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -23039,8 +23039,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="34"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="15" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -23061,7 +23061,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="27" thickBot="1">
+    <row r="8" spans="1:11" ht="26.5" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -23085,7 +23085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+    <row r="9" spans="1:11" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -23114,7 +23114,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" thickBot="1">
+    <row r="10" spans="1:11" ht="26.5" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -23154,7 +23154,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="27" thickBot="1">
+    <row r="14" spans="1:11" ht="26.5" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -23183,7 +23183,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="27" thickBot="1">
+    <row r="15" spans="1:11" ht="26.5" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -23213,7 +23213,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -23248,7 +23248,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27" thickBot="1">
+    <row r="17" spans="1:11" ht="26.5" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -23303,8 +23303,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="23" spans="1:11" ht="27" thickBot="1">
+    <row r="22" spans="1:11" ht="15" thickBot="1"/>
+    <row r="23" spans="1:11" ht="26.5" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -23317,7 +23317,7 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:11" ht="27" thickBot="1">
+    <row r="24" spans="1:11" ht="26.5" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -23339,7 +23339,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1">
+    <row r="25" spans="1:11" ht="15" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -23363,7 +23363,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="39.75" thickBot="1">
+    <row r="26" spans="1:11" ht="39" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>89</v>
       </c>
@@ -23395,9 +23395,9 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -23411,7 +23411,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+    <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -23432,7 +23432,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -23453,7 +23453,7 @@
         <v>0.97760081385085629</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27" thickBot="1">
+    <row r="4" spans="1:11" ht="26.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -23472,8 +23472,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="15" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -23494,7 +23494,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1">
+    <row r="8" spans="1:11" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -23518,7 +23518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+    <row r="9" spans="1:11" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -23547,7 +23547,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" thickBot="1">
+    <row r="10" spans="1:11" ht="26.5" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -23587,7 +23587,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1">
+    <row r="14" spans="1:11" ht="15" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -23610,7 +23610,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1">
+    <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -23640,7 +23640,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1">
+    <row r="16" spans="1:11" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -23675,7 +23675,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27" thickBot="1">
+    <row r="17" spans="1:11" ht="26.5" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -23725,8 +23725,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="22" spans="1:11" ht="27" thickBot="1">
+    <row r="21" spans="1:11" ht="15" thickBot="1"/>
+    <row r="22" spans="1:11" ht="26.5" thickBot="1">
       <c r="A22" s="9" t="s">
         <v>85</v>
       </c>
@@ -23739,7 +23739,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+    <row r="23" spans="1:11" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>10</v>
       </c>
@@ -23761,7 +23761,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1">
+    <row r="24" spans="1:11" ht="15" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
@@ -23788,7 +23788,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="39.75" thickBot="1">
+    <row r="25" spans="1:11" ht="39" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>89</v>
       </c>
@@ -23819,12 +23819,12 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -23838,7 +23838,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -23858,7 +23858,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -23877,7 +23877,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>341</v>
       </c>
@@ -23896,7 +23896,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>343</v>
       </c>
@@ -23915,8 +23915,8 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="7" spans="1:10" ht="15" thickBot="1"/>
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -23937,7 +23937,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -23961,7 +23961,7 @@
         <v>0.99999999999999944</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -23990,7 +23990,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>341</v>
       </c>
@@ -24019,7 +24019,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>343</v>
       </c>
@@ -24059,7 +24059,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
@@ -24088,7 +24088,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>10</v>
       </c>
@@ -24118,7 +24118,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>11</v>
       </c>
@@ -24150,7 +24150,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>341</v>
       </c>
@@ -24179,7 +24179,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>343</v>
       </c>
@@ -24226,7 +24226,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="I22" t="s">
         <v>234</v>
       </c>
@@ -24234,7 +24234,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -24246,7 +24246,7 @@
       </c>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -24261,7 +24261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -24278,7 +24278,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>341</v>
       </c>
@@ -24295,7 +24295,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>343</v>
       </c>
@@ -24328,12 +24328,12 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -24347,7 +24347,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -24367,7 +24367,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -24386,7 +24386,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="26.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -24405,8 +24405,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -24427,7 +24427,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -24451,7 +24451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -24480,7 +24480,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="26.5" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -24520,7 +24520,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
+    <row r="14" spans="1:10" ht="15" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -24546,7 +24546,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -24573,7 +24573,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -24604,7 +24604,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="27" thickBot="1">
+    <row r="17" spans="1:11" ht="26.5" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -24661,7 +24661,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1">
+    <row r="20" spans="1:11" ht="15" thickBot="1">
       <c r="I20" t="s">
         <v>131</v>
       </c>
@@ -24669,7 +24669,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="27" thickBot="1">
+    <row r="21" spans="1:11" ht="26.5" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -24681,7 +24681,7 @@
       </c>
       <c r="D21" s="12"/>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1">
+    <row r="22" spans="1:11" ht="15" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -24696,7 +24696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1">
+    <row r="23" spans="1:11" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -24713,7 +24713,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="27" thickBot="1">
+    <row r="24" spans="1:11" ht="26.5" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -24754,15 +24754,15 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -24777,7 +24777,7 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -24795,7 +24795,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+    <row r="3" spans="1:7" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -24815,7 +24815,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="27" thickBot="1">
+    <row r="4" spans="1:7" ht="15" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -24846,7 +24846,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1">
+    <row r="6" spans="1:7" ht="15" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -24855,7 +24855,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1">
+    <row r="7" spans="1:7" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -24876,7 +24876,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1">
+    <row r="8" spans="1:7" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -24900,7 +24900,7 @@
         <v>1.0001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1">
+    <row r="9" spans="1:7" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -24929,7 +24929,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="27" thickBot="1">
+    <row r="10" spans="1:7" ht="15" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -24958,8 +24958,8 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1">
+    <row r="11" spans="1:7" ht="15" thickBot="1"/>
+    <row r="12" spans="1:7" ht="15" thickBot="1">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -24977,7 +24977,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1">
+    <row r="13" spans="1:7" ht="15" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
@@ -24997,7 +24997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1">
+    <row r="14" spans="1:7" ht="15" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
@@ -25022,7 +25022,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="27" thickBot="1">
+    <row r="15" spans="1:7" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
@@ -25052,7 +25052,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="27" thickBot="1">
+    <row r="18" spans="1:7" ht="15" thickBot="1">
       <c r="A18" s="9" t="s">
         <v>13</v>
       </c>
@@ -25072,7 +25072,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1">
+    <row r="19" spans="1:7" ht="15" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
@@ -25096,7 +25096,7 @@
         <v>0.99990000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1">
+    <row r="20" spans="1:7" ht="15" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -25125,7 +25125,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="27" thickBot="1">
+    <row r="21" spans="1:7" ht="15" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
@@ -25163,7 +25163,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1">
+    <row r="24" spans="1:7" ht="15" thickBot="1">
       <c r="A24" s="13" t="s">
         <v>76</v>
       </c>
@@ -25174,7 +25174,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1">
+    <row r="25" spans="1:7" ht="15" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
@@ -25189,7 +25189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1">
+    <row r="26" spans="1:7" ht="15" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -25206,7 +25206,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27" thickBot="1">
+    <row r="27" spans="1:7" ht="15" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>12</v>
       </c>
@@ -25241,15 +25241,15 @@
       <selection activeCell="A26" sqref="A26:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" thickBot="1">
+    <row r="1" spans="1:12" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
@@ -25275,7 +25275,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+    <row r="2" spans="1:12" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -25308,7 +25308,7 @@
       <c r="K2" s="10"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1">
+    <row r="3" spans="1:12" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -25342,7 +25342,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1">
+    <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -25392,7 +25392,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="0.6" customHeight="1">
+    <row r="6" spans="1:12" ht="0.65" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -25406,14 +25406,14 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+    <row r="7" spans="1:12" ht="15" thickBot="1">
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+    <row r="8" spans="1:12" ht="15" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -25433,7 +25433,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1">
+    <row r="9" spans="1:12" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -25456,7 +25456,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1">
+    <row r="10" spans="1:12" ht="15" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -25481,7 +25481,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1">
+    <row r="11" spans="1:12" ht="15" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -25522,7 +25522,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+    <row r="13" spans="1:12" ht="15" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -25536,7 +25536,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1">
+    <row r="14" spans="1:12" ht="15" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
@@ -25562,7 +25562,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1">
+    <row r="15" spans="1:12" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -25591,7 +25591,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1">
+    <row r="16" spans="1:12" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -25625,7 +25625,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1">
+    <row r="17" spans="1:12" ht="15" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -25675,7 +25675,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+    <row r="19" spans="1:12" ht="15" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -25689,7 +25689,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="27" thickBot="1">
+    <row r="20" spans="1:12" ht="26.5" thickBot="1">
       <c r="A20" s="9" t="s">
         <v>23</v>
       </c>
@@ -25713,7 +25713,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+    <row r="21" spans="1:12" ht="15" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -25739,7 +25739,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1">
+    <row r="22" spans="1:12" ht="15" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -25770,7 +25770,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1">
+    <row r="23" spans="1:12" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -25801,7 +25801,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1">
+    <row r="24" spans="1:12" ht="15" thickBot="1">
       <c r="A24" s="9" t="s">
         <v>30</v>
       </c>
@@ -25811,7 +25811,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1">
+    <row r="25" spans="1:12" ht="15" thickBot="1">
       <c r="A25" s="5"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -25836,7 +25836,7 @@
       <c r="F26" s="12"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1">
+    <row r="27" spans="1:12" ht="15" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>10</v>
       </c>
@@ -25855,7 +25855,7 @@
       </c>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="15" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
@@ -25877,7 +25877,7 @@
       </c>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1">
+    <row r="29" spans="1:12" ht="15" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>88</v>
       </c>
@@ -25896,7 +25896,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1">
+    <row r="30" spans="1:12" ht="15" thickBot="1">
       <c r="A30" s="5" t="s">
         <v>87</v>
       </c>
@@ -25918,7 +25918,7 @@
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:12" ht="27" thickBot="1">
+    <row r="31" spans="1:12" ht="26.5" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>89</v>
       </c>
@@ -25951,12 +25951,12 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1">
+    <row r="36" spans="1:10" ht="15" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="27" thickBot="1">
+    <row r="37" spans="1:10" ht="26.5" thickBot="1">
       <c r="A37" s="5" t="s">
         <v>1</v>
       </c>
@@ -25986,7 +25986,7 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1">
+    <row r="38" spans="1:10" ht="15" thickBot="1">
       <c r="A38" s="5" t="s">
         <v>10</v>
       </c>
@@ -26019,7 +26019,7 @@
         <v>0.998</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1">
+    <row r="39" spans="1:10" ht="15" thickBot="1">
       <c r="A39" s="5" t="s">
         <v>11</v>
       </c>
@@ -26060,7 +26060,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" thickBot="1">
+    <row r="40" spans="1:10" ht="15" thickBot="1">
       <c r="A40" s="5" t="s">
         <v>12</v>
       </c>
@@ -26127,12 +26127,12 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1">
+    <row r="43" spans="1:10" ht="15" thickBot="1">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1">
+    <row r="44" spans="1:10" ht="15" thickBot="1">
       <c r="A44" s="9" t="s">
         <v>64</v>
       </c>
@@ -26153,7 +26153,7 @@
       </c>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1">
+    <row r="45" spans="1:10" ht="15" thickBot="1">
       <c r="A45" s="5" t="s">
         <v>10</v>
       </c>
@@ -26177,7 +26177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1">
+    <row r="46" spans="1:10" ht="15" thickBot="1">
       <c r="A46" s="5" t="s">
         <v>11</v>
       </c>
@@ -26206,7 +26206,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" thickBot="1">
+    <row r="47" spans="1:10" ht="15" thickBot="1">
       <c r="A47" s="5" t="s">
         <v>12</v>
       </c>
@@ -26269,9 +26269,9 @@
       <selection activeCell="H26" sqref="A20:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1">
+    <row r="1" spans="1:11" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -26285,7 +26285,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="27" thickBot="1">
+    <row r="2" spans="1:11" ht="26.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -26306,7 +26306,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -26327,7 +26327,7 @@
         <v>0.95277529961698948</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27" thickBot="1">
+    <row r="4" spans="1:11" ht="26.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -26346,8 +26346,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1">
+    <row r="6" spans="1:11" ht="15" thickBot="1"/>
+    <row r="7" spans="1:11" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -26368,7 +26368,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="27" thickBot="1">
+    <row r="8" spans="1:11" ht="26.5" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -26392,7 +26392,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+    <row r="9" spans="1:11" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -26421,7 +26421,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="27" thickBot="1">
+    <row r="10" spans="1:11" ht="26.5" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -26461,7 +26461,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:11" ht="27" thickBot="1">
+    <row r="13" spans="1:11" ht="26.5" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -26487,7 +26487,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="27" thickBot="1">
+    <row r="14" spans="1:11" ht="26.5" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -26517,7 +26517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1">
+    <row r="15" spans="1:11" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -26552,7 +26552,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="27" thickBot="1">
+    <row r="16" spans="1:11" ht="26.5" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
@@ -26602,7 +26602,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75">
+    <row r="19" spans="1:11" ht="15.5">
       <c r="J19" t="s">
         <v>234</v>
       </c>
@@ -26610,7 +26610,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1">
+    <row r="20" spans="1:11" ht="15" thickBot="1">
       <c r="A20" s="13" t="s">
         <v>76</v>
       </c>
@@ -26624,7 +26624,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="27" thickBot="1">
+    <row r="21" spans="1:11" ht="26.5" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -26642,7 +26642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1">
+    <row r="22" spans="1:11" ht="15" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
@@ -26669,7 +26669,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="27" thickBot="1">
+    <row r="23" spans="1:11" ht="26.5" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
@@ -26713,16 +26713,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:F14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -26736,7 +26736,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -26757,7 +26757,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -26778,7 +26778,7 @@
         <v>0.90805800128462044</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>341</v>
       </c>
@@ -26797,7 +26797,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>344</v>
       </c>
@@ -26820,8 +26820,8 @@
         <v>615.45000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="7" spans="1:10" ht="15" thickBot="1"/>
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -26842,7 +26842,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -26866,7 +26866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -26895,7 +26895,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>341</v>
       </c>
@@ -26924,7 +26924,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>344</v>
       </c>
@@ -26964,7 +26964,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="27" thickBot="1">
+    <row r="15" spans="1:10" ht="26.5" thickBot="1">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
@@ -26984,7 +26984,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -27011,7 +27011,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -27040,7 +27040,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>320</v>
       </c>
@@ -27064,7 +27064,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>341</v>
       </c>
@@ -27093,7 +27093,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1">
+    <row r="20" spans="1:10" ht="15" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>344</v>
       </c>
@@ -27137,8 +27137,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="23" spans="1:10" ht="39.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1"/>
+    <row r="23" spans="1:10" ht="39" thickBot="1">
       <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
@@ -27153,7 +27153,7 @@
       </c>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1">
+    <row r="24" spans="1:10" ht="15" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
@@ -27171,7 +27171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
@@ -27192,7 +27192,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>320</v>
       </c>
@@ -27210,7 +27210,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>341</v>
       </c>
@@ -27231,7 +27231,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1">
+    <row r="28" spans="1:10" ht="15" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>344</v>
       </c>
@@ -27267,7 +27267,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="36" customFormat="1" ht="15.75" thickBot="1">
+    <row r="31" spans="1:10" s="36" customFormat="1" ht="15" thickBot="1">
       <c r="A31" s="35" t="s">
         <v>76</v>
       </c>
@@ -27278,7 +27278,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="36" customFormat="1" ht="15.75" thickBot="1">
+    <row r="32" spans="1:10" s="36" customFormat="1" ht="15" thickBot="1">
       <c r="A32" s="37" t="s">
         <v>10</v>
       </c>
@@ -27293,7 +27293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="36" customFormat="1" ht="15.75" thickBot="1">
+    <row r="33" spans="1:4" s="36" customFormat="1" ht="15" thickBot="1">
       <c r="A33" s="37" t="s">
         <v>11</v>
       </c>
@@ -27310,7 +27310,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="36" customFormat="1" ht="15.75" thickBot="1">
+    <row r="34" spans="1:4" s="36" customFormat="1" ht="15" thickBot="1">
       <c r="A34" s="37" t="s">
         <v>321</v>
       </c>
@@ -27347,12 +27347,12 @@
       <selection activeCell="B28" sqref="B28:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -27366,7 +27366,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -27387,7 +27387,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -27408,7 +27408,7 @@
         <v>0.92622883301508352</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1">
+    <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>341</v>
       </c>
@@ -27427,7 +27427,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1">
+    <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -27446,8 +27446,8 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="7" spans="1:10" ht="15" thickBot="1"/>
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -27468,7 +27468,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -27492,7 +27492,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+    <row r="10" spans="1:10" ht="15" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -27521,7 +27521,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1">
+    <row r="11" spans="1:10" ht="15" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>341</v>
       </c>
@@ -27550,7 +27550,7 @@
         <v>2086.0000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1">
+    <row r="12" spans="1:10" ht="15" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>343</v>
       </c>
@@ -27590,7 +27590,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
@@ -27613,7 +27613,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
@@ -27643,7 +27643,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1">
+    <row r="17" spans="1:10" ht="15" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -27678,7 +27678,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
+    <row r="18" spans="1:10" ht="15" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>320</v>
       </c>
@@ -27702,7 +27702,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1">
+    <row r="19" spans="1:10" ht="15" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>341</v>
       </c>
@@ -27732,7 +27732,7 @@
       </c>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:10" ht="27" thickBot="1">
+    <row r="20" spans="1:10" ht="26.5" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>344</v>
       </c>
@@ -27779,8 +27779,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="24" spans="1:10" ht="27" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1"/>
+    <row r="24" spans="1:10" ht="26.5" thickBot="1">
       <c r="A24" s="9" t="s">
         <v>85</v>
       </c>
@@ -27793,7 +27793,7 @@
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1">
+    <row r="25" spans="1:10" ht="15" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
@@ -27809,7 +27809,7 @@
       </c>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
+    <row r="26" spans="1:10" ht="15" thickBot="1">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
@@ -27827,7 +27827,7 @@
       </c>
       <c r="E26" s="20"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1">
+    <row r="27" spans="1:10" ht="15" thickBot="1">
       <c r="A27" s="5" t="s">
         <v>320</v>
       </c>
@@ -27843,7 +27843,7 @@
       </c>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1">
+    <row r="28" spans="1:10" ht="15" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>341</v>
       </c>
@@ -27861,7 +27861,7 @@
       </c>
       <c r="E28" s="20"/>
     </row>
-    <row r="29" spans="1:10" ht="27" thickBot="1">
+    <row r="29" spans="1:10" ht="26.5" thickBot="1">
       <c r="A29" s="5" t="s">
         <v>344</v>
       </c>
@@ -27895,9 +27895,9 @@
       <selection activeCell="B22" sqref="B22:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -27911,7 +27911,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="15" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -27932,7 +27932,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1">
+    <row r="3" spans="1:10" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -27953,7 +27953,7 @@
         <v>0.92970833595125124</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" thickBot="1">
+    <row r="4" spans="1:10" ht="26.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -27972,8 +27972,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+    <row r="6" spans="1:10" ht="15" thickBot="1"/>
+    <row r="7" spans="1:10" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -27994,7 +27994,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+    <row r="8" spans="1:10" ht="15" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -28018,7 +28018,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1">
+    <row r="9" spans="1:10" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -28047,7 +28047,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" thickBot="1">
+    <row r="10" spans="1:10" ht="26.5" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -28087,7 +28087,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="27" thickBot="1">
+    <row r="14" spans="1:10" ht="26.5" thickBot="1">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -28116,7 +28116,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1">
+    <row r="15" spans="1:10" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -28146,7 +28146,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+    <row r="16" spans="1:10" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -28181,7 +28181,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="27" thickBot="1">
+    <row r="17" spans="1:10" ht="26.5" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -28239,7 +28239,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1">
+    <row r="21" spans="1:10" ht="15" thickBot="1">
       <c r="A21" s="13" t="s">
         <v>76</v>
       </c>
@@ -28253,7 +28253,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1">
+    <row r="22" spans="1:10" ht="15" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -28271,7 +28271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1">
+    <row r="23" spans="1:10" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -28298,7 +28298,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="27" thickBot="1">
+    <row r="24" spans="1:10" ht="26.5" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>12</v>
       </c>
@@ -28364,13 +28364,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1">
+    <row r="1" spans="1:13" ht="15" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
@@ -28384,7 +28384,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:13" ht="27" thickBot="1">
+    <row r="2" spans="1:13" ht="26.5" thickBot="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -28405,7 +28405,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
+    <row r="3" spans="1:13" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -28426,7 +28426,7 @@
         <v>0.9267197256851698</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="27" thickBot="1">
+    <row r="4" spans="1:13" ht="26.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -28445,8 +28445,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1">
+    <row r="6" spans="1:13" ht="15" thickBot="1"/>
+    <row r="7" spans="1:13" ht="15" thickBot="1">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -28467,7 +28467,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:13" ht="27" thickBot="1">
+    <row r="8" spans="1:13" ht="26.5" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -28491,7 +28491,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1">
+    <row r="9" spans="1:13" ht="15" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -28520,7 +28520,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="27" thickBot="1">
+    <row r="10" spans="1:13" ht="26.5" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -28560,7 +28560,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="27" thickBot="1">
+    <row r="13" spans="1:13" ht="26.5" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
@@ -28589,7 +28589,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="27" thickBot="1">
+    <row r="14" spans="1:13" ht="26.5" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
@@ -28620,7 +28620,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1">
+    <row r="15" spans="1:13" ht="15" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
@@ -28656,7 +28656,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="27" thickBot="1">
+    <row r="16" spans="1:13" ht="26.5" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>320</v>
       </c>
@@ -28687,7 +28687,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="39.75" thickBot="1">
+    <row r="17" spans="1:13" ht="39" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>321</v>
       </c>
@@ -28738,8 +28738,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1"/>
-    <row r="21" spans="1:13" ht="27" thickBot="1">
+    <row r="20" spans="1:13" ht="15" thickBot="1"/>
+    <row r="21" spans="1:13" ht="26.5" thickBot="1">
       <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
@@ -28754,7 +28754,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="27" thickBot="1">
+    <row r="22" spans="1:13" ht="26.5" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -28769,7 +28769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1">
+    <row r="23" spans="1:13" ht="15" thickBot="1">
       <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
@@ -28786,7 +28786,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="39.75" thickBot="1">
+    <row r="24" spans="1:13" ht="39" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>89</v>
       </c>
@@ -28811,12 +28811,12 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1">
+    <row r="29" spans="1:13" ht="15" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="27" thickBot="1">
+    <row r="30" spans="1:13" ht="26.5" thickBot="1">
       <c r="A30" s="9" t="s">
         <v>85</v>
       </c>
@@ -28829,7 +28829,7 @@
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
     </row>
-    <row r="31" spans="1:13" ht="27" thickBot="1">
+    <row r="31" spans="1:13" ht="26.5" thickBot="1">
       <c r="A31" s="5" t="s">
         <v>10</v>
       </c>
@@ -28845,7 +28845,7 @@
       </c>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1">
+    <row r="32" spans="1:13" ht="15" thickBot="1">
       <c r="A32" s="5" t="s">
         <v>11</v>
       </c>
@@ -28863,7 +28863,7 @@
       </c>
       <c r="E32" s="20"/>
     </row>
-    <row r="33" spans="1:5" ht="39.75" thickBot="1">
+    <row r="33" spans="1:5" ht="39" thickBot="1">
       <c r="A33" s="5" t="s">
         <v>89</v>
       </c>
